--- a/src/test/resources/test_descriptions/Thesaurus-TestCases.xlsx
+++ b/src/test/resources/test_descriptions/Thesaurus-TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932D919-B6E2-490B-8787-BC6C3F57D9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8947C34-B043-47F2-A527-E2D841A4F4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="322">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -659,13 +659,6 @@
     <t>3. User press F icon for facebook application</t>
   </si>
   <si>
-    <t>4. User logs into facebook account using correct username and password</t>
-  </si>
-  <si>
-    <t>5. User is redirected to Thesaurus.com
-@thesauruscom  · Education website facebook page</t>
-  </si>
-  <si>
     <t>Homepage - Footer - Facebook</t>
   </si>
   <si>
@@ -675,13 +668,6 @@
     <t xml:space="preserve">The aim is to verify that user is routed to Twitter page for Thesaurus.com </t>
   </si>
   <si>
-    <t>4. User logs into Twitter account using correct username and password</t>
-  </si>
-  <si>
-    <t>5. User is redirected to Thesaurus.com
-@thesauruscom  · Education website twitter page</t>
-  </si>
-  <si>
     <t>Homepage - Footer - Instagram</t>
   </si>
   <si>
@@ -694,24 +680,10 @@
     <t>3. User press camera icon for instagram application</t>
   </si>
   <si>
-    <t>4. User logs into instagram account using correct username and password</t>
-  </si>
-  <si>
-    <t>5. User is redirected to Thesaurus.com
-@thesauruscom  · Education website instagram page</t>
-  </si>
-  <si>
     <t>Homepage - Footer - Pinterest</t>
   </si>
   <si>
     <t xml:space="preserve">The aim is to verify that user is routed to Pinterest page for Thesaurus.com </t>
-  </si>
-  <si>
-    <t>5. User is redirected to Thesaurus.com
-@thesauruscom  · Education website Pinterest page</t>
-  </si>
-  <si>
-    <t>4. User logs into Pinterest account using correct username and password</t>
   </si>
   <si>
     <t>3. User press P icon for Pinterest application</t>
@@ -1108,6 +1080,20 @@
   </si>
   <si>
     <t>3. Veify that user is presented with word 'acrobat' synonym under the header SYNONYMS FOR acrobat</t>
+  </si>
+  <si>
+    <t>4. User is redirected to Thesaurus.com
+@thesauruscom facebook page</t>
+  </si>
+  <si>
+    <t>4. User is redirected to Thesaurus.com
+@thesauruscom twitter page</t>
+  </si>
+  <si>
+    <t>4. User is redirected to Thesaurus.com instagram page</t>
+  </si>
+  <si>
+    <t>4. User is redirected to Thesaurus.com Pinterest page</t>
   </si>
 </sst>
 </file>
@@ -2234,17 +2220,11 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2257,11 +2237,8 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2275,10 +2252,28 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2296,12 +2291,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2309,14 +2298,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2446,9 +2435,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2686,8 +2672,8 @@
   <dimension ref="A1:X1134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2735,26 +2721,26 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="159" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="142" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="145" t="s">
+      <c r="B3" s="161" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="139" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="142" t="s">
         <v>121</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -2777,10 +2763,10 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="143"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="7" t="s">
         <v>123</v>
       </c>
@@ -2801,15 +2787,15 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="143"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
       <c r="E5" s="9" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2827,10 +2813,10 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="143"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
@@ -2849,10 +2835,10 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="143"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
@@ -2871,10 +2857,10 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="143"/>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
@@ -2893,10 +2879,10 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="143"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
@@ -2915,10 +2901,10 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="143"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
@@ -2937,10 +2923,10 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="143"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
@@ -2959,10 +2945,10 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="144"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="3"/>
@@ -2981,16 +2967,16 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="159" t="s">
+      <c r="B13" s="161" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="142" t="s">
         <v>121</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -3013,15 +2999,15 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="143"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
       <c r="E14" s="105" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F14" s="109" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3039,10 +3025,10 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="143"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="7" t="s">
         <v>154</v>
       </c>
@@ -3065,10 +3051,10 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
@@ -3087,10 +3073,10 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="143"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="3"/>
@@ -3109,10 +3095,10 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="143"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
       <c r="G18" s="3"/>
@@ -3131,10 +3117,10 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="143"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
       <c r="G19" s="3"/>
@@ -3153,10 +3139,10 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="143"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
       <c r="G20" s="3"/>
@@ -3175,10 +3161,10 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="143"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
       <c r="G21" s="3"/>
@@ -3197,10 +3183,10 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="143"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
       <c r="G22" s="3"/>
@@ -3219,10 +3205,10 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="143"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="3"/>
@@ -3241,10 +3227,10 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="143"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
       <c r="G24" s="3"/>
@@ -3263,10 +3249,10 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="143"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="3"/>
@@ -3285,10 +3271,10 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="143"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
       <c r="G26" s="3"/>
@@ -3307,16 +3293,16 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="170" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="166" t="s">
+      <c r="D27" s="167" t="s">
         <v>121</v>
       </c>
       <c r="E27" s="106" t="s">
@@ -3339,10 +3325,10 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="143"/>
-      <c r="B28" s="170"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="167"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="171"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="168"/>
       <c r="E28" s="107" t="s">
         <v>130</v>
       </c>
@@ -3365,10 +3351,10 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="143"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="167"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="168"/>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
@@ -3387,10 +3373,10 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="143"/>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="167"/>
+      <c r="A30" s="140"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="168"/>
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
       <c r="G30" s="4"/>
@@ -3409,10 +3395,10 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="143"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="167"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="168"/>
       <c r="E31" s="18"/>
       <c r="F31" s="19"/>
       <c r="G31" s="4"/>
@@ -3431,10 +3417,10 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="143"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="167"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="168"/>
       <c r="E32" s="18"/>
       <c r="F32" s="19"/>
       <c r="G32" s="4"/>
@@ -3453,10 +3439,10 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="143"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="167"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="18"/>
       <c r="F33" s="19"/>
       <c r="G33" s="4"/>
@@ -3475,10 +3461,10 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="144"/>
-      <c r="B34" s="171"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="168"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
       <c r="G34" s="4"/>
@@ -3497,16 +3483,16 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="158" t="s">
+      <c r="A35" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="159" t="s">
+      <c r="B35" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="142" t="s">
+      <c r="C35" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="173" t="s">
+      <c r="D35" s="174" t="s">
         <v>121</v>
       </c>
       <c r="E35" s="106" t="s">
@@ -3529,15 +3515,15 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="143"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="174"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="140"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="105" t="s">
         <v>134</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3555,12 +3541,12 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="143"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="174"/>
+      <c r="A37" s="140"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="105" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="4"/>
@@ -3579,15 +3565,15 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="143"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="174"/>
+      <c r="A38" s="140"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="105" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F38" s="130" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -3605,10 +3591,10 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="143"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="174"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="175"/>
       <c r="E39" s="13"/>
       <c r="F39" s="19"/>
       <c r="G39" s="4"/>
@@ -3627,10 +3613,10 @@
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="144"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="175"/>
+      <c r="A40" s="141"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="176"/>
       <c r="E40" s="22"/>
       <c r="F40" s="23"/>
       <c r="G40" s="4"/>
@@ -3649,20 +3635,20 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" ht="132.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="177" t="s">
+      <c r="B41" s="178" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="179" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="179" t="s">
+      <c r="D41" s="180" t="s">
         <v>121</v>
       </c>
       <c r="E41" s="110" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F41" s="111" t="s">
         <v>137</v>
@@ -3684,9 +3670,9 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="132"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
+      <c r="B42" s="140"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
       <c r="E42" s="24"/>
       <c r="F42" s="25"/>
       <c r="G42" s="4"/>
@@ -3706,9 +3692,9 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="132"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
       <c r="E43" s="24"/>
       <c r="F43" s="25"/>
       <c r="G43" s="4"/>
@@ -3728,9 +3714,9 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="132"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
       <c r="E44" s="24"/>
       <c r="F44" s="25"/>
       <c r="G44" s="4"/>
@@ -3750,9 +3736,9 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="132"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
       <c r="E45" s="24"/>
       <c r="F45" s="25"/>
       <c r="G45" s="4"/>
@@ -3772,9 +3758,9 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="132"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="4"/>
@@ -3794,9 +3780,9 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="132"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
       <c r="E47" s="24"/>
       <c r="F47" s="25"/>
       <c r="G47" s="4"/>
@@ -3816,9 +3802,9 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="132"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
       <c r="E48" s="24"/>
       <c r="F48" s="25"/>
       <c r="G48" s="4"/>
@@ -3838,9 +3824,9 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="132"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="143"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
       <c r="E49" s="24"/>
       <c r="F49" s="25"/>
       <c r="G49" s="4"/>
@@ -3860,9 +3846,9 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="132"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
       <c r="E50" s="24"/>
       <c r="F50" s="25"/>
       <c r="G50" s="4"/>
@@ -3882,9 +3868,9 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="133"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="141"/>
       <c r="E51" s="26"/>
       <c r="F51" s="27"/>
       <c r="G51" s="4"/>
@@ -3903,16 +3889,16 @@
       <c r="T51" s="4"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="131" t="s">
+      <c r="A52" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="159" t="s">
+      <c r="B52" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="142" t="s">
+      <c r="C52" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="145" t="s">
+      <c r="D52" s="142" t="s">
         <v>121</v>
       </c>
       <c r="E52" s="28"/>
@@ -3934,9 +3920,9 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="132"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="143"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
       <c r="E53" s="24" t="s">
         <v>139</v>
       </c>
@@ -3958,9 +3944,9 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="132"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143"/>
-      <c r="D54" s="143"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
       <c r="E54" s="24"/>
       <c r="F54" s="25"/>
       <c r="G54" s="4"/>
@@ -3980,9 +3966,9 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="132"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
       <c r="E55" s="24" t="s">
         <v>141</v>
       </c>
@@ -4004,9 +3990,9 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="132"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
       <c r="E56" s="24"/>
       <c r="F56" s="25"/>
       <c r="G56" s="4"/>
@@ -4026,11 +4012,11 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="132"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="138" t="s">
-        <v>318</v>
+      <c r="B57" s="140"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="136" t="s">
+        <v>310</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>156</v>
@@ -4052,10 +4038,10 @@
     </row>
     <row r="58" spans="1:20" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="133"/>
-      <c r="B58" s="144"/>
-      <c r="C58" s="144"/>
-      <c r="D58" s="144"/>
-      <c r="E58" s="139"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="27"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4073,16 +4059,16 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="131" t="s">
+      <c r="A59" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="159" t="s">
+      <c r="B59" s="161" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="142" t="s">
+      <c r="C59" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="145" t="s">
+      <c r="D59" s="142" t="s">
         <v>121</v>
       </c>
       <c r="E59" s="28" t="s">
@@ -4106,9 +4092,9 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="132"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="143"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
       <c r="E60" s="24" t="s">
         <v>144</v>
       </c>
@@ -4130,11 +4116,11 @@
     </row>
     <row r="61" spans="1:20" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A61" s="132"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
       <c r="E61" s="113" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>156</v>
@@ -4156,9 +4142,9 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="132"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="143"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
       <c r="E62" s="24"/>
       <c r="F62" s="25"/>
       <c r="G62" s="4"/>
@@ -4178,9 +4164,9 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="132"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="143"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
       <c r="E63" s="24"/>
       <c r="F63" s="25"/>
       <c r="G63" s="4"/>
@@ -4200,9 +4186,9 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="133"/>
-      <c r="B64" s="144"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="141"/>
       <c r="E64" s="26"/>
       <c r="F64" s="27"/>
       <c r="G64" s="4"/>
@@ -4221,16 +4207,16 @@
       <c r="T64" s="4"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="131" t="s">
+      <c r="A65" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="159" t="s">
+      <c r="B65" s="161" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="142" t="s">
+      <c r="C65" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="145" t="s">
+      <c r="D65" s="142" t="s">
         <v>121</v>
       </c>
       <c r="E65" s="28" t="s">
@@ -4254,9 +4240,9 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="132"/>
-      <c r="B66" s="143"/>
-      <c r="C66" s="143"/>
-      <c r="D66" s="143"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="140"/>
       <c r="E66" s="24" t="s">
         <v>147</v>
       </c>
@@ -4278,11 +4264,11 @@
     </row>
     <row r="67" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="132"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="140" t="s">
-        <v>320</v>
+      <c r="B67" s="140"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="140"/>
+      <c r="E67" s="146" t="s">
+        <v>312</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="4"/>
@@ -4302,10 +4288,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="132"/>
-      <c r="B68" s="143"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="212"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="147"/>
       <c r="F68" s="25"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -4324,10 +4310,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="132"/>
-      <c r="B69" s="143"/>
-      <c r="C69" s="143"/>
-      <c r="D69" s="143"/>
-      <c r="E69" s="212"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="147"/>
       <c r="F69" s="25"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -4346,10 +4332,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="132"/>
-      <c r="B70" s="143"/>
-      <c r="C70" s="143"/>
-      <c r="D70" s="143"/>
-      <c r="E70" s="212"/>
+      <c r="B70" s="140"/>
+      <c r="C70" s="140"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="147"/>
       <c r="F70" s="25"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -4368,10 +4354,10 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="132"/>
-      <c r="B71" s="143"/>
-      <c r="C71" s="143"/>
-      <c r="D71" s="143"/>
-      <c r="E71" s="212"/>
+      <c r="B71" s="140"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="147"/>
       <c r="F71" s="25"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -4390,10 +4376,10 @@
     </row>
     <row r="72" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="132"/>
-      <c r="B72" s="143"/>
-      <c r="C72" s="143"/>
-      <c r="D72" s="143"/>
-      <c r="E72" s="141"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="148"/>
       <c r="F72" s="25"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -4412,9 +4398,9 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="132"/>
-      <c r="B73" s="143"/>
-      <c r="C73" s="143"/>
-      <c r="D73" s="143"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="140"/>
       <c r="E73" s="24"/>
       <c r="F73" s="25"/>
       <c r="G73" s="4"/>
@@ -4434,9 +4420,9 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="133"/>
-      <c r="B74" s="144"/>
-      <c r="C74" s="144"/>
-      <c r="D74" s="144"/>
+      <c r="B74" s="141"/>
+      <c r="C74" s="141"/>
+      <c r="D74" s="141"/>
       <c r="E74" s="26"/>
       <c r="F74" s="27"/>
       <c r="G74" s="4"/>
@@ -4455,16 +4441,16 @@
       <c r="T74" s="4"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="158" t="s">
+      <c r="A75" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="159" t="s">
+      <c r="B75" s="161" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="142" t="s">
+      <c r="C75" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="145" t="s">
+      <c r="D75" s="142" t="s">
         <v>121</v>
       </c>
       <c r="E75" s="28" t="s">
@@ -4487,10 +4473,10 @@
       <c r="T75" s="4"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="143"/>
-      <c r="B76" s="143"/>
-      <c r="C76" s="143"/>
-      <c r="D76" s="143"/>
+      <c r="A76" s="140"/>
+      <c r="B76" s="140"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="140"/>
       <c r="E76" s="24" t="s">
         <v>150</v>
       </c>
@@ -4511,12 +4497,12 @@
       <c r="T76" s="4"/>
     </row>
     <row r="77" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A77" s="143"/>
-      <c r="B77" s="143"/>
-      <c r="C77" s="143"/>
-      <c r="D77" s="143"/>
+      <c r="A77" s="140"/>
+      <c r="B77" s="140"/>
+      <c r="C77" s="140"/>
+      <c r="D77" s="140"/>
       <c r="E77" s="113" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" s="4"/>
@@ -4535,10 +4521,10 @@
       <c r="T77" s="4"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="143"/>
-      <c r="B78" s="143"/>
-      <c r="C78" s="143"/>
-      <c r="D78" s="143"/>
+      <c r="A78" s="140"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="140"/>
       <c r="E78" s="24"/>
       <c r="F78" s="25"/>
       <c r="G78" s="4"/>
@@ -4557,10 +4543,10 @@
       <c r="T78" s="4"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="143"/>
-      <c r="B79" s="143"/>
-      <c r="C79" s="143"/>
-      <c r="D79" s="143"/>
+      <c r="A79" s="140"/>
+      <c r="B79" s="140"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="140"/>
       <c r="E79" s="24"/>
       <c r="F79" s="25"/>
       <c r="G79" s="4"/>
@@ -4579,10 +4565,10 @@
       <c r="T79" s="4"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="143"/>
-      <c r="B80" s="143"/>
-      <c r="C80" s="143"/>
-      <c r="D80" s="143"/>
+      <c r="A80" s="140"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="140"/>
+      <c r="D80" s="140"/>
       <c r="E80" s="24"/>
       <c r="F80" s="25"/>
       <c r="G80" s="4"/>
@@ -4601,10 +4587,10 @@
       <c r="T80" s="4"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="143"/>
-      <c r="B81" s="143"/>
-      <c r="C81" s="143"/>
-      <c r="D81" s="143"/>
+      <c r="A81" s="140"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="140"/>
       <c r="E81" s="24"/>
       <c r="F81" s="25"/>
       <c r="G81" s="4"/>
@@ -4623,10 +4609,10 @@
       <c r="T81" s="4"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="143"/>
-      <c r="B82" s="143"/>
-      <c r="C82" s="143"/>
-      <c r="D82" s="143"/>
+      <c r="A82" s="140"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="4"/>
@@ -4645,10 +4631,10 @@
       <c r="T82" s="4"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="143"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="143"/>
+      <c r="A83" s="140"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
       <c r="E83" s="24"/>
       <c r="F83" s="25"/>
       <c r="G83" s="4"/>
@@ -4667,10 +4653,10 @@
       <c r="T83" s="4"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84" s="143"/>
-      <c r="B84" s="143"/>
-      <c r="C84" s="143"/>
-      <c r="D84" s="143"/>
+      <c r="A84" s="140"/>
+      <c r="B84" s="140"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="140"/>
       <c r="E84" s="24"/>
       <c r="F84" s="25"/>
       <c r="G84" s="4"/>
@@ -4689,10 +4675,10 @@
       <c r="T84" s="4"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85" s="143"/>
-      <c r="B85" s="143"/>
-      <c r="C85" s="143"/>
-      <c r="D85" s="143"/>
+      <c r="A85" s="140"/>
+      <c r="B85" s="140"/>
+      <c r="C85" s="140"/>
+      <c r="D85" s="140"/>
       <c r="E85" s="24"/>
       <c r="F85" s="25"/>
       <c r="G85" s="4"/>
@@ -4711,10 +4697,10 @@
       <c r="T85" s="4"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="144"/>
-      <c r="B86" s="144"/>
-      <c r="C86" s="144"/>
-      <c r="D86" s="144"/>
+      <c r="A86" s="141"/>
+      <c r="B86" s="141"/>
+      <c r="C86" s="141"/>
+      <c r="D86" s="141"/>
       <c r="E86" s="26"/>
       <c r="F86" s="27"/>
       <c r="G86" s="4"/>
@@ -4733,16 +4719,16 @@
       <c r="T86" s="4"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="158" t="s">
+      <c r="A87" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="159" t="s">
+      <c r="B87" s="161" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="142" t="s">
+      <c r="C87" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="D87" s="145" t="s">
+      <c r="D87" s="142" t="s">
         <v>121</v>
       </c>
       <c r="E87" s="28" t="s">
@@ -4765,10 +4751,10 @@
       <c r="T87" s="4"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="143"/>
-      <c r="B88" s="143"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="143"/>
+      <c r="A88" s="140"/>
+      <c r="B88" s="140"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="140"/>
       <c r="E88" s="24" t="s">
         <v>153</v>
       </c>
@@ -4789,12 +4775,12 @@
       <c r="T88" s="4"/>
     </row>
     <row r="89" spans="1:20" ht="66" x14ac:dyDescent="0.3">
-      <c r="A89" s="143"/>
-      <c r="B89" s="143"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="143"/>
+      <c r="A89" s="140"/>
+      <c r="B89" s="140"/>
+      <c r="C89" s="140"/>
+      <c r="D89" s="140"/>
       <c r="E89" s="112" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F89" s="30"/>
       <c r="G89" s="4"/>
@@ -4813,10 +4799,10 @@
       <c r="T89" s="4"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="143"/>
-      <c r="B90" s="143"/>
-      <c r="C90" s="143"/>
-      <c r="D90" s="143"/>
+      <c r="A90" s="140"/>
+      <c r="B90" s="140"/>
+      <c r="C90" s="140"/>
+      <c r="D90" s="140"/>
       <c r="E90" s="24"/>
       <c r="F90" s="25"/>
       <c r="G90" s="4"/>
@@ -4835,10 +4821,10 @@
       <c r="T90" s="4"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="143"/>
-      <c r="B91" s="143"/>
-      <c r="C91" s="143"/>
-      <c r="D91" s="143"/>
+      <c r="A91" s="140"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
       <c r="E91" s="24"/>
       <c r="F91" s="25"/>
       <c r="G91" s="4"/>
@@ -4857,10 +4843,10 @@
       <c r="T91" s="4"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" s="143"/>
-      <c r="B92" s="143"/>
-      <c r="C92" s="143"/>
-      <c r="D92" s="143"/>
+      <c r="A92" s="140"/>
+      <c r="B92" s="140"/>
+      <c r="C92" s="140"/>
+      <c r="D92" s="140"/>
       <c r="E92" s="24"/>
       <c r="F92" s="25"/>
       <c r="G92" s="4"/>
@@ -4879,10 +4865,10 @@
       <c r="T92" s="4"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A93" s="143"/>
-      <c r="B93" s="143"/>
-      <c r="C93" s="143"/>
-      <c r="D93" s="143"/>
+      <c r="A93" s="140"/>
+      <c r="B93" s="140"/>
+      <c r="C93" s="140"/>
+      <c r="D93" s="140"/>
       <c r="E93" s="24"/>
       <c r="F93" s="25"/>
       <c r="G93" s="4"/>
@@ -4901,10 +4887,10 @@
       <c r="T93" s="4"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="143"/>
-      <c r="B94" s="143"/>
-      <c r="C94" s="143"/>
-      <c r="D94" s="143"/>
+      <c r="A94" s="140"/>
+      <c r="B94" s="140"/>
+      <c r="C94" s="140"/>
+      <c r="D94" s="140"/>
       <c r="E94" s="24"/>
       <c r="F94" s="25"/>
       <c r="G94" s="4"/>
@@ -4923,10 +4909,10 @@
       <c r="T94" s="4"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="143"/>
-      <c r="B95" s="143"/>
-      <c r="C95" s="143"/>
-      <c r="D95" s="143"/>
+      <c r="A95" s="140"/>
+      <c r="B95" s="140"/>
+      <c r="C95" s="140"/>
+      <c r="D95" s="140"/>
       <c r="E95" s="24"/>
       <c r="F95" s="25"/>
       <c r="G95" s="4"/>
@@ -4945,10 +4931,10 @@
       <c r="T95" s="4"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="143"/>
-      <c r="B96" s="143"/>
-      <c r="C96" s="143"/>
-      <c r="D96" s="143"/>
+      <c r="A96" s="140"/>
+      <c r="B96" s="140"/>
+      <c r="C96" s="140"/>
+      <c r="D96" s="140"/>
       <c r="E96" s="24"/>
       <c r="F96" s="25"/>
       <c r="G96" s="4"/>
@@ -4967,10 +4953,10 @@
       <c r="T96" s="4"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="143"/>
-      <c r="B97" s="143"/>
-      <c r="C97" s="143"/>
-      <c r="D97" s="143"/>
+      <c r="A97" s="140"/>
+      <c r="B97" s="140"/>
+      <c r="C97" s="140"/>
+      <c r="D97" s="140"/>
       <c r="E97" s="24"/>
       <c r="F97" s="25"/>
       <c r="G97" s="4"/>
@@ -4989,10 +4975,10 @@
       <c r="T97" s="4"/>
     </row>
     <row r="98" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="144"/>
-      <c r="B98" s="144"/>
-      <c r="C98" s="144"/>
-      <c r="D98" s="144"/>
+      <c r="A98" s="141"/>
+      <c r="B98" s="141"/>
+      <c r="C98" s="141"/>
+      <c r="D98" s="141"/>
       <c r="E98" s="26"/>
       <c r="F98" s="27"/>
       <c r="G98" s="4"/>
@@ -5011,16 +4997,16 @@
       <c r="T98" s="4"/>
     </row>
     <row r="99" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="158" t="s">
+      <c r="A99" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="159" t="s">
+      <c r="B99" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="142" t="s">
+      <c r="C99" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="D99" s="145" t="s">
+      <c r="D99" s="142" t="s">
         <v>121</v>
       </c>
       <c r="E99" s="28" t="s">
@@ -5043,10 +5029,10 @@
       <c r="T99" s="4"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A100" s="143"/>
-      <c r="B100" s="143"/>
-      <c r="C100" s="143"/>
-      <c r="D100" s="143"/>
+      <c r="A100" s="140"/>
+      <c r="B100" s="140"/>
+      <c r="C100" s="140"/>
+      <c r="D100" s="140"/>
       <c r="E100" s="24" t="s">
         <v>159</v>
       </c>
@@ -5067,10 +5053,10 @@
       <c r="T100" s="4"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A101" s="143"/>
-      <c r="B101" s="143"/>
-      <c r="C101" s="143"/>
-      <c r="D101" s="143"/>
+      <c r="A101" s="140"/>
+      <c r="B101" s="140"/>
+      <c r="C101" s="140"/>
+      <c r="D101" s="140"/>
       <c r="E101" s="24"/>
       <c r="F101" s="25"/>
       <c r="G101" s="4"/>
@@ -5089,10 +5075,10 @@
       <c r="T101" s="4"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A102" s="143"/>
-      <c r="B102" s="143"/>
-      <c r="C102" s="143"/>
-      <c r="D102" s="143"/>
+      <c r="A102" s="140"/>
+      <c r="B102" s="140"/>
+      <c r="C102" s="140"/>
+      <c r="D102" s="140"/>
       <c r="E102" s="24" t="s">
         <v>160</v>
       </c>
@@ -5113,10 +5099,10 @@
       <c r="T102" s="4"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="143"/>
-      <c r="B103" s="143"/>
-      <c r="C103" s="143"/>
-      <c r="D103" s="143"/>
+      <c r="A103" s="140"/>
+      <c r="B103" s="140"/>
+      <c r="C103" s="140"/>
+      <c r="D103" s="140"/>
       <c r="E103" s="24" t="s">
         <v>161</v>
       </c>
@@ -5139,10 +5125,10 @@
       <c r="T103" s="4"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="143"/>
-      <c r="B104" s="143"/>
-      <c r="C104" s="143"/>
-      <c r="D104" s="143"/>
+      <c r="A104" s="140"/>
+      <c r="B104" s="140"/>
+      <c r="C104" s="140"/>
+      <c r="D104" s="140"/>
       <c r="E104" s="24"/>
       <c r="F104" s="25"/>
       <c r="G104" s="4"/>
@@ -5161,10 +5147,10 @@
       <c r="T104" s="4"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="143"/>
-      <c r="B105" s="143"/>
-      <c r="C105" s="143"/>
-      <c r="D105" s="143"/>
+      <c r="A105" s="140"/>
+      <c r="B105" s="140"/>
+      <c r="C105" s="140"/>
+      <c r="D105" s="140"/>
       <c r="E105" s="24"/>
       <c r="F105" s="25"/>
       <c r="G105" s="4"/>
@@ -5183,10 +5169,10 @@
       <c r="T105" s="4"/>
     </row>
     <row r="106" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="144"/>
-      <c r="B106" s="144"/>
-      <c r="C106" s="144"/>
-      <c r="D106" s="144"/>
+      <c r="A106" s="141"/>
+      <c r="B106" s="141"/>
+      <c r="C106" s="141"/>
+      <c r="D106" s="141"/>
       <c r="E106" s="26"/>
       <c r="F106" s="27"/>
       <c r="G106" s="4"/>
@@ -5205,16 +5191,16 @@
       <c r="T106" s="4"/>
     </row>
     <row r="107" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="131" t="s">
+      <c r="A107" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="134" t="s">
+      <c r="B107" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="C107" s="135" t="s">
+      <c r="C107" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="136" t="s">
+      <c r="D107" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E107" s="31" t="s">
@@ -5378,9 +5364,9 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="133"/>
-      <c r="B114" s="161"/>
-      <c r="C114" s="161"/>
-      <c r="D114" s="161"/>
+      <c r="B114" s="162"/>
+      <c r="C114" s="162"/>
+      <c r="D114" s="162"/>
       <c r="E114" s="35"/>
       <c r="F114" s="36"/>
       <c r="G114" s="4"/>
@@ -5399,16 +5385,16 @@
       <c r="T114" s="4"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A115" s="131" t="s">
+      <c r="A115" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="B115" s="134" t="s">
+      <c r="B115" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="C115" s="135" t="s">
+      <c r="C115" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="D115" s="136" t="s">
+      <c r="D115" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E115" s="31" t="s">
@@ -5506,10 +5492,10 @@
       <c r="C119" s="132"/>
       <c r="D119" s="132"/>
       <c r="E119" s="112" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F119" s="115" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -5637,16 +5623,16 @@
       <c r="T124" s="4"/>
     </row>
     <row r="125" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="131" t="s">
+      <c r="A125" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="B125" s="134" t="s">
+      <c r="B125" s="138" t="s">
         <v>182</v>
       </c>
-      <c r="C125" s="135" t="s">
+      <c r="C125" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="D125" s="136" t="s">
+      <c r="D125" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E125" s="31" t="s">
@@ -5698,7 +5684,7 @@
       <c r="C127" s="132"/>
       <c r="D127" s="132"/>
       <c r="E127" s="112" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F127" s="25"/>
       <c r="G127" s="4"/>
@@ -5893,16 +5879,16 @@
       <c r="T135" s="4"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A136" s="131" t="s">
+      <c r="A136" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B136" s="134" t="s">
+      <c r="B136" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C136" s="135" t="s">
+      <c r="C136" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="D136" s="136" t="s">
+      <c r="D136" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E136" s="31" t="s">
@@ -6005,7 +5991,7 @@
         <v>178</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
@@ -6157,16 +6143,16 @@
       <c r="T146" s="4"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A147" s="131" t="s">
+      <c r="A147" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="B147" s="134" t="s">
-        <v>309</v>
-      </c>
-      <c r="C147" s="135" t="s">
-        <v>232</v>
-      </c>
-      <c r="D147" s="136" t="s">
+      <c r="B147" s="138" t="s">
+        <v>301</v>
+      </c>
+      <c r="C147" s="131" t="s">
+        <v>224</v>
+      </c>
+      <c r="D147" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E147" s="31" t="s">
@@ -6439,16 +6425,16 @@
       <c r="T158" s="4"/>
     </row>
     <row r="159" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="131" t="s">
+      <c r="A159" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="B159" s="134" t="s">
+      <c r="B159" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="C159" s="135" t="s">
+      <c r="C159" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="D159" s="136" t="s">
+      <c r="D159" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E159" s="31" t="s">
@@ -6701,16 +6687,16 @@
       <c r="T169" s="4"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="131" t="s">
+      <c r="A170" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="B170" s="134" t="s">
+      <c r="B170" s="138" t="s">
         <v>191</v>
       </c>
-      <c r="C170" s="135" t="s">
+      <c r="C170" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="D170" s="136" t="s">
+      <c r="D170" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E170" s="28"/>
@@ -6967,16 +6953,16 @@
       <c r="T180" s="4"/>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A181" s="131" t="s">
+      <c r="A181" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B181" s="134" t="s">
-        <v>200</v>
-      </c>
-      <c r="C181" s="135" t="s">
+      <c r="B181" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="C181" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="D181" s="136" t="s">
+      <c r="D181" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E181" s="37" t="s">
@@ -7051,9 +7037,7 @@
       <c r="B184" s="132"/>
       <c r="C184" s="132"/>
       <c r="D184" s="132"/>
-      <c r="E184" s="116" t="s">
-        <v>198</v>
-      </c>
+      <c r="E184" s="116"/>
       <c r="F184" s="40"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
@@ -7076,7 +7060,7 @@
       <c r="C185" s="132"/>
       <c r="D185" s="132"/>
       <c r="E185" s="116" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="F185" s="40"/>
       <c r="G185" s="4"/>
@@ -7183,16 +7167,16 @@
       <c r="T189" s="4"/>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A190" s="176" t="s">
+      <c r="A190" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="B190" s="156" t="s">
-        <v>201</v>
-      </c>
-      <c r="C190" s="146" t="s">
-        <v>202</v>
-      </c>
-      <c r="D190" s="180" t="s">
+      <c r="B190" s="157" t="s">
+        <v>199</v>
+      </c>
+      <c r="C190" s="149" t="s">
+        <v>200</v>
+      </c>
+      <c r="D190" s="181" t="s">
         <v>121</v>
       </c>
       <c r="E190" s="46"/>
@@ -7266,7 +7250,7 @@
       <c r="C193" s="132"/>
       <c r="D193" s="132"/>
       <c r="E193" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F193" s="25"/>
       <c r="G193" s="4"/>
@@ -7289,9 +7273,7 @@
       <c r="B194" s="132"/>
       <c r="C194" s="132"/>
       <c r="D194" s="132"/>
-      <c r="E194" s="116" t="s">
-        <v>203</v>
-      </c>
+      <c r="E194" s="116"/>
       <c r="F194" s="25"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
@@ -7314,7 +7296,7 @@
       <c r="C195" s="132"/>
       <c r="D195" s="132"/>
       <c r="E195" s="116" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="F195" s="30"/>
       <c r="G195" s="4"/>
@@ -7465,16 +7447,16 @@
       <c r="T201" s="4"/>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A202" s="131" t="s">
+      <c r="A202" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="B202" s="153" t="s">
-        <v>205</v>
-      </c>
-      <c r="C202" s="135" t="s">
-        <v>206</v>
-      </c>
-      <c r="D202" s="136" t="s">
+      <c r="B202" s="143" t="s">
+        <v>201</v>
+      </c>
+      <c r="C202" s="131" t="s">
+        <v>202</v>
+      </c>
+      <c r="D202" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E202" s="37" t="s">
@@ -7526,7 +7508,7 @@
       <c r="C204" s="132"/>
       <c r="D204" s="132"/>
       <c r="E204" s="37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F204" s="25"/>
       <c r="G204" s="4"/>
@@ -7549,9 +7531,7 @@
       <c r="B205" s="132"/>
       <c r="C205" s="132"/>
       <c r="D205" s="132"/>
-      <c r="E205" s="116" t="s">
-        <v>209</v>
-      </c>
+      <c r="E205" s="116"/>
       <c r="F205" s="25"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
@@ -7568,13 +7548,13 @@
       <c r="S205" s="4"/>
       <c r="T205" s="4"/>
     </row>
-    <row r="206" spans="1:20" ht="33" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="132"/>
       <c r="B206" s="132"/>
       <c r="C206" s="132"/>
       <c r="D206" s="132"/>
       <c r="E206" s="116" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="F206" s="25"/>
       <c r="G206" s="4"/>
@@ -7637,16 +7617,16 @@
       <c r="T208" s="4"/>
     </row>
     <row r="209" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="131" t="s">
+      <c r="A209" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="B209" s="153" t="s">
-        <v>211</v>
-      </c>
-      <c r="C209" s="135" t="s">
-        <v>212</v>
-      </c>
-      <c r="D209" s="136" t="s">
+      <c r="B209" s="143" t="s">
+        <v>205</v>
+      </c>
+      <c r="C209" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="D209" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E209" s="37" t="s">
@@ -7669,10 +7649,10 @@
       <c r="T209" s="4"/>
     </row>
     <row r="210" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="148"/>
-      <c r="B210" s="154"/>
-      <c r="C210" s="147"/>
-      <c r="D210" s="137"/>
+      <c r="A210" s="151"/>
+      <c r="B210" s="144"/>
+      <c r="C210" s="145"/>
+      <c r="D210" s="135"/>
       <c r="E210" s="37" t="s">
         <v>196</v>
       </c>
@@ -7693,12 +7673,12 @@
       <c r="T210" s="4"/>
     </row>
     <row r="211" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="148"/>
-      <c r="B211" s="154"/>
-      <c r="C211" s="147"/>
-      <c r="D211" s="137"/>
+      <c r="A211" s="151"/>
+      <c r="B211" s="144"/>
+      <c r="C211" s="145"/>
+      <c r="D211" s="135"/>
       <c r="E211" s="37" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F211" s="47"/>
       <c r="G211" s="4"/>
@@ -7717,13 +7697,11 @@
       <c r="T211" s="4"/>
     </row>
     <row r="212" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="148"/>
-      <c r="B212" s="154"/>
-      <c r="C212" s="147"/>
-      <c r="D212" s="137"/>
-      <c r="E212" s="116" t="s">
-        <v>214</v>
-      </c>
+      <c r="A212" s="151"/>
+      <c r="B212" s="144"/>
+      <c r="C212" s="145"/>
+      <c r="D212" s="135"/>
+      <c r="E212" s="116"/>
       <c r="F212" s="47"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
@@ -7740,13 +7718,13 @@
       <c r="S212" s="4"/>
       <c r="T212" s="4"/>
     </row>
-    <row r="213" spans="1:20" s="103" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A213" s="148"/>
-      <c r="B213" s="154"/>
-      <c r="C213" s="147"/>
-      <c r="D213" s="137"/>
+    <row r="213" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="151"/>
+      <c r="B213" s="144"/>
+      <c r="C213" s="145"/>
+      <c r="D213" s="135"/>
       <c r="E213" s="117" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="F213" s="47"/>
       <c r="G213" s="4"/>
@@ -7809,16 +7787,16 @@
       <c r="T215" s="4"/>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A216" s="131" t="s">
+      <c r="A216" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="B216" s="160" t="s">
-        <v>221</v>
-      </c>
-      <c r="C216" s="152" t="s">
-        <v>216</v>
-      </c>
-      <c r="D216" s="162" t="s">
+      <c r="B216" s="159" t="s">
+        <v>213</v>
+      </c>
+      <c r="C216" s="155" t="s">
+        <v>208</v>
+      </c>
+      <c r="D216" s="163" t="s">
         <v>121</v>
       </c>
       <c r="E216" s="37" t="s">
@@ -7865,12 +7843,12 @@
       <c r="T217" s="4"/>
     </row>
     <row r="218" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="157"/>
-      <c r="B218" s="157"/>
-      <c r="C218" s="157"/>
-      <c r="D218" s="157"/>
+      <c r="A218" s="158"/>
+      <c r="B218" s="158"/>
+      <c r="C218" s="158"/>
+      <c r="D218" s="158"/>
       <c r="E218" s="116" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F218" s="52"/>
       <c r="G218" s="4"/>
@@ -7889,12 +7867,12 @@
       <c r="T218" s="4"/>
     </row>
     <row r="219" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="157"/>
-      <c r="B219" s="157"/>
-      <c r="C219" s="157"/>
-      <c r="D219" s="157"/>
+      <c r="A219" s="158"/>
+      <c r="B219" s="158"/>
+      <c r="C219" s="158"/>
+      <c r="D219" s="158"/>
       <c r="E219" s="116" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F219" s="52"/>
       <c r="G219" s="4"/>
@@ -7913,12 +7891,12 @@
       <c r="T219" s="4"/>
     </row>
     <row r="220" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="157"/>
-      <c r="B220" s="157"/>
-      <c r="C220" s="157"/>
-      <c r="D220" s="157"/>
+      <c r="A220" s="158"/>
+      <c r="B220" s="158"/>
+      <c r="C220" s="158"/>
+      <c r="D220" s="158"/>
       <c r="E220" s="37" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F220" s="52"/>
       <c r="G220" s="4"/>
@@ -7937,12 +7915,12 @@
       <c r="T220" s="4"/>
     </row>
     <row r="221" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="157"/>
-      <c r="B221" s="157"/>
-      <c r="C221" s="157"/>
-      <c r="D221" s="157"/>
+      <c r="A221" s="158"/>
+      <c r="B221" s="158"/>
+      <c r="C221" s="158"/>
+      <c r="D221" s="158"/>
       <c r="E221" s="118" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F221" s="52"/>
       <c r="G221" s="4"/>
@@ -7961,10 +7939,10 @@
       <c r="T221" s="4"/>
     </row>
     <row r="222" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="157"/>
-      <c r="B222" s="157"/>
-      <c r="C222" s="157"/>
-      <c r="D222" s="157"/>
+      <c r="A222" s="158"/>
+      <c r="B222" s="158"/>
+      <c r="C222" s="158"/>
+      <c r="D222" s="158"/>
       <c r="E222" s="37"/>
       <c r="F222" s="52"/>
       <c r="G222" s="4"/>
@@ -8049,16 +8027,16 @@
       <c r="T225" s="4"/>
     </row>
     <row r="226" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="131" t="s">
+      <c r="A226" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="B226" s="153" t="s">
-        <v>289</v>
-      </c>
-      <c r="C226" s="135" t="s">
-        <v>288</v>
-      </c>
-      <c r="D226" s="136" t="s">
+      <c r="B226" s="143" t="s">
+        <v>281</v>
+      </c>
+      <c r="C226" s="131" t="s">
+        <v>280</v>
+      </c>
+      <c r="D226" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E226" s="49"/>
@@ -8079,10 +8057,10 @@
       <c r="T226" s="4"/>
     </row>
     <row r="227" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="148"/>
-      <c r="B227" s="154"/>
-      <c r="C227" s="147"/>
-      <c r="D227" s="137"/>
+      <c r="A227" s="151"/>
+      <c r="B227" s="144"/>
+      <c r="C227" s="145"/>
+      <c r="D227" s="135"/>
       <c r="E227" s="37" t="s">
         <v>139</v>
       </c>
@@ -8103,10 +8081,10 @@
       <c r="T227" s="4"/>
     </row>
     <row r="228" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="148"/>
-      <c r="B228" s="154"/>
-      <c r="C228" s="147"/>
-      <c r="D228" s="137"/>
+      <c r="A228" s="151"/>
+      <c r="B228" s="144"/>
+      <c r="C228" s="145"/>
+      <c r="D228" s="135"/>
       <c r="E228" s="37" t="s">
         <v>196</v>
       </c>
@@ -8127,12 +8105,12 @@
       <c r="T228" s="4"/>
     </row>
     <row r="229" spans="1:20" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="148"/>
-      <c r="B229" s="154"/>
-      <c r="C229" s="147"/>
-      <c r="D229" s="137"/>
+      <c r="A229" s="151"/>
+      <c r="B229" s="144"/>
+      <c r="C229" s="145"/>
+      <c r="D229" s="135"/>
       <c r="E229" s="116" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F229" s="119"/>
       <c r="G229" s="4"/>
@@ -8156,7 +8134,7 @@
       <c r="C230" s="132"/>
       <c r="D230" s="132"/>
       <c r="E230" s="37" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F230" s="52"/>
       <c r="G230" s="4"/>
@@ -8180,7 +8158,7 @@
       <c r="C231" s="132"/>
       <c r="D231" s="132"/>
       <c r="E231" s="118" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F231" s="52"/>
       <c r="G231" s="4"/>
@@ -8221,16 +8199,16 @@
       <c r="T232" s="4"/>
     </row>
     <row r="233" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="131" t="s">
+      <c r="A233" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="153" t="s">
-        <v>226</v>
-      </c>
-      <c r="C233" s="135" t="s">
-        <v>226</v>
-      </c>
-      <c r="D233" s="136" t="s">
+      <c r="B233" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C233" s="131" t="s">
+        <v>218</v>
+      </c>
+      <c r="D233" s="134" t="s">
         <v>121</v>
       </c>
       <c r="E233" s="5" t="s">
@@ -8253,10 +8231,10 @@
       <c r="T233" s="4"/>
     </row>
     <row r="234" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="148"/>
-      <c r="B234" s="154"/>
-      <c r="C234" s="147"/>
-      <c r="D234" s="137"/>
+      <c r="A234" s="151"/>
+      <c r="B234" s="144"/>
+      <c r="C234" s="145"/>
+      <c r="D234" s="135"/>
       <c r="E234" s="112" t="s">
         <v>123</v>
       </c>
@@ -8277,12 +8255,12 @@
       <c r="T234" s="4"/>
     </row>
     <row r="235" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="148"/>
-      <c r="B235" s="154"/>
-      <c r="C235" s="147"/>
-      <c r="D235" s="137"/>
+      <c r="A235" s="151"/>
+      <c r="B235" s="144"/>
+      <c r="C235" s="145"/>
+      <c r="D235" s="135"/>
       <c r="E235" s="55" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F235" s="56"/>
       <c r="G235" s="4"/>
@@ -8301,12 +8279,12 @@
       <c r="T235" s="4"/>
     </row>
     <row r="236" spans="1:20" s="104" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A236" s="148"/>
-      <c r="B236" s="154"/>
-      <c r="C236" s="147"/>
-      <c r="D236" s="137"/>
+      <c r="A236" s="151"/>
+      <c r="B236" s="144"/>
+      <c r="C236" s="145"/>
+      <c r="D236" s="135"/>
       <c r="E236" s="46" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F236" s="56"/>
       <c r="G236" s="4"/>
@@ -8325,12 +8303,12 @@
       <c r="T236" s="4"/>
     </row>
     <row r="237" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="148"/>
-      <c r="B237" s="154"/>
-      <c r="C237" s="147"/>
-      <c r="D237" s="137"/>
+      <c r="A237" s="151"/>
+      <c r="B237" s="144"/>
+      <c r="C237" s="145"/>
+      <c r="D237" s="135"/>
       <c r="E237" s="55" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F237" s="56"/>
       <c r="G237" s="4"/>
@@ -8354,7 +8332,7 @@
       <c r="C238" s="132"/>
       <c r="D238" s="132"/>
       <c r="E238" s="51" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F238" s="57"/>
       <c r="G238" s="4"/>
@@ -8378,7 +8356,7 @@
       <c r="C239" s="132"/>
       <c r="D239" s="132"/>
       <c r="E239" s="112" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F239" s="57"/>
       <c r="G239" s="4"/>
@@ -8441,17 +8419,17 @@
       <c r="T241" s="4"/>
     </row>
     <row r="242" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="131" t="s">
+      <c r="A242" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="B242" s="153" t="s">
+      <c r="B242" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="C242" s="135" t="s">
-        <v>233</v>
+      <c r="C242" s="131" t="s">
+        <v>225</v>
       </c>
       <c r="D242" s="51" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E242" s="31" t="s">
         <v>139</v>
@@ -8473,14 +8451,14 @@
       <c r="T242" s="4"/>
     </row>
     <row r="243" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="148"/>
-      <c r="B243" s="154"/>
-      <c r="C243" s="147"/>
+      <c r="A243" s="151"/>
+      <c r="B243" s="144"/>
+      <c r="C243" s="145"/>
       <c r="D243" s="112" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E243" s="112" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F243" s="56"/>
       <c r="G243" s="4"/>
@@ -8499,9 +8477,9 @@
       <c r="T243" s="4"/>
     </row>
     <row r="244" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="148"/>
-      <c r="B244" s="154"/>
-      <c r="C244" s="147"/>
+      <c r="A244" s="151"/>
+      <c r="B244" s="144"/>
+      <c r="C244" s="145"/>
       <c r="D244" s="51"/>
       <c r="E244" s="112" t="s">
         <v>175</v>
@@ -8523,9 +8501,9 @@
       <c r="T244" s="4"/>
     </row>
     <row r="245" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="148"/>
-      <c r="B245" s="154"/>
-      <c r="C245" s="147"/>
+      <c r="A245" s="151"/>
+      <c r="B245" s="144"/>
+      <c r="C245" s="145"/>
       <c r="D245" s="51"/>
       <c r="E245" s="24" t="s">
         <v>180</v>
@@ -8547,12 +8525,12 @@
       <c r="T245" s="4"/>
     </row>
     <row r="246" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="148"/>
-      <c r="B246" s="154"/>
-      <c r="C246" s="147"/>
+      <c r="A246" s="151"/>
+      <c r="B246" s="144"/>
+      <c r="C246" s="145"/>
       <c r="D246" s="51"/>
       <c r="E246" s="55" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F246" s="56"/>
       <c r="G246" s="4"/>
@@ -8571,12 +8549,12 @@
       <c r="T246" s="4"/>
     </row>
     <row r="247" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="148"/>
-      <c r="B247" s="154"/>
-      <c r="C247" s="147"/>
+      <c r="A247" s="151"/>
+      <c r="B247" s="144"/>
+      <c r="C247" s="145"/>
       <c r="D247" s="51"/>
       <c r="E247" s="46" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F247" s="56"/>
       <c r="G247" s="4"/>
@@ -8600,7 +8578,7 @@
       <c r="C248" s="132"/>
       <c r="D248" s="51"/>
       <c r="E248" s="51" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F248" s="57"/>
       <c r="G248" s="4"/>
@@ -8685,14 +8663,14 @@
       <c r="T251" s="4"/>
     </row>
     <row r="252" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="155" t="s">
+      <c r="A252" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="B252" s="155"/>
-      <c r="C252" s="155"/>
-      <c r="D252" s="155"/>
-      <c r="E252" s="155"/>
-      <c r="F252" s="155"/>
+      <c r="B252" s="156"/>
+      <c r="C252" s="156"/>
+      <c r="D252" s="156"/>
+      <c r="E252" s="156"/>
+      <c r="F252" s="156"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
@@ -8709,14 +8687,14 @@
       <c r="T252" s="4"/>
     </row>
     <row r="253" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="149" t="s">
+      <c r="A253" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="B253" s="150" t="s">
-        <v>238</v>
-      </c>
-      <c r="C253" s="152" t="s">
-        <v>239</v>
+      <c r="B253" s="153" t="s">
+        <v>230</v>
+      </c>
+      <c r="C253" s="155" t="s">
+        <v>231</v>
       </c>
       <c r="D253" s="51"/>
       <c r="E253" s="31" t="s">
@@ -8739,14 +8717,14 @@
       <c r="T253" s="4"/>
     </row>
     <row r="254" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="148"/>
-      <c r="B254" s="151"/>
-      <c r="C254" s="147"/>
+      <c r="A254" s="151"/>
+      <c r="B254" s="154"/>
+      <c r="C254" s="145"/>
       <c r="D254" s="24" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E254" s="112" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F254" s="30"/>
       <c r="G254" s="4"/>
@@ -8765,11 +8743,11 @@
       <c r="T254" s="4"/>
     </row>
     <row r="255" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="148"/>
-      <c r="B255" s="151"/>
-      <c r="C255" s="147"/>
+      <c r="A255" s="151"/>
+      <c r="B255" s="154"/>
+      <c r="C255" s="145"/>
       <c r="D255" s="120" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E255" s="112" t="s">
         <v>175</v>
@@ -8791,9 +8769,9 @@
       <c r="T255" s="4"/>
     </row>
     <row r="256" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="148"/>
-      <c r="B256" s="151"/>
-      <c r="C256" s="147"/>
+      <c r="A256" s="151"/>
+      <c r="B256" s="154"/>
+      <c r="C256" s="145"/>
       <c r="D256" s="112"/>
       <c r="E256" s="24" t="s">
         <v>180</v>
@@ -8815,12 +8793,12 @@
       <c r="T256" s="4"/>
     </row>
     <row r="257" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="148"/>
-      <c r="B257" s="151"/>
-      <c r="C257" s="147"/>
+      <c r="A257" s="151"/>
+      <c r="B257" s="154"/>
+      <c r="C257" s="145"/>
       <c r="D257" s="112"/>
       <c r="E257" s="55" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F257" s="30"/>
       <c r="G257" s="4"/>
@@ -8839,12 +8817,12 @@
       <c r="T257" s="4"/>
     </row>
     <row r="258" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="148"/>
-      <c r="B258" s="151"/>
-      <c r="C258" s="147"/>
+      <c r="A258" s="151"/>
+      <c r="B258" s="154"/>
+      <c r="C258" s="145"/>
       <c r="D258" s="112"/>
       <c r="E258" s="46" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F258" s="30"/>
       <c r="G258" s="4"/>
@@ -8863,12 +8841,12 @@
       <c r="T258" s="4"/>
     </row>
     <row r="259" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="148"/>
-      <c r="B259" s="151"/>
-      <c r="C259" s="147"/>
+      <c r="A259" s="151"/>
+      <c r="B259" s="154"/>
+      <c r="C259" s="145"/>
       <c r="D259" s="112"/>
       <c r="E259" s="59" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F259" s="30"/>
       <c r="G259" s="4"/>
@@ -8887,12 +8865,12 @@
       <c r="T259" s="4"/>
     </row>
     <row r="260" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="148"/>
-      <c r="B260" s="151"/>
-      <c r="C260" s="147"/>
+      <c r="A260" s="151"/>
+      <c r="B260" s="154"/>
+      <c r="C260" s="145"/>
       <c r="D260" s="112"/>
       <c r="E260" s="46" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F260" s="30"/>
       <c r="G260" s="4"/>
@@ -8911,12 +8889,12 @@
       <c r="T260" s="4"/>
     </row>
     <row r="261" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="148"/>
-      <c r="B261" s="151"/>
-      <c r="C261" s="147"/>
+      <c r="A261" s="151"/>
+      <c r="B261" s="154"/>
+      <c r="C261" s="145"/>
       <c r="D261" s="51"/>
       <c r="E261" s="46" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F261" s="30"/>
       <c r="G261" s="4"/>
@@ -8940,7 +8918,7 @@
       <c r="C262" s="132"/>
       <c r="D262" s="112"/>
       <c r="E262" s="46" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F262" s="30"/>
       <c r="G262" s="4"/>
@@ -8964,7 +8942,7 @@
       <c r="C263" s="132"/>
       <c r="D263" s="51"/>
       <c r="E263" s="46" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F263" s="30"/>
       <c r="G263" s="4"/>
@@ -8988,7 +8966,7 @@
       <c r="C264" s="133"/>
       <c r="D264" s="60"/>
       <c r="E264" s="60" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F264" s="61"/>
       <c r="G264" s="4"/>
@@ -9007,14 +8985,14 @@
       <c r="T264" s="4"/>
     </row>
     <row r="265" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="131" t="s">
+      <c r="A265" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B265" s="156" t="s">
-        <v>248</v>
-      </c>
-      <c r="C265" s="146" t="s">
-        <v>249</v>
+      <c r="B265" s="157" t="s">
+        <v>240</v>
+      </c>
+      <c r="C265" s="149" t="s">
+        <v>241</v>
       </c>
       <c r="D265" s="112"/>
       <c r="E265" s="62"/>
@@ -9039,10 +9017,10 @@
       <c r="B266" s="132"/>
       <c r="C266" s="132"/>
       <c r="D266" s="24" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E266" s="59" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F266" s="30"/>
       <c r="G266" s="4"/>
@@ -9061,14 +9039,14 @@
       <c r="T266" s="4"/>
     </row>
     <row r="267" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="157"/>
-      <c r="B267" s="157"/>
-      <c r="C267" s="157"/>
+      <c r="A267" s="158"/>
+      <c r="B267" s="158"/>
+      <c r="C267" s="158"/>
       <c r="D267" s="120" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E267" s="59" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F267" s="30"/>
       <c r="G267" s="4"/>
@@ -9087,14 +9065,14 @@
       <c r="T267" s="4"/>
     </row>
     <row r="268" spans="1:20" s="104" customFormat="1" ht="99" x14ac:dyDescent="0.3">
-      <c r="A268" s="157"/>
-      <c r="B268" s="157"/>
-      <c r="C268" s="157"/>
+      <c r="A268" s="158"/>
+      <c r="B268" s="158"/>
+      <c r="C268" s="158"/>
       <c r="D268" s="112" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E268" s="59" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F268" s="30"/>
       <c r="G268" s="4"/>
@@ -9113,12 +9091,12 @@
       <c r="T268" s="4"/>
     </row>
     <row r="269" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="157"/>
-      <c r="B269" s="157"/>
-      <c r="C269" s="157"/>
+      <c r="A269" s="158"/>
+      <c r="B269" s="158"/>
+      <c r="C269" s="158"/>
       <c r="D269" s="51"/>
       <c r="E269" s="59" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F269" s="30"/>
       <c r="G269" s="4"/>
@@ -9137,12 +9115,12 @@
       <c r="T269" s="4"/>
     </row>
     <row r="270" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="157"/>
-      <c r="B270" s="157"/>
-      <c r="C270" s="157"/>
+      <c r="A270" s="158"/>
+      <c r="B270" s="158"/>
+      <c r="C270" s="158"/>
       <c r="D270" s="51"/>
       <c r="E270" s="121" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F270" s="30"/>
       <c r="G270" s="4"/>
@@ -9161,12 +9139,12 @@
       <c r="T270" s="4"/>
     </row>
     <row r="271" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="157"/>
-      <c r="B271" s="157"/>
-      <c r="C271" s="157"/>
+      <c r="A271" s="158"/>
+      <c r="B271" s="158"/>
+      <c r="C271" s="158"/>
       <c r="D271" s="51"/>
       <c r="E271" s="59" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F271" s="30"/>
       <c r="G271" s="4"/>
@@ -9185,9 +9163,9 @@
       <c r="T271" s="4"/>
     </row>
     <row r="272" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="157"/>
-      <c r="B272" s="157"/>
-      <c r="C272" s="157"/>
+      <c r="A272" s="158"/>
+      <c r="B272" s="158"/>
+      <c r="C272" s="158"/>
       <c r="D272" s="51"/>
       <c r="E272" s="59"/>
       <c r="F272" s="30"/>
@@ -9207,9 +9185,9 @@
       <c r="T272" s="4"/>
     </row>
     <row r="273" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="157"/>
-      <c r="B273" s="157"/>
-      <c r="C273" s="157"/>
+      <c r="A273" s="158"/>
+      <c r="B273" s="158"/>
+      <c r="C273" s="158"/>
       <c r="D273" s="51"/>
       <c r="E273" s="59"/>
       <c r="F273" s="30"/>
@@ -9317,18 +9295,18 @@
       <c r="T277" s="4"/>
     </row>
     <row r="278" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="131" t="s">
+      <c r="A278" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="B278" s="156" t="s">
-        <v>257</v>
-      </c>
-      <c r="C278" s="146" t="s">
-        <v>258</v>
+      <c r="B278" s="157" t="s">
+        <v>249</v>
+      </c>
+      <c r="C278" s="149" t="s">
+        <v>250</v>
       </c>
       <c r="D278" s="51"/>
       <c r="E278" s="59" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F278" s="63"/>
       <c r="G278" s="4"/>
@@ -9351,10 +9329,10 @@
       <c r="B279" s="132"/>
       <c r="C279" s="132"/>
       <c r="D279" s="24" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E279" s="59" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F279" s="30"/>
       <c r="G279" s="4"/>
@@ -9377,10 +9355,10 @@
       <c r="B280" s="132"/>
       <c r="C280" s="132"/>
       <c r="D280" s="120" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E280" s="59" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F280" s="30"/>
       <c r="G280" s="4"/>
@@ -9403,10 +9381,10 @@
       <c r="B281" s="132"/>
       <c r="C281" s="132"/>
       <c r="D281" s="112" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E281" s="59" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F281" s="30"/>
       <c r="G281" s="4"/>
@@ -9425,12 +9403,12 @@
       <c r="T281" s="4"/>
     </row>
     <row r="282" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="157"/>
-      <c r="B282" s="157"/>
-      <c r="C282" s="157"/>
+      <c r="A282" s="158"/>
+      <c r="B282" s="158"/>
+      <c r="C282" s="158"/>
       <c r="D282" s="112"/>
       <c r="E282" s="121" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F282" s="30"/>
       <c r="G282" s="4"/>
@@ -9449,12 +9427,12 @@
       <c r="T282" s="4"/>
     </row>
     <row r="283" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="157"/>
-      <c r="B283" s="157"/>
-      <c r="C283" s="157"/>
+      <c r="A283" s="158"/>
+      <c r="B283" s="158"/>
+      <c r="C283" s="158"/>
       <c r="D283" s="112"/>
       <c r="E283" s="59" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F283" s="30"/>
       <c r="G283" s="4"/>
@@ -9473,9 +9451,9 @@
       <c r="T283" s="4"/>
     </row>
     <row r="284" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="157"/>
-      <c r="B284" s="157"/>
-      <c r="C284" s="157"/>
+      <c r="A284" s="158"/>
+      <c r="B284" s="158"/>
+      <c r="C284" s="158"/>
       <c r="D284" s="112"/>
       <c r="E284" s="59"/>
       <c r="F284" s="30"/>
@@ -9495,9 +9473,9 @@
       <c r="T284" s="4"/>
     </row>
     <row r="285" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="157"/>
-      <c r="B285" s="157"/>
-      <c r="C285" s="157"/>
+      <c r="A285" s="158"/>
+      <c r="B285" s="158"/>
+      <c r="C285" s="158"/>
       <c r="D285" s="112"/>
       <c r="E285" s="59"/>
       <c r="F285" s="30"/>
@@ -9583,14 +9561,14 @@
       <c r="T288" s="4"/>
     </row>
     <row r="289" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="131" t="s">
+      <c r="A289" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="156" t="s">
-        <v>262</v>
-      </c>
-      <c r="C289" s="146" t="s">
-        <v>267</v>
+      <c r="B289" s="157" t="s">
+        <v>254</v>
+      </c>
+      <c r="C289" s="149" t="s">
+        <v>259</v>
       </c>
       <c r="D289" s="24"/>
       <c r="E289" s="62"/>
@@ -9616,7 +9594,7 @@
       <c r="C290" s="132"/>
       <c r="D290" s="120"/>
       <c r="E290" s="59" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F290" s="30"/>
       <c r="G290" s="4"/>
@@ -9635,14 +9613,14 @@
       <c r="T290" s="4"/>
     </row>
     <row r="291" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="157"/>
-      <c r="B291" s="157"/>
-      <c r="C291" s="157"/>
+      <c r="A291" s="158"/>
+      <c r="B291" s="158"/>
+      <c r="C291" s="158"/>
       <c r="D291" s="24" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E291" s="59" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F291" s="30"/>
       <c r="G291" s="4"/>
@@ -9661,14 +9639,14 @@
       <c r="T291" s="4"/>
     </row>
     <row r="292" spans="1:20" s="104" customFormat="1" ht="99" x14ac:dyDescent="0.3">
-      <c r="A292" s="157"/>
-      <c r="B292" s="157"/>
-      <c r="C292" s="157"/>
+      <c r="A292" s="158"/>
+      <c r="B292" s="158"/>
+      <c r="C292" s="158"/>
       <c r="D292" s="120" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E292" s="59" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F292" s="30"/>
       <c r="G292" s="4"/>
@@ -9687,14 +9665,14 @@
       <c r="T292" s="4"/>
     </row>
     <row r="293" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="157"/>
-      <c r="B293" s="157"/>
-      <c r="C293" s="157"/>
+      <c r="A293" s="158"/>
+      <c r="B293" s="158"/>
+      <c r="C293" s="158"/>
       <c r="D293" s="112" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E293" s="59" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F293" s="30"/>
       <c r="G293" s="4"/>
@@ -9718,7 +9696,7 @@
       <c r="C294" s="132"/>
       <c r="D294" s="112"/>
       <c r="E294" s="121" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F294" s="30"/>
       <c r="G294" s="4"/>
@@ -9742,7 +9720,7 @@
       <c r="C295" s="132"/>
       <c r="D295" s="24"/>
       <c r="E295" s="59" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F295" s="30"/>
       <c r="G295" s="4"/>
@@ -9766,7 +9744,7 @@
       <c r="C296" s="132"/>
       <c r="D296" s="120"/>
       <c r="E296" s="59" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F296" s="30"/>
       <c r="G296" s="4"/>
@@ -9851,14 +9829,14 @@
       <c r="T299" s="4"/>
     </row>
     <row r="300" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="131" t="s">
+      <c r="A300" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="B300" s="156" t="s">
-        <v>273</v>
-      </c>
-      <c r="C300" s="146" t="s">
-        <v>274</v>
+      <c r="B300" s="157" t="s">
+        <v>265</v>
+      </c>
+      <c r="C300" s="149" t="s">
+        <v>266</v>
       </c>
       <c r="D300" s="24"/>
       <c r="E300" s="62" t="s">
@@ -9881,14 +9859,14 @@
       <c r="T300" s="4"/>
     </row>
     <row r="301" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="148"/>
-      <c r="B301" s="151"/>
-      <c r="C301" s="147"/>
+      <c r="A301" s="151"/>
+      <c r="B301" s="154"/>
+      <c r="C301" s="145"/>
       <c r="D301" s="24" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E301" s="62" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F301" s="63"/>
       <c r="G301" s="4"/>
@@ -9907,14 +9885,14 @@
       <c r="T301" s="4"/>
     </row>
     <row r="302" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="148"/>
-      <c r="B302" s="151"/>
-      <c r="C302" s="147"/>
+      <c r="A302" s="151"/>
+      <c r="B302" s="154"/>
+      <c r="C302" s="145"/>
       <c r="D302" s="24" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E302" s="62" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F302" s="63"/>
       <c r="G302" s="4"/>
@@ -9933,12 +9911,12 @@
       <c r="T302" s="4"/>
     </row>
     <row r="303" spans="1:20" s="104" customFormat="1" ht="99" x14ac:dyDescent="0.3">
-      <c r="A303" s="148"/>
-      <c r="B303" s="151"/>
-      <c r="C303" s="147"/>
+      <c r="A303" s="151"/>
+      <c r="B303" s="154"/>
+      <c r="C303" s="145"/>
       <c r="D303" s="24"/>
       <c r="E303" s="122" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F303" s="63"/>
       <c r="G303" s="4"/>
@@ -9957,12 +9935,12 @@
       <c r="T303" s="4"/>
     </row>
     <row r="304" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="148"/>
-      <c r="B304" s="151"/>
-      <c r="C304" s="147"/>
+      <c r="A304" s="151"/>
+      <c r="B304" s="154"/>
+      <c r="C304" s="145"/>
       <c r="D304" s="24"/>
       <c r="E304" s="62" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F304" s="63"/>
       <c r="G304" s="4"/>
@@ -9981,12 +9959,12 @@
       <c r="T304" s="4"/>
     </row>
     <row r="305" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="148"/>
-      <c r="B305" s="151"/>
-      <c r="C305" s="147"/>
+      <c r="A305" s="151"/>
+      <c r="B305" s="154"/>
+      <c r="C305" s="145"/>
       <c r="D305" s="24"/>
       <c r="E305" s="59" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F305" s="63"/>
       <c r="G305" s="4"/>
@@ -10005,12 +9983,12 @@
       <c r="T305" s="4"/>
     </row>
     <row r="306" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="148"/>
-      <c r="B306" s="151"/>
-      <c r="C306" s="147"/>
+      <c r="A306" s="151"/>
+      <c r="B306" s="154"/>
+      <c r="C306" s="145"/>
       <c r="D306" s="24"/>
       <c r="E306" s="62" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F306" s="63"/>
       <c r="G306" s="4"/>
@@ -10034,7 +10012,7 @@
       <c r="C307" s="132"/>
       <c r="D307" s="120"/>
       <c r="E307" s="59" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F307" s="30"/>
       <c r="G307" s="4"/>
@@ -10058,7 +10036,7 @@
       <c r="C308" s="132"/>
       <c r="D308" s="112"/>
       <c r="E308" s="121" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F308" s="30"/>
       <c r="G308" s="4"/>
@@ -10082,7 +10060,7 @@
       <c r="C309" s="132"/>
       <c r="D309" s="112"/>
       <c r="E309" s="62" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F309" s="30"/>
       <c r="G309" s="4"/>
@@ -10123,14 +10101,14 @@
       <c r="T310" s="4"/>
     </row>
     <row r="311" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="131" t="s">
+      <c r="A311" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="B311" s="156" t="s">
-        <v>298</v>
-      </c>
-      <c r="C311" s="146" t="s">
-        <v>299</v>
+      <c r="B311" s="157" t="s">
+        <v>290</v>
+      </c>
+      <c r="C311" s="149" t="s">
+        <v>291</v>
       </c>
       <c r="D311" s="24"/>
       <c r="E311" s="62"/>
@@ -10151,11 +10129,11 @@
       <c r="T311" s="4"/>
     </row>
     <row r="312" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="148"/>
-      <c r="B312" s="151"/>
-      <c r="C312" s="147"/>
+      <c r="A312" s="151"/>
+      <c r="B312" s="154"/>
+      <c r="C312" s="145"/>
       <c r="D312" s="24" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E312" s="62" t="s">
         <v>139</v>
@@ -10177,12 +10155,12 @@
       <c r="T312" s="4"/>
     </row>
     <row r="313" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="148"/>
-      <c r="B313" s="151"/>
-      <c r="C313" s="147"/>
+      <c r="A313" s="151"/>
+      <c r="B313" s="154"/>
+      <c r="C313" s="145"/>
       <c r="D313" s="24"/>
       <c r="E313" s="62" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F313" s="63"/>
       <c r="G313" s="4"/>
@@ -10201,12 +10179,12 @@
       <c r="T313" s="4"/>
     </row>
     <row r="314" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="148"/>
-      <c r="B314" s="151"/>
-      <c r="C314" s="147"/>
+      <c r="A314" s="151"/>
+      <c r="B314" s="154"/>
+      <c r="C314" s="145"/>
       <c r="D314" s="24"/>
       <c r="E314" s="122" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F314" s="63"/>
       <c r="G314" s="4"/>
@@ -10225,12 +10203,12 @@
       <c r="T314" s="4"/>
     </row>
     <row r="315" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="148"/>
-      <c r="B315" s="151"/>
-      <c r="C315" s="147"/>
+      <c r="A315" s="151"/>
+      <c r="B315" s="154"/>
+      <c r="C315" s="145"/>
       <c r="D315" s="24"/>
       <c r="E315" s="122" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F315" s="63"/>
       <c r="G315" s="4"/>
@@ -10249,9 +10227,9 @@
       <c r="T315" s="4"/>
     </row>
     <row r="316" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="148"/>
-      <c r="B316" s="151"/>
-      <c r="C316" s="147"/>
+      <c r="A316" s="151"/>
+      <c r="B316" s="154"/>
+      <c r="C316" s="145"/>
       <c r="D316" s="24"/>
       <c r="E316" s="62"/>
       <c r="F316" s="63"/>
@@ -10400,14 +10378,14 @@
       <c r="T322" s="4"/>
     </row>
     <row r="323" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="131" t="s">
+      <c r="A323" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B323" s="156" t="s">
-        <v>303</v>
-      </c>
-      <c r="C323" s="146" t="s">
-        <v>304</v>
+      <c r="B323" s="157" t="s">
+        <v>295</v>
+      </c>
+      <c r="C323" s="149" t="s">
+        <v>296</v>
       </c>
       <c r="D323" s="24"/>
       <c r="E323" s="62"/>
@@ -10428,9 +10406,9 @@
       <c r="T323" s="4"/>
     </row>
     <row r="324" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="148"/>
-      <c r="B324" s="151"/>
-      <c r="C324" s="147"/>
+      <c r="A324" s="151"/>
+      <c r="B324" s="154"/>
+      <c r="C324" s="145"/>
       <c r="D324" s="24"/>
       <c r="E324" s="62" t="s">
         <v>139</v>
@@ -10452,14 +10430,14 @@
       <c r="T324" s="4"/>
     </row>
     <row r="325" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="148"/>
-      <c r="B325" s="151"/>
-      <c r="C325" s="147"/>
+      <c r="A325" s="151"/>
+      <c r="B325" s="154"/>
+      <c r="C325" s="145"/>
       <c r="D325" s="24" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E325" s="62" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F325" s="63"/>
       <c r="G325" s="4"/>
@@ -10478,12 +10456,12 @@
       <c r="T325" s="4"/>
     </row>
     <row r="326" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="148"/>
-      <c r="B326" s="151"/>
-      <c r="C326" s="147"/>
+      <c r="A326" s="151"/>
+      <c r="B326" s="154"/>
+      <c r="C326" s="145"/>
       <c r="D326" s="24"/>
       <c r="E326" s="62" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F326" s="63"/>
       <c r="G326" s="4"/>
@@ -10502,15 +10480,15 @@
       <c r="T326" s="4"/>
     </row>
     <row r="327" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="148"/>
-      <c r="B327" s="151"/>
-      <c r="C327" s="147"/>
+      <c r="A327" s="151"/>
+      <c r="B327" s="154"/>
+      <c r="C327" s="145"/>
       <c r="D327" s="24"/>
       <c r="E327" s="122" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F327" s="63" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
@@ -10528,9 +10506,9 @@
       <c r="T327" s="4"/>
     </row>
     <row r="328" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="148"/>
-      <c r="B328" s="151"/>
-      <c r="C328" s="147"/>
+      <c r="A328" s="151"/>
+      <c r="B328" s="154"/>
+      <c r="C328" s="145"/>
       <c r="D328" s="24"/>
       <c r="E328" s="62"/>
       <c r="F328" s="63"/>
@@ -10550,9 +10528,9 @@
       <c r="T328" s="4"/>
     </row>
     <row r="329" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="148"/>
-      <c r="B329" s="151"/>
-      <c r="C329" s="147"/>
+      <c r="A329" s="151"/>
+      <c r="B329" s="154"/>
+      <c r="C329" s="145"/>
       <c r="D329" s="24"/>
       <c r="E329" s="59"/>
       <c r="F329" s="63"/>
@@ -10644,7 +10622,7 @@
       <c r="D333" s="24"/>
       <c r="E333" s="62"/>
       <c r="F333" s="30" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
@@ -10684,14 +10662,14 @@
       <c r="T334" s="4"/>
     </row>
     <row r="335" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="131" t="s">
+      <c r="A335" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="B335" s="156" t="s">
-        <v>279</v>
-      </c>
-      <c r="C335" s="146" t="s">
-        <v>280</v>
+      <c r="B335" s="157" t="s">
+        <v>271</v>
+      </c>
+      <c r="C335" s="149" t="s">
+        <v>272</v>
       </c>
       <c r="D335" s="24"/>
       <c r="E335" s="62"/>
@@ -10712,11 +10690,11 @@
       <c r="T335" s="4"/>
     </row>
     <row r="336" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="148"/>
-      <c r="B336" s="151"/>
-      <c r="C336" s="147"/>
+      <c r="A336" s="151"/>
+      <c r="B336" s="154"/>
+      <c r="C336" s="145"/>
       <c r="D336" s="24" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E336" s="62" t="s">
         <v>139</v>
@@ -10738,14 +10716,14 @@
       <c r="T336" s="4"/>
     </row>
     <row r="337" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="148"/>
-      <c r="B337" s="151"/>
-      <c r="C337" s="147"/>
+      <c r="A337" s="151"/>
+      <c r="B337" s="154"/>
+      <c r="C337" s="145"/>
       <c r="D337" s="24" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E337" s="62" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F337" s="63"/>
       <c r="G337" s="4"/>
@@ -10764,12 +10742,12 @@
       <c r="T337" s="4"/>
     </row>
     <row r="338" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="148"/>
-      <c r="B338" s="151"/>
-      <c r="C338" s="147"/>
+      <c r="A338" s="151"/>
+      <c r="B338" s="154"/>
+      <c r="C338" s="145"/>
       <c r="D338" s="24"/>
       <c r="E338" s="62" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F338" s="63"/>
       <c r="G338" s="4"/>
@@ -10788,12 +10766,12 @@
       <c r="T338" s="4"/>
     </row>
     <row r="339" spans="1:20" s="104" customFormat="1" ht="99" x14ac:dyDescent="0.3">
-      <c r="A339" s="148"/>
-      <c r="B339" s="151"/>
-      <c r="C339" s="147"/>
+      <c r="A339" s="151"/>
+      <c r="B339" s="154"/>
+      <c r="C339" s="145"/>
       <c r="D339" s="24"/>
       <c r="E339" s="122" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F339" s="63"/>
       <c r="G339" s="4"/>
@@ -10812,12 +10790,12 @@
       <c r="T339" s="4"/>
     </row>
     <row r="340" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="148"/>
-      <c r="B340" s="151"/>
-      <c r="C340" s="147"/>
+      <c r="A340" s="151"/>
+      <c r="B340" s="154"/>
+      <c r="C340" s="145"/>
       <c r="D340" s="24"/>
       <c r="E340" s="62" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F340" s="63"/>
       <c r="G340" s="4"/>
@@ -10836,12 +10814,12 @@
       <c r="T340" s="4"/>
     </row>
     <row r="341" spans="1:20" s="104" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A341" s="148"/>
-      <c r="B341" s="151"/>
-      <c r="C341" s="147"/>
+      <c r="A341" s="151"/>
+      <c r="B341" s="154"/>
+      <c r="C341" s="145"/>
       <c r="D341" s="24"/>
       <c r="E341" s="62" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F341" s="63"/>
       <c r="G341" s="4"/>
@@ -10860,15 +10838,15 @@
       <c r="T341" s="4"/>
     </row>
     <row r="342" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="148"/>
-      <c r="B342" s="151"/>
-      <c r="C342" s="147"/>
+      <c r="A342" s="151"/>
+      <c r="B342" s="154"/>
+      <c r="C342" s="145"/>
       <c r="D342" s="24"/>
       <c r="E342" s="122" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F342" s="63" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
@@ -10886,9 +10864,9 @@
       <c r="T342" s="4"/>
     </row>
     <row r="343" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="148"/>
-      <c r="B343" s="151"/>
-      <c r="C343" s="147"/>
+      <c r="A343" s="151"/>
+      <c r="B343" s="154"/>
+      <c r="C343" s="145"/>
       <c r="D343" s="24"/>
       <c r="E343" s="62"/>
       <c r="F343" s="63"/>
@@ -10908,9 +10886,9 @@
       <c r="T343" s="4"/>
     </row>
     <row r="344" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="148"/>
-      <c r="B344" s="151"/>
-      <c r="C344" s="147"/>
+      <c r="A344" s="151"/>
+      <c r="B344" s="154"/>
+      <c r="C344" s="145"/>
       <c r="D344" s="24"/>
       <c r="E344" s="62"/>
       <c r="F344" s="63"/>
@@ -10930,9 +10908,9 @@
       <c r="T344" s="4"/>
     </row>
     <row r="345" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="148"/>
-      <c r="B345" s="151"/>
-      <c r="C345" s="147"/>
+      <c r="A345" s="151"/>
+      <c r="B345" s="154"/>
+      <c r="C345" s="145"/>
       <c r="D345" s="24"/>
       <c r="E345" s="62"/>
       <c r="F345" s="63"/>
@@ -11018,14 +10996,14 @@
       <c r="T348" s="4"/>
     </row>
     <row r="349" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="131" t="s">
+      <c r="A349" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="B349" s="156" t="s">
-        <v>295</v>
-      </c>
-      <c r="C349" s="146" t="s">
-        <v>294</v>
+      <c r="B349" s="157" t="s">
+        <v>287</v>
+      </c>
+      <c r="C349" s="149" t="s">
+        <v>286</v>
       </c>
       <c r="D349" s="24"/>
       <c r="E349" s="62" t="s">
@@ -11048,14 +11026,14 @@
       <c r="T349" s="4"/>
     </row>
     <row r="350" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="148"/>
-      <c r="B350" s="151"/>
-      <c r="C350" s="147"/>
+      <c r="A350" s="151"/>
+      <c r="B350" s="154"/>
+      <c r="C350" s="145"/>
       <c r="D350" s="24" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E350" s="62" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F350" s="63"/>
       <c r="G350" s="4"/>
@@ -11074,14 +11052,14 @@
       <c r="T350" s="4"/>
     </row>
     <row r="351" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="148"/>
-      <c r="B351" s="151"/>
-      <c r="C351" s="147"/>
+      <c r="A351" s="151"/>
+      <c r="B351" s="154"/>
+      <c r="C351" s="145"/>
       <c r="D351" s="24" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E351" s="62" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F351" s="63"/>
       <c r="G351" s="4"/>
@@ -11100,12 +11078,12 @@
       <c r="T351" s="4"/>
     </row>
     <row r="352" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="148"/>
-      <c r="B352" s="151"/>
-      <c r="C352" s="147"/>
+      <c r="A352" s="151"/>
+      <c r="B352" s="154"/>
+      <c r="C352" s="145"/>
       <c r="D352" s="24"/>
       <c r="E352" s="62" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F352" s="63"/>
       <c r="G352" s="4"/>
@@ -11124,15 +11102,15 @@
       <c r="T352" s="4"/>
     </row>
     <row r="353" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="148"/>
-      <c r="B353" s="151"/>
-      <c r="C353" s="147"/>
+      <c r="A353" s="151"/>
+      <c r="B353" s="154"/>
+      <c r="C353" s="145"/>
       <c r="D353" s="24"/>
       <c r="E353" s="62" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F353" s="63" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
@@ -11150,9 +11128,9 @@
       <c r="T353" s="4"/>
     </row>
     <row r="354" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="148"/>
-      <c r="B354" s="151"/>
-      <c r="C354" s="147"/>
+      <c r="A354" s="151"/>
+      <c r="B354" s="154"/>
+      <c r="C354" s="145"/>
       <c r="D354" s="24"/>
       <c r="E354" s="62"/>
       <c r="F354" s="63"/>
@@ -11172,9 +11150,9 @@
       <c r="T354" s="4"/>
     </row>
     <row r="355" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="148"/>
-      <c r="B355" s="151"/>
-      <c r="C355" s="147"/>
+      <c r="A355" s="151"/>
+      <c r="B355" s="154"/>
+      <c r="C355" s="145"/>
       <c r="D355" s="24"/>
       <c r="E355" s="62"/>
       <c r="F355" s="63"/>
@@ -11282,9 +11260,9 @@
       <c r="T359" s="4"/>
     </row>
     <row r="360" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="131"/>
-      <c r="B360" s="156"/>
-      <c r="C360" s="146"/>
+      <c r="A360" s="150"/>
+      <c r="B360" s="157"/>
+      <c r="C360" s="149"/>
       <c r="D360" s="24"/>
       <c r="E360" s="62"/>
       <c r="F360" s="63"/>
@@ -11304,9 +11282,9 @@
       <c r="T360" s="4"/>
     </row>
     <row r="361" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="148"/>
-      <c r="B361" s="151"/>
-      <c r="C361" s="147"/>
+      <c r="A361" s="151"/>
+      <c r="B361" s="154"/>
+      <c r="C361" s="145"/>
       <c r="D361" s="24"/>
       <c r="E361" s="62"/>
       <c r="F361" s="63"/>
@@ -11326,9 +11304,9 @@
       <c r="T361" s="4"/>
     </row>
     <row r="362" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="148"/>
-      <c r="B362" s="151"/>
-      <c r="C362" s="147"/>
+      <c r="A362" s="151"/>
+      <c r="B362" s="154"/>
+      <c r="C362" s="145"/>
       <c r="D362" s="24"/>
       <c r="E362" s="62"/>
       <c r="F362" s="63"/>
@@ -11348,9 +11326,9 @@
       <c r="T362" s="4"/>
     </row>
     <row r="363" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="148"/>
-      <c r="B363" s="151"/>
-      <c r="C363" s="147"/>
+      <c r="A363" s="151"/>
+      <c r="B363" s="154"/>
+      <c r="C363" s="145"/>
       <c r="D363" s="24"/>
       <c r="E363" s="62"/>
       <c r="F363" s="63"/>
@@ -11370,9 +11348,9 @@
       <c r="T363" s="4"/>
     </row>
     <row r="364" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="148"/>
-      <c r="B364" s="151"/>
-      <c r="C364" s="147"/>
+      <c r="A364" s="151"/>
+      <c r="B364" s="154"/>
+      <c r="C364" s="145"/>
       <c r="D364" s="24"/>
       <c r="E364" s="62"/>
       <c r="F364" s="63"/>
@@ -11392,9 +11370,9 @@
       <c r="T364" s="4"/>
     </row>
     <row r="365" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="148"/>
-      <c r="B365" s="151"/>
-      <c r="C365" s="147"/>
+      <c r="A365" s="151"/>
+      <c r="B365" s="154"/>
+      <c r="C365" s="145"/>
       <c r="D365" s="24"/>
       <c r="E365" s="62"/>
       <c r="F365" s="63"/>
@@ -11414,9 +11392,9 @@
       <c r="T365" s="4"/>
     </row>
     <row r="366" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="148"/>
-      <c r="B366" s="151"/>
-      <c r="C366" s="147"/>
+      <c r="A366" s="151"/>
+      <c r="B366" s="154"/>
+      <c r="C366" s="145"/>
       <c r="D366" s="24"/>
       <c r="E366" s="62"/>
       <c r="F366" s="63"/>
@@ -11436,9 +11414,9 @@
       <c r="T366" s="4"/>
     </row>
     <row r="367" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="148"/>
-      <c r="B367" s="151"/>
-      <c r="C367" s="147"/>
+      <c r="A367" s="151"/>
+      <c r="B367" s="154"/>
+      <c r="C367" s="145"/>
       <c r="D367" s="24"/>
       <c r="E367" s="62"/>
       <c r="F367" s="63"/>
@@ -11458,9 +11436,9 @@
       <c r="T367" s="4"/>
     </row>
     <row r="368" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="148"/>
-      <c r="B368" s="151"/>
-      <c r="C368" s="147"/>
+      <c r="A368" s="151"/>
+      <c r="B368" s="154"/>
+      <c r="C368" s="145"/>
       <c r="D368" s="24"/>
       <c r="E368" s="62"/>
       <c r="F368" s="63"/>
@@ -11502,12 +11480,12 @@
       <c r="T369" s="4"/>
     </row>
     <row r="370" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="198"/>
-      <c r="B370" s="198"/>
-      <c r="C370" s="198"/>
-      <c r="D370" s="198"/>
-      <c r="E370" s="198"/>
-      <c r="F370" s="198"/>
+      <c r="A370" s="199"/>
+      <c r="B370" s="199"/>
+      <c r="C370" s="199"/>
+      <c r="D370" s="199"/>
+      <c r="E370" s="199"/>
+      <c r="F370" s="199"/>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
@@ -11524,10 +11502,10 @@
       <c r="T370" s="4"/>
     </row>
     <row r="371" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A371" s="197"/>
-      <c r="B371" s="150"/>
-      <c r="C371" s="152"/>
-      <c r="D371" s="162"/>
+      <c r="A371" s="198"/>
+      <c r="B371" s="153"/>
+      <c r="C371" s="155"/>
+      <c r="D371" s="163"/>
       <c r="E371" s="24"/>
       <c r="F371" s="59"/>
       <c r="G371" s="4"/>
@@ -11546,10 +11524,10 @@
       <c r="T371" s="4"/>
     </row>
     <row r="372" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="148"/>
-      <c r="B372" s="151"/>
-      <c r="C372" s="147"/>
-      <c r="D372" s="137"/>
+      <c r="A372" s="151"/>
+      <c r="B372" s="154"/>
+      <c r="C372" s="145"/>
+      <c r="D372" s="135"/>
       <c r="E372" s="62"/>
       <c r="F372" s="59"/>
       <c r="G372" s="4"/>
@@ -11568,10 +11546,10 @@
       <c r="T372" s="4"/>
     </row>
     <row r="373" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="148"/>
-      <c r="B373" s="151"/>
-      <c r="C373" s="147"/>
-      <c r="D373" s="137"/>
+      <c r="A373" s="151"/>
+      <c r="B373" s="154"/>
+      <c r="C373" s="145"/>
+      <c r="D373" s="135"/>
       <c r="E373" s="62"/>
       <c r="F373" s="59"/>
       <c r="G373" s="4"/>
@@ -11590,10 +11568,10 @@
       <c r="T373" s="4"/>
     </row>
     <row r="374" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="148"/>
-      <c r="B374" s="151"/>
-      <c r="C374" s="147"/>
-      <c r="D374" s="137"/>
+      <c r="A374" s="151"/>
+      <c r="B374" s="154"/>
+      <c r="C374" s="145"/>
+      <c r="D374" s="135"/>
       <c r="E374" s="62"/>
       <c r="F374" s="59"/>
       <c r="G374" s="4"/>
@@ -11612,10 +11590,10 @@
       <c r="T374" s="4"/>
     </row>
     <row r="375" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="148"/>
-      <c r="B375" s="151"/>
-      <c r="C375" s="147"/>
-      <c r="D375" s="137"/>
+      <c r="A375" s="151"/>
+      <c r="B375" s="154"/>
+      <c r="C375" s="145"/>
+      <c r="D375" s="135"/>
       <c r="E375" s="24"/>
       <c r="F375" s="59"/>
       <c r="G375" s="4"/>
@@ -11634,10 +11612,10 @@
       <c r="T375" s="4"/>
     </row>
     <row r="376" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="148"/>
-      <c r="B376" s="151"/>
-      <c r="C376" s="147"/>
-      <c r="D376" s="137"/>
+      <c r="A376" s="151"/>
+      <c r="B376" s="154"/>
+      <c r="C376" s="145"/>
+      <c r="D376" s="135"/>
       <c r="E376" s="24"/>
       <c r="F376" s="59"/>
       <c r="G376" s="4"/>
@@ -11656,10 +11634,10 @@
       <c r="T376" s="4"/>
     </row>
     <row r="377" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="148"/>
-      <c r="B377" s="151"/>
-      <c r="C377" s="147"/>
-      <c r="D377" s="137"/>
+      <c r="A377" s="151"/>
+      <c r="B377" s="154"/>
+      <c r="C377" s="145"/>
+      <c r="D377" s="135"/>
       <c r="E377" s="24"/>
       <c r="F377" s="59"/>
       <c r="G377" s="4"/>
@@ -11766,10 +11744,10 @@
       <c r="T381" s="4"/>
     </row>
     <row r="382" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A382" s="131"/>
-      <c r="B382" s="156"/>
-      <c r="C382" s="146"/>
-      <c r="D382" s="180"/>
+      <c r="A382" s="150"/>
+      <c r="B382" s="157"/>
+      <c r="C382" s="149"/>
+      <c r="D382" s="181"/>
       <c r="E382" s="46"/>
       <c r="F382" s="62"/>
       <c r="G382" s="4"/>
@@ -11810,10 +11788,10 @@
       <c r="T383" s="4"/>
     </row>
     <row r="384" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="157"/>
-      <c r="B384" s="157"/>
-      <c r="C384" s="157"/>
-      <c r="D384" s="157"/>
+      <c r="A384" s="158"/>
+      <c r="B384" s="158"/>
+      <c r="C384" s="158"/>
+      <c r="D384" s="158"/>
       <c r="E384" s="24"/>
       <c r="F384" s="59"/>
       <c r="G384" s="4"/>
@@ -11832,10 +11810,10 @@
       <c r="T384" s="4"/>
     </row>
     <row r="385" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="157"/>
-      <c r="B385" s="157"/>
-      <c r="C385" s="157"/>
-      <c r="D385" s="157"/>
+      <c r="A385" s="158"/>
+      <c r="B385" s="158"/>
+      <c r="C385" s="158"/>
+      <c r="D385" s="158"/>
       <c r="E385" s="24"/>
       <c r="F385" s="59"/>
       <c r="G385" s="4"/>
@@ -11854,10 +11832,10 @@
       <c r="T385" s="4"/>
     </row>
     <row r="386" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="157"/>
-      <c r="B386" s="157"/>
-      <c r="C386" s="157"/>
-      <c r="D386" s="157"/>
+      <c r="A386" s="158"/>
+      <c r="B386" s="158"/>
+      <c r="C386" s="158"/>
+      <c r="D386" s="158"/>
       <c r="E386" s="24"/>
       <c r="F386" s="59"/>
       <c r="G386" s="4"/>
@@ -11986,10 +11964,10 @@
       <c r="T391" s="4"/>
     </row>
     <row r="392" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="131"/>
-      <c r="B392" s="156"/>
-      <c r="C392" s="146"/>
-      <c r="D392" s="180"/>
+      <c r="A392" s="150"/>
+      <c r="B392" s="157"/>
+      <c r="C392" s="149"/>
+      <c r="D392" s="181"/>
       <c r="E392" s="46"/>
       <c r="F392" s="62"/>
       <c r="G392" s="4"/>
@@ -12008,10 +11986,10 @@
       <c r="T392" s="4"/>
     </row>
     <row r="393" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="148"/>
-      <c r="B393" s="151"/>
-      <c r="C393" s="147"/>
-      <c r="D393" s="137"/>
+      <c r="A393" s="151"/>
+      <c r="B393" s="154"/>
+      <c r="C393" s="145"/>
+      <c r="D393" s="135"/>
       <c r="E393" s="24"/>
       <c r="F393" s="62"/>
       <c r="G393" s="4"/>
@@ -12030,10 +12008,10 @@
       <c r="T393" s="4"/>
     </row>
     <row r="394" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="148"/>
-      <c r="B394" s="151"/>
-      <c r="C394" s="147"/>
-      <c r="D394" s="137"/>
+      <c r="A394" s="151"/>
+      <c r="B394" s="154"/>
+      <c r="C394" s="145"/>
+      <c r="D394" s="135"/>
       <c r="E394" s="24"/>
       <c r="F394" s="62"/>
       <c r="G394" s="4"/>
@@ -12052,10 +12030,10 @@
       <c r="T394" s="4"/>
     </row>
     <row r="395" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="148"/>
-      <c r="B395" s="151"/>
-      <c r="C395" s="147"/>
-      <c r="D395" s="137"/>
+      <c r="A395" s="151"/>
+      <c r="B395" s="154"/>
+      <c r="C395" s="145"/>
+      <c r="D395" s="135"/>
       <c r="E395" s="46"/>
       <c r="F395" s="62"/>
       <c r="G395" s="4"/>
@@ -12074,10 +12052,10 @@
       <c r="T395" s="4"/>
     </row>
     <row r="396" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="148"/>
-      <c r="B396" s="151"/>
-      <c r="C396" s="147"/>
-      <c r="D396" s="137"/>
+      <c r="A396" s="151"/>
+      <c r="B396" s="154"/>
+      <c r="C396" s="145"/>
+      <c r="D396" s="135"/>
       <c r="E396" s="46"/>
       <c r="F396" s="62"/>
       <c r="G396" s="4"/>
@@ -12096,10 +12074,10 @@
       <c r="T396" s="4"/>
     </row>
     <row r="397" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="148"/>
-      <c r="B397" s="151"/>
-      <c r="C397" s="147"/>
-      <c r="D397" s="137"/>
+      <c r="A397" s="151"/>
+      <c r="B397" s="154"/>
+      <c r="C397" s="145"/>
+      <c r="D397" s="135"/>
       <c r="E397" s="46"/>
       <c r="F397" s="62"/>
       <c r="G397" s="4"/>
@@ -12162,10 +12140,10 @@
       <c r="T399" s="4"/>
     </row>
     <row r="400" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="131"/>
-      <c r="B400" s="156"/>
-      <c r="C400" s="146"/>
-      <c r="D400" s="180"/>
+      <c r="A400" s="150"/>
+      <c r="B400" s="157"/>
+      <c r="C400" s="149"/>
+      <c r="D400" s="181"/>
       <c r="E400" s="46"/>
       <c r="F400" s="62"/>
       <c r="G400" s="4"/>
@@ -12184,10 +12162,10 @@
       <c r="T400" s="4"/>
     </row>
     <row r="401" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="148"/>
-      <c r="B401" s="151"/>
-      <c r="C401" s="147"/>
-      <c r="D401" s="137"/>
+      <c r="A401" s="151"/>
+      <c r="B401" s="154"/>
+      <c r="C401" s="145"/>
+      <c r="D401" s="135"/>
       <c r="E401" s="24"/>
       <c r="F401" s="62"/>
       <c r="G401" s="4"/>
@@ -12206,10 +12184,10 @@
       <c r="T401" s="4"/>
     </row>
     <row r="402" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="148"/>
-      <c r="B402" s="151"/>
-      <c r="C402" s="147"/>
-      <c r="D402" s="137"/>
+      <c r="A402" s="151"/>
+      <c r="B402" s="154"/>
+      <c r="C402" s="145"/>
+      <c r="D402" s="135"/>
       <c r="E402" s="24"/>
       <c r="F402" s="62"/>
       <c r="G402" s="4"/>
@@ -12228,10 +12206,10 @@
       <c r="T402" s="4"/>
     </row>
     <row r="403" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="148"/>
-      <c r="B403" s="151"/>
-      <c r="C403" s="147"/>
-      <c r="D403" s="137"/>
+      <c r="A403" s="151"/>
+      <c r="B403" s="154"/>
+      <c r="C403" s="145"/>
+      <c r="D403" s="135"/>
       <c r="E403" s="46"/>
       <c r="F403" s="62"/>
       <c r="G403" s="4"/>
@@ -12360,10 +12338,10 @@
       <c r="T408" s="4"/>
     </row>
     <row r="409" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="131"/>
-      <c r="B409" s="156"/>
-      <c r="C409" s="146"/>
-      <c r="D409" s="180"/>
+      <c r="A409" s="150"/>
+      <c r="B409" s="157"/>
+      <c r="C409" s="149"/>
+      <c r="D409" s="181"/>
       <c r="E409" s="46"/>
       <c r="F409" s="62"/>
       <c r="G409" s="4"/>
@@ -12382,10 +12360,10 @@
       <c r="T409" s="4"/>
     </row>
     <row r="410" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="148"/>
-      <c r="B410" s="151"/>
-      <c r="C410" s="147"/>
-      <c r="D410" s="137"/>
+      <c r="A410" s="151"/>
+      <c r="B410" s="154"/>
+      <c r="C410" s="145"/>
+      <c r="D410" s="135"/>
       <c r="E410" s="24"/>
       <c r="F410" s="62"/>
       <c r="G410" s="4"/>
@@ -12404,10 +12382,10 @@
       <c r="T410" s="4"/>
     </row>
     <row r="411" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="148"/>
-      <c r="B411" s="151"/>
-      <c r="C411" s="147"/>
-      <c r="D411" s="137"/>
+      <c r="A411" s="151"/>
+      <c r="B411" s="154"/>
+      <c r="C411" s="145"/>
+      <c r="D411" s="135"/>
       <c r="E411" s="24"/>
       <c r="F411" s="62"/>
       <c r="G411" s="4"/>
@@ -12426,10 +12404,10 @@
       <c r="T411" s="4"/>
     </row>
     <row r="412" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="148"/>
-      <c r="B412" s="151"/>
-      <c r="C412" s="147"/>
-      <c r="D412" s="137"/>
+      <c r="A412" s="151"/>
+      <c r="B412" s="154"/>
+      <c r="C412" s="145"/>
+      <c r="D412" s="135"/>
       <c r="E412" s="46"/>
       <c r="F412" s="62"/>
       <c r="G412" s="4"/>
@@ -12448,10 +12426,10 @@
       <c r="T412" s="4"/>
     </row>
     <row r="413" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="148"/>
-      <c r="B413" s="151"/>
-      <c r="C413" s="147"/>
-      <c r="D413" s="137"/>
+      <c r="A413" s="151"/>
+      <c r="B413" s="154"/>
+      <c r="C413" s="145"/>
+      <c r="D413" s="135"/>
       <c r="E413" s="46"/>
       <c r="F413" s="62"/>
       <c r="G413" s="4"/>
@@ -12470,10 +12448,10 @@
       <c r="T413" s="4"/>
     </row>
     <row r="414" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="148"/>
-      <c r="B414" s="151"/>
-      <c r="C414" s="147"/>
-      <c r="D414" s="137"/>
+      <c r="A414" s="151"/>
+      <c r="B414" s="154"/>
+      <c r="C414" s="145"/>
+      <c r="D414" s="135"/>
       <c r="E414" s="24"/>
       <c r="F414" s="62"/>
       <c r="G414" s="4"/>
@@ -12492,10 +12470,10 @@
       <c r="T414" s="4"/>
     </row>
     <row r="415" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="148"/>
-      <c r="B415" s="151"/>
-      <c r="C415" s="147"/>
-      <c r="D415" s="137"/>
+      <c r="A415" s="151"/>
+      <c r="B415" s="154"/>
+      <c r="C415" s="145"/>
+      <c r="D415" s="135"/>
       <c r="E415" s="24"/>
       <c r="F415" s="62"/>
       <c r="G415" s="4"/>
@@ -12602,10 +12580,10 @@
       <c r="T419" s="4"/>
     </row>
     <row r="420" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="131"/>
-      <c r="B420" s="156"/>
-      <c r="C420" s="146"/>
-      <c r="D420" s="180"/>
+      <c r="A420" s="150"/>
+      <c r="B420" s="157"/>
+      <c r="C420" s="149"/>
+      <c r="D420" s="181"/>
       <c r="E420" s="46"/>
       <c r="F420" s="62"/>
       <c r="G420" s="4"/>
@@ -12624,10 +12602,10 @@
       <c r="T420" s="4"/>
     </row>
     <row r="421" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="148"/>
-      <c r="B421" s="151"/>
-      <c r="C421" s="147"/>
-      <c r="D421" s="137"/>
+      <c r="A421" s="151"/>
+      <c r="B421" s="154"/>
+      <c r="C421" s="145"/>
+      <c r="D421" s="135"/>
       <c r="E421" s="24"/>
       <c r="F421" s="62"/>
       <c r="G421" s="4"/>
@@ -12646,10 +12624,10 @@
       <c r="T421" s="4"/>
     </row>
     <row r="422" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="148"/>
-      <c r="B422" s="151"/>
-      <c r="C422" s="147"/>
-      <c r="D422" s="137"/>
+      <c r="A422" s="151"/>
+      <c r="B422" s="154"/>
+      <c r="C422" s="145"/>
+      <c r="D422" s="135"/>
       <c r="E422" s="24"/>
       <c r="F422" s="62"/>
       <c r="G422" s="4"/>
@@ -12668,10 +12646,10 @@
       <c r="T422" s="4"/>
     </row>
     <row r="423" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="148"/>
-      <c r="B423" s="151"/>
-      <c r="C423" s="147"/>
-      <c r="D423" s="137"/>
+      <c r="A423" s="151"/>
+      <c r="B423" s="154"/>
+      <c r="C423" s="145"/>
+      <c r="D423" s="135"/>
       <c r="E423" s="46"/>
       <c r="F423" s="62"/>
       <c r="G423" s="4"/>
@@ -12690,10 +12668,10 @@
       <c r="T423" s="4"/>
     </row>
     <row r="424" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="148"/>
-      <c r="B424" s="151"/>
-      <c r="C424" s="147"/>
-      <c r="D424" s="137"/>
+      <c r="A424" s="151"/>
+      <c r="B424" s="154"/>
+      <c r="C424" s="145"/>
+      <c r="D424" s="135"/>
       <c r="E424" s="46"/>
       <c r="F424" s="62"/>
       <c r="G424" s="4"/>
@@ -12712,10 +12690,10 @@
       <c r="T424" s="4"/>
     </row>
     <row r="425" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="148"/>
-      <c r="B425" s="151"/>
-      <c r="C425" s="147"/>
-      <c r="D425" s="137"/>
+      <c r="A425" s="151"/>
+      <c r="B425" s="154"/>
+      <c r="C425" s="145"/>
+      <c r="D425" s="135"/>
       <c r="E425" s="24"/>
       <c r="F425" s="62"/>
       <c r="G425" s="4"/>
@@ -12734,10 +12712,10 @@
       <c r="T425" s="4"/>
     </row>
     <row r="426" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="148"/>
-      <c r="B426" s="151"/>
-      <c r="C426" s="147"/>
-      <c r="D426" s="137"/>
+      <c r="A426" s="151"/>
+      <c r="B426" s="154"/>
+      <c r="C426" s="145"/>
+      <c r="D426" s="135"/>
       <c r="E426" s="24"/>
       <c r="F426" s="62"/>
       <c r="G426" s="4"/>
@@ -12888,10 +12866,10 @@
       <c r="T432" s="4"/>
     </row>
     <row r="433" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="176"/>
-      <c r="B433" s="156"/>
-      <c r="C433" s="146"/>
-      <c r="D433" s="180"/>
+      <c r="A433" s="177"/>
+      <c r="B433" s="157"/>
+      <c r="C433" s="149"/>
+      <c r="D433" s="181"/>
       <c r="E433" s="46"/>
       <c r="F433" s="62"/>
       <c r="G433" s="4"/>
@@ -12910,10 +12888,10 @@
       <c r="T433" s="4"/>
     </row>
     <row r="434" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="148"/>
-      <c r="B434" s="151"/>
-      <c r="C434" s="147"/>
-      <c r="D434" s="137"/>
+      <c r="A434" s="151"/>
+      <c r="B434" s="154"/>
+      <c r="C434" s="145"/>
+      <c r="D434" s="135"/>
       <c r="E434" s="24"/>
       <c r="F434" s="62"/>
       <c r="G434" s="4"/>
@@ -12932,10 +12910,10 @@
       <c r="T434" s="4"/>
     </row>
     <row r="435" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="148"/>
-      <c r="B435" s="151"/>
-      <c r="C435" s="147"/>
-      <c r="D435" s="137"/>
+      <c r="A435" s="151"/>
+      <c r="B435" s="154"/>
+      <c r="C435" s="145"/>
+      <c r="D435" s="135"/>
       <c r="E435" s="24"/>
       <c r="F435" s="62"/>
       <c r="G435" s="4"/>
@@ -12954,10 +12932,10 @@
       <c r="T435" s="4"/>
     </row>
     <row r="436" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="148"/>
-      <c r="B436" s="151"/>
-      <c r="C436" s="147"/>
-      <c r="D436" s="137"/>
+      <c r="A436" s="151"/>
+      <c r="B436" s="154"/>
+      <c r="C436" s="145"/>
+      <c r="D436" s="135"/>
       <c r="E436" s="46"/>
       <c r="F436" s="62"/>
       <c r="G436" s="4"/>
@@ -12976,10 +12954,10 @@
       <c r="T436" s="4"/>
     </row>
     <row r="437" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="148"/>
-      <c r="B437" s="151"/>
-      <c r="C437" s="147"/>
-      <c r="D437" s="137"/>
+      <c r="A437" s="151"/>
+      <c r="B437" s="154"/>
+      <c r="C437" s="145"/>
+      <c r="D437" s="135"/>
       <c r="E437" s="46"/>
       <c r="F437" s="62"/>
       <c r="G437" s="4"/>
@@ -12998,10 +12976,10 @@
       <c r="T437" s="4"/>
     </row>
     <row r="438" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="148"/>
-      <c r="B438" s="151"/>
-      <c r="C438" s="147"/>
-      <c r="D438" s="137"/>
+      <c r="A438" s="151"/>
+      <c r="B438" s="154"/>
+      <c r="C438" s="145"/>
+      <c r="D438" s="135"/>
       <c r="E438" s="46"/>
       <c r="F438" s="62"/>
       <c r="G438" s="4"/>
@@ -13020,10 +12998,10 @@
       <c r="T438" s="4"/>
     </row>
     <row r="439" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="148"/>
-      <c r="B439" s="151"/>
-      <c r="C439" s="147"/>
-      <c r="D439" s="137"/>
+      <c r="A439" s="151"/>
+      <c r="B439" s="154"/>
+      <c r="C439" s="145"/>
+      <c r="D439" s="135"/>
       <c r="E439" s="46"/>
       <c r="F439" s="62"/>
       <c r="G439" s="4"/>
@@ -13130,10 +13108,10 @@
       <c r="T443" s="4"/>
     </row>
     <row r="444" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A444" s="131"/>
-      <c r="B444" s="156"/>
-      <c r="C444" s="146"/>
-      <c r="D444" s="180"/>
+      <c r="A444" s="150"/>
+      <c r="B444" s="157"/>
+      <c r="C444" s="149"/>
+      <c r="D444" s="181"/>
       <c r="E444" s="46"/>
       <c r="F444" s="62"/>
       <c r="G444" s="4"/>
@@ -13263,7 +13241,7 @@
     </row>
     <row r="450" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A450" s="133"/>
-      <c r="B450" s="157"/>
+      <c r="B450" s="158"/>
       <c r="C450" s="133"/>
       <c r="D450" s="133"/>
       <c r="E450" s="26"/>
@@ -13284,10 +13262,10 @@
       <c r="T450" s="4"/>
     </row>
     <row r="451" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="181"/>
-      <c r="B451" s="185"/>
-      <c r="C451" s="184"/>
-      <c r="D451" s="180"/>
+      <c r="A451" s="182"/>
+      <c r="B451" s="186"/>
+      <c r="C451" s="185"/>
+      <c r="D451" s="181"/>
       <c r="E451" s="46"/>
       <c r="F451" s="62"/>
       <c r="G451" s="4"/>
@@ -13306,10 +13284,10 @@
       <c r="T451" s="4"/>
     </row>
     <row r="452" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="182"/>
-      <c r="B452" s="186"/>
-      <c r="C452" s="184"/>
-      <c r="D452" s="137"/>
+      <c r="A452" s="183"/>
+      <c r="B452" s="187"/>
+      <c r="C452" s="185"/>
+      <c r="D452" s="135"/>
       <c r="E452" s="46"/>
       <c r="F452" s="62"/>
       <c r="G452" s="4"/>
@@ -13328,10 +13306,10 @@
       <c r="T452" s="4"/>
     </row>
     <row r="453" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="182"/>
-      <c r="B453" s="186"/>
-      <c r="C453" s="184"/>
-      <c r="D453" s="137"/>
+      <c r="A453" s="183"/>
+      <c r="B453" s="187"/>
+      <c r="C453" s="185"/>
+      <c r="D453" s="135"/>
       <c r="E453" s="46"/>
       <c r="F453" s="62"/>
       <c r="G453" s="4"/>
@@ -13350,10 +13328,10 @@
       <c r="T453" s="4"/>
     </row>
     <row r="454" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="182"/>
-      <c r="B454" s="186"/>
-      <c r="C454" s="184"/>
-      <c r="D454" s="137"/>
+      <c r="A454" s="183"/>
+      <c r="B454" s="187"/>
+      <c r="C454" s="185"/>
+      <c r="D454" s="135"/>
       <c r="E454" s="46"/>
       <c r="F454" s="62"/>
       <c r="G454" s="4"/>
@@ -13372,10 +13350,10 @@
       <c r="T454" s="4"/>
     </row>
     <row r="455" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="182"/>
-      <c r="B455" s="186"/>
-      <c r="C455" s="184"/>
-      <c r="D455" s="137"/>
+      <c r="A455" s="183"/>
+      <c r="B455" s="187"/>
+      <c r="C455" s="185"/>
+      <c r="D455" s="135"/>
       <c r="E455" s="46"/>
       <c r="F455" s="62"/>
       <c r="G455" s="4"/>
@@ -13394,10 +13372,10 @@
       <c r="T455" s="4"/>
     </row>
     <row r="456" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="182"/>
-      <c r="B456" s="186"/>
-      <c r="C456" s="184"/>
-      <c r="D456" s="137"/>
+      <c r="A456" s="183"/>
+      <c r="B456" s="187"/>
+      <c r="C456" s="185"/>
+      <c r="D456" s="135"/>
       <c r="E456" s="46"/>
       <c r="F456" s="62"/>
       <c r="G456" s="4"/>
@@ -13416,10 +13394,10 @@
       <c r="T456" s="4"/>
     </row>
     <row r="457" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="182"/>
-      <c r="B457" s="186"/>
-      <c r="C457" s="184"/>
-      <c r="D457" s="137"/>
+      <c r="A457" s="183"/>
+      <c r="B457" s="187"/>
+      <c r="C457" s="185"/>
+      <c r="D457" s="135"/>
       <c r="E457" s="46"/>
       <c r="F457" s="62"/>
       <c r="G457" s="4"/>
@@ -13438,10 +13416,10 @@
       <c r="T457" s="4"/>
     </row>
     <row r="458" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="148"/>
-      <c r="B458" s="187"/>
-      <c r="C458" s="147"/>
-      <c r="D458" s="137"/>
+      <c r="A458" s="151"/>
+      <c r="B458" s="188"/>
+      <c r="C458" s="145"/>
+      <c r="D458" s="135"/>
       <c r="E458" s="46"/>
       <c r="F458" s="62"/>
       <c r="G458" s="4"/>
@@ -13460,8 +13438,8 @@
       <c r="T458" s="4"/>
     </row>
     <row r="459" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A459" s="148"/>
-      <c r="B459" s="157"/>
+      <c r="A459" s="151"/>
+      <c r="B459" s="158"/>
       <c r="C459" s="132"/>
       <c r="D459" s="132"/>
       <c r="E459" s="24"/>
@@ -13482,8 +13460,8 @@
       <c r="T459" s="4"/>
     </row>
     <row r="460" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A460" s="183"/>
-      <c r="B460" s="188"/>
+      <c r="A460" s="184"/>
+      <c r="B460" s="189"/>
       <c r="C460" s="133"/>
       <c r="D460" s="133"/>
       <c r="E460" s="26"/>
@@ -13504,10 +13482,10 @@
       <c r="T460" s="4"/>
     </row>
     <row r="461" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="131"/>
-      <c r="B461" s="156"/>
-      <c r="C461" s="146"/>
-      <c r="D461" s="180"/>
+      <c r="A461" s="150"/>
+      <c r="B461" s="157"/>
+      <c r="C461" s="149"/>
+      <c r="D461" s="181"/>
       <c r="E461" s="46"/>
       <c r="F461" s="62"/>
       <c r="G461" s="4"/>
@@ -13548,10 +13526,10 @@
       <c r="T462" s="4"/>
     </row>
     <row r="463" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="157"/>
-      <c r="B463" s="157"/>
-      <c r="C463" s="157"/>
-      <c r="D463" s="157"/>
+      <c r="A463" s="158"/>
+      <c r="B463" s="158"/>
+      <c r="C463" s="158"/>
+      <c r="D463" s="158"/>
       <c r="E463" s="24"/>
       <c r="F463" s="59"/>
       <c r="G463" s="4"/>
@@ -13570,10 +13548,10 @@
       <c r="T463" s="4"/>
     </row>
     <row r="464" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="157"/>
-      <c r="B464" s="157"/>
-      <c r="C464" s="157"/>
-      <c r="D464" s="157"/>
+      <c r="A464" s="158"/>
+      <c r="B464" s="158"/>
+      <c r="C464" s="158"/>
+      <c r="D464" s="158"/>
       <c r="E464" s="24"/>
       <c r="F464" s="59"/>
       <c r="G464" s="4"/>
@@ -13592,10 +13570,10 @@
       <c r="T464" s="4"/>
     </row>
     <row r="465" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="157"/>
-      <c r="B465" s="157"/>
-      <c r="C465" s="157"/>
-      <c r="D465" s="157"/>
+      <c r="A465" s="158"/>
+      <c r="B465" s="158"/>
+      <c r="C465" s="158"/>
+      <c r="D465" s="158"/>
       <c r="E465" s="24"/>
       <c r="F465" s="59"/>
       <c r="G465" s="4"/>
@@ -13614,10 +13592,10 @@
       <c r="T465" s="4"/>
     </row>
     <row r="466" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="157"/>
-      <c r="B466" s="157"/>
-      <c r="C466" s="157"/>
-      <c r="D466" s="157"/>
+      <c r="A466" s="158"/>
+      <c r="B466" s="158"/>
+      <c r="C466" s="158"/>
+      <c r="D466" s="158"/>
       <c r="E466" s="24"/>
       <c r="F466" s="59"/>
       <c r="G466" s="4"/>
@@ -13636,10 +13614,10 @@
       <c r="T466" s="4"/>
     </row>
     <row r="467" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="157"/>
-      <c r="B467" s="157"/>
-      <c r="C467" s="157"/>
-      <c r="D467" s="157"/>
+      <c r="A467" s="158"/>
+      <c r="B467" s="158"/>
+      <c r="C467" s="158"/>
+      <c r="D467" s="158"/>
       <c r="E467" s="24"/>
       <c r="F467" s="59"/>
       <c r="G467" s="4"/>
@@ -13658,10 +13636,10 @@
       <c r="T467" s="4"/>
     </row>
     <row r="468" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="157"/>
-      <c r="B468" s="157"/>
-      <c r="C468" s="157"/>
-      <c r="D468" s="157"/>
+      <c r="A468" s="158"/>
+      <c r="B468" s="158"/>
+      <c r="C468" s="158"/>
+      <c r="D468" s="158"/>
       <c r="E468" s="24"/>
       <c r="F468" s="59"/>
       <c r="G468" s="4"/>
@@ -13746,10 +13724,10 @@
       <c r="T471" s="4"/>
     </row>
     <row r="472" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="131"/>
-      <c r="B472" s="189"/>
-      <c r="C472" s="193"/>
-      <c r="D472" s="194"/>
+      <c r="A472" s="150"/>
+      <c r="B472" s="190"/>
+      <c r="C472" s="194"/>
+      <c r="D472" s="195"/>
       <c r="E472" s="64"/>
       <c r="F472" s="65"/>
       <c r="G472" s="4"/>
@@ -13768,10 +13746,10 @@
       <c r="T472" s="4"/>
     </row>
     <row r="473" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="148"/>
-      <c r="B473" s="190"/>
-      <c r="C473" s="184"/>
-      <c r="D473" s="195"/>
+      <c r="A473" s="151"/>
+      <c r="B473" s="191"/>
+      <c r="C473" s="185"/>
+      <c r="D473" s="196"/>
       <c r="E473" s="46"/>
       <c r="F473" s="68"/>
       <c r="G473" s="4"/>
@@ -13790,10 +13768,10 @@
       <c r="T473" s="4"/>
     </row>
     <row r="474" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="148"/>
-      <c r="B474" s="190"/>
-      <c r="C474" s="184"/>
-      <c r="D474" s="195"/>
+      <c r="A474" s="151"/>
+      <c r="B474" s="191"/>
+      <c r="C474" s="185"/>
+      <c r="D474" s="196"/>
       <c r="E474" s="124"/>
       <c r="F474" s="125"/>
       <c r="G474" s="4"/>
@@ -13812,10 +13790,10 @@
       <c r="T474" s="4"/>
     </row>
     <row r="475" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="148"/>
-      <c r="B475" s="190"/>
-      <c r="C475" s="184"/>
-      <c r="D475" s="195"/>
+      <c r="A475" s="151"/>
+      <c r="B475" s="191"/>
+      <c r="C475" s="185"/>
+      <c r="D475" s="196"/>
       <c r="E475" s="123"/>
       <c r="F475" s="68"/>
       <c r="G475" s="4"/>
@@ -13835,9 +13813,9 @@
     </row>
     <row r="476" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A476" s="132"/>
-      <c r="B476" s="191"/>
-      <c r="C476" s="191"/>
-      <c r="D476" s="191"/>
+      <c r="B476" s="192"/>
+      <c r="C476" s="192"/>
+      <c r="D476" s="192"/>
       <c r="E476" s="66"/>
       <c r="F476" s="67"/>
       <c r="G476" s="4"/>
@@ -13857,9 +13835,9 @@
     </row>
     <row r="477" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A477" s="132"/>
-      <c r="B477" s="191"/>
-      <c r="C477" s="191"/>
-      <c r="D477" s="191"/>
+      <c r="B477" s="192"/>
+      <c r="C477" s="192"/>
+      <c r="D477" s="192"/>
       <c r="E477" s="46"/>
       <c r="F477" s="68"/>
       <c r="G477" s="4"/>
@@ -13879,9 +13857,9 @@
     </row>
     <row r="478" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A478" s="132"/>
-      <c r="B478" s="191"/>
-      <c r="C478" s="191"/>
-      <c r="D478" s="191"/>
+      <c r="B478" s="192"/>
+      <c r="C478" s="192"/>
+      <c r="D478" s="192"/>
       <c r="E478" s="46"/>
       <c r="F478" s="67"/>
       <c r="G478" s="4"/>
@@ -13901,9 +13879,9 @@
     </row>
     <row r="479" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A479" s="132"/>
-      <c r="B479" s="191"/>
-      <c r="C479" s="191"/>
-      <c r="D479" s="191"/>
+      <c r="B479" s="192"/>
+      <c r="C479" s="192"/>
+      <c r="D479" s="192"/>
       <c r="E479" s="46"/>
       <c r="F479" s="68"/>
       <c r="G479" s="4"/>
@@ -13923,9 +13901,9 @@
     </row>
     <row r="480" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A480" s="133"/>
-      <c r="B480" s="192"/>
-      <c r="C480" s="192"/>
-      <c r="D480" s="192"/>
+      <c r="B480" s="193"/>
+      <c r="C480" s="193"/>
+      <c r="D480" s="193"/>
       <c r="E480" s="69"/>
       <c r="F480" s="70"/>
       <c r="G480" s="4"/>
@@ -13944,10 +13922,10 @@
       <c r="T480" s="4"/>
     </row>
     <row r="481" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="176"/>
-      <c r="B481" s="189"/>
-      <c r="C481" s="193"/>
-      <c r="D481" s="194"/>
+      <c r="A481" s="177"/>
+      <c r="B481" s="190"/>
+      <c r="C481" s="194"/>
+      <c r="D481" s="195"/>
       <c r="E481" s="71"/>
       <c r="F481" s="72"/>
       <c r="G481" s="4"/>
@@ -13966,10 +13944,10 @@
       <c r="T481" s="4"/>
     </row>
     <row r="482" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="148"/>
-      <c r="B482" s="190"/>
-      <c r="C482" s="184"/>
-      <c r="D482" s="195"/>
+      <c r="A482" s="151"/>
+      <c r="B482" s="191"/>
+      <c r="C482" s="185"/>
+      <c r="D482" s="196"/>
       <c r="E482" s="46"/>
       <c r="F482" s="72"/>
       <c r="G482" s="4"/>
@@ -13988,10 +13966,10 @@
       <c r="T482" s="4"/>
     </row>
     <row r="483" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A483" s="148"/>
-      <c r="B483" s="190"/>
-      <c r="C483" s="184"/>
-      <c r="D483" s="195"/>
+      <c r="A483" s="151"/>
+      <c r="B483" s="191"/>
+      <c r="C483" s="185"/>
+      <c r="D483" s="196"/>
       <c r="E483" s="126"/>
       <c r="F483" s="72"/>
       <c r="G483" s="4"/>
@@ -14011,9 +13989,9 @@
     </row>
     <row r="484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A484" s="132"/>
-      <c r="B484" s="191"/>
-      <c r="C484" s="191"/>
-      <c r="D484" s="191"/>
+      <c r="B484" s="192"/>
+      <c r="C484" s="192"/>
+      <c r="D484" s="192"/>
       <c r="E484" s="127"/>
       <c r="F484" s="43"/>
       <c r="G484" s="4"/>
@@ -14033,9 +14011,9 @@
     </row>
     <row r="485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A485" s="132"/>
-      <c r="B485" s="191"/>
-      <c r="C485" s="191"/>
-      <c r="D485" s="191"/>
+      <c r="B485" s="192"/>
+      <c r="C485" s="192"/>
+      <c r="D485" s="192"/>
       <c r="E485" s="73"/>
       <c r="F485" s="74"/>
       <c r="G485" s="4"/>
@@ -14055,9 +14033,9 @@
     </row>
     <row r="486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A486" s="132"/>
-      <c r="B486" s="191"/>
-      <c r="C486" s="191"/>
-      <c r="D486" s="191"/>
+      <c r="B486" s="192"/>
+      <c r="C486" s="192"/>
+      <c r="D486" s="192"/>
       <c r="E486" s="73"/>
       <c r="F486" s="128"/>
       <c r="G486" s="4"/>
@@ -14077,9 +14055,9 @@
     </row>
     <row r="487" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A487" s="132"/>
-      <c r="B487" s="191"/>
-      <c r="C487" s="191"/>
-      <c r="D487" s="191"/>
+      <c r="B487" s="192"/>
+      <c r="C487" s="192"/>
+      <c r="D487" s="192"/>
       <c r="E487" s="73"/>
       <c r="F487" s="43"/>
       <c r="G487" s="4"/>
@@ -14099,9 +14077,9 @@
     </row>
     <row r="488" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A488" s="133"/>
-      <c r="B488" s="192"/>
-      <c r="C488" s="192"/>
-      <c r="D488" s="192"/>
+      <c r="B488" s="193"/>
+      <c r="C488" s="193"/>
+      <c r="D488" s="193"/>
       <c r="E488" s="69"/>
       <c r="F488" s="70"/>
       <c r="G488" s="4"/>
@@ -14120,10 +14098,10 @@
       <c r="T488" s="4"/>
     </row>
     <row r="489" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A489" s="176"/>
-      <c r="B489" s="189"/>
-      <c r="C489" s="193"/>
-      <c r="D489" s="194"/>
+      <c r="A489" s="177"/>
+      <c r="B489" s="190"/>
+      <c r="C489" s="194"/>
+      <c r="D489" s="195"/>
       <c r="E489" s="37"/>
       <c r="F489" s="74"/>
       <c r="G489" s="4"/>
@@ -14143,9 +14121,9 @@
     </row>
     <row r="490" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A490" s="132"/>
-      <c r="B490" s="191"/>
-      <c r="C490" s="191"/>
-      <c r="D490" s="191"/>
+      <c r="B490" s="192"/>
+      <c r="C490" s="192"/>
+      <c r="D490" s="192"/>
       <c r="E490" s="46"/>
       <c r="F490" s="43"/>
       <c r="G490" s="4"/>
@@ -14165,9 +14143,9 @@
     </row>
     <row r="491" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A491" s="132"/>
-      <c r="B491" s="191"/>
-      <c r="C491" s="191"/>
-      <c r="D491" s="191"/>
+      <c r="B491" s="192"/>
+      <c r="C491" s="192"/>
+      <c r="D491" s="192"/>
       <c r="E491" s="24"/>
       <c r="F491" s="74"/>
       <c r="G491" s="4"/>
@@ -14187,9 +14165,9 @@
     </row>
     <row r="492" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A492" s="132"/>
-      <c r="B492" s="191"/>
-      <c r="C492" s="191"/>
-      <c r="D492" s="191"/>
+      <c r="B492" s="192"/>
+      <c r="C492" s="192"/>
+      <c r="D492" s="192"/>
       <c r="E492" s="24"/>
       <c r="F492" s="43"/>
       <c r="G492" s="4"/>
@@ -14209,9 +14187,9 @@
     </row>
     <row r="493" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A493" s="132"/>
-      <c r="B493" s="191"/>
-      <c r="C493" s="191"/>
-      <c r="D493" s="191"/>
+      <c r="B493" s="192"/>
+      <c r="C493" s="192"/>
+      <c r="D493" s="192"/>
       <c r="E493" s="24"/>
       <c r="F493" s="76"/>
       <c r="G493" s="4"/>
@@ -14231,9 +14209,9 @@
     </row>
     <row r="494" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A494" s="132"/>
-      <c r="B494" s="191"/>
-      <c r="C494" s="191"/>
-      <c r="D494" s="191"/>
+      <c r="B494" s="192"/>
+      <c r="C494" s="192"/>
+      <c r="D494" s="192"/>
       <c r="E494" s="73"/>
       <c r="F494" s="74"/>
       <c r="G494" s="4"/>
@@ -14253,9 +14231,9 @@
     </row>
     <row r="495" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A495" s="132"/>
-      <c r="B495" s="191"/>
-      <c r="C495" s="191"/>
-      <c r="D495" s="191"/>
+      <c r="B495" s="192"/>
+      <c r="C495" s="192"/>
+      <c r="D495" s="192"/>
       <c r="E495" s="73"/>
       <c r="F495" s="43"/>
       <c r="G495" s="4"/>
@@ -14275,9 +14253,9 @@
     </row>
     <row r="496" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A496" s="133"/>
-      <c r="B496" s="192"/>
-      <c r="C496" s="192"/>
-      <c r="D496" s="192"/>
+      <c r="B496" s="193"/>
+      <c r="C496" s="193"/>
+      <c r="D496" s="193"/>
       <c r="E496" s="69"/>
       <c r="F496" s="70"/>
       <c r="G496" s="4"/>
@@ -14296,10 +14274,10 @@
       <c r="T496" s="4"/>
     </row>
     <row r="497" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A497" s="176"/>
-      <c r="B497" s="189"/>
-      <c r="C497" s="152"/>
-      <c r="D497" s="162"/>
+      <c r="A497" s="177"/>
+      <c r="B497" s="190"/>
+      <c r="C497" s="155"/>
+      <c r="D497" s="163"/>
       <c r="E497" s="37"/>
       <c r="F497" s="74"/>
       <c r="G497" s="4"/>
@@ -14319,7 +14297,7 @@
     </row>
     <row r="498" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A498" s="132"/>
-      <c r="B498" s="191"/>
+      <c r="B498" s="192"/>
       <c r="C498" s="132"/>
       <c r="D498" s="132"/>
       <c r="E498" s="46"/>
@@ -14341,7 +14319,7 @@
     </row>
     <row r="499" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A499" s="132"/>
-      <c r="B499" s="191"/>
+      <c r="B499" s="192"/>
       <c r="C499" s="132"/>
       <c r="D499" s="132"/>
       <c r="E499" s="24"/>
@@ -14362,10 +14340,10 @@
       <c r="T499" s="4"/>
     </row>
     <row r="500" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="157"/>
-      <c r="B500" s="196"/>
-      <c r="C500" s="157"/>
-      <c r="D500" s="157"/>
+      <c r="A500" s="158"/>
+      <c r="B500" s="197"/>
+      <c r="C500" s="158"/>
+      <c r="D500" s="158"/>
       <c r="E500" s="24"/>
       <c r="F500" s="74"/>
       <c r="G500" s="4"/>
@@ -14384,10 +14362,10 @@
       <c r="T500" s="4"/>
     </row>
     <row r="501" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="157"/>
-      <c r="B501" s="196"/>
-      <c r="C501" s="157"/>
-      <c r="D501" s="157"/>
+      <c r="A501" s="158"/>
+      <c r="B501" s="197"/>
+      <c r="C501" s="158"/>
+      <c r="D501" s="158"/>
       <c r="E501" s="24"/>
       <c r="F501" s="74"/>
       <c r="G501" s="4"/>
@@ -14406,10 +14384,10 @@
       <c r="T501" s="4"/>
     </row>
     <row r="502" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="157"/>
-      <c r="B502" s="196"/>
-      <c r="C502" s="157"/>
-      <c r="D502" s="157"/>
+      <c r="A502" s="158"/>
+      <c r="B502" s="197"/>
+      <c r="C502" s="158"/>
+      <c r="D502" s="158"/>
       <c r="E502" s="73"/>
       <c r="F502" s="74"/>
       <c r="G502" s="4"/>
@@ -14429,7 +14407,7 @@
     </row>
     <row r="503" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A503" s="132"/>
-      <c r="B503" s="191"/>
+      <c r="B503" s="192"/>
       <c r="C503" s="132"/>
       <c r="D503" s="132"/>
       <c r="E503" s="73"/>
@@ -14451,7 +14429,7 @@
     </row>
     <row r="504" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A504" s="132"/>
-      <c r="B504" s="191"/>
+      <c r="B504" s="192"/>
       <c r="C504" s="132"/>
       <c r="D504" s="132"/>
       <c r="E504" s="73"/>
@@ -14473,7 +14451,7 @@
     </row>
     <row r="505" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A505" s="133"/>
-      <c r="B505" s="192"/>
+      <c r="B505" s="193"/>
       <c r="C505" s="133"/>
       <c r="D505" s="133"/>
       <c r="E505" s="69"/>
@@ -14494,10 +14472,10 @@
       <c r="T505" s="4"/>
     </row>
     <row r="506" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="176"/>
-      <c r="B506" s="156"/>
-      <c r="C506" s="193"/>
-      <c r="D506" s="194"/>
+      <c r="A506" s="177"/>
+      <c r="B506" s="157"/>
+      <c r="C506" s="194"/>
+      <c r="D506" s="195"/>
       <c r="E506" s="37"/>
       <c r="F506" s="72"/>
       <c r="G506" s="4"/>
@@ -14516,10 +14494,10 @@
       <c r="T506" s="4"/>
     </row>
     <row r="507" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="148"/>
-      <c r="B507" s="151"/>
-      <c r="C507" s="184"/>
-      <c r="D507" s="195"/>
+      <c r="A507" s="151"/>
+      <c r="B507" s="154"/>
+      <c r="C507" s="185"/>
+      <c r="D507" s="196"/>
       <c r="E507" s="46"/>
       <c r="F507" s="72"/>
       <c r="G507" s="4"/>
@@ -14538,10 +14516,10 @@
       <c r="T507" s="4"/>
     </row>
     <row r="508" spans="1:20" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A508" s="148"/>
-      <c r="B508" s="151"/>
-      <c r="C508" s="184"/>
-      <c r="D508" s="195"/>
+      <c r="A508" s="151"/>
+      <c r="B508" s="154"/>
+      <c r="C508" s="185"/>
+      <c r="D508" s="196"/>
       <c r="E508" s="129"/>
       <c r="F508" s="72"/>
       <c r="G508" s="4"/>
@@ -14562,8 +14540,8 @@
     <row r="509" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A509" s="132"/>
       <c r="B509" s="132"/>
-      <c r="C509" s="191"/>
-      <c r="D509" s="191"/>
+      <c r="C509" s="192"/>
+      <c r="D509" s="192"/>
       <c r="E509" s="127"/>
       <c r="F509" s="43"/>
       <c r="G509" s="4"/>
@@ -14584,8 +14562,8 @@
     <row r="510" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A510" s="132"/>
       <c r="B510" s="132"/>
-      <c r="C510" s="191"/>
-      <c r="D510" s="191"/>
+      <c r="C510" s="192"/>
+      <c r="D510" s="192"/>
       <c r="E510" s="73"/>
       <c r="F510" s="74"/>
       <c r="G510" s="4"/>
@@ -14606,8 +14584,8 @@
     <row r="511" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A511" s="132"/>
       <c r="B511" s="132"/>
-      <c r="C511" s="191"/>
-      <c r="D511" s="191"/>
+      <c r="C511" s="192"/>
+      <c r="D511" s="192"/>
       <c r="E511" s="73"/>
       <c r="F511" s="43"/>
       <c r="G511" s="4"/>
@@ -14628,8 +14606,8 @@
     <row r="512" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A512" s="133"/>
       <c r="B512" s="133"/>
-      <c r="C512" s="192"/>
-      <c r="D512" s="192"/>
+      <c r="C512" s="193"/>
+      <c r="D512" s="193"/>
       <c r="E512" s="78"/>
       <c r="F512" s="45"/>
       <c r="G512" s="4"/>
@@ -14648,10 +14626,10 @@
       <c r="T512" s="4"/>
     </row>
     <row r="513" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A513" s="176"/>
-      <c r="B513" s="189"/>
-      <c r="C513" s="193"/>
-      <c r="D513" s="194"/>
+      <c r="A513" s="177"/>
+      <c r="B513" s="190"/>
+      <c r="C513" s="194"/>
+      <c r="D513" s="195"/>
       <c r="E513" s="37"/>
       <c r="F513" s="74"/>
       <c r="G513" s="4"/>
@@ -14671,9 +14649,9 @@
     </row>
     <row r="514" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A514" s="132"/>
-      <c r="B514" s="191"/>
-      <c r="C514" s="191"/>
-      <c r="D514" s="191"/>
+      <c r="B514" s="192"/>
+      <c r="C514" s="192"/>
+      <c r="D514" s="192"/>
       <c r="E514" s="46"/>
       <c r="F514" s="43"/>
       <c r="G514" s="4"/>
@@ -14693,9 +14671,9 @@
     </row>
     <row r="515" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A515" s="132"/>
-      <c r="B515" s="191"/>
-      <c r="C515" s="191"/>
-      <c r="D515" s="191"/>
+      <c r="B515" s="192"/>
+      <c r="C515" s="192"/>
+      <c r="D515" s="192"/>
       <c r="E515" s="73"/>
       <c r="F515" s="74"/>
       <c r="G515" s="4"/>
@@ -14715,9 +14693,9 @@
     </row>
     <row r="516" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A516" s="132"/>
-      <c r="B516" s="191"/>
-      <c r="C516" s="191"/>
-      <c r="D516" s="191"/>
+      <c r="B516" s="192"/>
+      <c r="C516" s="192"/>
+      <c r="D516" s="192"/>
       <c r="E516" s="75"/>
       <c r="F516" s="128"/>
       <c r="G516" s="4"/>
@@ -14737,9 +14715,9 @@
     </row>
     <row r="517" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A517" s="132"/>
-      <c r="B517" s="191"/>
-      <c r="C517" s="191"/>
-      <c r="D517" s="191"/>
+      <c r="B517" s="192"/>
+      <c r="C517" s="192"/>
+      <c r="D517" s="192"/>
       <c r="E517" s="73"/>
       <c r="F517" s="43"/>
       <c r="G517" s="4"/>
@@ -14759,9 +14737,9 @@
     </row>
     <row r="518" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A518" s="132"/>
-      <c r="B518" s="191"/>
-      <c r="C518" s="191"/>
-      <c r="D518" s="191"/>
+      <c r="B518" s="192"/>
+      <c r="C518" s="192"/>
+      <c r="D518" s="192"/>
       <c r="E518" s="73"/>
       <c r="F518" s="43"/>
       <c r="G518" s="4"/>
@@ -14781,9 +14759,9 @@
     </row>
     <row r="519" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A519" s="133"/>
-      <c r="B519" s="192"/>
-      <c r="C519" s="192"/>
-      <c r="D519" s="192"/>
+      <c r="B519" s="193"/>
+      <c r="C519" s="193"/>
+      <c r="D519" s="193"/>
       <c r="E519" s="69"/>
       <c r="F519" s="70"/>
       <c r="G519" s="4"/>
@@ -14802,14 +14780,14 @@
       <c r="T519" s="4"/>
     </row>
     <row r="520" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="211" t="s">
+      <c r="A520" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="B520" s="211"/>
-      <c r="C520" s="211"/>
-      <c r="D520" s="211"/>
-      <c r="E520" s="211"/>
-      <c r="F520" s="211"/>
+      <c r="B520" s="212"/>
+      <c r="C520" s="212"/>
+      <c r="D520" s="212"/>
+      <c r="E520" s="212"/>
+      <c r="F520" s="212"/>
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
       <c r="I520" s="4"/>
@@ -14826,12 +14804,12 @@
       <c r="T520" s="4"/>
     </row>
     <row r="521" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A521" s="197" t="s">
+      <c r="A521" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="B521" s="150"/>
-      <c r="C521" s="152"/>
-      <c r="D521" s="162"/>
+      <c r="B521" s="153"/>
+      <c r="C521" s="155"/>
+      <c r="D521" s="163"/>
       <c r="E521" s="79"/>
       <c r="F521" s="80"/>
       <c r="G521" s="4"/>
@@ -14916,12 +14894,12 @@
       <c r="T524" s="4"/>
     </row>
     <row r="525" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A525" s="131" t="s">
+      <c r="A525" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="B525" s="156"/>
-      <c r="C525" s="146"/>
-      <c r="D525" s="180"/>
+      <c r="B525" s="157"/>
+      <c r="C525" s="149"/>
+      <c r="D525" s="181"/>
       <c r="E525" s="82"/>
       <c r="F525" s="63"/>
       <c r="G525" s="4"/>
@@ -14984,12 +14962,12 @@
       <c r="T527" s="4"/>
     </row>
     <row r="528" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A528" s="131" t="s">
+      <c r="A528" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="B528" s="156"/>
-      <c r="C528" s="146"/>
-      <c r="D528" s="180"/>
+      <c r="B528" s="157"/>
+      <c r="C528" s="149"/>
+      <c r="D528" s="181"/>
       <c r="E528" s="82"/>
       <c r="F528" s="63"/>
       <c r="G528" s="4"/>
@@ -15162,12 +15140,12 @@
       <c r="T535" s="4"/>
     </row>
     <row r="536" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A536" s="131" t="s">
+      <c r="A536" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="B536" s="156"/>
-      <c r="C536" s="146"/>
-      <c r="D536" s="180"/>
+      <c r="B536" s="157"/>
+      <c r="C536" s="149"/>
+      <c r="D536" s="181"/>
       <c r="E536" s="82"/>
       <c r="F536" s="63"/>
       <c r="G536" s="4"/>
@@ -15230,12 +15208,12 @@
       <c r="T538" s="4"/>
     </row>
     <row r="539" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A539" s="197" t="s">
+      <c r="A539" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="B539" s="150"/>
-      <c r="C539" s="152"/>
-      <c r="D539" s="162"/>
+      <c r="B539" s="153"/>
+      <c r="C539" s="155"/>
+      <c r="D539" s="163"/>
       <c r="E539" s="82"/>
       <c r="F539" s="63"/>
       <c r="G539" s="4"/>
@@ -15430,12 +15408,12 @@
       <c r="T547" s="4"/>
     </row>
     <row r="548" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A548" s="131" t="s">
+      <c r="A548" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="B548" s="156"/>
-      <c r="C548" s="146"/>
-      <c r="D548" s="180"/>
+      <c r="B548" s="157"/>
+      <c r="C548" s="149"/>
+      <c r="D548" s="181"/>
       <c r="E548" s="82"/>
       <c r="F548" s="63"/>
       <c r="G548" s="4"/>
@@ -15564,12 +15542,12 @@
       <c r="T553" s="4"/>
     </row>
     <row r="554" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A554" s="131" t="s">
+      <c r="A554" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="B554" s="156"/>
-      <c r="C554" s="146"/>
-      <c r="D554" s="180"/>
+      <c r="B554" s="157"/>
+      <c r="C554" s="149"/>
+      <c r="D554" s="181"/>
       <c r="E554" s="82"/>
       <c r="F554" s="63"/>
       <c r="G554" s="4"/>
@@ -15676,12 +15654,12 @@
       <c r="T558" s="4"/>
     </row>
     <row r="559" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A559" s="176" t="s">
+      <c r="A559" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="B559" s="156"/>
-      <c r="C559" s="146"/>
-      <c r="D559" s="180"/>
+      <c r="B559" s="157"/>
+      <c r="C559" s="149"/>
+      <c r="D559" s="181"/>
       <c r="E559" s="82"/>
       <c r="F559" s="63"/>
       <c r="G559" s="4"/>
@@ -15768,12 +15746,12 @@
       <c r="T562" s="4"/>
     </row>
     <row r="563" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A563" s="131" t="s">
+      <c r="A563" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="B563" s="156"/>
-      <c r="C563" s="146"/>
-      <c r="D563" s="180"/>
+      <c r="B563" s="157"/>
+      <c r="C563" s="149"/>
+      <c r="D563" s="181"/>
       <c r="E563" s="82"/>
       <c r="F563" s="63"/>
       <c r="G563" s="4"/>
@@ -15880,12 +15858,12 @@
       <c r="T567" s="4"/>
     </row>
     <row r="568" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A568" s="131" t="s">
+      <c r="A568" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="B568" s="156"/>
-      <c r="C568" s="146"/>
-      <c r="D568" s="180"/>
+      <c r="B568" s="157"/>
+      <c r="C568" s="149"/>
+      <c r="D568" s="181"/>
       <c r="E568" s="82"/>
       <c r="F568" s="63"/>
       <c r="G568" s="4"/>
@@ -15970,12 +15948,12 @@
       <c r="T571" s="4"/>
     </row>
     <row r="572" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A572" s="131" t="s">
+      <c r="A572" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B572" s="156"/>
-      <c r="C572" s="146"/>
-      <c r="D572" s="180"/>
+      <c r="B572" s="157"/>
+      <c r="C572" s="149"/>
+      <c r="D572" s="181"/>
       <c r="E572" s="82"/>
       <c r="F572" s="63"/>
       <c r="G572" s="4"/>
@@ -16126,12 +16104,12 @@
       <c r="T578" s="4"/>
     </row>
     <row r="579" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A579" s="131" t="s">
+      <c r="A579" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="B579" s="156"/>
-      <c r="C579" s="146"/>
-      <c r="D579" s="180"/>
+      <c r="B579" s="157"/>
+      <c r="C579" s="149"/>
+      <c r="D579" s="181"/>
       <c r="E579" s="82"/>
       <c r="F579" s="63"/>
       <c r="G579" s="4"/>
@@ -16216,12 +16194,12 @@
       <c r="T582" s="4"/>
     </row>
     <row r="583" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A583" s="176" t="s">
+      <c r="A583" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="B583" s="156"/>
-      <c r="C583" s="146"/>
-      <c r="D583" s="180"/>
+      <c r="B583" s="157"/>
+      <c r="C583" s="149"/>
+      <c r="D583" s="181"/>
       <c r="E583" s="82"/>
       <c r="F583" s="63"/>
       <c r="G583" s="4"/>
@@ -16328,12 +16306,12 @@
       <c r="T587" s="4"/>
     </row>
     <row r="588" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A588" s="131" t="s">
+      <c r="A588" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="B588" s="156"/>
-      <c r="C588" s="146"/>
-      <c r="D588" s="180"/>
+      <c r="B588" s="157"/>
+      <c r="C588" s="149"/>
+      <c r="D588" s="181"/>
       <c r="E588" s="82"/>
       <c r="F588" s="63"/>
       <c r="G588" s="4"/>
@@ -16440,12 +16418,12 @@
       <c r="T592" s="4"/>
     </row>
     <row r="593" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A593" s="131" t="s">
+      <c r="A593" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="B593" s="156"/>
-      <c r="C593" s="146"/>
-      <c r="D593" s="180"/>
+      <c r="B593" s="157"/>
+      <c r="C593" s="149"/>
+      <c r="D593" s="181"/>
       <c r="E593" s="82"/>
       <c r="F593" s="63"/>
       <c r="G593" s="4"/>
@@ -16574,12 +16552,12 @@
       <c r="T598" s="4"/>
     </row>
     <row r="599" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A599" s="131" t="s">
+      <c r="A599" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="B599" s="156"/>
-      <c r="C599" s="146"/>
-      <c r="D599" s="180"/>
+      <c r="B599" s="157"/>
+      <c r="C599" s="149"/>
+      <c r="D599" s="181"/>
       <c r="E599" s="82"/>
       <c r="F599" s="63"/>
       <c r="G599" s="4"/>
@@ -16708,12 +16686,12 @@
       <c r="T604" s="4"/>
     </row>
     <row r="605" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A605" s="176" t="s">
+      <c r="A605" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="B605" s="156"/>
-      <c r="C605" s="146"/>
-      <c r="D605" s="180"/>
+      <c r="B605" s="157"/>
+      <c r="C605" s="149"/>
+      <c r="D605" s="181"/>
       <c r="E605" s="82"/>
       <c r="F605" s="63"/>
       <c r="G605" s="4"/>
@@ -16842,12 +16820,12 @@
       <c r="T610" s="4"/>
     </row>
     <row r="611" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A611" s="131" t="s">
+      <c r="A611" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B611" s="156"/>
-      <c r="C611" s="146"/>
-      <c r="D611" s="180"/>
+      <c r="B611" s="157"/>
+      <c r="C611" s="149"/>
+      <c r="D611" s="181"/>
       <c r="E611" s="82"/>
       <c r="F611" s="63"/>
       <c r="G611" s="4"/>
@@ -16932,14 +16910,14 @@
       <c r="T614" s="4"/>
     </row>
     <row r="615" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A615" s="198" t="s">
+      <c r="A615" s="199" t="s">
         <v>63</v>
       </c>
-      <c r="B615" s="198"/>
-      <c r="C615" s="198"/>
-      <c r="D615" s="198"/>
-      <c r="E615" s="198"/>
-      <c r="F615" s="198"/>
+      <c r="B615" s="199"/>
+      <c r="C615" s="199"/>
+      <c r="D615" s="199"/>
+      <c r="E615" s="199"/>
+      <c r="F615" s="199"/>
       <c r="G615" s="4"/>
       <c r="H615" s="4"/>
       <c r="I615" s="4"/>
@@ -16956,12 +16934,12 @@
       <c r="T615" s="4"/>
     </row>
     <row r="616" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A616" s="197" t="s">
+      <c r="A616" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="B616" s="150"/>
-      <c r="C616" s="152"/>
-      <c r="D616" s="162"/>
+      <c r="B616" s="153"/>
+      <c r="C616" s="155"/>
+      <c r="D616" s="163"/>
       <c r="E616" s="79"/>
       <c r="F616" s="30"/>
       <c r="G616" s="4"/>
@@ -17046,12 +17024,12 @@
       <c r="T619" s="4"/>
     </row>
     <row r="620" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A620" s="176" t="s">
+      <c r="A620" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="B620" s="156"/>
-      <c r="C620" s="146"/>
-      <c r="D620" s="180"/>
+      <c r="B620" s="157"/>
+      <c r="C620" s="149"/>
+      <c r="D620" s="181"/>
       <c r="E620" s="82"/>
       <c r="F620" s="63"/>
       <c r="G620" s="4"/>
@@ -17268,12 +17246,12 @@
       <c r="T629" s="4"/>
     </row>
     <row r="630" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A630" s="176" t="s">
+      <c r="A630" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="B630" s="156"/>
-      <c r="C630" s="146"/>
-      <c r="D630" s="180"/>
+      <c r="B630" s="157"/>
+      <c r="C630" s="149"/>
+      <c r="D630" s="181"/>
       <c r="E630" s="82"/>
       <c r="F630" s="63"/>
       <c r="G630" s="4"/>
@@ -17336,12 +17314,12 @@
       <c r="T632" s="4"/>
     </row>
     <row r="633" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A633" s="176" t="s">
+      <c r="A633" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="B633" s="156"/>
-      <c r="C633" s="146"/>
-      <c r="D633" s="180"/>
+      <c r="B633" s="157"/>
+      <c r="C633" s="149"/>
+      <c r="D633" s="181"/>
       <c r="E633" s="82"/>
       <c r="F633" s="63"/>
       <c r="G633" s="4"/>
@@ -17426,12 +17404,12 @@
       <c r="T636" s="4"/>
     </row>
     <row r="637" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A637" s="176" t="s">
+      <c r="A637" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B637" s="156"/>
-      <c r="C637" s="146"/>
-      <c r="D637" s="180"/>
+      <c r="B637" s="157"/>
+      <c r="C637" s="149"/>
+      <c r="D637" s="181"/>
       <c r="E637" s="82"/>
       <c r="F637" s="63"/>
       <c r="G637" s="4"/>
@@ -17560,12 +17538,12 @@
       <c r="T642" s="4"/>
     </row>
     <row r="643" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A643" s="176" t="s">
+      <c r="A643" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B643" s="156"/>
-      <c r="C643" s="146"/>
-      <c r="D643" s="180"/>
+      <c r="B643" s="157"/>
+      <c r="C643" s="149"/>
+      <c r="D643" s="181"/>
       <c r="E643" s="82"/>
       <c r="F643" s="63"/>
       <c r="G643" s="4"/>
@@ -17716,12 +17694,12 @@
       <c r="T649" s="4"/>
     </row>
     <row r="650" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A650" s="176" t="s">
+      <c r="A650" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="B650" s="156"/>
-      <c r="C650" s="146"/>
-      <c r="D650" s="180"/>
+      <c r="B650" s="157"/>
+      <c r="C650" s="149"/>
+      <c r="D650" s="181"/>
       <c r="E650" s="82"/>
       <c r="F650" s="63"/>
       <c r="G650" s="4"/>
@@ -17916,12 +17894,12 @@
       <c r="T658" s="4"/>
     </row>
     <row r="659" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A659" s="176" t="s">
+      <c r="A659" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="B659" s="156"/>
-      <c r="C659" s="146"/>
-      <c r="D659" s="180"/>
+      <c r="B659" s="157"/>
+      <c r="C659" s="149"/>
+      <c r="D659" s="181"/>
       <c r="E659" s="82"/>
       <c r="F659" s="63"/>
       <c r="G659" s="4"/>
@@ -18006,14 +17984,14 @@
       <c r="T662" s="4"/>
     </row>
     <row r="663" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A663" s="198" t="s">
+      <c r="A663" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="B663" s="198"/>
-      <c r="C663" s="198"/>
-      <c r="D663" s="198"/>
-      <c r="E663" s="198"/>
-      <c r="F663" s="198"/>
+      <c r="B663" s="199"/>
+      <c r="C663" s="199"/>
+      <c r="D663" s="199"/>
+      <c r="E663" s="199"/>
+      <c r="F663" s="199"/>
       <c r="G663" s="4"/>
       <c r="H663" s="4"/>
       <c r="I663" s="4"/>
@@ -18030,12 +18008,12 @@
       <c r="T663" s="4"/>
     </row>
     <row r="664" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A664" s="197" t="s">
+      <c r="A664" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="B664" s="150"/>
-      <c r="C664" s="152"/>
-      <c r="D664" s="162"/>
+      <c r="B664" s="153"/>
+      <c r="C664" s="155"/>
+      <c r="D664" s="163"/>
       <c r="E664" s="79"/>
       <c r="F664" s="30"/>
       <c r="G664" s="4"/>
@@ -18142,12 +18120,12 @@
       <c r="T668" s="4"/>
     </row>
     <row r="669" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A669" s="176" t="s">
+      <c r="A669" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="B669" s="156"/>
-      <c r="C669" s="146"/>
-      <c r="D669" s="180"/>
+      <c r="B669" s="157"/>
+      <c r="C669" s="149"/>
+      <c r="D669" s="181"/>
       <c r="E669" s="82"/>
       <c r="F669" s="63"/>
       <c r="G669" s="4"/>
@@ -18254,12 +18232,12 @@
       <c r="T673" s="4"/>
     </row>
     <row r="674" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A674" s="176" t="s">
+      <c r="A674" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="B674" s="156"/>
-      <c r="C674" s="146"/>
-      <c r="D674" s="180"/>
+      <c r="B674" s="157"/>
+      <c r="C674" s="149"/>
+      <c r="D674" s="181"/>
       <c r="E674" s="82"/>
       <c r="F674" s="63"/>
       <c r="G674" s="4"/>
@@ -18454,12 +18432,12 @@
       <c r="T682" s="4"/>
     </row>
     <row r="683" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A683" s="149" t="s">
+      <c r="A683" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="B683" s="200"/>
-      <c r="C683" s="201"/>
-      <c r="D683" s="202"/>
+      <c r="B683" s="201"/>
+      <c r="C683" s="202"/>
+      <c r="D683" s="203"/>
       <c r="E683" s="84"/>
       <c r="F683" s="85"/>
       <c r="G683" s="4"/>
@@ -18483,9 +18461,9 @@
     </row>
     <row r="684" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A684" s="132"/>
-      <c r="B684" s="191"/>
-      <c r="C684" s="191"/>
-      <c r="D684" s="191"/>
+      <c r="B684" s="192"/>
+      <c r="C684" s="192"/>
+      <c r="D684" s="192"/>
       <c r="E684" s="82"/>
       <c r="F684" s="86"/>
       <c r="G684" s="4"/>
@@ -18509,9 +18487,9 @@
     </row>
     <row r="685" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A685" s="132"/>
-      <c r="B685" s="191"/>
-      <c r="C685" s="191"/>
-      <c r="D685" s="191"/>
+      <c r="B685" s="192"/>
+      <c r="C685" s="192"/>
+      <c r="D685" s="192"/>
       <c r="E685" s="82"/>
       <c r="F685" s="86"/>
       <c r="G685" s="4"/>
@@ -18535,9 +18513,9 @@
     </row>
     <row r="686" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A686" s="132"/>
-      <c r="B686" s="191"/>
-      <c r="C686" s="191"/>
-      <c r="D686" s="191"/>
+      <c r="B686" s="192"/>
+      <c r="C686" s="192"/>
+      <c r="D686" s="192"/>
       <c r="E686" s="82"/>
       <c r="F686" s="86"/>
       <c r="G686" s="4"/>
@@ -18561,9 +18539,9 @@
     </row>
     <row r="687" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A687" s="132"/>
-      <c r="B687" s="191"/>
-      <c r="C687" s="191"/>
-      <c r="D687" s="191"/>
+      <c r="B687" s="192"/>
+      <c r="C687" s="192"/>
+      <c r="D687" s="192"/>
       <c r="E687" s="82"/>
       <c r="F687" s="86"/>
       <c r="G687" s="4"/>
@@ -18587,9 +18565,9 @@
     </row>
     <row r="688" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A688" s="133"/>
-      <c r="B688" s="192"/>
-      <c r="C688" s="192"/>
-      <c r="D688" s="192"/>
+      <c r="B688" s="193"/>
+      <c r="C688" s="193"/>
+      <c r="D688" s="193"/>
       <c r="E688" s="87"/>
       <c r="F688" s="88"/>
       <c r="G688" s="4"/>
@@ -18612,12 +18590,12 @@
       <c r="X688" s="4"/>
     </row>
     <row r="689" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A689" s="176" t="s">
+      <c r="A689" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="B689" s="156"/>
-      <c r="C689" s="146"/>
-      <c r="D689" s="180"/>
+      <c r="B689" s="157"/>
+      <c r="C689" s="149"/>
+      <c r="D689" s="181"/>
       <c r="E689" s="82"/>
       <c r="F689" s="63"/>
       <c r="G689" s="4"/>
@@ -18724,12 +18702,12 @@
       <c r="T693" s="4"/>
     </row>
     <row r="694" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A694" s="197" t="s">
+      <c r="A694" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="B694" s="156"/>
-      <c r="C694" s="146"/>
-      <c r="D694" s="180"/>
+      <c r="B694" s="157"/>
+      <c r="C694" s="149"/>
+      <c r="D694" s="181"/>
       <c r="E694" s="82"/>
       <c r="F694" s="63"/>
       <c r="G694" s="4"/>
@@ -18814,12 +18792,12 @@
       <c r="T697" s="4"/>
     </row>
     <row r="698" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A698" s="203" t="s">
+      <c r="A698" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="B698" s="150"/>
-      <c r="C698" s="152"/>
-      <c r="D698" s="162"/>
+      <c r="B698" s="153"/>
+      <c r="C698" s="155"/>
+      <c r="D698" s="163"/>
       <c r="E698" s="46"/>
       <c r="F698" s="63"/>
       <c r="G698" s="4"/>
@@ -18838,7 +18816,7 @@
       <c r="T698" s="4"/>
     </row>
     <row r="699" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A699" s="204"/>
+      <c r="A699" s="205"/>
       <c r="B699" s="132"/>
       <c r="C699" s="132"/>
       <c r="D699" s="132"/>
@@ -18860,7 +18838,7 @@
       <c r="T699" s="4"/>
     </row>
     <row r="700" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A700" s="204"/>
+      <c r="A700" s="205"/>
       <c r="B700" s="132"/>
       <c r="C700" s="132"/>
       <c r="D700" s="132"/>
@@ -18882,7 +18860,7 @@
       <c r="T700" s="4"/>
     </row>
     <row r="701" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A701" s="204"/>
+      <c r="A701" s="205"/>
       <c r="B701" s="132"/>
       <c r="C701" s="132"/>
       <c r="D701" s="132"/>
@@ -18904,7 +18882,7 @@
       <c r="T701" s="4"/>
     </row>
     <row r="702" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A702" s="204"/>
+      <c r="A702" s="205"/>
       <c r="B702" s="132"/>
       <c r="C702" s="132"/>
       <c r="D702" s="132"/>
@@ -18926,7 +18904,7 @@
       <c r="T702" s="4"/>
     </row>
     <row r="703" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A703" s="204"/>
+      <c r="A703" s="205"/>
       <c r="B703" s="132"/>
       <c r="C703" s="132"/>
       <c r="D703" s="132"/>
@@ -18948,10 +18926,10 @@
       <c r="T703" s="4"/>
     </row>
     <row r="704" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A704" s="205"/>
-      <c r="B704" s="206"/>
-      <c r="C704" s="206"/>
-      <c r="D704" s="206"/>
+      <c r="A704" s="206"/>
+      <c r="B704" s="207"/>
+      <c r="C704" s="207"/>
+      <c r="D704" s="207"/>
       <c r="E704" s="24"/>
       <c r="F704" s="30"/>
       <c r="G704" s="4"/>
@@ -18970,14 +18948,14 @@
       <c r="T704" s="4"/>
     </row>
     <row r="705" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A705" s="210" t="s">
+      <c r="A705" s="211" t="s">
         <v>80</v>
       </c>
-      <c r="B705" s="210"/>
-      <c r="C705" s="210"/>
-      <c r="D705" s="210"/>
-      <c r="E705" s="210"/>
-      <c r="F705" s="210"/>
+      <c r="B705" s="211"/>
+      <c r="C705" s="211"/>
+      <c r="D705" s="211"/>
+      <c r="E705" s="211"/>
+      <c r="F705" s="211"/>
       <c r="G705" s="4"/>
       <c r="H705" s="4"/>
       <c r="I705" s="4"/>
@@ -18994,12 +18972,12 @@
       <c r="T705" s="4"/>
     </row>
     <row r="706" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A706" s="176" t="s">
+      <c r="A706" s="177" t="s">
         <v>81</v>
       </c>
-      <c r="B706" s="156"/>
-      <c r="C706" s="193"/>
-      <c r="D706" s="194"/>
+      <c r="B706" s="157"/>
+      <c r="C706" s="194"/>
+      <c r="D706" s="195"/>
       <c r="E706" s="79"/>
       <c r="F706" s="30"/>
       <c r="G706" s="4"/>
@@ -19020,8 +18998,8 @@
     <row r="707" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A707" s="132"/>
       <c r="B707" s="132"/>
-      <c r="C707" s="191"/>
-      <c r="D707" s="191"/>
+      <c r="C707" s="192"/>
+      <c r="D707" s="192"/>
       <c r="E707" s="79"/>
       <c r="F707" s="30"/>
       <c r="G707" s="4"/>
@@ -19042,8 +19020,8 @@
     <row r="708" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A708" s="132"/>
       <c r="B708" s="132"/>
-      <c r="C708" s="191"/>
-      <c r="D708" s="191"/>
+      <c r="C708" s="192"/>
+      <c r="D708" s="192"/>
       <c r="E708" s="79"/>
       <c r="F708" s="30"/>
       <c r="G708" s="4"/>
@@ -19064,8 +19042,8 @@
     <row r="709" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A709" s="133"/>
       <c r="B709" s="133"/>
-      <c r="C709" s="192"/>
-      <c r="D709" s="192"/>
+      <c r="C709" s="193"/>
+      <c r="D709" s="193"/>
       <c r="E709" s="81"/>
       <c r="F709" s="61"/>
       <c r="G709" s="4"/>
@@ -19084,12 +19062,12 @@
       <c r="T709" s="4"/>
     </row>
     <row r="710" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A710" s="176" t="s">
+      <c r="A710" s="177" t="s">
         <v>82</v>
       </c>
-      <c r="B710" s="156"/>
-      <c r="C710" s="146"/>
-      <c r="D710" s="180"/>
+      <c r="B710" s="157"/>
+      <c r="C710" s="149"/>
+      <c r="D710" s="181"/>
       <c r="E710" s="46"/>
       <c r="F710" s="63"/>
       <c r="G710" s="4"/>
@@ -19240,12 +19218,12 @@
       <c r="T716" s="4"/>
     </row>
     <row r="717" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A717" s="176" t="s">
+      <c r="A717" s="177" t="s">
         <v>83</v>
       </c>
-      <c r="B717" s="156"/>
-      <c r="C717" s="146"/>
-      <c r="D717" s="180"/>
+      <c r="B717" s="157"/>
+      <c r="C717" s="149"/>
+      <c r="D717" s="181"/>
       <c r="E717" s="46"/>
       <c r="F717" s="63"/>
       <c r="G717" s="4"/>
@@ -19330,12 +19308,12 @@
       <c r="T720" s="4"/>
     </row>
     <row r="721" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A721" s="176" t="s">
+      <c r="A721" s="177" t="s">
         <v>84</v>
       </c>
-      <c r="B721" s="156"/>
-      <c r="C721" s="146"/>
-      <c r="D721" s="180"/>
+      <c r="B721" s="157"/>
+      <c r="C721" s="149"/>
+      <c r="D721" s="181"/>
       <c r="E721" s="46"/>
       <c r="F721" s="63"/>
       <c r="G721" s="4"/>
@@ -19486,12 +19464,12 @@
       <c r="T727" s="4"/>
     </row>
     <row r="728" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A728" s="176" t="s">
+      <c r="A728" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="B728" s="156"/>
-      <c r="C728" s="146"/>
-      <c r="D728" s="180"/>
+      <c r="B728" s="157"/>
+      <c r="C728" s="149"/>
+      <c r="D728" s="181"/>
       <c r="E728" s="46"/>
       <c r="F728" s="63"/>
       <c r="G728" s="4"/>
@@ -19598,12 +19576,12 @@
       <c r="T732" s="4"/>
     </row>
     <row r="733" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A733" s="176" t="s">
+      <c r="A733" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="B733" s="156"/>
-      <c r="C733" s="146"/>
-      <c r="D733" s="180"/>
+      <c r="B733" s="157"/>
+      <c r="C733" s="149"/>
+      <c r="D733" s="181"/>
       <c r="E733" s="46"/>
       <c r="F733" s="63"/>
       <c r="G733" s="4"/>
@@ -19710,12 +19688,12 @@
       <c r="T737" s="4"/>
     </row>
     <row r="738" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A738" s="176" t="s">
+      <c r="A738" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B738" s="156"/>
-      <c r="C738" s="146"/>
-      <c r="D738" s="180"/>
+      <c r="B738" s="157"/>
+      <c r="C738" s="149"/>
+      <c r="D738" s="181"/>
       <c r="E738" s="46"/>
       <c r="F738" s="63"/>
       <c r="G738" s="4"/>
@@ -19800,12 +19778,12 @@
       <c r="T741" s="4"/>
     </row>
     <row r="742" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A742" s="197" t="s">
+      <c r="A742" s="198" t="s">
         <v>88</v>
       </c>
-      <c r="B742" s="156"/>
-      <c r="C742" s="146"/>
-      <c r="D742" s="180"/>
+      <c r="B742" s="157"/>
+      <c r="C742" s="149"/>
+      <c r="D742" s="181"/>
       <c r="E742" s="46"/>
       <c r="F742" s="63"/>
       <c r="G742" s="4"/>
@@ -19912,14 +19890,14 @@
       <c r="T746" s="4"/>
     </row>
     <row r="747" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A747" s="155" t="s">
+      <c r="A747" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="B747" s="155"/>
-      <c r="C747" s="155"/>
-      <c r="D747" s="155"/>
-      <c r="E747" s="155"/>
-      <c r="F747" s="155"/>
+      <c r="B747" s="156"/>
+      <c r="C747" s="156"/>
+      <c r="D747" s="156"/>
+      <c r="E747" s="156"/>
+      <c r="F747" s="156"/>
       <c r="G747" s="4"/>
       <c r="H747" s="4"/>
       <c r="I747" s="4"/>
@@ -19936,12 +19914,12 @@
       <c r="T747" s="4"/>
     </row>
     <row r="748" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A748" s="176" t="s">
+      <c r="A748" s="177" t="s">
         <v>90</v>
       </c>
-      <c r="B748" s="150"/>
-      <c r="C748" s="152"/>
-      <c r="D748" s="162"/>
+      <c r="B748" s="153"/>
+      <c r="C748" s="155"/>
+      <c r="D748" s="163"/>
       <c r="E748" s="24"/>
       <c r="F748" s="30"/>
       <c r="G748" s="4"/>
@@ -20004,12 +19982,12 @@
       <c r="T750" s="4"/>
     </row>
     <row r="751" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A751" s="176" t="s">
+      <c r="A751" s="177" t="s">
         <v>91</v>
       </c>
-      <c r="B751" s="156"/>
-      <c r="C751" s="146"/>
-      <c r="D751" s="180"/>
+      <c r="B751" s="157"/>
+      <c r="C751" s="149"/>
+      <c r="D751" s="181"/>
       <c r="E751" s="46"/>
       <c r="F751" s="63"/>
       <c r="G751" s="4"/>
@@ -20072,12 +20050,12 @@
       <c r="T753" s="4"/>
     </row>
     <row r="754" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A754" s="176" t="s">
+      <c r="A754" s="177" t="s">
         <v>92</v>
       </c>
-      <c r="B754" s="156"/>
-      <c r="C754" s="146"/>
-      <c r="D754" s="180"/>
+      <c r="B754" s="157"/>
+      <c r="C754" s="149"/>
+      <c r="D754" s="181"/>
       <c r="E754" s="46"/>
       <c r="F754" s="63"/>
       <c r="G754" s="4"/>
@@ -20140,12 +20118,12 @@
       <c r="T756" s="4"/>
     </row>
     <row r="757" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A757" s="176" t="s">
+      <c r="A757" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="B757" s="156"/>
-      <c r="C757" s="146"/>
-      <c r="D757" s="180"/>
+      <c r="B757" s="157"/>
+      <c r="C757" s="149"/>
+      <c r="D757" s="181"/>
       <c r="E757" s="46"/>
       <c r="F757" s="63"/>
       <c r="G757" s="4"/>
@@ -20208,12 +20186,12 @@
       <c r="T759" s="4"/>
     </row>
     <row r="760" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A760" s="176" t="s">
+      <c r="A760" s="177" t="s">
         <v>94</v>
       </c>
-      <c r="B760" s="156"/>
-      <c r="C760" s="146"/>
-      <c r="D760" s="180"/>
+      <c r="B760" s="157"/>
+      <c r="C760" s="149"/>
+      <c r="D760" s="181"/>
       <c r="E760" s="46"/>
       <c r="F760" s="63"/>
       <c r="G760" s="4"/>
@@ -20276,12 +20254,12 @@
       <c r="T762" s="4"/>
     </row>
     <row r="763" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A763" s="176" t="s">
+      <c r="A763" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="B763" s="156"/>
-      <c r="C763" s="146"/>
-      <c r="D763" s="180"/>
+      <c r="B763" s="157"/>
+      <c r="C763" s="149"/>
+      <c r="D763" s="181"/>
       <c r="E763" s="46"/>
       <c r="F763" s="63"/>
       <c r="G763" s="4"/>
@@ -20344,12 +20322,12 @@
       <c r="T765" s="4"/>
     </row>
     <row r="766" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A766" s="176" t="s">
+      <c r="A766" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B766" s="156"/>
-      <c r="C766" s="146"/>
-      <c r="D766" s="180"/>
+      <c r="B766" s="157"/>
+      <c r="C766" s="149"/>
+      <c r="D766" s="181"/>
       <c r="E766" s="46"/>
       <c r="F766" s="63"/>
       <c r="G766" s="4"/>
@@ -20412,12 +20390,12 @@
       <c r="T768" s="4"/>
     </row>
     <row r="769" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A769" s="176" t="s">
+      <c r="A769" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="B769" s="156"/>
-      <c r="C769" s="146"/>
-      <c r="D769" s="180"/>
+      <c r="B769" s="157"/>
+      <c r="C769" s="149"/>
+      <c r="D769" s="181"/>
       <c r="E769" s="46"/>
       <c r="F769" s="63"/>
       <c r="G769" s="4"/>
@@ -20480,12 +20458,12 @@
       <c r="T771" s="4"/>
     </row>
     <row r="772" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A772" s="176" t="s">
+      <c r="A772" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="B772" s="156"/>
-      <c r="C772" s="146"/>
-      <c r="D772" s="180"/>
+      <c r="B772" s="157"/>
+      <c r="C772" s="149"/>
+      <c r="D772" s="181"/>
       <c r="E772" s="46"/>
       <c r="F772" s="63"/>
       <c r="G772" s="4"/>
@@ -20614,12 +20592,12 @@
       <c r="T777" s="4"/>
     </row>
     <row r="778" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A778" s="176" t="s">
+      <c r="A778" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="B778" s="156"/>
-      <c r="C778" s="146"/>
-      <c r="D778" s="180"/>
+      <c r="B778" s="157"/>
+      <c r="C778" s="149"/>
+      <c r="D778" s="181"/>
       <c r="E778" s="46"/>
       <c r="F778" s="63"/>
       <c r="G778" s="4"/>
@@ -20682,14 +20660,14 @@
       <c r="T780" s="4"/>
     </row>
     <row r="781" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A781" s="209" t="s">
+      <c r="A781" s="210" t="s">
         <v>100</v>
       </c>
-      <c r="B781" s="209"/>
-      <c r="C781" s="209"/>
-      <c r="D781" s="209"/>
-      <c r="E781" s="209"/>
-      <c r="F781" s="209"/>
+      <c r="B781" s="210"/>
+      <c r="C781" s="210"/>
+      <c r="D781" s="210"/>
+      <c r="E781" s="210"/>
+      <c r="F781" s="210"/>
       <c r="G781" s="4"/>
       <c r="H781" s="4"/>
       <c r="I781" s="4"/>
@@ -20778,12 +20756,12 @@
       <c r="T784" s="4"/>
     </row>
     <row r="785" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A785" s="176" t="s">
+      <c r="A785" s="177" t="s">
         <v>104</v>
       </c>
-      <c r="B785" s="156"/>
-      <c r="C785" s="146"/>
-      <c r="D785" s="180"/>
+      <c r="B785" s="157"/>
+      <c r="C785" s="149"/>
+      <c r="D785" s="181"/>
       <c r="E785" s="46"/>
       <c r="F785" s="63"/>
       <c r="G785" s="4"/>
@@ -20824,12 +20802,12 @@
       <c r="T786" s="4"/>
     </row>
     <row r="787" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A787" s="176" t="s">
+      <c r="A787" s="177" t="s">
         <v>105</v>
       </c>
-      <c r="B787" s="156"/>
-      <c r="C787" s="146"/>
-      <c r="D787" s="180"/>
+      <c r="B787" s="157"/>
+      <c r="C787" s="149"/>
+      <c r="D787" s="181"/>
       <c r="E787" s="46"/>
       <c r="F787" s="63"/>
       <c r="G787" s="4"/>
@@ -20870,12 +20848,12 @@
       <c r="T788" s="4"/>
     </row>
     <row r="789" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A789" s="197" t="s">
+      <c r="A789" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="B789" s="156"/>
-      <c r="C789" s="146"/>
-      <c r="D789" s="180"/>
+      <c r="B789" s="157"/>
+      <c r="C789" s="149"/>
+      <c r="D789" s="181"/>
       <c r="E789" s="46"/>
       <c r="F789" s="63"/>
       <c r="G789" s="4"/>
@@ -20938,14 +20916,14 @@
       <c r="T791" s="4"/>
     </row>
     <row r="792" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A792" s="155" t="s">
+      <c r="A792" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="B792" s="155"/>
-      <c r="C792" s="155"/>
-      <c r="D792" s="155"/>
-      <c r="E792" s="155"/>
-      <c r="F792" s="155"/>
+      <c r="B792" s="156"/>
+      <c r="C792" s="156"/>
+      <c r="D792" s="156"/>
+      <c r="E792" s="156"/>
+      <c r="F792" s="156"/>
       <c r="G792" s="4"/>
       <c r="H792" s="4"/>
       <c r="I792" s="4"/>
@@ -20962,12 +20940,12 @@
       <c r="T792" s="4"/>
     </row>
     <row r="793" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A793" s="131" t="s">
+      <c r="A793" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="B793" s="190"/>
-      <c r="C793" s="184"/>
-      <c r="D793" s="199"/>
+      <c r="B793" s="191"/>
+      <c r="C793" s="185"/>
+      <c r="D793" s="200"/>
       <c r="E793" s="94"/>
       <c r="F793" s="95"/>
       <c r="G793" s="4"/>
@@ -20987,9 +20965,9 @@
     </row>
     <row r="794" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A794" s="132"/>
-      <c r="B794" s="191"/>
-      <c r="C794" s="191"/>
-      <c r="D794" s="191"/>
+      <c r="B794" s="192"/>
+      <c r="C794" s="192"/>
+      <c r="D794" s="192"/>
       <c r="E794" s="82"/>
       <c r="F794" s="86"/>
       <c r="G794" s="4"/>
@@ -21009,9 +20987,9 @@
     </row>
     <row r="795" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A795" s="133"/>
-      <c r="B795" s="192"/>
-      <c r="C795" s="192"/>
-      <c r="D795" s="192"/>
+      <c r="B795" s="193"/>
+      <c r="C795" s="193"/>
+      <c r="D795" s="193"/>
       <c r="E795" s="87"/>
       <c r="F795" s="88"/>
       <c r="G795" s="4"/>
@@ -21054,12 +21032,12 @@
       <c r="T796" s="4"/>
     </row>
     <row r="797" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A797" s="176" t="s">
+      <c r="A797" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="B797" s="189"/>
-      <c r="C797" s="193"/>
-      <c r="D797" s="194"/>
+      <c r="B797" s="190"/>
+      <c r="C797" s="194"/>
+      <c r="D797" s="195"/>
       <c r="E797" s="82"/>
       <c r="F797" s="86"/>
       <c r="G797" s="4"/>
@@ -21079,9 +21057,9 @@
     </row>
     <row r="798" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A798" s="132"/>
-      <c r="B798" s="191"/>
-      <c r="C798" s="191"/>
-      <c r="D798" s="191"/>
+      <c r="B798" s="192"/>
+      <c r="C798" s="192"/>
+      <c r="D798" s="192"/>
       <c r="E798" s="82"/>
       <c r="F798" s="86"/>
       <c r="G798" s="4"/>
@@ -21101,9 +21079,9 @@
     </row>
     <row r="799" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A799" s="132"/>
-      <c r="B799" s="191"/>
-      <c r="C799" s="191"/>
-      <c r="D799" s="191"/>
+      <c r="B799" s="192"/>
+      <c r="C799" s="192"/>
+      <c r="D799" s="192"/>
       <c r="E799" s="82"/>
       <c r="F799" s="86"/>
       <c r="G799" s="4"/>
@@ -21123,9 +21101,9 @@
     </row>
     <row r="800" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A800" s="132"/>
-      <c r="B800" s="191"/>
-      <c r="C800" s="191"/>
-      <c r="D800" s="191"/>
+      <c r="B800" s="192"/>
+      <c r="C800" s="192"/>
+      <c r="D800" s="192"/>
       <c r="E800" s="82"/>
       <c r="F800" s="86"/>
       <c r="G800" s="4"/>
@@ -21145,9 +21123,9 @@
     </row>
     <row r="801" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A801" s="132"/>
-      <c r="B801" s="191"/>
-      <c r="C801" s="191"/>
-      <c r="D801" s="191"/>
+      <c r="B801" s="192"/>
+      <c r="C801" s="192"/>
+      <c r="D801" s="192"/>
       <c r="E801" s="82"/>
       <c r="F801" s="86"/>
       <c r="G801" s="4"/>
@@ -21167,9 +21145,9 @@
     </row>
     <row r="802" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A802" s="132"/>
-      <c r="B802" s="191"/>
-      <c r="C802" s="191"/>
-      <c r="D802" s="191"/>
+      <c r="B802" s="192"/>
+      <c r="C802" s="192"/>
+      <c r="D802" s="192"/>
       <c r="E802" s="82"/>
       <c r="F802" s="86"/>
       <c r="G802" s="4"/>
@@ -21189,9 +21167,9 @@
     </row>
     <row r="803" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A803" s="132"/>
-      <c r="B803" s="191"/>
-      <c r="C803" s="191"/>
-      <c r="D803" s="191"/>
+      <c r="B803" s="192"/>
+      <c r="C803" s="192"/>
+      <c r="D803" s="192"/>
       <c r="E803" s="82"/>
       <c r="F803" s="86"/>
       <c r="G803" s="4"/>
@@ -21211,9 +21189,9 @@
     </row>
     <row r="804" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A804" s="132"/>
-      <c r="B804" s="191"/>
-      <c r="C804" s="191"/>
-      <c r="D804" s="191"/>
+      <c r="B804" s="192"/>
+      <c r="C804" s="192"/>
+      <c r="D804" s="192"/>
       <c r="E804" s="82"/>
       <c r="F804" s="86"/>
       <c r="G804" s="4"/>
@@ -21233,9 +21211,9 @@
     </row>
     <row r="805" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A805" s="133"/>
-      <c r="B805" s="192"/>
-      <c r="C805" s="192"/>
-      <c r="D805" s="192"/>
+      <c r="B805" s="193"/>
+      <c r="C805" s="193"/>
+      <c r="D805" s="193"/>
       <c r="E805" s="87"/>
       <c r="F805" s="88"/>
       <c r="G805" s="4"/>
@@ -21254,12 +21232,12 @@
       <c r="T805" s="4"/>
     </row>
     <row r="806" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A806" s="176" t="s">
+      <c r="A806" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="B806" s="189"/>
-      <c r="C806" s="193"/>
-      <c r="D806" s="194"/>
+      <c r="B806" s="190"/>
+      <c r="C806" s="194"/>
+      <c r="D806" s="195"/>
       <c r="E806" s="82"/>
       <c r="F806" s="86"/>
       <c r="G806" s="4"/>
@@ -21279,9 +21257,9 @@
     </row>
     <row r="807" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A807" s="132"/>
-      <c r="B807" s="191"/>
-      <c r="C807" s="191"/>
-      <c r="D807" s="191"/>
+      <c r="B807" s="192"/>
+      <c r="C807" s="192"/>
+      <c r="D807" s="192"/>
       <c r="E807" s="82"/>
       <c r="F807" s="86"/>
       <c r="G807" s="4"/>
@@ -21301,9 +21279,9 @@
     </row>
     <row r="808" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A808" s="132"/>
-      <c r="B808" s="191"/>
-      <c r="C808" s="191"/>
-      <c r="D808" s="191"/>
+      <c r="B808" s="192"/>
+      <c r="C808" s="192"/>
+      <c r="D808" s="192"/>
       <c r="E808" s="82"/>
       <c r="F808" s="86"/>
       <c r="G808" s="4"/>
@@ -21323,9 +21301,9 @@
     </row>
     <row r="809" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A809" s="132"/>
-      <c r="B809" s="191"/>
-      <c r="C809" s="191"/>
-      <c r="D809" s="191"/>
+      <c r="B809" s="192"/>
+      <c r="C809" s="192"/>
+      <c r="D809" s="192"/>
       <c r="E809" s="82"/>
       <c r="F809" s="86"/>
       <c r="G809" s="4"/>
@@ -21345,9 +21323,9 @@
     </row>
     <row r="810" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A810" s="132"/>
-      <c r="B810" s="191"/>
-      <c r="C810" s="191"/>
-      <c r="D810" s="191"/>
+      <c r="B810" s="192"/>
+      <c r="C810" s="192"/>
+      <c r="D810" s="192"/>
       <c r="E810" s="82"/>
       <c r="F810" s="86"/>
       <c r="G810" s="4"/>
@@ -21367,9 +21345,9 @@
     </row>
     <row r="811" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A811" s="132"/>
-      <c r="B811" s="191"/>
-      <c r="C811" s="191"/>
-      <c r="D811" s="191"/>
+      <c r="B811" s="192"/>
+      <c r="C811" s="192"/>
+      <c r="D811" s="192"/>
       <c r="E811" s="82"/>
       <c r="F811" s="86"/>
       <c r="G811" s="4"/>
@@ -21389,9 +21367,9 @@
     </row>
     <row r="812" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A812" s="133"/>
-      <c r="B812" s="192"/>
-      <c r="C812" s="192"/>
-      <c r="D812" s="192"/>
+      <c r="B812" s="193"/>
+      <c r="C812" s="193"/>
+      <c r="D812" s="193"/>
       <c r="E812" s="87"/>
       <c r="F812" s="88"/>
       <c r="G812" s="4"/>
@@ -21458,12 +21436,12 @@
       <c r="T814" s="4"/>
     </row>
     <row r="815" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A815" s="176" t="s">
+      <c r="A815" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="B815" s="189"/>
-      <c r="C815" s="193"/>
-      <c r="D815" s="194"/>
+      <c r="B815" s="190"/>
+      <c r="C815" s="194"/>
+      <c r="D815" s="195"/>
       <c r="E815" s="82"/>
       <c r="F815" s="82"/>
       <c r="G815" s="4"/>
@@ -21483,9 +21461,9 @@
     </row>
     <row r="816" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A816" s="132"/>
-      <c r="B816" s="191"/>
-      <c r="C816" s="191"/>
-      <c r="D816" s="191"/>
+      <c r="B816" s="192"/>
+      <c r="C816" s="192"/>
+      <c r="D816" s="192"/>
       <c r="E816" s="82"/>
       <c r="F816" s="82"/>
       <c r="G816" s="4"/>
@@ -21505,9 +21483,9 @@
     </row>
     <row r="817" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A817" s="132"/>
-      <c r="B817" s="191"/>
-      <c r="C817" s="191"/>
-      <c r="D817" s="191"/>
+      <c r="B817" s="192"/>
+      <c r="C817" s="192"/>
+      <c r="D817" s="192"/>
       <c r="E817" s="82"/>
       <c r="F817" s="82"/>
       <c r="G817" s="4"/>
@@ -21527,9 +21505,9 @@
     </row>
     <row r="818" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A818" s="132"/>
-      <c r="B818" s="191"/>
-      <c r="C818" s="191"/>
-      <c r="D818" s="191"/>
+      <c r="B818" s="192"/>
+      <c r="C818" s="192"/>
+      <c r="D818" s="192"/>
       <c r="E818" s="82"/>
       <c r="F818" s="82"/>
       <c r="G818" s="4"/>
@@ -21549,9 +21527,9 @@
     </row>
     <row r="819" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A819" s="133"/>
-      <c r="B819" s="192"/>
-      <c r="C819" s="192"/>
-      <c r="D819" s="192"/>
+      <c r="B819" s="193"/>
+      <c r="C819" s="193"/>
+      <c r="D819" s="193"/>
       <c r="E819" s="87"/>
       <c r="F819" s="87"/>
       <c r="G819" s="4"/>
@@ -21570,12 +21548,12 @@
       <c r="T819" s="4"/>
     </row>
     <row r="820" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A820" s="176" t="s">
+      <c r="A820" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="B820" s="189"/>
-      <c r="C820" s="193"/>
-      <c r="D820" s="194"/>
+      <c r="B820" s="190"/>
+      <c r="C820" s="194"/>
+      <c r="D820" s="195"/>
       <c r="E820" s="82"/>
       <c r="F820" s="86"/>
       <c r="G820" s="4"/>
@@ -21595,9 +21573,9 @@
     </row>
     <row r="821" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A821" s="132"/>
-      <c r="B821" s="191"/>
-      <c r="C821" s="191"/>
-      <c r="D821" s="191"/>
+      <c r="B821" s="192"/>
+      <c r="C821" s="192"/>
+      <c r="D821" s="192"/>
       <c r="E821" s="82"/>
       <c r="F821" s="86"/>
       <c r="G821" s="4"/>
@@ -21617,9 +21595,9 @@
     </row>
     <row r="822" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A822" s="132"/>
-      <c r="B822" s="191"/>
-      <c r="C822" s="191"/>
-      <c r="D822" s="191"/>
+      <c r="B822" s="192"/>
+      <c r="C822" s="192"/>
+      <c r="D822" s="192"/>
       <c r="E822" s="82"/>
       <c r="F822" s="86"/>
       <c r="G822" s="4"/>
@@ -21639,9 +21617,9 @@
     </row>
     <row r="823" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A823" s="133"/>
-      <c r="B823" s="192"/>
-      <c r="C823" s="192"/>
-      <c r="D823" s="192"/>
+      <c r="B823" s="193"/>
+      <c r="C823" s="193"/>
+      <c r="D823" s="193"/>
       <c r="E823" s="87"/>
       <c r="F823" s="88"/>
       <c r="G823" s="4"/>
@@ -21660,12 +21638,12 @@
       <c r="T823" s="4"/>
     </row>
     <row r="824" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A824" s="176" t="s">
+      <c r="A824" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="B824" s="189"/>
-      <c r="C824" s="193"/>
-      <c r="D824" s="194"/>
+      <c r="B824" s="190"/>
+      <c r="C824" s="194"/>
+      <c r="D824" s="195"/>
       <c r="E824" s="82"/>
       <c r="F824" s="86"/>
       <c r="G824" s="4"/>
@@ -21685,9 +21663,9 @@
     </row>
     <row r="825" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A825" s="132"/>
-      <c r="B825" s="191"/>
-      <c r="C825" s="191"/>
-      <c r="D825" s="191"/>
+      <c r="B825" s="192"/>
+      <c r="C825" s="192"/>
+      <c r="D825" s="192"/>
       <c r="E825" s="82"/>
       <c r="F825" s="86"/>
       <c r="G825" s="4"/>
@@ -21707,9 +21685,9 @@
     </row>
     <row r="826" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A826" s="132"/>
-      <c r="B826" s="191"/>
-      <c r="C826" s="191"/>
-      <c r="D826" s="191"/>
+      <c r="B826" s="192"/>
+      <c r="C826" s="192"/>
+      <c r="D826" s="192"/>
       <c r="E826" s="82"/>
       <c r="F826" s="86"/>
       <c r="G826" s="4"/>
@@ -21729,9 +21707,9 @@
     </row>
     <row r="827" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A827" s="132"/>
-      <c r="B827" s="191"/>
-      <c r="C827" s="191"/>
-      <c r="D827" s="191"/>
+      <c r="B827" s="192"/>
+      <c r="C827" s="192"/>
+      <c r="D827" s="192"/>
       <c r="E827" s="82"/>
       <c r="F827" s="86"/>
       <c r="G827" s="4"/>
@@ -21751,9 +21729,9 @@
     </row>
     <row r="828" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A828" s="132"/>
-      <c r="B828" s="191"/>
-      <c r="C828" s="191"/>
-      <c r="D828" s="191"/>
+      <c r="B828" s="192"/>
+      <c r="C828" s="192"/>
+      <c r="D828" s="192"/>
       <c r="E828" s="82"/>
       <c r="F828" s="86"/>
       <c r="G828" s="4"/>
@@ -21773,9 +21751,9 @@
     </row>
     <row r="829" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A829" s="133"/>
-      <c r="B829" s="192"/>
-      <c r="C829" s="192"/>
-      <c r="D829" s="192"/>
+      <c r="B829" s="193"/>
+      <c r="C829" s="193"/>
+      <c r="D829" s="193"/>
       <c r="E829" s="87"/>
       <c r="F829" s="88"/>
       <c r="G829" s="4"/>
@@ -21794,12 +21772,12 @@
       <c r="T829" s="4"/>
     </row>
     <row r="830" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A830" s="176" t="s">
+      <c r="A830" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B830" s="189"/>
-      <c r="C830" s="193"/>
-      <c r="D830" s="194"/>
+      <c r="B830" s="190"/>
+      <c r="C830" s="194"/>
+      <c r="D830" s="195"/>
       <c r="E830" s="82"/>
       <c r="F830" s="86"/>
       <c r="G830" s="4"/>
@@ -21819,9 +21797,9 @@
     </row>
     <row r="831" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A831" s="132"/>
-      <c r="B831" s="191"/>
-      <c r="C831" s="191"/>
-      <c r="D831" s="191"/>
+      <c r="B831" s="192"/>
+      <c r="C831" s="192"/>
+      <c r="D831" s="192"/>
       <c r="E831" s="82"/>
       <c r="F831" s="86"/>
       <c r="G831" s="4"/>
@@ -21841,9 +21819,9 @@
     </row>
     <row r="832" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A832" s="132"/>
-      <c r="B832" s="191"/>
-      <c r="C832" s="191"/>
-      <c r="D832" s="191"/>
+      <c r="B832" s="192"/>
+      <c r="C832" s="192"/>
+      <c r="D832" s="192"/>
       <c r="E832" s="99"/>
       <c r="F832" s="100"/>
       <c r="G832" s="4"/>
@@ -21863,9 +21841,9 @@
     </row>
     <row r="833" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A833" s="132"/>
-      <c r="B833" s="191"/>
-      <c r="C833" s="191"/>
-      <c r="D833" s="191"/>
+      <c r="B833" s="192"/>
+      <c r="C833" s="192"/>
+      <c r="D833" s="192"/>
       <c r="E833" s="82"/>
       <c r="F833" s="86"/>
       <c r="G833" s="4"/>
@@ -21885,9 +21863,9 @@
     </row>
     <row r="834" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A834" s="132"/>
-      <c r="B834" s="191"/>
-      <c r="C834" s="191"/>
-      <c r="D834" s="191"/>
+      <c r="B834" s="192"/>
+      <c r="C834" s="192"/>
+      <c r="D834" s="192"/>
       <c r="E834" s="82"/>
       <c r="F834" s="86"/>
       <c r="G834" s="4"/>
@@ -21907,9 +21885,9 @@
     </row>
     <row r="835" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A835" s="133"/>
-      <c r="B835" s="192"/>
-      <c r="C835" s="192"/>
-      <c r="D835" s="192"/>
+      <c r="B835" s="193"/>
+      <c r="C835" s="193"/>
+      <c r="D835" s="193"/>
       <c r="E835" s="87"/>
       <c r="F835" s="88"/>
       <c r="G835" s="4"/>
@@ -21928,12 +21906,12 @@
       <c r="T835" s="4"/>
     </row>
     <row r="836" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A836" s="176" t="s">
+      <c r="A836" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="B836" s="189"/>
-      <c r="C836" s="193"/>
-      <c r="D836" s="194"/>
+      <c r="B836" s="190"/>
+      <c r="C836" s="194"/>
+      <c r="D836" s="195"/>
       <c r="E836" s="82"/>
       <c r="F836" s="86"/>
       <c r="G836" s="4"/>
@@ -21953,9 +21931,9 @@
     </row>
     <row r="837" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A837" s="132"/>
-      <c r="B837" s="191"/>
-      <c r="C837" s="191"/>
-      <c r="D837" s="191"/>
+      <c r="B837" s="192"/>
+      <c r="C837" s="192"/>
+      <c r="D837" s="192"/>
       <c r="E837" s="82"/>
       <c r="F837" s="86"/>
       <c r="G837" s="4"/>
@@ -21975,9 +21953,9 @@
     </row>
     <row r="838" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A838" s="132"/>
-      <c r="B838" s="191"/>
-      <c r="C838" s="191"/>
-      <c r="D838" s="191"/>
+      <c r="B838" s="192"/>
+      <c r="C838" s="192"/>
+      <c r="D838" s="192"/>
       <c r="E838" s="82"/>
       <c r="F838" s="86"/>
       <c r="G838" s="4"/>
@@ -21997,9 +21975,9 @@
     </row>
     <row r="839" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A839" s="132"/>
-      <c r="B839" s="191"/>
-      <c r="C839" s="191"/>
-      <c r="D839" s="191"/>
+      <c r="B839" s="192"/>
+      <c r="C839" s="192"/>
+      <c r="D839" s="192"/>
       <c r="E839" s="82"/>
       <c r="F839" s="86"/>
       <c r="G839" s="4"/>
@@ -22019,9 +21997,9 @@
     </row>
     <row r="840" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A840" s="133"/>
-      <c r="B840" s="192"/>
-      <c r="C840" s="192"/>
-      <c r="D840" s="192"/>
+      <c r="B840" s="193"/>
+      <c r="C840" s="193"/>
+      <c r="D840" s="193"/>
       <c r="E840" s="87"/>
       <c r="F840" s="88"/>
       <c r="G840" s="4"/>
@@ -22040,12 +22018,12 @@
       <c r="T840" s="4"/>
     </row>
     <row r="841" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A841" s="176" t="s">
+      <c r="A841" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="B841" s="189"/>
-      <c r="C841" s="193"/>
-      <c r="D841" s="194"/>
+      <c r="B841" s="190"/>
+      <c r="C841" s="194"/>
+      <c r="D841" s="195"/>
       <c r="E841" s="82"/>
       <c r="F841" s="86"/>
       <c r="G841" s="4"/>
@@ -22065,9 +22043,9 @@
     </row>
     <row r="842" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A842" s="132"/>
-      <c r="B842" s="191"/>
-      <c r="C842" s="191"/>
-      <c r="D842" s="191"/>
+      <c r="B842" s="192"/>
+      <c r="C842" s="192"/>
+      <c r="D842" s="192"/>
       <c r="E842" s="82"/>
       <c r="F842" s="86"/>
       <c r="G842" s="4"/>
@@ -22087,9 +22065,9 @@
     </row>
     <row r="843" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A843" s="132"/>
-      <c r="B843" s="191"/>
-      <c r="C843" s="191"/>
-      <c r="D843" s="191"/>
+      <c r="B843" s="192"/>
+      <c r="C843" s="192"/>
+      <c r="D843" s="192"/>
       <c r="E843" s="82"/>
       <c r="F843" s="86"/>
       <c r="G843" s="4"/>
@@ -22109,9 +22087,9 @@
     </row>
     <row r="844" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A844" s="133"/>
-      <c r="B844" s="192"/>
-      <c r="C844" s="192"/>
-      <c r="D844" s="192"/>
+      <c r="B844" s="193"/>
+      <c r="C844" s="193"/>
+      <c r="D844" s="193"/>
       <c r="E844" s="87"/>
       <c r="F844" s="88"/>
       <c r="G844" s="4"/>
@@ -22130,12 +22108,12 @@
       <c r="T844" s="4"/>
     </row>
     <row r="845" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A845" s="176" t="s">
+      <c r="A845" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="B845" s="189"/>
-      <c r="C845" s="193"/>
-      <c r="D845" s="194"/>
+      <c r="B845" s="190"/>
+      <c r="C845" s="194"/>
+      <c r="D845" s="195"/>
       <c r="E845" s="82"/>
       <c r="F845" s="86"/>
       <c r="G845" s="4"/>
@@ -22155,9 +22133,9 @@
     </row>
     <row r="846" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A846" s="133"/>
-      <c r="B846" s="192"/>
-      <c r="C846" s="192"/>
-      <c r="D846" s="192"/>
+      <c r="B846" s="193"/>
+      <c r="C846" s="193"/>
+      <c r="D846" s="193"/>
       <c r="E846" s="101"/>
       <c r="F846" s="87"/>
       <c r="G846" s="4"/>
@@ -22176,12 +22154,12 @@
       <c r="T846" s="4"/>
     </row>
     <row r="847" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A847" s="207"/>
-      <c r="B847" s="207"/>
-      <c r="C847" s="207"/>
-      <c r="D847" s="207"/>
-      <c r="E847" s="207"/>
-      <c r="F847" s="207"/>
+      <c r="A847" s="208"/>
+      <c r="B847" s="208"/>
+      <c r="C847" s="208"/>
+      <c r="D847" s="208"/>
+      <c r="E847" s="208"/>
+      <c r="F847" s="208"/>
       <c r="G847" s="4"/>
       <c r="H847" s="4"/>
       <c r="I847" s="4"/>
@@ -22198,12 +22176,12 @@
       <c r="T847" s="4"/>
     </row>
     <row r="848" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A848" s="208"/>
-      <c r="B848" s="208"/>
-      <c r="C848" s="208"/>
-      <c r="D848" s="208"/>
-      <c r="E848" s="208"/>
-      <c r="F848" s="208"/>
+      <c r="A848" s="209"/>
+      <c r="B848" s="209"/>
+      <c r="C848" s="209"/>
+      <c r="D848" s="209"/>
+      <c r="E848" s="209"/>
+      <c r="F848" s="209"/>
       <c r="G848" s="4"/>
       <c r="H848" s="4"/>
       <c r="I848" s="4"/>
@@ -23410,9 +23388,6 @@
     <mergeCell ref="A433:A443"/>
     <mergeCell ref="B433:B443"/>
     <mergeCell ref="C433:C443"/>
-    <mergeCell ref="A349:A359"/>
-    <mergeCell ref="B349:B359"/>
-    <mergeCell ref="C349:C359"/>
     <mergeCell ref="B360:B369"/>
     <mergeCell ref="C360:C369"/>
     <mergeCell ref="D41:D51"/>
@@ -23434,12 +23409,16 @@
     <mergeCell ref="A202:A208"/>
     <mergeCell ref="B202:B208"/>
     <mergeCell ref="C202:C208"/>
-    <mergeCell ref="A87:A98"/>
-    <mergeCell ref="B87:B98"/>
-    <mergeCell ref="C13:C26"/>
-    <mergeCell ref="D13:D26"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="B75:B86"/>
+    <mergeCell ref="C75:C86"/>
+    <mergeCell ref="D75:D86"/>
+    <mergeCell ref="A349:A359"/>
+    <mergeCell ref="B349:B359"/>
+    <mergeCell ref="C349:C359"/>
     <mergeCell ref="C35:C40"/>
     <mergeCell ref="D35:D40"/>
     <mergeCell ref="C52:C58"/>
@@ -23451,8 +23430,13 @@
     <mergeCell ref="B59:B64"/>
     <mergeCell ref="C59:C64"/>
     <mergeCell ref="D59:D64"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D216:D225"/>
+    <mergeCell ref="D202:D208"/>
+    <mergeCell ref="A147:A158"/>
+    <mergeCell ref="A159:A169"/>
+    <mergeCell ref="A170:A180"/>
+    <mergeCell ref="A125:A135"/>
+    <mergeCell ref="A136:A146"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="B3:B12"/>
@@ -23464,16 +23448,12 @@
     <mergeCell ref="D27:D34"/>
     <mergeCell ref="B27:B34"/>
     <mergeCell ref="C27:C34"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="B75:B86"/>
-    <mergeCell ref="C75:C86"/>
-    <mergeCell ref="D75:D86"/>
-    <mergeCell ref="A209:A215"/>
-    <mergeCell ref="B209:B215"/>
-    <mergeCell ref="A216:A225"/>
-    <mergeCell ref="B216:B225"/>
-    <mergeCell ref="C216:C225"/>
+    <mergeCell ref="A87:A98"/>
+    <mergeCell ref="B87:B98"/>
+    <mergeCell ref="C13:C26"/>
+    <mergeCell ref="D13:D26"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
     <mergeCell ref="A99:A106"/>
     <mergeCell ref="B99:B106"/>
     <mergeCell ref="C99:C106"/>
@@ -23486,19 +23466,18 @@
     <mergeCell ref="B115:B124"/>
     <mergeCell ref="C115:C124"/>
     <mergeCell ref="D115:D124"/>
-    <mergeCell ref="D216:D225"/>
-    <mergeCell ref="D202:D208"/>
-    <mergeCell ref="A226:A232"/>
-    <mergeCell ref="A233:A241"/>
-    <mergeCell ref="B233:B241"/>
-    <mergeCell ref="C233:C241"/>
-    <mergeCell ref="A242:A251"/>
-    <mergeCell ref="A278:A288"/>
     <mergeCell ref="B278:B288"/>
     <mergeCell ref="A265:A277"/>
     <mergeCell ref="B265:B277"/>
     <mergeCell ref="C265:C277"/>
     <mergeCell ref="C278:C288"/>
+    <mergeCell ref="A209:A215"/>
+    <mergeCell ref="B209:B215"/>
+    <mergeCell ref="A216:A225"/>
+    <mergeCell ref="B216:B225"/>
+    <mergeCell ref="C216:C225"/>
+    <mergeCell ref="B125:B135"/>
+    <mergeCell ref="B136:B146"/>
     <mergeCell ref="C335:C348"/>
     <mergeCell ref="A311:A322"/>
     <mergeCell ref="C242:C251"/>
@@ -23515,6 +23494,14 @@
     <mergeCell ref="B311:B322"/>
     <mergeCell ref="C311:C322"/>
     <mergeCell ref="A289:A299"/>
+    <mergeCell ref="A226:A232"/>
+    <mergeCell ref="A233:A241"/>
+    <mergeCell ref="B233:B241"/>
+    <mergeCell ref="C233:C241"/>
+    <mergeCell ref="A242:A251"/>
+    <mergeCell ref="A278:A288"/>
+    <mergeCell ref="C136:C146"/>
+    <mergeCell ref="D136:D146"/>
     <mergeCell ref="D226:D232"/>
     <mergeCell ref="D233:D241"/>
     <mergeCell ref="E57:E58"/>
@@ -23531,21 +23518,12 @@
     <mergeCell ref="C209:C215"/>
     <mergeCell ref="D209:D215"/>
     <mergeCell ref="E67:E72"/>
-    <mergeCell ref="A147:A158"/>
-    <mergeCell ref="A159:A169"/>
     <mergeCell ref="B159:B169"/>
     <mergeCell ref="C159:C169"/>
     <mergeCell ref="D159:D169"/>
-    <mergeCell ref="A170:A180"/>
     <mergeCell ref="B170:B180"/>
     <mergeCell ref="C125:C135"/>
     <mergeCell ref="D125:D135"/>
-    <mergeCell ref="A125:A135"/>
-    <mergeCell ref="B125:B135"/>
-    <mergeCell ref="A136:A146"/>
-    <mergeCell ref="B136:B146"/>
-    <mergeCell ref="C136:C146"/>
-    <mergeCell ref="D136:D146"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/src/test/resources/test_descriptions/Thesaurus-TestCases.xlsx
+++ b/src/test/resources/test_descriptions/Thesaurus-TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E14F7A1-877E-4A6A-8B14-0EEDD7A383BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCB9C4-1733-4A56-8AC1-8414BB1E1D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2486,21 +2486,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2520,12 +2530,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2570,20 +2574,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2608,6 +2611,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2623,19 +2632,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2674,29 +2697,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2933,8 +2933,8 @@
   <dimension ref="A1:X1126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F435" sqref="F435"/>
+      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G476" sqref="G476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2992,16 +2992,16 @@
       <c r="F2" s="165"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="162" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="147" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="150" t="s">
         <v>120</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -3024,10 +3024,10 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="7" t="s">
         <v>122</v>
       </c>
@@ -3048,10 +3048,10 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="146"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="9" t="s">
         <v>290</v>
       </c>
@@ -3074,10 +3074,10 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="146"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
+      <c r="A6" s="148"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
@@ -3096,10 +3096,10 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="146"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
+      <c r="A7" s="148"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
@@ -3118,10 +3118,10 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="146"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
@@ -3140,10 +3140,10 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="146"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
@@ -3162,10 +3162,10 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="146"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
+      <c r="A10" s="148"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
@@ -3184,10 +3184,10 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="146"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
@@ -3206,10 +3206,10 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
+      <c r="A12" s="149"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="3"/>
@@ -3228,16 +3228,16 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="148" t="s">
+      <c r="D13" s="150" t="s">
         <v>120</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -3260,10 +3260,10 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="146"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
       <c r="E14" s="99" t="s">
         <v>292</v>
       </c>
@@ -3286,10 +3286,10 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="146"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="7" t="s">
         <v>153</v>
       </c>
@@ -3312,10 +3312,10 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="146"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
+      <c r="A16" s="148"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
@@ -3334,10 +3334,10 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="146"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="3"/>
@@ -3356,10 +3356,10 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="146"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
       <c r="G18" s="3"/>
@@ -3378,10 +3378,10 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
       <c r="G19" s="3"/>
@@ -3400,10 +3400,10 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="146"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
       <c r="G20" s="3"/>
@@ -3422,10 +3422,10 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="146"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
       <c r="G21" s="3"/>
@@ -3444,10 +3444,10 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="146"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
+      <c r="A22" s="148"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="148"/>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
       <c r="G22" s="3"/>
@@ -3466,10 +3466,10 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="146"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="3"/>
@@ -3488,10 +3488,10 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="146"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
+      <c r="A24" s="148"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
       <c r="G24" s="3"/>
@@ -3510,10 +3510,10 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="146"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
+      <c r="A25" s="148"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="3"/>
@@ -3532,10 +3532,10 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="146"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
+      <c r="A26" s="148"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
       <c r="G26" s="3"/>
@@ -3554,16 +3554,16 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="166" t="s">
+      <c r="A27" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="170" t="s">
+      <c r="B27" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="173" t="s">
+      <c r="C27" s="174" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="168" t="s">
         <v>120</v>
       </c>
       <c r="E27" s="100" t="s">
@@ -3586,10 +3586,10 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
-      <c r="B28" s="171"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="168"/>
+      <c r="A28" s="148"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="101" t="s">
         <v>129</v>
       </c>
@@ -3612,10 +3612,10 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="146"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="168"/>
+      <c r="A29" s="148"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="169"/>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
@@ -3634,10 +3634,10 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="146"/>
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="168"/>
+      <c r="A30" s="148"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="169"/>
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
       <c r="G30" s="4"/>
@@ -3656,10 +3656,10 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="146"/>
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="168"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="169"/>
       <c r="E31" s="18"/>
       <c r="F31" s="19"/>
       <c r="G31" s="4"/>
@@ -3678,10 +3678,10 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="146"/>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="168"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="169"/>
       <c r="E32" s="18"/>
       <c r="F32" s="19"/>
       <c r="G32" s="4"/>
@@ -3700,10 +3700,10 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="146"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="168"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="18"/>
       <c r="F33" s="19"/>
       <c r="G33" s="4"/>
@@ -3722,10 +3722,10 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="147"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="169"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
       <c r="G34" s="4"/>
@@ -3744,16 +3744,16 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
+      <c r="A35" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="163" t="s">
+      <c r="B35" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="145" t="s">
+      <c r="C35" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="174" t="s">
+      <c r="D35" s="177" t="s">
         <v>120</v>
       </c>
       <c r="E35" s="100" t="s">
@@ -3776,10 +3776,10 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="146"/>
-      <c r="B36" s="146"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="175"/>
+      <c r="A36" s="148"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="178"/>
       <c r="E36" s="99" t="s">
         <v>133</v>
       </c>
@@ -3802,10 +3802,10 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="146"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="175"/>
+      <c r="A37" s="148"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="178"/>
       <c r="E37" s="99" t="s">
         <v>293</v>
       </c>
@@ -3826,10 +3826,10 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="146"/>
-      <c r="B38" s="146"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="175"/>
+      <c r="A38" s="148"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="178"/>
       <c r="E38" s="99" t="s">
         <v>295</v>
       </c>
@@ -3852,10 +3852,10 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="146"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="175"/>
+      <c r="A39" s="148"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="178"/>
       <c r="E39" s="13"/>
       <c r="F39" s="19"/>
       <c r="G39" s="4"/>
@@ -3874,10 +3874,10 @@
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="147"/>
-      <c r="B40" s="147"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="176"/>
+      <c r="A40" s="149"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="22"/>
       <c r="F40" s="23"/>
       <c r="G40" s="4"/>
@@ -3896,16 +3896,16 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" ht="132.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="130" t="s">
+      <c r="A41" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="177" t="s">
+      <c r="B41" s="180" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="180" t="s">
+      <c r="D41" s="176" t="s">
         <v>120</v>
       </c>
       <c r="E41" s="104" t="s">
@@ -3931,9 +3931,9 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="132"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
       <c r="E42" s="24"/>
       <c r="F42" s="25"/>
       <c r="G42" s="4"/>
@@ -3953,9 +3953,9 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="132"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="148"/>
       <c r="E43" s="24"/>
       <c r="F43" s="25"/>
       <c r="G43" s="4"/>
@@ -3975,9 +3975,9 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="132"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="148"/>
       <c r="E44" s="24"/>
       <c r="F44" s="25"/>
       <c r="G44" s="4"/>
@@ -3997,9 +3997,9 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="132"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="148"/>
       <c r="E45" s="24"/>
       <c r="F45" s="25"/>
       <c r="G45" s="4"/>
@@ -4019,9 +4019,9 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="132"/>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
+      <c r="B46" s="148"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="148"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="4"/>
@@ -4041,9 +4041,9 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="132"/>
-      <c r="B47" s="146"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
+      <c r="B47" s="148"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="148"/>
       <c r="E47" s="24"/>
       <c r="F47" s="25"/>
       <c r="G47" s="4"/>
@@ -4063,9 +4063,9 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="132"/>
-      <c r="B48" s="146"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
       <c r="E48" s="24"/>
       <c r="F48" s="25"/>
       <c r="G48" s="4"/>
@@ -4085,9 +4085,9 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="132"/>
-      <c r="B49" s="146"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148"/>
       <c r="E49" s="24"/>
       <c r="F49" s="25"/>
       <c r="G49" s="4"/>
@@ -4107,9 +4107,9 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="132"/>
-      <c r="B50" s="146"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
+      <c r="B50" s="148"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
       <c r="E50" s="24"/>
       <c r="F50" s="25"/>
       <c r="G50" s="4"/>
@@ -4129,9 +4129,9 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="133"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
+      <c r="B51" s="149"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="149"/>
       <c r="E51" s="26"/>
       <c r="F51" s="27"/>
       <c r="G51" s="4"/>
@@ -4150,16 +4150,16 @@
       <c r="T51" s="4"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="145" t="s">
+      <c r="C52" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="148" t="s">
+      <c r="D52" s="150" t="s">
         <v>120</v>
       </c>
       <c r="E52" s="28"/>
@@ -4181,9 +4181,9 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="132"/>
-      <c r="B53" s="146"/>
-      <c r="C53" s="146"/>
-      <c r="D53" s="146"/>
+      <c r="B53" s="148"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
       <c r="E53" s="24" t="s">
         <v>138</v>
       </c>
@@ -4205,9 +4205,9 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="132"/>
-      <c r="B54" s="146"/>
-      <c r="C54" s="146"/>
-      <c r="D54" s="146"/>
+      <c r="B54" s="148"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="148"/>
       <c r="E54" s="24"/>
       <c r="F54" s="25"/>
       <c r="G54" s="4"/>
@@ -4227,9 +4227,9 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="132"/>
-      <c r="B55" s="146"/>
-      <c r="C55" s="146"/>
-      <c r="D55" s="146"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="148"/>
       <c r="E55" s="24" t="s">
         <v>140</v>
       </c>
@@ -4251,9 +4251,9 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="132"/>
-      <c r="B56" s="146"/>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
+      <c r="B56" s="148"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="148"/>
       <c r="E56" s="24"/>
       <c r="F56" s="25"/>
       <c r="G56" s="4"/>
@@ -4273,10 +4273,10 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="132"/>
-      <c r="B57" s="146"/>
-      <c r="C57" s="146"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="141" t="s">
+      <c r="B57" s="148"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="145" t="s">
         <v>298</v>
       </c>
       <c r="F57" s="25" t="s">
@@ -4299,10 +4299,10 @@
     </row>
     <row r="58" spans="1:20" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="133"/>
-      <c r="B58" s="147"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="142"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="146"/>
       <c r="F58" s="27"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4320,16 +4320,16 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="155" t="s">
+      <c r="A59" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="163" t="s">
+      <c r="B59" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="145" t="s">
+      <c r="C59" s="147" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="148" t="s">
+      <c r="D59" s="150" t="s">
         <v>120</v>
       </c>
       <c r="E59" s="28" t="s">
@@ -4353,9 +4353,9 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="132"/>
-      <c r="B60" s="146"/>
-      <c r="C60" s="146"/>
-      <c r="D60" s="146"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
       <c r="E60" s="24" t="s">
         <v>143</v>
       </c>
@@ -4377,9 +4377,9 @@
     </row>
     <row r="61" spans="1:20" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A61" s="132"/>
-      <c r="B61" s="146"/>
-      <c r="C61" s="146"/>
-      <c r="D61" s="146"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
       <c r="E61" s="107" t="s">
         <v>299</v>
       </c>
@@ -4403,9 +4403,9 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="132"/>
-      <c r="B62" s="146"/>
-      <c r="C62" s="146"/>
-      <c r="D62" s="146"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="148"/>
       <c r="E62" s="24"/>
       <c r="F62" s="25"/>
       <c r="G62" s="4"/>
@@ -4425,9 +4425,9 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="132"/>
-      <c r="B63" s="146"/>
-      <c r="C63" s="146"/>
-      <c r="D63" s="146"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="148"/>
       <c r="E63" s="24"/>
       <c r="F63" s="25"/>
       <c r="G63" s="4"/>
@@ -4447,9 +4447,9 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="133"/>
-      <c r="B64" s="147"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="149"/>
       <c r="E64" s="26"/>
       <c r="F64" s="27"/>
       <c r="G64" s="4"/>
@@ -4468,16 +4468,16 @@
       <c r="T64" s="4"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="155" t="s">
+      <c r="A65" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="163" t="s">
+      <c r="B65" s="162" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="145" t="s">
+      <c r="C65" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="148" t="s">
+      <c r="D65" s="150" t="s">
         <v>120</v>
       </c>
       <c r="E65" s="28" t="s">
@@ -4501,9 +4501,9 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="132"/>
-      <c r="B66" s="146"/>
-      <c r="C66" s="146"/>
-      <c r="D66" s="146"/>
+      <c r="B66" s="148"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="148"/>
       <c r="E66" s="24" t="s">
         <v>146</v>
       </c>
@@ -4525,10 +4525,10 @@
     </row>
     <row r="67" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="132"/>
-      <c r="B67" s="146"/>
-      <c r="C67" s="146"/>
-      <c r="D67" s="146"/>
-      <c r="E67" s="151" t="s">
+      <c r="B67" s="148"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="153" t="s">
         <v>300</v>
       </c>
       <c r="F67" s="25"/>
@@ -4549,10 +4549,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="132"/>
-      <c r="B68" s="146"/>
-      <c r="C68" s="146"/>
-      <c r="D68" s="146"/>
-      <c r="E68" s="152"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="154"/>
       <c r="F68" s="25"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -4571,10 +4571,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="132"/>
-      <c r="B69" s="146"/>
-      <c r="C69" s="146"/>
-      <c r="D69" s="146"/>
-      <c r="E69" s="152"/>
+      <c r="B69" s="148"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="148"/>
+      <c r="E69" s="154"/>
       <c r="F69" s="25"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="132"/>
-      <c r="B70" s="146"/>
-      <c r="C70" s="146"/>
-      <c r="D70" s="146"/>
-      <c r="E70" s="152"/>
+      <c r="B70" s="148"/>
+      <c r="C70" s="148"/>
+      <c r="D70" s="148"/>
+      <c r="E70" s="154"/>
       <c r="F70" s="25"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="132"/>
-      <c r="B71" s="146"/>
-      <c r="C71" s="146"/>
-      <c r="D71" s="146"/>
-      <c r="E71" s="152"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="154"/>
       <c r="F71" s="25"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -4637,10 +4637,10 @@
     </row>
     <row r="72" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="132"/>
-      <c r="B72" s="146"/>
-      <c r="C72" s="146"/>
-      <c r="D72" s="146"/>
-      <c r="E72" s="153"/>
+      <c r="B72" s="148"/>
+      <c r="C72" s="148"/>
+      <c r="D72" s="148"/>
+      <c r="E72" s="155"/>
       <c r="F72" s="25"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -4659,9 +4659,9 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="132"/>
-      <c r="B73" s="146"/>
-      <c r="C73" s="146"/>
-      <c r="D73" s="146"/>
+      <c r="B73" s="148"/>
+      <c r="C73" s="148"/>
+      <c r="D73" s="148"/>
       <c r="E73" s="24"/>
       <c r="F73" s="25"/>
       <c r="G73" s="4"/>
@@ -4681,9 +4681,9 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="133"/>
-      <c r="B74" s="147"/>
-      <c r="C74" s="147"/>
-      <c r="D74" s="147"/>
+      <c r="B74" s="149"/>
+      <c r="C74" s="149"/>
+      <c r="D74" s="149"/>
       <c r="E74" s="26"/>
       <c r="F74" s="27"/>
       <c r="G74" s="4"/>
@@ -4702,16 +4702,16 @@
       <c r="T74" s="4"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="162" t="s">
+      <c r="A75" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="163" t="s">
+      <c r="B75" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="145" t="s">
+      <c r="C75" s="147" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="148" t="s">
+      <c r="D75" s="150" t="s">
         <v>120</v>
       </c>
       <c r="E75" s="28" t="s">
@@ -4734,10 +4734,10 @@
       <c r="T75" s="4"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="146"/>
-      <c r="B76" s="146"/>
-      <c r="C76" s="146"/>
-      <c r="D76" s="146"/>
+      <c r="A76" s="148"/>
+      <c r="B76" s="148"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
       <c r="E76" s="24" t="s">
         <v>149</v>
       </c>
@@ -4758,10 +4758,10 @@
       <c r="T76" s="4"/>
     </row>
     <row r="77" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A77" s="146"/>
-      <c r="B77" s="146"/>
-      <c r="C77" s="146"/>
-      <c r="D77" s="146"/>
+      <c r="A77" s="148"/>
+      <c r="B77" s="148"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="148"/>
       <c r="E77" s="107" t="s">
         <v>301</v>
       </c>
@@ -4782,10 +4782,10 @@
       <c r="T77" s="4"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="146"/>
-      <c r="B78" s="146"/>
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
+      <c r="A78" s="148"/>
+      <c r="B78" s="148"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
       <c r="E78" s="24"/>
       <c r="F78" s="25"/>
       <c r="G78" s="4"/>
@@ -4804,10 +4804,10 @@
       <c r="T78" s="4"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="146"/>
-      <c r="B79" s="146"/>
-      <c r="C79" s="146"/>
-      <c r="D79" s="146"/>
+      <c r="A79" s="148"/>
+      <c r="B79" s="148"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="148"/>
       <c r="E79" s="24"/>
       <c r="F79" s="25"/>
       <c r="G79" s="4"/>
@@ -4826,10 +4826,10 @@
       <c r="T79" s="4"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="146"/>
-      <c r="B80" s="146"/>
-      <c r="C80" s="146"/>
-      <c r="D80" s="146"/>
+      <c r="A80" s="148"/>
+      <c r="B80" s="148"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="148"/>
       <c r="E80" s="24"/>
       <c r="F80" s="25"/>
       <c r="G80" s="4"/>
@@ -4848,10 +4848,10 @@
       <c r="T80" s="4"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="146"/>
-      <c r="B81" s="146"/>
-      <c r="C81" s="146"/>
-      <c r="D81" s="146"/>
+      <c r="A81" s="148"/>
+      <c r="B81" s="148"/>
+      <c r="C81" s="148"/>
+      <c r="D81" s="148"/>
       <c r="E81" s="24"/>
       <c r="F81" s="25"/>
       <c r="G81" s="4"/>
@@ -4870,10 +4870,10 @@
       <c r="T81" s="4"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="146"/>
-      <c r="B82" s="146"/>
-      <c r="C82" s="146"/>
-      <c r="D82" s="146"/>
+      <c r="A82" s="148"/>
+      <c r="B82" s="148"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="148"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="4"/>
@@ -4892,10 +4892,10 @@
       <c r="T82" s="4"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="146"/>
-      <c r="B83" s="146"/>
-      <c r="C83" s="146"/>
-      <c r="D83" s="146"/>
+      <c r="A83" s="148"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
       <c r="E83" s="24"/>
       <c r="F83" s="25"/>
       <c r="G83" s="4"/>
@@ -4914,10 +4914,10 @@
       <c r="T83" s="4"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84" s="146"/>
-      <c r="B84" s="146"/>
-      <c r="C84" s="146"/>
-      <c r="D84" s="146"/>
+      <c r="A84" s="148"/>
+      <c r="B84" s="148"/>
+      <c r="C84" s="148"/>
+      <c r="D84" s="148"/>
       <c r="E84" s="24"/>
       <c r="F84" s="25"/>
       <c r="G84" s="4"/>
@@ -4936,10 +4936,10 @@
       <c r="T84" s="4"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85" s="146"/>
-      <c r="B85" s="146"/>
-      <c r="C85" s="146"/>
-      <c r="D85" s="146"/>
+      <c r="A85" s="148"/>
+      <c r="B85" s="148"/>
+      <c r="C85" s="148"/>
+      <c r="D85" s="148"/>
       <c r="E85" s="24"/>
       <c r="F85" s="25"/>
       <c r="G85" s="4"/>
@@ -4958,10 +4958,10 @@
       <c r="T85" s="4"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="147"/>
-      <c r="B86" s="147"/>
-      <c r="C86" s="147"/>
-      <c r="D86" s="147"/>
+      <c r="A86" s="149"/>
+      <c r="B86" s="149"/>
+      <c r="C86" s="149"/>
+      <c r="D86" s="149"/>
       <c r="E86" s="26"/>
       <c r="F86" s="27"/>
       <c r="G86" s="4"/>
@@ -4980,16 +4980,16 @@
       <c r="T86" s="4"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="162" t="s">
+      <c r="A87" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="163" t="s">
+      <c r="B87" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="145" t="s">
+      <c r="C87" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="D87" s="148" t="s">
+      <c r="D87" s="150" t="s">
         <v>120</v>
       </c>
       <c r="E87" s="28" t="s">
@@ -5012,10 +5012,10 @@
       <c r="T87" s="4"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="146"/>
-      <c r="B88" s="146"/>
-      <c r="C88" s="146"/>
-      <c r="D88" s="146"/>
+      <c r="A88" s="148"/>
+      <c r="B88" s="148"/>
+      <c r="C88" s="148"/>
+      <c r="D88" s="148"/>
       <c r="E88" s="24" t="s">
         <v>152</v>
       </c>
@@ -5036,10 +5036,10 @@
       <c r="T88" s="4"/>
     </row>
     <row r="89" spans="1:20" ht="66" x14ac:dyDescent="0.3">
-      <c r="A89" s="146"/>
-      <c r="B89" s="146"/>
-      <c r="C89" s="146"/>
-      <c r="D89" s="146"/>
+      <c r="A89" s="148"/>
+      <c r="B89" s="148"/>
+      <c r="C89" s="148"/>
+      <c r="D89" s="148"/>
       <c r="E89" s="106" t="s">
         <v>302</v>
       </c>
@@ -5060,10 +5060,10 @@
       <c r="T89" s="4"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="146"/>
-      <c r="B90" s="146"/>
-      <c r="C90" s="146"/>
-      <c r="D90" s="146"/>
+      <c r="A90" s="148"/>
+      <c r="B90" s="148"/>
+      <c r="C90" s="148"/>
+      <c r="D90" s="148"/>
       <c r="E90" s="24"/>
       <c r="F90" s="25"/>
       <c r="G90" s="4"/>
@@ -5082,10 +5082,10 @@
       <c r="T90" s="4"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="146"/>
-      <c r="B91" s="146"/>
-      <c r="C91" s="146"/>
-      <c r="D91" s="146"/>
+      <c r="A91" s="148"/>
+      <c r="B91" s="148"/>
+      <c r="C91" s="148"/>
+      <c r="D91" s="148"/>
       <c r="E91" s="24"/>
       <c r="F91" s="25"/>
       <c r="G91" s="4"/>
@@ -5104,10 +5104,10 @@
       <c r="T91" s="4"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" s="146"/>
-      <c r="B92" s="146"/>
-      <c r="C92" s="146"/>
-      <c r="D92" s="146"/>
+      <c r="A92" s="148"/>
+      <c r="B92" s="148"/>
+      <c r="C92" s="148"/>
+      <c r="D92" s="148"/>
       <c r="E92" s="24"/>
       <c r="F92" s="25"/>
       <c r="G92" s="4"/>
@@ -5126,10 +5126,10 @@
       <c r="T92" s="4"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A93" s="146"/>
-      <c r="B93" s="146"/>
-      <c r="C93" s="146"/>
-      <c r="D93" s="146"/>
+      <c r="A93" s="148"/>
+      <c r="B93" s="148"/>
+      <c r="C93" s="148"/>
+      <c r="D93" s="148"/>
       <c r="E93" s="24"/>
       <c r="F93" s="25"/>
       <c r="G93" s="4"/>
@@ -5148,10 +5148,10 @@
       <c r="T93" s="4"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="146"/>
-      <c r="B94" s="146"/>
-      <c r="C94" s="146"/>
-      <c r="D94" s="146"/>
+      <c r="A94" s="148"/>
+      <c r="B94" s="148"/>
+      <c r="C94" s="148"/>
+      <c r="D94" s="148"/>
       <c r="E94" s="24"/>
       <c r="F94" s="25"/>
       <c r="G94" s="4"/>
@@ -5170,10 +5170,10 @@
       <c r="T94" s="4"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="146"/>
-      <c r="B95" s="146"/>
-      <c r="C95" s="146"/>
-      <c r="D95" s="146"/>
+      <c r="A95" s="148"/>
+      <c r="B95" s="148"/>
+      <c r="C95" s="148"/>
+      <c r="D95" s="148"/>
       <c r="E95" s="24"/>
       <c r="F95" s="25"/>
       <c r="G95" s="4"/>
@@ -5192,10 +5192,10 @@
       <c r="T95" s="4"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="146"/>
-      <c r="B96" s="146"/>
-      <c r="C96" s="146"/>
-      <c r="D96" s="146"/>
+      <c r="A96" s="148"/>
+      <c r="B96" s="148"/>
+      <c r="C96" s="148"/>
+      <c r="D96" s="148"/>
       <c r="E96" s="24"/>
       <c r="F96" s="25"/>
       <c r="G96" s="4"/>
@@ -5214,10 +5214,10 @@
       <c r="T96" s="4"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="146"/>
-      <c r="B97" s="146"/>
-      <c r="C97" s="146"/>
-      <c r="D97" s="146"/>
+      <c r="A97" s="148"/>
+      <c r="B97" s="148"/>
+      <c r="C97" s="148"/>
+      <c r="D97" s="148"/>
       <c r="E97" s="24"/>
       <c r="F97" s="25"/>
       <c r="G97" s="4"/>
@@ -5236,10 +5236,10 @@
       <c r="T97" s="4"/>
     </row>
     <row r="98" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="147"/>
-      <c r="B98" s="147"/>
-      <c r="C98" s="147"/>
-      <c r="D98" s="147"/>
+      <c r="A98" s="149"/>
+      <c r="B98" s="149"/>
+      <c r="C98" s="149"/>
+      <c r="D98" s="149"/>
       <c r="E98" s="26"/>
       <c r="F98" s="27"/>
       <c r="G98" s="4"/>
@@ -5258,16 +5258,16 @@
       <c r="T98" s="4"/>
     </row>
     <row r="99" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="162" t="s">
+      <c r="A99" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="163" t="s">
+      <c r="B99" s="162" t="s">
         <v>156</v>
       </c>
-      <c r="C99" s="145" t="s">
+      <c r="C99" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="D99" s="148" t="s">
+      <c r="D99" s="150" t="s">
         <v>120</v>
       </c>
       <c r="E99" s="28" t="s">
@@ -5290,10 +5290,10 @@
       <c r="T99" s="4"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A100" s="146"/>
-      <c r="B100" s="146"/>
-      <c r="C100" s="146"/>
-      <c r="D100" s="146"/>
+      <c r="A100" s="148"/>
+      <c r="B100" s="148"/>
+      <c r="C100" s="148"/>
+      <c r="D100" s="148"/>
       <c r="E100" s="24" t="s">
         <v>158</v>
       </c>
@@ -5314,10 +5314,10 @@
       <c r="T100" s="4"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A101" s="146"/>
-      <c r="B101" s="146"/>
-      <c r="C101" s="146"/>
-      <c r="D101" s="146"/>
+      <c r="A101" s="148"/>
+      <c r="B101" s="148"/>
+      <c r="C101" s="148"/>
+      <c r="D101" s="148"/>
       <c r="E101" s="24"/>
       <c r="F101" s="25"/>
       <c r="G101" s="4"/>
@@ -5336,10 +5336,10 @@
       <c r="T101" s="4"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A102" s="146"/>
-      <c r="B102" s="146"/>
-      <c r="C102" s="146"/>
-      <c r="D102" s="146"/>
+      <c r="A102" s="148"/>
+      <c r="B102" s="148"/>
+      <c r="C102" s="148"/>
+      <c r="D102" s="148"/>
       <c r="E102" s="24" t="s">
         <v>159</v>
       </c>
@@ -5360,10 +5360,10 @@
       <c r="T102" s="4"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="146"/>
-      <c r="B103" s="146"/>
-      <c r="C103" s="146"/>
-      <c r="D103" s="146"/>
+      <c r="A103" s="148"/>
+      <c r="B103" s="148"/>
+      <c r="C103" s="148"/>
+      <c r="D103" s="148"/>
       <c r="E103" s="24" t="s">
         <v>160</v>
       </c>
@@ -5386,10 +5386,10 @@
       <c r="T103" s="4"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="146"/>
-      <c r="B104" s="146"/>
-      <c r="C104" s="146"/>
-      <c r="D104" s="146"/>
+      <c r="A104" s="148"/>
+      <c r="B104" s="148"/>
+      <c r="C104" s="148"/>
+      <c r="D104" s="148"/>
       <c r="E104" s="24"/>
       <c r="F104" s="25"/>
       <c r="G104" s="4"/>
@@ -5408,10 +5408,10 @@
       <c r="T104" s="4"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="146"/>
-      <c r="B105" s="146"/>
-      <c r="C105" s="146"/>
-      <c r="D105" s="146"/>
+      <c r="A105" s="148"/>
+      <c r="B105" s="148"/>
+      <c r="C105" s="148"/>
+      <c r="D105" s="148"/>
       <c r="E105" s="24"/>
       <c r="F105" s="25"/>
       <c r="G105" s="4"/>
@@ -5430,10 +5430,10 @@
       <c r="T105" s="4"/>
     </row>
     <row r="106" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="147"/>
-      <c r="B106" s="147"/>
-      <c r="C106" s="147"/>
-      <c r="D106" s="147"/>
+      <c r="A106" s="149"/>
+      <c r="B106" s="149"/>
+      <c r="C106" s="149"/>
+      <c r="D106" s="149"/>
       <c r="E106" s="26"/>
       <c r="F106" s="27"/>
       <c r="G106" s="4"/>
@@ -5452,16 +5452,16 @@
       <c r="T106" s="4"/>
     </row>
     <row r="107" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="155" t="s">
+      <c r="A107" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="143" t="s">
+      <c r="B107" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="C107" s="144" t="s">
+      <c r="C107" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="D107" s="140" t="s">
+      <c r="D107" s="144" t="s">
         <v>120</v>
       </c>
       <c r="E107" s="31" t="s">
@@ -5625,9 +5625,9 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="133"/>
-      <c r="B114" s="154"/>
-      <c r="C114" s="154"/>
-      <c r="D114" s="154"/>
+      <c r="B114" s="156"/>
+      <c r="C114" s="156"/>
+      <c r="D114" s="156"/>
       <c r="E114" s="35"/>
       <c r="F114" s="36"/>
       <c r="G114" s="4"/>
@@ -5646,16 +5646,16 @@
       <c r="T114" s="4"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A115" s="155" t="s">
+      <c r="A115" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B115" s="143" t="s">
+      <c r="B115" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="C115" s="144" t="s">
+      <c r="C115" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="D115" s="140" t="s">
+      <c r="D115" s="144" t="s">
         <v>120</v>
       </c>
       <c r="E115" s="31" t="s">
@@ -5884,16 +5884,16 @@
       <c r="T124" s="4"/>
     </row>
     <row r="125" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="155" t="s">
+      <c r="A125" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="B125" s="143" t="s">
+      <c r="B125" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="C125" s="144" t="s">
+      <c r="C125" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="D125" s="140" t="s">
+      <c r="D125" s="144" t="s">
         <v>120</v>
       </c>
       <c r="E125" s="31" t="s">
@@ -6140,16 +6140,16 @@
       <c r="T135" s="4"/>
     </row>
     <row r="136" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="155" t="s">
+      <c r="A136" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="B136" s="143" t="s">
+      <c r="B136" s="131" t="s">
         <v>289</v>
       </c>
-      <c r="C136" s="144" t="s">
+      <c r="C136" s="134" t="s">
         <v>218</v>
       </c>
-      <c r="D136" s="140" t="s">
+      <c r="D136" s="144" t="s">
         <v>120</v>
       </c>
       <c r="E136" s="31" t="s">
@@ -6422,16 +6422,16 @@
       <c r="T147" s="4"/>
     </row>
     <row r="148" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="155" t="s">
+      <c r="A148" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="B148" s="143" t="s">
+      <c r="B148" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C148" s="144" t="s">
+      <c r="C148" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="D148" s="140" t="s">
+      <c r="D148" s="144" t="s">
         <v>120</v>
       </c>
       <c r="E148" s="31" t="s">
@@ -6684,16 +6684,16 @@
       <c r="T158" s="4"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="155" t="s">
+      <c r="A159" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B159" s="143" t="s">
+      <c r="B159" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="C159" s="144" t="s">
+      <c r="C159" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="D159" s="140" t="s">
+      <c r="D159" s="144" t="s">
         <v>120</v>
       </c>
       <c r="E159" s="28"/>
@@ -6950,16 +6950,16 @@
       <c r="T169" s="4"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="155" t="s">
+      <c r="A170" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="B170" s="143" t="s">
+      <c r="B170" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="C170" s="144" t="s">
+      <c r="C170" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="D170" s="140" t="s">
+      <c r="D170" s="144" t="s">
         <v>120</v>
       </c>
       <c r="E170" s="37" t="s">
@@ -7164,16 +7164,16 @@
       <c r="T178" s="4"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A179" s="130" t="s">
+      <c r="A179" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B179" s="134" t="s">
+      <c r="B179" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="C179" s="136" t="s">
+      <c r="C179" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="D179" s="138" t="s">
+      <c r="D179" s="142" t="s">
         <v>120</v>
       </c>
       <c r="E179" s="46"/>
@@ -7444,16 +7444,16 @@
       <c r="T190" s="4"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="155" t="s">
+      <c r="A191" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="B191" s="149" t="s">
+      <c r="B191" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="C191" s="144" t="s">
+      <c r="C191" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="D191" s="140" t="s">
+      <c r="D191" s="144" t="s">
         <v>120</v>
       </c>
       <c r="E191" s="37" t="s">
@@ -7614,16 +7614,16 @@
       <c r="T197" s="4"/>
     </row>
     <row r="198" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="155" t="s">
+      <c r="A198" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="B198" s="149" t="s">
+      <c r="B198" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="C198" s="144" t="s">
+      <c r="C198" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="D198" s="140" t="s">
+      <c r="D198" s="144" t="s">
         <v>120</v>
       </c>
       <c r="E198" s="37" t="s">
@@ -7646,10 +7646,10 @@
       <c r="T198" s="4"/>
     </row>
     <row r="199" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="131"/>
-      <c r="B199" s="150"/>
-      <c r="C199" s="137"/>
-      <c r="D199" s="139"/>
+      <c r="A199" s="139"/>
+      <c r="B199" s="152"/>
+      <c r="C199" s="141"/>
+      <c r="D199" s="143"/>
       <c r="E199" s="37" t="s">
         <v>190</v>
       </c>
@@ -7670,10 +7670,10 @@
       <c r="T199" s="4"/>
     </row>
     <row r="200" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="131"/>
-      <c r="B200" s="150"/>
-      <c r="C200" s="137"/>
-      <c r="D200" s="139"/>
+      <c r="A200" s="139"/>
+      <c r="B200" s="152"/>
+      <c r="C200" s="141"/>
+      <c r="D200" s="143"/>
       <c r="E200" s="37" t="s">
         <v>201</v>
       </c>
@@ -7694,10 +7694,10 @@
       <c r="T200" s="4"/>
     </row>
     <row r="201" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="131"/>
-      <c r="B201" s="150"/>
-      <c r="C201" s="137"/>
-      <c r="D201" s="139"/>
+      <c r="A201" s="139"/>
+      <c r="B201" s="152"/>
+      <c r="C201" s="141"/>
+      <c r="D201" s="143"/>
       <c r="E201" s="110"/>
       <c r="F201" s="47"/>
       <c r="G201" s="4"/>
@@ -7716,10 +7716,10 @@
       <c r="T201" s="4"/>
     </row>
     <row r="202" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="131"/>
-      <c r="B202" s="150"/>
-      <c r="C202" s="137"/>
-      <c r="D202" s="139"/>
+      <c r="A202" s="139"/>
+      <c r="B202" s="152"/>
+      <c r="C202" s="141"/>
+      <c r="D202" s="143"/>
       <c r="E202" s="111" t="s">
         <v>309</v>
       </c>
@@ -7784,16 +7784,16 @@
       <c r="T204" s="4"/>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A205" s="155" t="s">
+      <c r="A205" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="B205" s="161" t="s">
+      <c r="B205" s="163" t="s">
         <v>207</v>
       </c>
-      <c r="C205" s="158" t="s">
+      <c r="C205" s="160" t="s">
         <v>202</v>
       </c>
-      <c r="D205" s="179" t="s">
+      <c r="D205" s="175" t="s">
         <v>120</v>
       </c>
       <c r="E205" s="37" t="s">
@@ -7840,10 +7840,10 @@
       <c r="T206" s="4"/>
     </row>
     <row r="207" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="160"/>
-      <c r="B207" s="160"/>
-      <c r="C207" s="160"/>
-      <c r="D207" s="160"/>
+      <c r="A207" s="136"/>
+      <c r="B207" s="136"/>
+      <c r="C207" s="136"/>
+      <c r="D207" s="136"/>
       <c r="E207" s="110" t="s">
         <v>203</v>
       </c>
@@ -7864,10 +7864,10 @@
       <c r="T207" s="4"/>
     </row>
     <row r="208" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="160"/>
-      <c r="B208" s="160"/>
-      <c r="C208" s="160"/>
-      <c r="D208" s="160"/>
+      <c r="A208" s="136"/>
+      <c r="B208" s="136"/>
+      <c r="C208" s="136"/>
+      <c r="D208" s="136"/>
       <c r="E208" s="110" t="s">
         <v>205</v>
       </c>
@@ -7888,10 +7888,10 @@
       <c r="T208" s="4"/>
     </row>
     <row r="209" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="160"/>
-      <c r="B209" s="160"/>
-      <c r="C209" s="160"/>
-      <c r="D209" s="160"/>
+      <c r="A209" s="136"/>
+      <c r="B209" s="136"/>
+      <c r="C209" s="136"/>
+      <c r="D209" s="136"/>
       <c r="E209" s="37" t="s">
         <v>204</v>
       </c>
@@ -7912,10 +7912,10 @@
       <c r="T209" s="4"/>
     </row>
     <row r="210" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="160"/>
-      <c r="B210" s="160"/>
-      <c r="C210" s="160"/>
-      <c r="D210" s="160"/>
+      <c r="A210" s="136"/>
+      <c r="B210" s="136"/>
+      <c r="C210" s="136"/>
+      <c r="D210" s="136"/>
       <c r="E210" s="112" t="s">
         <v>206</v>
       </c>
@@ -7936,10 +7936,10 @@
       <c r="T210" s="4"/>
     </row>
     <row r="211" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="160"/>
-      <c r="B211" s="160"/>
-      <c r="C211" s="160"/>
-      <c r="D211" s="160"/>
+      <c r="A211" s="136"/>
+      <c r="B211" s="136"/>
+      <c r="C211" s="136"/>
+      <c r="D211" s="136"/>
       <c r="E211" s="37"/>
       <c r="F211" s="52"/>
       <c r="G211" s="4"/>
@@ -8024,16 +8024,16 @@
       <c r="T214" s="4"/>
     </row>
     <row r="215" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="155" t="s">
+      <c r="A215" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="149" t="s">
+      <c r="B215" s="151" t="s">
         <v>269</v>
       </c>
-      <c r="C215" s="144" t="s">
+      <c r="C215" s="134" t="s">
         <v>268</v>
       </c>
-      <c r="D215" s="140" t="s">
+      <c r="D215" s="144" t="s">
         <v>120</v>
       </c>
       <c r="E215" s="49"/>
@@ -8054,10 +8054,10 @@
       <c r="T215" s="4"/>
     </row>
     <row r="216" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="131"/>
-      <c r="B216" s="150"/>
-      <c r="C216" s="137"/>
-      <c r="D216" s="139"/>
+      <c r="A216" s="139"/>
+      <c r="B216" s="152"/>
+      <c r="C216" s="141"/>
+      <c r="D216" s="143"/>
       <c r="E216" s="37" t="s">
         <v>138</v>
       </c>
@@ -8078,10 +8078,10 @@
       <c r="T216" s="4"/>
     </row>
     <row r="217" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="131"/>
-      <c r="B217" s="150"/>
-      <c r="C217" s="137"/>
-      <c r="D217" s="139"/>
+      <c r="A217" s="139"/>
+      <c r="B217" s="152"/>
+      <c r="C217" s="141"/>
+      <c r="D217" s="143"/>
       <c r="E217" s="37" t="s">
         <v>190</v>
       </c>
@@ -8102,10 +8102,10 @@
       <c r="T217" s="4"/>
     </row>
     <row r="218" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="131"/>
-      <c r="B218" s="150"/>
-      <c r="C218" s="137"/>
-      <c r="D218" s="139"/>
+      <c r="A218" s="139"/>
+      <c r="B218" s="152"/>
+      <c r="C218" s="141"/>
+      <c r="D218" s="143"/>
       <c r="E218" s="110" t="s">
         <v>208</v>
       </c>
@@ -8196,16 +8196,16 @@
       <c r="T221" s="4"/>
     </row>
     <row r="222" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="155" t="s">
+      <c r="A222" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="B222" s="149" t="s">
+      <c r="B222" s="151" t="s">
         <v>212</v>
       </c>
-      <c r="C222" s="144" t="s">
+      <c r="C222" s="134" t="s">
         <v>212</v>
       </c>
-      <c r="D222" s="140" t="s">
+      <c r="D222" s="144" t="s">
         <v>120</v>
       </c>
       <c r="E222" s="5" t="s">
@@ -8228,10 +8228,10 @@
       <c r="T222" s="4"/>
     </row>
     <row r="223" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="131"/>
-      <c r="B223" s="150"/>
-      <c r="C223" s="137"/>
-      <c r="D223" s="139"/>
+      <c r="A223" s="139"/>
+      <c r="B223" s="152"/>
+      <c r="C223" s="141"/>
+      <c r="D223" s="143"/>
       <c r="E223" s="106" t="s">
         <v>122</v>
       </c>
@@ -8252,10 +8252,10 @@
       <c r="T223" s="4"/>
     </row>
     <row r="224" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="131"/>
-      <c r="B224" s="150"/>
-      <c r="C224" s="137"/>
-      <c r="D224" s="139"/>
+      <c r="A224" s="139"/>
+      <c r="B224" s="152"/>
+      <c r="C224" s="141"/>
+      <c r="D224" s="143"/>
       <c r="E224" s="55" t="s">
         <v>213</v>
       </c>
@@ -8276,10 +8276,10 @@
       <c r="T224" s="4"/>
     </row>
     <row r="225" spans="1:20" s="98" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A225" s="131"/>
-      <c r="B225" s="150"/>
-      <c r="C225" s="137"/>
-      <c r="D225" s="139"/>
+      <c r="A225" s="139"/>
+      <c r="B225" s="152"/>
+      <c r="C225" s="141"/>
+      <c r="D225" s="143"/>
       <c r="E225" s="46" t="s">
         <v>214</v>
       </c>
@@ -8300,10 +8300,10 @@
       <c r="T225" s="4"/>
     </row>
     <row r="226" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="131"/>
-      <c r="B226" s="150"/>
-      <c r="C226" s="137"/>
-      <c r="D226" s="139"/>
+      <c r="A226" s="139"/>
+      <c r="B226" s="152"/>
+      <c r="C226" s="141"/>
+      <c r="D226" s="143"/>
       <c r="E226" s="55" t="s">
         <v>215</v>
       </c>
@@ -8416,13 +8416,13 @@
       <c r="T230" s="4"/>
     </row>
     <row r="231" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="155" t="s">
+      <c r="A231" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="B231" s="149" t="s">
+      <c r="B231" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="C231" s="144" t="s">
+      <c r="C231" s="134" t="s">
         <v>219</v>
       </c>
       <c r="D231" s="51" t="s">
@@ -8448,9 +8448,9 @@
       <c r="T231" s="4"/>
     </row>
     <row r="232" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="131"/>
-      <c r="B232" s="150"/>
-      <c r="C232" s="137"/>
+      <c r="A232" s="139"/>
+      <c r="B232" s="152"/>
+      <c r="C232" s="141"/>
       <c r="D232" s="106" t="s">
         <v>227</v>
       </c>
@@ -8474,9 +8474,9 @@
       <c r="T232" s="4"/>
     </row>
     <row r="233" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="131"/>
-      <c r="B233" s="150"/>
-      <c r="C233" s="137"/>
+      <c r="A233" s="139"/>
+      <c r="B233" s="152"/>
+      <c r="C233" s="141"/>
       <c r="D233" s="51"/>
       <c r="E233" s="106" t="s">
         <v>310</v>
@@ -8498,9 +8498,9 @@
       <c r="T233" s="4"/>
     </row>
     <row r="234" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="131"/>
-      <c r="B234" s="150"/>
-      <c r="C234" s="137"/>
+      <c r="A234" s="139"/>
+      <c r="B234" s="152"/>
+      <c r="C234" s="141"/>
       <c r="D234" s="51"/>
       <c r="E234" s="24" t="s">
         <v>174</v>
@@ -8522,9 +8522,9 @@
       <c r="T234" s="4"/>
     </row>
     <row r="235" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="131"/>
-      <c r="B235" s="150"/>
-      <c r="C235" s="137"/>
+      <c r="A235" s="139"/>
+      <c r="B235" s="152"/>
+      <c r="C235" s="141"/>
       <c r="D235" s="51"/>
       <c r="E235" s="55" t="s">
         <v>221</v>
@@ -8546,9 +8546,9 @@
       <c r="T235" s="4"/>
     </row>
     <row r="236" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="131"/>
-      <c r="B236" s="150"/>
-      <c r="C236" s="137"/>
+      <c r="A236" s="139"/>
+      <c r="B236" s="152"/>
+      <c r="C236" s="141"/>
       <c r="D236" s="51"/>
       <c r="E236" s="46" t="s">
         <v>222</v>
@@ -8660,14 +8660,14 @@
       <c r="T240" s="4"/>
     </row>
     <row r="241" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="159" t="s">
+      <c r="A241" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B241" s="159"/>
-      <c r="C241" s="159"/>
-      <c r="D241" s="159"/>
-      <c r="E241" s="159"/>
-      <c r="F241" s="159"/>
+      <c r="B241" s="161"/>
+      <c r="C241" s="161"/>
+      <c r="D241" s="161"/>
+      <c r="E241" s="161"/>
+      <c r="F241" s="161"/>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
@@ -8684,13 +8684,13 @@
       <c r="T241" s="4"/>
     </row>
     <row r="242" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="156" t="s">
+      <c r="A242" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="B242" s="157" t="s">
+      <c r="B242" s="159" t="s">
         <v>224</v>
       </c>
-      <c r="C242" s="158" t="s">
+      <c r="C242" s="160" t="s">
         <v>225</v>
       </c>
       <c r="D242" s="51"/>
@@ -8714,9 +8714,9 @@
       <c r="T242" s="4"/>
     </row>
     <row r="243" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="131"/>
-      <c r="B243" s="135"/>
-      <c r="C243" s="137"/>
+      <c r="A243" s="139"/>
+      <c r="B243" s="140"/>
+      <c r="C243" s="141"/>
       <c r="D243" s="24" t="s">
         <v>226</v>
       </c>
@@ -8740,9 +8740,9 @@
       <c r="T243" s="4"/>
     </row>
     <row r="244" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="131"/>
-      <c r="B244" s="135"/>
-      <c r="C244" s="137"/>
+      <c r="A244" s="139"/>
+      <c r="B244" s="140"/>
+      <c r="C244" s="141"/>
       <c r="D244" s="114" t="s">
         <v>227</v>
       </c>
@@ -8766,9 +8766,9 @@
       <c r="T244" s="4"/>
     </row>
     <row r="245" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="131"/>
-      <c r="B245" s="135"/>
-      <c r="C245" s="137"/>
+      <c r="A245" s="139"/>
+      <c r="B245" s="140"/>
+      <c r="C245" s="141"/>
       <c r="D245" s="106"/>
       <c r="E245" s="24" t="s">
         <v>174</v>
@@ -8790,9 +8790,9 @@
       <c r="T245" s="4"/>
     </row>
     <row r="246" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="131"/>
-      <c r="B246" s="135"/>
-      <c r="C246" s="137"/>
+      <c r="A246" s="139"/>
+      <c r="B246" s="140"/>
+      <c r="C246" s="141"/>
       <c r="D246" s="106"/>
       <c r="E246" s="55" t="s">
         <v>221</v>
@@ -8814,9 +8814,9 @@
       <c r="T246" s="4"/>
     </row>
     <row r="247" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="131"/>
-      <c r="B247" s="135"/>
-      <c r="C247" s="137"/>
+      <c r="A247" s="139"/>
+      <c r="B247" s="140"/>
+      <c r="C247" s="141"/>
       <c r="D247" s="106"/>
       <c r="E247" s="46" t="s">
         <v>222</v>
@@ -8838,9 +8838,9 @@
       <c r="T247" s="4"/>
     </row>
     <row r="248" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="131"/>
-      <c r="B248" s="135"/>
-      <c r="C248" s="137"/>
+      <c r="A248" s="139"/>
+      <c r="B248" s="140"/>
+      <c r="C248" s="141"/>
       <c r="D248" s="106"/>
       <c r="E248" s="59" t="s">
         <v>228</v>
@@ -8862,9 +8862,9 @@
       <c r="T248" s="4"/>
     </row>
     <row r="249" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="131"/>
-      <c r="B249" s="135"/>
-      <c r="C249" s="137"/>
+      <c r="A249" s="139"/>
+      <c r="B249" s="140"/>
+      <c r="C249" s="141"/>
       <c r="D249" s="106"/>
       <c r="E249" s="46" t="s">
         <v>229</v>
@@ -8886,9 +8886,9 @@
       <c r="T249" s="4"/>
     </row>
     <row r="250" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="131"/>
-      <c r="B250" s="135"/>
-      <c r="C250" s="137"/>
+      <c r="A250" s="139"/>
+      <c r="B250" s="140"/>
+      <c r="C250" s="141"/>
       <c r="D250" s="51"/>
       <c r="E250" s="46" t="s">
         <v>230</v>
@@ -8982,13 +8982,13 @@
       <c r="T253" s="4"/>
     </row>
     <row r="254" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="155" t="s">
+      <c r="A254" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="B254" s="134" t="s">
+      <c r="B254" s="135" t="s">
         <v>234</v>
       </c>
-      <c r="C254" s="136" t="s">
+      <c r="C254" s="137" t="s">
         <v>235</v>
       </c>
       <c r="D254" s="106"/>
@@ -9036,9 +9036,9 @@
       <c r="T255" s="4"/>
     </row>
     <row r="256" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="160"/>
-      <c r="B256" s="160"/>
-      <c r="C256" s="160"/>
+      <c r="A256" s="136"/>
+      <c r="B256" s="136"/>
+      <c r="C256" s="136"/>
       <c r="D256" s="114" t="s">
         <v>227</v>
       </c>
@@ -9062,9 +9062,9 @@
       <c r="T256" s="4"/>
     </row>
     <row r="257" spans="1:20" s="98" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A257" s="160"/>
-      <c r="B257" s="160"/>
-      <c r="C257" s="160"/>
+      <c r="A257" s="136"/>
+      <c r="B257" s="136"/>
+      <c r="C257" s="136"/>
       <c r="D257" s="106" t="s">
         <v>236</v>
       </c>
@@ -9088,9 +9088,9 @@
       <c r="T257" s="4"/>
     </row>
     <row r="258" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="160"/>
-      <c r="B258" s="160"/>
-      <c r="C258" s="160"/>
+      <c r="A258" s="136"/>
+      <c r="B258" s="136"/>
+      <c r="C258" s="136"/>
       <c r="D258" s="51"/>
       <c r="E258" s="59" t="s">
         <v>239</v>
@@ -9112,9 +9112,9 @@
       <c r="T258" s="4"/>
     </row>
     <row r="259" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="160"/>
-      <c r="B259" s="160"/>
-      <c r="C259" s="160"/>
+      <c r="A259" s="136"/>
+      <c r="B259" s="136"/>
+      <c r="C259" s="136"/>
       <c r="D259" s="51"/>
       <c r="E259" s="115" t="s">
         <v>240</v>
@@ -9136,9 +9136,9 @@
       <c r="T259" s="4"/>
     </row>
     <row r="260" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="160"/>
-      <c r="B260" s="160"/>
-      <c r="C260" s="160"/>
+      <c r="A260" s="136"/>
+      <c r="B260" s="136"/>
+      <c r="C260" s="136"/>
       <c r="D260" s="51"/>
       <c r="E260" s="59" t="s">
         <v>241</v>
@@ -9160,9 +9160,9 @@
       <c r="T260" s="4"/>
     </row>
     <row r="261" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="160"/>
-      <c r="B261" s="160"/>
-      <c r="C261" s="160"/>
+      <c r="A261" s="136"/>
+      <c r="B261" s="136"/>
+      <c r="C261" s="136"/>
       <c r="D261" s="51"/>
       <c r="E261" s="59"/>
       <c r="F261" s="30"/>
@@ -9182,9 +9182,9 @@
       <c r="T261" s="4"/>
     </row>
     <row r="262" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="160"/>
-      <c r="B262" s="160"/>
-      <c r="C262" s="160"/>
+      <c r="A262" s="136"/>
+      <c r="B262" s="136"/>
+      <c r="C262" s="136"/>
       <c r="D262" s="51"/>
       <c r="E262" s="59"/>
       <c r="F262" s="30"/>
@@ -9292,13 +9292,13 @@
       <c r="T266" s="4"/>
     </row>
     <row r="267" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="155" t="s">
+      <c r="A267" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="B267" s="134" t="s">
+      <c r="B267" s="135" t="s">
         <v>242</v>
       </c>
-      <c r="C267" s="136" t="s">
+      <c r="C267" s="137" t="s">
         <v>243</v>
       </c>
       <c r="D267" s="51"/>
@@ -9400,9 +9400,9 @@
       <c r="T270" s="4"/>
     </row>
     <row r="271" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="160"/>
-      <c r="B271" s="160"/>
-      <c r="C271" s="160"/>
+      <c r="A271" s="136"/>
+      <c r="B271" s="136"/>
+      <c r="C271" s="136"/>
       <c r="D271" s="106"/>
       <c r="E271" s="115" t="s">
         <v>245</v>
@@ -9424,9 +9424,9 @@
       <c r="T271" s="4"/>
     </row>
     <row r="272" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="160"/>
-      <c r="B272" s="160"/>
-      <c r="C272" s="160"/>
+      <c r="A272" s="136"/>
+      <c r="B272" s="136"/>
+      <c r="C272" s="136"/>
       <c r="D272" s="106"/>
       <c r="E272" s="59" t="s">
         <v>311</v>
@@ -9448,9 +9448,9 @@
       <c r="T272" s="4"/>
     </row>
     <row r="273" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="160"/>
-      <c r="B273" s="160"/>
-      <c r="C273" s="160"/>
+      <c r="A273" s="136"/>
+      <c r="B273" s="136"/>
+      <c r="C273" s="136"/>
       <c r="D273" s="106"/>
       <c r="E273" s="59"/>
       <c r="F273" s="30"/>
@@ -9470,9 +9470,9 @@
       <c r="T273" s="4"/>
     </row>
     <row r="274" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="160"/>
-      <c r="B274" s="160"/>
-      <c r="C274" s="160"/>
+      <c r="A274" s="136"/>
+      <c r="B274" s="136"/>
+      <c r="C274" s="136"/>
       <c r="D274" s="106"/>
       <c r="E274" s="59"/>
       <c r="F274" s="30"/>
@@ -9558,13 +9558,13 @@
       <c r="T277" s="4"/>
     </row>
     <row r="278" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="155" t="s">
+      <c r="A278" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="B278" s="134" t="s">
+      <c r="B278" s="135" t="s">
         <v>246</v>
       </c>
-      <c r="C278" s="136" t="s">
+      <c r="C278" s="137" t="s">
         <v>251</v>
       </c>
       <c r="D278" s="24"/>
@@ -9610,9 +9610,9 @@
       <c r="T279" s="4"/>
     </row>
     <row r="280" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="160"/>
-      <c r="B280" s="160"/>
-      <c r="C280" s="160"/>
+      <c r="A280" s="136"/>
+      <c r="B280" s="136"/>
+      <c r="C280" s="136"/>
       <c r="D280" s="24" t="s">
         <v>226</v>
       </c>
@@ -9636,9 +9636,9 @@
       <c r="T280" s="4"/>
     </row>
     <row r="281" spans="1:20" s="98" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A281" s="160"/>
-      <c r="B281" s="160"/>
-      <c r="C281" s="160"/>
+      <c r="A281" s="136"/>
+      <c r="B281" s="136"/>
+      <c r="C281" s="136"/>
       <c r="D281" s="114" t="s">
         <v>227</v>
       </c>
@@ -9662,9 +9662,9 @@
       <c r="T281" s="4"/>
     </row>
     <row r="282" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="160"/>
-      <c r="B282" s="160"/>
-      <c r="C282" s="160"/>
+      <c r="A282" s="136"/>
+      <c r="B282" s="136"/>
+      <c r="C282" s="136"/>
       <c r="D282" s="106" t="s">
         <v>236</v>
       </c>
@@ -9826,13 +9826,13 @@
       <c r="T288" s="4"/>
     </row>
     <row r="289" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="155" t="s">
+      <c r="A289" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="134" t="s">
+      <c r="B289" s="135" t="s">
         <v>257</v>
       </c>
-      <c r="C289" s="136" t="s">
+      <c r="C289" s="137" t="s">
         <v>258</v>
       </c>
       <c r="D289" s="24"/>
@@ -9856,9 +9856,9 @@
       <c r="T289" s="4"/>
     </row>
     <row r="290" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="131"/>
-      <c r="B290" s="135"/>
-      <c r="C290" s="137"/>
+      <c r="A290" s="139"/>
+      <c r="B290" s="140"/>
+      <c r="C290" s="141"/>
       <c r="D290" s="24" t="s">
         <v>226</v>
       </c>
@@ -9882,9 +9882,9 @@
       <c r="T290" s="4"/>
     </row>
     <row r="291" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="131"/>
-      <c r="B291" s="135"/>
-      <c r="C291" s="137"/>
+      <c r="A291" s="139"/>
+      <c r="B291" s="140"/>
+      <c r="C291" s="141"/>
       <c r="D291" s="24" t="s">
         <v>227</v>
       </c>
@@ -9908,9 +9908,9 @@
       <c r="T291" s="4"/>
     </row>
     <row r="292" spans="1:20" s="98" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="131"/>
-      <c r="B292" s="135"/>
-      <c r="C292" s="137"/>
+      <c r="A292" s="139"/>
+      <c r="B292" s="140"/>
+      <c r="C292" s="141"/>
       <c r="D292" s="24"/>
       <c r="E292" s="116" t="s">
         <v>313</v>
@@ -9932,9 +9932,9 @@
       <c r="T292" s="4"/>
     </row>
     <row r="293" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="131"/>
-      <c r="B293" s="135"/>
-      <c r="C293" s="137"/>
+      <c r="A293" s="139"/>
+      <c r="B293" s="140"/>
+      <c r="C293" s="141"/>
       <c r="D293" s="24"/>
       <c r="E293" s="62" t="s">
         <v>255</v>
@@ -9956,9 +9956,9 @@
       <c r="T293" s="4"/>
     </row>
     <row r="294" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="131"/>
-      <c r="B294" s="135"/>
-      <c r="C294" s="137"/>
+      <c r="A294" s="139"/>
+      <c r="B294" s="140"/>
+      <c r="C294" s="141"/>
       <c r="D294" s="24"/>
       <c r="E294" s="59" t="s">
         <v>256</v>
@@ -9980,9 +9980,9 @@
       <c r="T294" s="4"/>
     </row>
     <row r="295" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="131"/>
-      <c r="B295" s="135"/>
-      <c r="C295" s="137"/>
+      <c r="A295" s="139"/>
+      <c r="B295" s="140"/>
+      <c r="C295" s="141"/>
       <c r="D295" s="24"/>
       <c r="E295" s="62" t="s">
         <v>314</v>
@@ -10096,13 +10096,13 @@
       <c r="T299" s="4"/>
     </row>
     <row r="300" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="155" t="s">
+      <c r="A300" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="B300" s="134" t="s">
+      <c r="B300" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="C300" s="136" t="s">
+      <c r="C300" s="137" t="s">
         <v>279</v>
       </c>
       <c r="D300" s="24"/>
@@ -10124,9 +10124,9 @@
       <c r="T300" s="4"/>
     </row>
     <row r="301" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="131"/>
-      <c r="B301" s="135"/>
-      <c r="C301" s="137"/>
+      <c r="A301" s="139"/>
+      <c r="B301" s="140"/>
+      <c r="C301" s="141"/>
       <c r="D301" s="24" t="s">
         <v>226</v>
       </c>
@@ -10150,9 +10150,9 @@
       <c r="T301" s="4"/>
     </row>
     <row r="302" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="131"/>
-      <c r="B302" s="135"/>
-      <c r="C302" s="137"/>
+      <c r="A302" s="139"/>
+      <c r="B302" s="140"/>
+      <c r="C302" s="141"/>
       <c r="D302" s="24"/>
       <c r="E302" s="62" t="s">
         <v>280</v>
@@ -10174,9 +10174,9 @@
       <c r="T302" s="4"/>
     </row>
     <row r="303" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="131"/>
-      <c r="B303" s="135"/>
-      <c r="C303" s="137"/>
+      <c r="A303" s="139"/>
+      <c r="B303" s="140"/>
+      <c r="C303" s="141"/>
       <c r="D303" s="24"/>
       <c r="E303" s="116" t="s">
         <v>281</v>
@@ -10198,9 +10198,9 @@
       <c r="T303" s="4"/>
     </row>
     <row r="304" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="131"/>
-      <c r="B304" s="135"/>
-      <c r="C304" s="137"/>
+      <c r="A304" s="139"/>
+      <c r="B304" s="140"/>
+      <c r="C304" s="141"/>
       <c r="D304" s="24"/>
       <c r="E304" s="116" t="s">
         <v>282</v>
@@ -10222,9 +10222,9 @@
       <c r="T304" s="4"/>
     </row>
     <row r="305" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="131"/>
-      <c r="B305" s="135"/>
-      <c r="C305" s="137"/>
+      <c r="A305" s="139"/>
+      <c r="B305" s="140"/>
+      <c r="C305" s="141"/>
       <c r="D305" s="24"/>
       <c r="E305" s="62"/>
       <c r="F305" s="63"/>
@@ -10373,13 +10373,13 @@
       <c r="T311" s="4"/>
     </row>
     <row r="312" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="155" t="s">
+      <c r="A312" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="B312" s="134" t="s">
+      <c r="B312" s="135" t="s">
         <v>283</v>
       </c>
-      <c r="C312" s="136" t="s">
+      <c r="C312" s="137" t="s">
         <v>284</v>
       </c>
       <c r="D312" s="24"/>
@@ -10401,9 +10401,9 @@
       <c r="T312" s="4"/>
     </row>
     <row r="313" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="131"/>
-      <c r="B313" s="135"/>
-      <c r="C313" s="137"/>
+      <c r="A313" s="139"/>
+      <c r="B313" s="140"/>
+      <c r="C313" s="141"/>
       <c r="D313" s="24"/>
       <c r="E313" s="62" t="s">
         <v>138</v>
@@ -10425,9 +10425,9 @@
       <c r="T313" s="4"/>
     </row>
     <row r="314" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="131"/>
-      <c r="B314" s="135"/>
-      <c r="C314" s="137"/>
+      <c r="A314" s="139"/>
+      <c r="B314" s="140"/>
+      <c r="C314" s="141"/>
       <c r="D314" s="24" t="s">
         <v>226</v>
       </c>
@@ -10451,9 +10451,9 @@
       <c r="T314" s="4"/>
     </row>
     <row r="315" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="131"/>
-      <c r="B315" s="135"/>
-      <c r="C315" s="137"/>
+      <c r="A315" s="139"/>
+      <c r="B315" s="140"/>
+      <c r="C315" s="141"/>
       <c r="D315" s="24"/>
       <c r="E315" s="62" t="s">
         <v>286</v>
@@ -10475,9 +10475,9 @@
       <c r="T315" s="4"/>
     </row>
     <row r="316" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="131"/>
-      <c r="B316" s="135"/>
-      <c r="C316" s="137"/>
+      <c r="A316" s="139"/>
+      <c r="B316" s="140"/>
+      <c r="C316" s="141"/>
       <c r="D316" s="24"/>
       <c r="E316" s="116" t="s">
         <v>287</v>
@@ -10501,9 +10501,9 @@
       <c r="T316" s="4"/>
     </row>
     <row r="317" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="131"/>
-      <c r="B317" s="135"/>
-      <c r="C317" s="137"/>
+      <c r="A317" s="139"/>
+      <c r="B317" s="140"/>
+      <c r="C317" s="141"/>
       <c r="D317" s="24"/>
       <c r="E317" s="62"/>
       <c r="F317" s="63"/>
@@ -10523,9 +10523,9 @@
       <c r="T317" s="4"/>
     </row>
     <row r="318" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="131"/>
-      <c r="B318" s="135"/>
-      <c r="C318" s="137"/>
+      <c r="A318" s="139"/>
+      <c r="B318" s="140"/>
+      <c r="C318" s="141"/>
       <c r="D318" s="24"/>
       <c r="E318" s="59"/>
       <c r="F318" s="63"/>
@@ -10657,13 +10657,13 @@
       <c r="T323" s="4"/>
     </row>
     <row r="324" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="155" t="s">
+      <c r="A324" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="B324" s="134" t="s">
+      <c r="B324" s="135" t="s">
         <v>260</v>
       </c>
-      <c r="C324" s="136" t="s">
+      <c r="C324" s="137" t="s">
         <v>261</v>
       </c>
       <c r="D324" s="24"/>
@@ -10685,9 +10685,9 @@
       <c r="T324" s="4"/>
     </row>
     <row r="325" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="131"/>
-      <c r="B325" s="135"/>
-      <c r="C325" s="137"/>
+      <c r="A325" s="139"/>
+      <c r="B325" s="140"/>
+      <c r="C325" s="141"/>
       <c r="D325" s="24" t="s">
         <v>226</v>
       </c>
@@ -10711,9 +10711,9 @@
       <c r="T325" s="4"/>
     </row>
     <row r="326" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="131"/>
-      <c r="B326" s="135"/>
-      <c r="C326" s="137"/>
+      <c r="A326" s="139"/>
+      <c r="B326" s="140"/>
+      <c r="C326" s="141"/>
       <c r="D326" s="24" t="s">
         <v>227</v>
       </c>
@@ -10737,9 +10737,9 @@
       <c r="T326" s="4"/>
     </row>
     <row r="327" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="131"/>
-      <c r="B327" s="135"/>
-      <c r="C327" s="137"/>
+      <c r="A327" s="139"/>
+      <c r="B327" s="140"/>
+      <c r="C327" s="141"/>
       <c r="D327" s="24"/>
       <c r="E327" s="62" t="s">
         <v>253</v>
@@ -10761,9 +10761,9 @@
       <c r="T327" s="4"/>
     </row>
     <row r="328" spans="1:20" s="98" customFormat="1" ht="99" x14ac:dyDescent="0.3">
-      <c r="A328" s="131"/>
-      <c r="B328" s="135"/>
-      <c r="C328" s="137"/>
+      <c r="A328" s="139"/>
+      <c r="B328" s="140"/>
+      <c r="C328" s="141"/>
       <c r="D328" s="24"/>
       <c r="E328" s="116" t="s">
         <v>254</v>
@@ -10785,9 +10785,9 @@
       <c r="T328" s="4"/>
     </row>
     <row r="329" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="131"/>
-      <c r="B329" s="135"/>
-      <c r="C329" s="137"/>
+      <c r="A329" s="139"/>
+      <c r="B329" s="140"/>
+      <c r="C329" s="141"/>
       <c r="D329" s="24"/>
       <c r="E329" s="62" t="s">
         <v>262</v>
@@ -10809,9 +10809,9 @@
       <c r="T329" s="4"/>
     </row>
     <row r="330" spans="1:20" s="98" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A330" s="131"/>
-      <c r="B330" s="135"/>
-      <c r="C330" s="137"/>
+      <c r="A330" s="139"/>
+      <c r="B330" s="140"/>
+      <c r="C330" s="141"/>
       <c r="D330" s="24"/>
       <c r="E330" s="62" t="s">
         <v>263</v>
@@ -10833,9 +10833,9 @@
       <c r="T330" s="4"/>
     </row>
     <row r="331" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="131"/>
-      <c r="B331" s="135"/>
-      <c r="C331" s="137"/>
+      <c r="A331" s="139"/>
+      <c r="B331" s="140"/>
+      <c r="C331" s="141"/>
       <c r="D331" s="24"/>
       <c r="E331" s="116" t="s">
         <v>264</v>
@@ -10859,9 +10859,9 @@
       <c r="T331" s="4"/>
     </row>
     <row r="332" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="131"/>
-      <c r="B332" s="135"/>
-      <c r="C332" s="137"/>
+      <c r="A332" s="139"/>
+      <c r="B332" s="140"/>
+      <c r="C332" s="141"/>
       <c r="D332" s="24"/>
       <c r="E332" s="62"/>
       <c r="F332" s="63"/>
@@ -10881,9 +10881,9 @@
       <c r="T332" s="4"/>
     </row>
     <row r="333" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="131"/>
-      <c r="B333" s="135"/>
-      <c r="C333" s="137"/>
+      <c r="A333" s="139"/>
+      <c r="B333" s="140"/>
+      <c r="C333" s="141"/>
       <c r="D333" s="24"/>
       <c r="E333" s="62"/>
       <c r="F333" s="63"/>
@@ -10903,9 +10903,9 @@
       <c r="T333" s="4"/>
     </row>
     <row r="334" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="131"/>
-      <c r="B334" s="135"/>
-      <c r="C334" s="137"/>
+      <c r="A334" s="139"/>
+      <c r="B334" s="140"/>
+      <c r="C334" s="141"/>
       <c r="D334" s="24"/>
       <c r="E334" s="62"/>
       <c r="F334" s="63"/>
@@ -10991,13 +10991,13 @@
       <c r="T337" s="4"/>
     </row>
     <row r="338" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="155" t="s">
+      <c r="A338" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="B338" s="134" t="s">
+      <c r="B338" s="135" t="s">
         <v>275</v>
       </c>
-      <c r="C338" s="136" t="s">
+      <c r="C338" s="137" t="s">
         <v>274</v>
       </c>
       <c r="D338" s="24"/>
@@ -11021,9 +11021,9 @@
       <c r="T338" s="4"/>
     </row>
     <row r="339" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="131"/>
-      <c r="B339" s="135"/>
-      <c r="C339" s="137"/>
+      <c r="A339" s="139"/>
+      <c r="B339" s="140"/>
+      <c r="C339" s="141"/>
       <c r="D339" s="24" t="s">
         <v>226</v>
       </c>
@@ -11047,9 +11047,9 @@
       <c r="T339" s="4"/>
     </row>
     <row r="340" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="131"/>
-      <c r="B340" s="135"/>
-      <c r="C340" s="137"/>
+      <c r="A340" s="139"/>
+      <c r="B340" s="140"/>
+      <c r="C340" s="141"/>
       <c r="D340" s="24"/>
       <c r="E340" s="62" t="s">
         <v>271</v>
@@ -11071,9 +11071,9 @@
       <c r="T340" s="4"/>
     </row>
     <row r="341" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="131"/>
-      <c r="B341" s="135"/>
-      <c r="C341" s="137"/>
+      <c r="A341" s="139"/>
+      <c r="B341" s="140"/>
+      <c r="C341" s="141"/>
       <c r="D341" s="24"/>
       <c r="E341" s="62" t="s">
         <v>272</v>
@@ -11095,9 +11095,9 @@
       <c r="T341" s="4"/>
     </row>
     <row r="342" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="131"/>
-      <c r="B342" s="135"/>
-      <c r="C342" s="137"/>
+      <c r="A342" s="139"/>
+      <c r="B342" s="140"/>
+      <c r="C342" s="141"/>
       <c r="D342" s="24"/>
       <c r="E342" s="62" t="s">
         <v>277</v>
@@ -11121,9 +11121,9 @@
       <c r="T342" s="4"/>
     </row>
     <row r="343" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="131"/>
-      <c r="B343" s="135"/>
-      <c r="C343" s="137"/>
+      <c r="A343" s="139"/>
+      <c r="B343" s="140"/>
+      <c r="C343" s="141"/>
       <c r="D343" s="24"/>
       <c r="E343" s="62"/>
       <c r="F343" s="63"/>
@@ -11143,9 +11143,9 @@
       <c r="T343" s="4"/>
     </row>
     <row r="344" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="131"/>
-      <c r="B344" s="135"/>
-      <c r="C344" s="137"/>
+      <c r="A344" s="139"/>
+      <c r="B344" s="140"/>
+      <c r="C344" s="141"/>
       <c r="D344" s="24"/>
       <c r="E344" s="62"/>
       <c r="F344" s="63"/>
@@ -11253,9 +11253,9 @@
       <c r="T348" s="4"/>
     </row>
     <row r="349" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="155"/>
-      <c r="B349" s="134"/>
-      <c r="C349" s="136"/>
+      <c r="A349" s="157"/>
+      <c r="B349" s="135"/>
+      <c r="C349" s="137"/>
       <c r="D349" s="24"/>
       <c r="E349" s="62"/>
       <c r="F349" s="63"/>
@@ -11275,9 +11275,9 @@
       <c r="T349" s="4"/>
     </row>
     <row r="350" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="131"/>
-      <c r="B350" s="135"/>
-      <c r="C350" s="137"/>
+      <c r="A350" s="139"/>
+      <c r="B350" s="140"/>
+      <c r="C350" s="141"/>
       <c r="D350" s="24"/>
       <c r="E350" s="62"/>
       <c r="F350" s="63"/>
@@ -11297,9 +11297,9 @@
       <c r="T350" s="4"/>
     </row>
     <row r="351" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="131"/>
-      <c r="B351" s="135"/>
-      <c r="C351" s="137"/>
+      <c r="A351" s="139"/>
+      <c r="B351" s="140"/>
+      <c r="C351" s="141"/>
       <c r="D351" s="24"/>
       <c r="E351" s="62"/>
       <c r="F351" s="63"/>
@@ -11319,9 +11319,9 @@
       <c r="T351" s="4"/>
     </row>
     <row r="352" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="131"/>
-      <c r="B352" s="135"/>
-      <c r="C352" s="137"/>
+      <c r="A352" s="139"/>
+      <c r="B352" s="140"/>
+      <c r="C352" s="141"/>
       <c r="D352" s="24"/>
       <c r="E352" s="62"/>
       <c r="F352" s="63"/>
@@ -11341,9 +11341,9 @@
       <c r="T352" s="4"/>
     </row>
     <row r="353" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="131"/>
-      <c r="B353" s="135"/>
-      <c r="C353" s="137"/>
+      <c r="A353" s="139"/>
+      <c r="B353" s="140"/>
+      <c r="C353" s="141"/>
       <c r="D353" s="24"/>
       <c r="E353" s="62"/>
       <c r="F353" s="63"/>
@@ -11363,9 +11363,9 @@
       <c r="T353" s="4"/>
     </row>
     <row r="354" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="131"/>
-      <c r="B354" s="135"/>
-      <c r="C354" s="137"/>
+      <c r="A354" s="139"/>
+      <c r="B354" s="140"/>
+      <c r="C354" s="141"/>
       <c r="D354" s="24"/>
       <c r="E354" s="62"/>
       <c r="F354" s="63"/>
@@ -11385,9 +11385,9 @@
       <c r="T354" s="4"/>
     </row>
     <row r="355" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="131"/>
-      <c r="B355" s="135"/>
-      <c r="C355" s="137"/>
+      <c r="A355" s="139"/>
+      <c r="B355" s="140"/>
+      <c r="C355" s="141"/>
       <c r="D355" s="24"/>
       <c r="E355" s="62"/>
       <c r="F355" s="63"/>
@@ -11407,9 +11407,9 @@
       <c r="T355" s="4"/>
     </row>
     <row r="356" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="131"/>
-      <c r="B356" s="135"/>
-      <c r="C356" s="137"/>
+      <c r="A356" s="139"/>
+      <c r="B356" s="140"/>
+      <c r="C356" s="141"/>
       <c r="D356" s="24"/>
       <c r="E356" s="62"/>
       <c r="F356" s="63"/>
@@ -11429,9 +11429,9 @@
       <c r="T356" s="4"/>
     </row>
     <row r="357" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="131"/>
-      <c r="B357" s="135"/>
-      <c r="C357" s="137"/>
+      <c r="A357" s="139"/>
+      <c r="B357" s="140"/>
+      <c r="C357" s="141"/>
       <c r="D357" s="24"/>
       <c r="E357" s="62"/>
       <c r="F357" s="63"/>
@@ -11473,12 +11473,12 @@
       <c r="T358" s="4"/>
     </row>
     <row r="359" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="191"/>
-      <c r="B359" s="191"/>
-      <c r="C359" s="191"/>
-      <c r="D359" s="191"/>
-      <c r="E359" s="191"/>
-      <c r="F359" s="191"/>
+      <c r="A359" s="200"/>
+      <c r="B359" s="200"/>
+      <c r="C359" s="200"/>
+      <c r="D359" s="200"/>
+      <c r="E359" s="200"/>
+      <c r="F359" s="200"/>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
@@ -11495,16 +11495,16 @@
       <c r="T359" s="4"/>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A360" s="181" t="s">
+      <c r="A360" s="190" t="s">
         <v>316</v>
       </c>
-      <c r="B360" s="157" t="s">
+      <c r="B360" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="C360" s="158" t="s">
+      <c r="C360" s="160" t="s">
         <v>323</v>
       </c>
-      <c r="D360" s="179" t="s">
+      <c r="D360" s="175" t="s">
         <v>226</v>
       </c>
       <c r="E360" s="62"/>
@@ -11525,10 +11525,10 @@
       <c r="T360" s="4"/>
     </row>
     <row r="361" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="131"/>
-      <c r="B361" s="135"/>
-      <c r="C361" s="137"/>
-      <c r="D361" s="139"/>
+      <c r="A361" s="139"/>
+      <c r="B361" s="140"/>
+      <c r="C361" s="141"/>
+      <c r="D361" s="143"/>
       <c r="E361" s="62" t="s">
         <v>317</v>
       </c>
@@ -11551,10 +11551,10 @@
       <c r="T361" s="4"/>
     </row>
     <row r="362" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="131"/>
-      <c r="B362" s="135"/>
-      <c r="C362" s="137"/>
-      <c r="D362" s="139"/>
+      <c r="A362" s="139"/>
+      <c r="B362" s="140"/>
+      <c r="C362" s="141"/>
+      <c r="D362" s="143"/>
       <c r="E362" s="62" t="s">
         <v>318</v>
       </c>
@@ -11577,10 +11577,10 @@
       <c r="T362" s="4"/>
     </row>
     <row r="363" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="131"/>
-      <c r="B363" s="135"/>
-      <c r="C363" s="137"/>
-      <c r="D363" s="139"/>
+      <c r="A363" s="139"/>
+      <c r="B363" s="140"/>
+      <c r="C363" s="141"/>
+      <c r="D363" s="143"/>
       <c r="E363" s="62"/>
       <c r="F363" s="62" t="s">
         <v>321</v>
@@ -11601,10 +11601,10 @@
       <c r="T363" s="4"/>
     </row>
     <row r="364" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="131"/>
-      <c r="B364" s="135"/>
-      <c r="C364" s="137"/>
-      <c r="D364" s="139"/>
+      <c r="A364" s="139"/>
+      <c r="B364" s="140"/>
+      <c r="C364" s="141"/>
+      <c r="D364" s="143"/>
       <c r="E364" s="24"/>
       <c r="F364" s="59"/>
       <c r="G364" s="4"/>
@@ -11623,10 +11623,10 @@
       <c r="T364" s="4"/>
     </row>
     <row r="365" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="131"/>
-      <c r="B365" s="135"/>
-      <c r="C365" s="137"/>
-      <c r="D365" s="139"/>
+      <c r="A365" s="139"/>
+      <c r="B365" s="140"/>
+      <c r="C365" s="141"/>
+      <c r="D365" s="143"/>
       <c r="E365" s="24"/>
       <c r="F365" s="59"/>
       <c r="G365" s="4"/>
@@ -11645,10 +11645,10 @@
       <c r="T365" s="4"/>
     </row>
     <row r="366" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="131"/>
-      <c r="B366" s="135"/>
-      <c r="C366" s="137"/>
-      <c r="D366" s="139"/>
+      <c r="A366" s="139"/>
+      <c r="B366" s="140"/>
+      <c r="C366" s="141"/>
+      <c r="D366" s="143"/>
       <c r="E366" s="24"/>
       <c r="F366" s="59"/>
       <c r="G366" s="4"/>
@@ -11755,16 +11755,16 @@
       <c r="T370" s="4"/>
     </row>
     <row r="371" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="155" t="s">
+      <c r="A371" s="157" t="s">
         <v>324</v>
       </c>
-      <c r="B371" s="134" t="s">
+      <c r="B371" s="135" t="s">
         <v>325</v>
       </c>
-      <c r="C371" s="136" t="s">
+      <c r="C371" s="137" t="s">
         <v>326</v>
       </c>
-      <c r="D371" s="138" t="s">
+      <c r="D371" s="142" t="s">
         <v>226</v>
       </c>
       <c r="E371" s="46"/>
@@ -11811,10 +11811,10 @@
       <c r="T372" s="4"/>
     </row>
     <row r="373" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="160"/>
-      <c r="B373" s="160"/>
-      <c r="C373" s="160"/>
-      <c r="D373" s="160"/>
+      <c r="A373" s="136"/>
+      <c r="B373" s="136"/>
+      <c r="C373" s="136"/>
+      <c r="D373" s="136"/>
       <c r="E373" s="24"/>
       <c r="F373" s="59"/>
       <c r="G373" s="4"/>
@@ -11833,10 +11833,10 @@
       <c r="T373" s="4"/>
     </row>
     <row r="374" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="160"/>
-      <c r="B374" s="160"/>
-      <c r="C374" s="160"/>
-      <c r="D374" s="160"/>
+      <c r="A374" s="136"/>
+      <c r="B374" s="136"/>
+      <c r="C374" s="136"/>
+      <c r="D374" s="136"/>
       <c r="E374" s="24"/>
       <c r="F374" s="59"/>
       <c r="G374" s="4"/>
@@ -11855,10 +11855,10 @@
       <c r="T374" s="4"/>
     </row>
     <row r="375" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="160"/>
-      <c r="B375" s="160"/>
-      <c r="C375" s="160"/>
-      <c r="D375" s="160"/>
+      <c r="A375" s="136"/>
+      <c r="B375" s="136"/>
+      <c r="C375" s="136"/>
+      <c r="D375" s="136"/>
       <c r="E375" s="24"/>
       <c r="F375" s="59"/>
       <c r="G375" s="4"/>
@@ -11987,16 +11987,16 @@
       <c r="T380" s="4"/>
     </row>
     <row r="381" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="155" t="s">
+      <c r="A381" s="157" t="s">
         <v>329</v>
       </c>
-      <c r="B381" s="134" t="s">
+      <c r="B381" s="135" t="s">
         <v>338</v>
       </c>
-      <c r="C381" s="136" t="s">
+      <c r="C381" s="137" t="s">
         <v>337</v>
       </c>
-      <c r="D381" s="138" t="s">
+      <c r="D381" s="142" t="s">
         <v>226</v>
       </c>
       <c r="E381" s="46"/>
@@ -12017,10 +12017,10 @@
       <c r="T381" s="4"/>
     </row>
     <row r="382" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="131"/>
-      <c r="B382" s="135"/>
-      <c r="C382" s="137"/>
-      <c r="D382" s="139"/>
+      <c r="A382" s="139"/>
+      <c r="B382" s="140"/>
+      <c r="C382" s="141"/>
+      <c r="D382" s="143"/>
       <c r="E382" s="24" t="s">
         <v>331</v>
       </c>
@@ -12041,10 +12041,10 @@
       <c r="T382" s="4"/>
     </row>
     <row r="383" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="131"/>
-      <c r="B383" s="135"/>
-      <c r="C383" s="137"/>
-      <c r="D383" s="139"/>
+      <c r="A383" s="139"/>
+      <c r="B383" s="140"/>
+      <c r="C383" s="141"/>
+      <c r="D383" s="143"/>
       <c r="E383" s="24" t="s">
         <v>330</v>
       </c>
@@ -12067,10 +12067,10 @@
       <c r="T383" s="4"/>
     </row>
     <row r="384" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="131"/>
-      <c r="B384" s="135"/>
-      <c r="C384" s="137"/>
-      <c r="D384" s="139"/>
+      <c r="A384" s="139"/>
+      <c r="B384" s="140"/>
+      <c r="C384" s="141"/>
+      <c r="D384" s="143"/>
       <c r="E384" s="46"/>
       <c r="F384" s="62"/>
       <c r="G384" s="4"/>
@@ -12089,10 +12089,10 @@
       <c r="T384" s="4"/>
     </row>
     <row r="385" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="131"/>
-      <c r="B385" s="135"/>
-      <c r="C385" s="137"/>
-      <c r="D385" s="139"/>
+      <c r="A385" s="139"/>
+      <c r="B385" s="140"/>
+      <c r="C385" s="141"/>
+      <c r="D385" s="143"/>
       <c r="E385" s="46"/>
       <c r="F385" s="62"/>
       <c r="G385" s="4"/>
@@ -12111,10 +12111,10 @@
       <c r="T385" s="4"/>
     </row>
     <row r="386" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="131"/>
-      <c r="B386" s="135"/>
-      <c r="C386" s="137"/>
-      <c r="D386" s="139"/>
+      <c r="A386" s="139"/>
+      <c r="B386" s="140"/>
+      <c r="C386" s="141"/>
+      <c r="D386" s="143"/>
       <c r="E386" s="46"/>
       <c r="F386" s="62"/>
       <c r="G386" s="4"/>
@@ -12177,16 +12177,16 @@
       <c r="T388" s="4"/>
     </row>
     <row r="389" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="155" t="s">
+      <c r="A389" s="157" t="s">
         <v>336</v>
       </c>
-      <c r="B389" s="134" t="s">
+      <c r="B389" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="C389" s="136" t="s">
+      <c r="C389" s="137" t="s">
         <v>335</v>
       </c>
-      <c r="D389" s="138" t="s">
+      <c r="D389" s="142" t="s">
         <v>226</v>
       </c>
       <c r="E389" s="46"/>
@@ -12207,10 +12207,10 @@
       <c r="T389" s="4"/>
     </row>
     <row r="390" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="131"/>
-      <c r="B390" s="135"/>
-      <c r="C390" s="137"/>
-      <c r="D390" s="139"/>
+      <c r="A390" s="139"/>
+      <c r="B390" s="140"/>
+      <c r="C390" s="141"/>
+      <c r="D390" s="143"/>
       <c r="E390" s="62" t="s">
         <v>333</v>
       </c>
@@ -12233,10 +12233,10 @@
       <c r="T390" s="4"/>
     </row>
     <row r="391" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="131"/>
-      <c r="B391" s="135"/>
-      <c r="C391" s="137"/>
-      <c r="D391" s="139"/>
+      <c r="A391" s="139"/>
+      <c r="B391" s="140"/>
+      <c r="C391" s="141"/>
+      <c r="D391" s="143"/>
       <c r="E391" s="62" t="s">
         <v>356</v>
       </c>
@@ -12259,10 +12259,10 @@
       <c r="T391" s="4"/>
     </row>
     <row r="392" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="131"/>
-      <c r="B392" s="135"/>
-      <c r="C392" s="137"/>
-      <c r="D392" s="139"/>
+      <c r="A392" s="139"/>
+      <c r="B392" s="140"/>
+      <c r="C392" s="141"/>
+      <c r="D392" s="143"/>
       <c r="E392" s="62"/>
       <c r="F392" s="62"/>
       <c r="G392" s="4"/>
@@ -12391,16 +12391,16 @@
       <c r="T397" s="4"/>
     </row>
     <row r="398" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="130" t="s">
+      <c r="A398" s="138" t="s">
         <v>339</v>
       </c>
-      <c r="B398" s="134" t="s">
+      <c r="B398" s="135" t="s">
         <v>341</v>
       </c>
-      <c r="C398" s="136" t="s">
+      <c r="C398" s="137" t="s">
         <v>348</v>
       </c>
-      <c r="D398" s="138" t="s">
+      <c r="D398" s="142" t="s">
         <v>226</v>
       </c>
       <c r="E398" s="46"/>
@@ -12421,10 +12421,10 @@
       <c r="T398" s="4"/>
     </row>
     <row r="399" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="131"/>
-      <c r="B399" s="135"/>
-      <c r="C399" s="137"/>
-      <c r="D399" s="139"/>
+      <c r="A399" s="139"/>
+      <c r="B399" s="140"/>
+      <c r="C399" s="141"/>
+      <c r="D399" s="143"/>
       <c r="E399" s="24" t="s">
         <v>346</v>
       </c>
@@ -12445,10 +12445,10 @@
       <c r="T399" s="4"/>
     </row>
     <row r="400" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="131"/>
-      <c r="B400" s="135"/>
-      <c r="C400" s="137"/>
-      <c r="D400" s="139"/>
+      <c r="A400" s="139"/>
+      <c r="B400" s="140"/>
+      <c r="C400" s="141"/>
+      <c r="D400" s="143"/>
       <c r="E400" s="24" t="s">
         <v>343</v>
       </c>
@@ -12471,10 +12471,10 @@
       <c r="T400" s="4"/>
     </row>
     <row r="401" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="131"/>
-      <c r="B401" s="135"/>
-      <c r="C401" s="137"/>
-      <c r="D401" s="139"/>
+      <c r="A401" s="139"/>
+      <c r="B401" s="140"/>
+      <c r="C401" s="141"/>
+      <c r="D401" s="143"/>
       <c r="E401" s="24" t="s">
         <v>345</v>
       </c>
@@ -12497,10 +12497,10 @@
       <c r="T401" s="4"/>
     </row>
     <row r="402" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="131"/>
-      <c r="B402" s="135"/>
-      <c r="C402" s="137"/>
-      <c r="D402" s="139"/>
+      <c r="A402" s="139"/>
+      <c r="B402" s="140"/>
+      <c r="C402" s="141"/>
+      <c r="D402" s="143"/>
       <c r="E402" s="24"/>
       <c r="F402" s="62"/>
       <c r="G402" s="4"/>
@@ -12519,10 +12519,10 @@
       <c r="T402" s="4"/>
     </row>
     <row r="403" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="131"/>
-      <c r="B403" s="135"/>
-      <c r="C403" s="137"/>
-      <c r="D403" s="139"/>
+      <c r="A403" s="139"/>
+      <c r="B403" s="140"/>
+      <c r="C403" s="141"/>
+      <c r="D403" s="143"/>
       <c r="E403" s="24"/>
       <c r="F403" s="62"/>
       <c r="G403" s="4"/>
@@ -12541,10 +12541,10 @@
       <c r="T403" s="4"/>
     </row>
     <row r="404" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="131"/>
-      <c r="B404" s="135"/>
-      <c r="C404" s="137"/>
-      <c r="D404" s="139"/>
+      <c r="A404" s="139"/>
+      <c r="B404" s="140"/>
+      <c r="C404" s="141"/>
+      <c r="D404" s="143"/>
       <c r="E404" s="24"/>
       <c r="F404" s="62"/>
       <c r="G404" s="4"/>
@@ -12651,16 +12651,16 @@
       <c r="T408" s="4"/>
     </row>
     <row r="409" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="130" t="s">
+      <c r="A409" s="138" t="s">
         <v>340</v>
       </c>
-      <c r="B409" s="134" t="s">
+      <c r="B409" s="135" t="s">
         <v>342</v>
       </c>
-      <c r="C409" s="136" t="s">
+      <c r="C409" s="137" t="s">
         <v>354</v>
       </c>
-      <c r="D409" s="138" t="s">
+      <c r="D409" s="142" t="s">
         <v>226</v>
       </c>
       <c r="E409" s="46"/>
@@ -12681,10 +12681,10 @@
       <c r="T409" s="4"/>
     </row>
     <row r="410" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A410" s="131"/>
-      <c r="B410" s="135"/>
-      <c r="C410" s="137"/>
-      <c r="D410" s="139"/>
+      <c r="A410" s="139"/>
+      <c r="B410" s="140"/>
+      <c r="C410" s="141"/>
+      <c r="D410" s="143"/>
       <c r="E410" s="24" t="s">
         <v>349</v>
       </c>
@@ -12707,10 +12707,10 @@
       <c r="T410" s="4"/>
     </row>
     <row r="411" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="131"/>
-      <c r="B411" s="135"/>
-      <c r="C411" s="137"/>
-      <c r="D411" s="139"/>
+      <c r="A411" s="139"/>
+      <c r="B411" s="140"/>
+      <c r="C411" s="141"/>
+      <c r="D411" s="143"/>
       <c r="E411" s="24" t="s">
         <v>350</v>
       </c>
@@ -12733,10 +12733,10 @@
       <c r="T411" s="4"/>
     </row>
     <row r="412" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="131"/>
-      <c r="B412" s="135"/>
-      <c r="C412" s="137"/>
-      <c r="D412" s="139"/>
+      <c r="A412" s="139"/>
+      <c r="B412" s="140"/>
+      <c r="C412" s="141"/>
+      <c r="D412" s="143"/>
       <c r="E412" s="24"/>
       <c r="F412" s="62" t="s">
         <v>352</v>
@@ -12757,10 +12757,10 @@
       <c r="T412" s="4"/>
     </row>
     <row r="413" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="131"/>
-      <c r="B413" s="135"/>
-      <c r="C413" s="137"/>
-      <c r="D413" s="139"/>
+      <c r="A413" s="139"/>
+      <c r="B413" s="140"/>
+      <c r="C413" s="141"/>
+      <c r="D413" s="143"/>
       <c r="E413" s="24"/>
       <c r="F413" s="62"/>
       <c r="G413" s="4"/>
@@ -12779,10 +12779,10 @@
       <c r="T413" s="4"/>
     </row>
     <row r="414" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A414" s="131"/>
-      <c r="B414" s="135"/>
-      <c r="C414" s="137"/>
-      <c r="D414" s="139"/>
+      <c r="A414" s="139"/>
+      <c r="B414" s="140"/>
+      <c r="C414" s="141"/>
+      <c r="D414" s="143"/>
       <c r="E414" s="24"/>
       <c r="F414" s="62"/>
       <c r="G414" s="4"/>
@@ -12801,10 +12801,10 @@
       <c r="T414" s="4"/>
     </row>
     <row r="415" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A415" s="131"/>
-      <c r="B415" s="135"/>
-      <c r="C415" s="137"/>
-      <c r="D415" s="139"/>
+      <c r="A415" s="139"/>
+      <c r="B415" s="140"/>
+      <c r="C415" s="141"/>
+      <c r="D415" s="143"/>
       <c r="E415" s="24"/>
       <c r="F415" s="62"/>
       <c r="G415" s="4"/>
@@ -12911,16 +12911,16 @@
       <c r="T419" s="4"/>
     </row>
     <row r="420" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="130" t="s">
+      <c r="A420" s="138" t="s">
         <v>357</v>
       </c>
-      <c r="B420" s="134" t="s">
+      <c r="B420" s="135" t="s">
         <v>367</v>
       </c>
-      <c r="C420" s="136" t="s">
+      <c r="C420" s="137" t="s">
         <v>365</v>
       </c>
-      <c r="D420" s="138" t="s">
+      <c r="D420" s="142" t="s">
         <v>226</v>
       </c>
       <c r="E420" s="46"/>
@@ -12941,10 +12941,10 @@
       <c r="T420" s="4"/>
     </row>
     <row r="421" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A421" s="131"/>
-      <c r="B421" s="135"/>
-      <c r="C421" s="137"/>
-      <c r="D421" s="139"/>
+      <c r="A421" s="139"/>
+      <c r="B421" s="140"/>
+      <c r="C421" s="141"/>
+      <c r="D421" s="143"/>
       <c r="E421" s="24" t="s">
         <v>358</v>
       </c>
@@ -12967,10 +12967,10 @@
       <c r="T421" s="4"/>
     </row>
     <row r="422" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A422" s="131"/>
-      <c r="B422" s="135"/>
-      <c r="C422" s="137"/>
-      <c r="D422" s="139"/>
+      <c r="A422" s="139"/>
+      <c r="B422" s="140"/>
+      <c r="C422" s="141"/>
+      <c r="D422" s="143"/>
       <c r="E422" s="24" t="s">
         <v>360</v>
       </c>
@@ -12993,10 +12993,10 @@
       <c r="T422" s="4"/>
     </row>
     <row r="423" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="131"/>
-      <c r="B423" s="135"/>
-      <c r="C423" s="137"/>
-      <c r="D423" s="139"/>
+      <c r="A423" s="139"/>
+      <c r="B423" s="140"/>
+      <c r="C423" s="141"/>
+      <c r="D423" s="143"/>
       <c r="E423" s="24"/>
       <c r="F423" s="62"/>
       <c r="G423" s="4"/>
@@ -13015,10 +13015,10 @@
       <c r="T423" s="4"/>
     </row>
     <row r="424" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="131"/>
-      <c r="B424" s="135"/>
-      <c r="C424" s="137"/>
-      <c r="D424" s="139"/>
+      <c r="A424" s="139"/>
+      <c r="B424" s="140"/>
+      <c r="C424" s="141"/>
+      <c r="D424" s="143"/>
       <c r="E424" s="24"/>
       <c r="F424" s="62"/>
       <c r="G424" s="4"/>
@@ -13037,10 +13037,10 @@
       <c r="T424" s="4"/>
     </row>
     <row r="425" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="131"/>
-      <c r="B425" s="135"/>
-      <c r="C425" s="137"/>
-      <c r="D425" s="139"/>
+      <c r="A425" s="139"/>
+      <c r="B425" s="140"/>
+      <c r="C425" s="141"/>
+      <c r="D425" s="143"/>
       <c r="E425" s="24"/>
       <c r="F425" s="62"/>
       <c r="G425" s="4"/>
@@ -13059,10 +13059,10 @@
       <c r="T425" s="4"/>
     </row>
     <row r="426" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="131"/>
-      <c r="B426" s="135"/>
-      <c r="C426" s="137"/>
-      <c r="D426" s="139"/>
+      <c r="A426" s="139"/>
+      <c r="B426" s="140"/>
+      <c r="C426" s="141"/>
+      <c r="D426" s="143"/>
       <c r="E426" s="24"/>
       <c r="F426" s="62"/>
       <c r="G426" s="4"/>
@@ -13169,16 +13169,16 @@
       <c r="T430" s="4"/>
     </row>
     <row r="431" spans="1:20" s="122" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="130" t="s">
+      <c r="A431" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="B431" s="134" t="s">
+      <c r="B431" s="135" t="s">
         <v>368</v>
       </c>
-      <c r="C431" s="136" t="s">
+      <c r="C431" s="137" t="s">
         <v>369</v>
       </c>
-      <c r="D431" s="138" t="s">
+      <c r="D431" s="142" t="s">
         <v>226</v>
       </c>
       <c r="E431" s="46"/>
@@ -13199,10 +13199,10 @@
       <c r="T431" s="4"/>
     </row>
     <row r="432" spans="1:20" s="122" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A432" s="131"/>
-      <c r="B432" s="135"/>
-      <c r="C432" s="137"/>
-      <c r="D432" s="139"/>
+      <c r="A432" s="139"/>
+      <c r="B432" s="140"/>
+      <c r="C432" s="141"/>
+      <c r="D432" s="143"/>
       <c r="E432" s="24" t="s">
         <v>358</v>
       </c>
@@ -13225,10 +13225,10 @@
       <c r="T432" s="4"/>
     </row>
     <row r="433" spans="1:20" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="131"/>
-      <c r="B433" s="135"/>
-      <c r="C433" s="137"/>
-      <c r="D433" s="139"/>
+      <c r="A433" s="139"/>
+      <c r="B433" s="140"/>
+      <c r="C433" s="141"/>
+      <c r="D433" s="143"/>
       <c r="E433" s="24" t="s">
         <v>360</v>
       </c>
@@ -13251,10 +13251,10 @@
       <c r="T433" s="4"/>
     </row>
     <row r="434" spans="1:20" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="131"/>
-      <c r="B434" s="135"/>
-      <c r="C434" s="137"/>
-      <c r="D434" s="139"/>
+      <c r="A434" s="139"/>
+      <c r="B434" s="140"/>
+      <c r="C434" s="141"/>
+      <c r="D434" s="143"/>
       <c r="E434" s="24" t="s">
         <v>362</v>
       </c>
@@ -13277,10 +13277,10 @@
       <c r="T434" s="4"/>
     </row>
     <row r="435" spans="1:20" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="131"/>
-      <c r="B435" s="135"/>
-      <c r="C435" s="137"/>
-      <c r="D435" s="139"/>
+      <c r="A435" s="139"/>
+      <c r="B435" s="140"/>
+      <c r="C435" s="141"/>
+      <c r="D435" s="143"/>
       <c r="E435" s="24" t="s">
         <v>363</v>
       </c>
@@ -13303,10 +13303,10 @@
       <c r="T435" s="4"/>
     </row>
     <row r="436" spans="1:20" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="131"/>
-      <c r="B436" s="135"/>
-      <c r="C436" s="137"/>
-      <c r="D436" s="139"/>
+      <c r="A436" s="139"/>
+      <c r="B436" s="140"/>
+      <c r="C436" s="141"/>
+      <c r="D436" s="143"/>
       <c r="E436" s="24"/>
       <c r="F436" s="62"/>
       <c r="G436" s="4"/>
@@ -13325,10 +13325,10 @@
       <c r="T436" s="4"/>
     </row>
     <row r="437" spans="1:20" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="131"/>
-      <c r="B437" s="135"/>
-      <c r="C437" s="137"/>
-      <c r="D437" s="139"/>
+      <c r="A437" s="139"/>
+      <c r="B437" s="140"/>
+      <c r="C437" s="141"/>
+      <c r="D437" s="143"/>
       <c r="E437" s="24"/>
       <c r="F437" s="62"/>
       <c r="G437" s="4"/>
@@ -13435,16 +13435,16 @@
       <c r="T441" s="4"/>
     </row>
     <row r="442" spans="1:20" s="122" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="204" t="s">
+      <c r="A442" s="182" t="s">
         <v>371</v>
       </c>
-      <c r="B442" s="134" t="s">
+      <c r="B442" s="135" t="s">
         <v>372</v>
       </c>
-      <c r="C442" s="200" t="s">
+      <c r="C442" s="185" t="s">
         <v>383</v>
       </c>
-      <c r="D442" s="138" t="s">
+      <c r="D442" s="142" t="s">
         <v>226</v>
       </c>
       <c r="E442" s="24"/>
@@ -13465,10 +13465,10 @@
       <c r="T442" s="4"/>
     </row>
     <row r="443" spans="1:20" s="122" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A443" s="205"/>
-      <c r="B443" s="135"/>
-      <c r="C443" s="201"/>
-      <c r="D443" s="139"/>
+      <c r="A443" s="183"/>
+      <c r="B443" s="140"/>
+      <c r="C443" s="186"/>
+      <c r="D443" s="143"/>
       <c r="E443" s="24" t="s">
         <v>358</v>
       </c>
@@ -13491,10 +13491,10 @@
       <c r="T443" s="4"/>
     </row>
     <row r="444" spans="1:20" s="122" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A444" s="205"/>
-      <c r="B444" s="135"/>
-      <c r="C444" s="201"/>
-      <c r="D444" s="139"/>
+      <c r="A444" s="183"/>
+      <c r="B444" s="140"/>
+      <c r="C444" s="186"/>
+      <c r="D444" s="143"/>
       <c r="E444" s="24" t="s">
         <v>360</v>
       </c>
@@ -13517,10 +13517,10 @@
       <c r="T444" s="4"/>
     </row>
     <row r="445" spans="1:20" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="205"/>
-      <c r="B445" s="135"/>
-      <c r="C445" s="201"/>
-      <c r="D445" s="139"/>
+      <c r="A445" s="183"/>
+      <c r="B445" s="140"/>
+      <c r="C445" s="186"/>
+      <c r="D445" s="143"/>
       <c r="E445" s="46"/>
       <c r="F445" s="62"/>
       <c r="G445" s="4"/>
@@ -13539,10 +13539,10 @@
       <c r="T445" s="4"/>
     </row>
     <row r="446" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="205"/>
-      <c r="B446" s="135"/>
-      <c r="C446" s="201"/>
-      <c r="D446" s="139"/>
+      <c r="A446" s="183"/>
+      <c r="B446" s="140"/>
+      <c r="C446" s="186"/>
+      <c r="D446" s="143"/>
       <c r="E446" s="46"/>
       <c r="F446" s="62"/>
       <c r="G446" s="4"/>
@@ -13561,10 +13561,10 @@
       <c r="T446" s="4"/>
     </row>
     <row r="447" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="205"/>
-      <c r="B447" s="135"/>
-      <c r="C447" s="201"/>
-      <c r="D447" s="139"/>
+      <c r="A447" s="183"/>
+      <c r="B447" s="140"/>
+      <c r="C447" s="186"/>
+      <c r="D447" s="143"/>
       <c r="E447" s="46"/>
       <c r="F447" s="62"/>
       <c r="G447" s="4"/>
@@ -13583,10 +13583,10 @@
       <c r="T447" s="4"/>
     </row>
     <row r="448" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="205"/>
-      <c r="B448" s="135"/>
-      <c r="C448" s="201"/>
-      <c r="D448" s="139"/>
+      <c r="A448" s="183"/>
+      <c r="B448" s="140"/>
+      <c r="C448" s="186"/>
+      <c r="D448" s="143"/>
       <c r="E448" s="46"/>
       <c r="F448" s="62"/>
       <c r="G448" s="4"/>
@@ -13605,10 +13605,10 @@
       <c r="T448" s="4"/>
     </row>
     <row r="449" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="205"/>
+      <c r="A449" s="183"/>
       <c r="B449" s="132"/>
-      <c r="C449" s="201"/>
-      <c r="D449" s="139"/>
+      <c r="C449" s="186"/>
+      <c r="D449" s="143"/>
       <c r="E449" s="46"/>
       <c r="F449" s="62"/>
       <c r="G449" s="4"/>
@@ -13627,9 +13627,9 @@
       <c r="T449" s="4"/>
     </row>
     <row r="450" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A450" s="205"/>
+      <c r="A450" s="183"/>
       <c r="B450" s="132"/>
-      <c r="C450" s="202"/>
+      <c r="C450" s="187"/>
       <c r="D450" s="132"/>
       <c r="E450" s="24"/>
       <c r="F450" s="59"/>
@@ -13649,9 +13649,9 @@
       <c r="T450" s="4"/>
     </row>
     <row r="451" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A451" s="206"/>
+      <c r="A451" s="184"/>
       <c r="B451" s="132"/>
-      <c r="C451" s="203"/>
+      <c r="C451" s="188"/>
       <c r="D451" s="133"/>
       <c r="E451" s="26"/>
       <c r="F451" s="60"/>
@@ -13671,16 +13671,16 @@
       <c r="T451" s="4"/>
     </row>
     <row r="452" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="155" t="s">
+      <c r="A452" s="157" t="s">
         <v>375</v>
       </c>
-      <c r="B452" s="207" t="s">
+      <c r="B452" s="189" t="s">
         <v>373</v>
       </c>
-      <c r="C452" s="136" t="s">
+      <c r="C452" s="137" t="s">
         <v>382</v>
       </c>
-      <c r="D452" s="138" t="s">
+      <c r="D452" s="142" t="s">
         <v>226</v>
       </c>
       <c r="E452" s="46"/>
@@ -13702,9 +13702,9 @@
     </row>
     <row r="453" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A453" s="132"/>
-      <c r="B453" s="160"/>
-      <c r="C453" s="137"/>
-      <c r="D453" s="139"/>
+      <c r="B453" s="136"/>
+      <c r="C453" s="141"/>
+      <c r="D453" s="143"/>
       <c r="E453" s="24" t="s">
         <v>358</v>
       </c>
@@ -13727,10 +13727,10 @@
       <c r="T453" s="4"/>
     </row>
     <row r="454" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="160"/>
-      <c r="B454" s="160"/>
-      <c r="C454" s="137"/>
-      <c r="D454" s="139"/>
+      <c r="A454" s="136"/>
+      <c r="B454" s="136"/>
+      <c r="C454" s="141"/>
+      <c r="D454" s="143"/>
       <c r="E454" s="24" t="s">
         <v>360</v>
       </c>
@@ -13753,10 +13753,10 @@
       <c r="T454" s="4"/>
     </row>
     <row r="455" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A455" s="160"/>
-      <c r="B455" s="160"/>
-      <c r="C455" s="137"/>
-      <c r="D455" s="139"/>
+      <c r="A455" s="136"/>
+      <c r="B455" s="136"/>
+      <c r="C455" s="141"/>
+      <c r="D455" s="143"/>
       <c r="E455" s="24" t="s">
         <v>381</v>
       </c>
@@ -13779,10 +13779,10 @@
       <c r="T455" s="4"/>
     </row>
     <row r="456" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="160"/>
-      <c r="B456" s="160"/>
-      <c r="C456" s="137"/>
-      <c r="D456" s="139"/>
+      <c r="A456" s="136"/>
+      <c r="B456" s="136"/>
+      <c r="C456" s="141"/>
+      <c r="D456" s="143"/>
       <c r="E456" s="24"/>
       <c r="F456" s="59"/>
       <c r="G456" s="4"/>
@@ -13801,10 +13801,10 @@
       <c r="T456" s="4"/>
     </row>
     <row r="457" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="160"/>
-      <c r="B457" s="160"/>
-      <c r="C457" s="137"/>
-      <c r="D457" s="139"/>
+      <c r="A457" s="136"/>
+      <c r="B457" s="136"/>
+      <c r="C457" s="141"/>
+      <c r="D457" s="143"/>
       <c r="E457" s="24"/>
       <c r="F457" s="59"/>
       <c r="G457" s="4"/>
@@ -13823,10 +13823,10 @@
       <c r="T457" s="4"/>
     </row>
     <row r="458" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="160"/>
-      <c r="B458" s="160"/>
-      <c r="C458" s="137"/>
-      <c r="D458" s="139"/>
+      <c r="A458" s="136"/>
+      <c r="B458" s="136"/>
+      <c r="C458" s="141"/>
+      <c r="D458" s="143"/>
       <c r="E458" s="24"/>
       <c r="F458" s="59"/>
       <c r="G458" s="4"/>
@@ -13845,8 +13845,8 @@
       <c r="T458" s="4"/>
     </row>
     <row r="459" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="160"/>
-      <c r="B459" s="160"/>
+      <c r="A459" s="136"/>
+      <c r="B459" s="136"/>
       <c r="C459" s="132"/>
       <c r="D459" s="132"/>
       <c r="E459" s="24"/>
@@ -13868,7 +13868,7 @@
     </row>
     <row r="460" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A460" s="132"/>
-      <c r="B460" s="160"/>
+      <c r="B460" s="136"/>
       <c r="C460" s="132"/>
       <c r="D460" s="132"/>
       <c r="E460" s="24"/>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="461" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A461" s="132"/>
-      <c r="B461" s="160"/>
+      <c r="B461" s="136"/>
       <c r="C461" s="132"/>
       <c r="D461" s="132"/>
       <c r="E461" s="24"/>
@@ -13933,16 +13933,16 @@
       <c r="T462" s="4"/>
     </row>
     <row r="463" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="155" t="s">
+      <c r="A463" s="157" t="s">
         <v>376</v>
       </c>
-      <c r="B463" s="188" t="s">
+      <c r="B463" s="197" t="s">
         <v>374</v>
       </c>
-      <c r="C463" s="183" t="s">
+      <c r="C463" s="191" t="s">
         <v>387</v>
       </c>
-      <c r="D463" s="186" t="s">
+      <c r="D463" s="195" t="s">
         <v>226</v>
       </c>
       <c r="E463" s="64"/>
@@ -13963,10 +13963,10 @@
       <c r="T463" s="4"/>
     </row>
     <row r="464" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A464" s="131"/>
-      <c r="B464" s="189"/>
-      <c r="C464" s="182"/>
-      <c r="D464" s="187"/>
+      <c r="A464" s="139"/>
+      <c r="B464" s="198"/>
+      <c r="C464" s="192"/>
+      <c r="D464" s="196"/>
       <c r="E464" s="24" t="s">
         <v>358</v>
       </c>
@@ -13989,10 +13989,10 @@
       <c r="T464" s="4"/>
     </row>
     <row r="465" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="131"/>
-      <c r="B465" s="189"/>
-      <c r="C465" s="182"/>
-      <c r="D465" s="187"/>
+      <c r="A465" s="139"/>
+      <c r="B465" s="198"/>
+      <c r="C465" s="192"/>
+      <c r="D465" s="196"/>
       <c r="E465" s="24" t="s">
         <v>360</v>
       </c>
@@ -14015,10 +14015,10 @@
       <c r="T465" s="4"/>
     </row>
     <row r="466" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="131"/>
-      <c r="B466" s="189"/>
-      <c r="C466" s="182"/>
-      <c r="D466" s="187"/>
+      <c r="A466" s="139"/>
+      <c r="B466" s="198"/>
+      <c r="C466" s="192"/>
+      <c r="D466" s="196"/>
       <c r="E466" s="117" t="s">
         <v>385</v>
       </c>
@@ -14040,10 +14040,10 @@
     </row>
     <row r="467" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A467" s="132"/>
-      <c r="B467" s="184"/>
-      <c r="C467" s="184"/>
-      <c r="D467" s="184"/>
-      <c r="E467" s="208" t="s">
+      <c r="B467" s="193"/>
+      <c r="C467" s="193"/>
+      <c r="D467" s="193"/>
+      <c r="E467" s="130" t="s">
         <v>386</v>
       </c>
       <c r="F467" s="62" t="s">
@@ -14066,9 +14066,9 @@
     </row>
     <row r="468" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A468" s="132"/>
-      <c r="B468" s="184"/>
-      <c r="C468" s="184"/>
-      <c r="D468" s="184"/>
+      <c r="B468" s="193"/>
+      <c r="C468" s="193"/>
+      <c r="D468" s="193"/>
       <c r="E468" s="46"/>
       <c r="F468" s="59"/>
       <c r="G468" s="4"/>
@@ -14088,9 +14088,9 @@
     </row>
     <row r="469" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A469" s="132"/>
-      <c r="B469" s="184"/>
-      <c r="C469" s="184"/>
-      <c r="D469" s="184"/>
+      <c r="B469" s="193"/>
+      <c r="C469" s="193"/>
+      <c r="D469" s="193"/>
       <c r="E469" s="46"/>
       <c r="F469" s="59"/>
       <c r="G469" s="4"/>
@@ -14110,9 +14110,9 @@
     </row>
     <row r="470" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A470" s="132"/>
-      <c r="B470" s="184"/>
-      <c r="C470" s="184"/>
-      <c r="D470" s="184"/>
+      <c r="B470" s="193"/>
+      <c r="C470" s="193"/>
+      <c r="D470" s="193"/>
       <c r="E470" s="46"/>
       <c r="F470" s="59"/>
       <c r="G470" s="4"/>
@@ -14132,9 +14132,9 @@
     </row>
     <row r="471" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A471" s="133"/>
-      <c r="B471" s="185"/>
-      <c r="C471" s="185"/>
-      <c r="D471" s="185"/>
+      <c r="B471" s="194"/>
+      <c r="C471" s="194"/>
+      <c r="D471" s="194"/>
       <c r="E471" s="65"/>
       <c r="F471" s="60"/>
       <c r="G471" s="4"/>
@@ -14153,16 +14153,16 @@
       <c r="T471" s="4"/>
     </row>
     <row r="472" spans="1:20" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="130" t="s">
+      <c r="A472" s="138" t="s">
         <v>378</v>
       </c>
-      <c r="B472" s="188" t="s">
+      <c r="B472" s="197" t="s">
         <v>377</v>
       </c>
-      <c r="C472" s="183" t="s">
+      <c r="C472" s="191" t="s">
         <v>388</v>
       </c>
-      <c r="D472" s="186" t="s">
+      <c r="D472" s="195" t="s">
         <v>226</v>
       </c>
       <c r="E472" s="24" t="s">
@@ -14187,10 +14187,10 @@
       <c r="T472" s="4"/>
     </row>
     <row r="473" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="131"/>
-      <c r="B473" s="189"/>
-      <c r="C473" s="182"/>
-      <c r="D473" s="187"/>
+      <c r="A473" s="139"/>
+      <c r="B473" s="198"/>
+      <c r="C473" s="192"/>
+      <c r="D473" s="196"/>
       <c r="E473" s="24" t="s">
         <v>360</v>
       </c>
@@ -14213,10 +14213,10 @@
       <c r="T473" s="4"/>
     </row>
     <row r="474" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="131"/>
-      <c r="B474" s="189"/>
-      <c r="C474" s="182"/>
-      <c r="D474" s="187"/>
+      <c r="A474" s="139"/>
+      <c r="B474" s="198"/>
+      <c r="C474" s="192"/>
+      <c r="D474" s="196"/>
       <c r="E474" s="117" t="s">
         <v>390</v>
       </c>
@@ -14238,9 +14238,9 @@
     </row>
     <row r="475" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A475" s="132"/>
-      <c r="B475" s="184"/>
-      <c r="C475" s="184"/>
-      <c r="D475" s="184"/>
+      <c r="B475" s="193"/>
+      <c r="C475" s="193"/>
+      <c r="D475" s="193"/>
       <c r="E475" s="117" t="s">
         <v>392</v>
       </c>
@@ -14264,10 +14264,10 @@
     </row>
     <row r="476" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A476" s="132"/>
-      <c r="B476" s="184"/>
-      <c r="C476" s="184"/>
-      <c r="D476" s="184"/>
-      <c r="E476" s="208" t="s">
+      <c r="B476" s="193"/>
+      <c r="C476" s="193"/>
+      <c r="D476" s="193"/>
+      <c r="E476" s="130" t="s">
         <v>394</v>
       </c>
       <c r="F476" s="59"/>
@@ -14288,9 +14288,9 @@
     </row>
     <row r="477" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A477" s="132"/>
-      <c r="B477" s="184"/>
-      <c r="C477" s="184"/>
-      <c r="D477" s="184"/>
+      <c r="B477" s="193"/>
+      <c r="C477" s="193"/>
+      <c r="D477" s="193"/>
       <c r="E477" s="68" t="s">
         <v>395</v>
       </c>
@@ -14312,9 +14312,9 @@
     </row>
     <row r="478" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A478" s="132"/>
-      <c r="B478" s="184"/>
-      <c r="C478" s="184"/>
-      <c r="D478" s="184"/>
+      <c r="B478" s="193"/>
+      <c r="C478" s="193"/>
+      <c r="D478" s="193"/>
       <c r="E478" s="68" t="s">
         <v>396</v>
       </c>
@@ -14336,9 +14336,9 @@
     </row>
     <row r="479" spans="1:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A479" s="133"/>
-      <c r="B479" s="185"/>
-      <c r="C479" s="185"/>
-      <c r="D479" s="185"/>
+      <c r="B479" s="194"/>
+      <c r="C479" s="194"/>
+      <c r="D479" s="194"/>
       <c r="E479" s="65" t="s">
         <v>393</v>
       </c>
@@ -14361,10 +14361,10 @@
       <c r="T479" s="4"/>
     </row>
     <row r="480" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="130"/>
-      <c r="B480" s="188"/>
-      <c r="C480" s="183"/>
-      <c r="D480" s="186"/>
+      <c r="A480" s="138"/>
+      <c r="B480" s="197"/>
+      <c r="C480" s="191"/>
+      <c r="D480" s="195"/>
       <c r="E480" s="64"/>
       <c r="F480" s="62"/>
       <c r="G480" s="4"/>
@@ -14384,9 +14384,9 @@
     </row>
     <row r="481" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A481" s="132"/>
-      <c r="B481" s="184"/>
-      <c r="C481" s="184"/>
-      <c r="D481" s="184"/>
+      <c r="B481" s="193"/>
+      <c r="C481" s="193"/>
+      <c r="D481" s="193"/>
       <c r="E481" s="37"/>
       <c r="F481" s="62"/>
       <c r="G481" s="4"/>
@@ -14406,9 +14406,9 @@
     </row>
     <row r="482" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A482" s="132"/>
-      <c r="B482" s="184"/>
-      <c r="C482" s="184"/>
-      <c r="D482" s="184"/>
+      <c r="B482" s="193"/>
+      <c r="C482" s="193"/>
+      <c r="D482" s="193"/>
       <c r="E482" s="46"/>
       <c r="F482" s="62"/>
       <c r="G482" s="4"/>
@@ -14428,9 +14428,9 @@
     </row>
     <row r="483" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A483" s="132"/>
-      <c r="B483" s="184"/>
-      <c r="C483" s="184"/>
-      <c r="D483" s="184"/>
+      <c r="B483" s="193"/>
+      <c r="C483" s="193"/>
+      <c r="D483" s="193"/>
       <c r="E483" s="37"/>
       <c r="F483" s="62"/>
       <c r="G483" s="4"/>
@@ -14450,9 +14450,9 @@
     </row>
     <row r="484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A484" s="132"/>
-      <c r="B484" s="184"/>
-      <c r="C484" s="184"/>
-      <c r="D484" s="184"/>
+      <c r="B484" s="193"/>
+      <c r="C484" s="193"/>
+      <c r="D484" s="193"/>
       <c r="E484" s="24"/>
       <c r="F484" s="59"/>
       <c r="G484" s="4"/>
@@ -14472,9 +14472,9 @@
     </row>
     <row r="485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A485" s="132"/>
-      <c r="B485" s="184"/>
-      <c r="C485" s="184"/>
-      <c r="D485" s="184"/>
+      <c r="B485" s="193"/>
+      <c r="C485" s="193"/>
+      <c r="D485" s="193"/>
       <c r="E485" s="24"/>
       <c r="F485" s="59"/>
       <c r="G485" s="4"/>
@@ -14494,9 +14494,9 @@
     </row>
     <row r="486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A486" s="132"/>
-      <c r="B486" s="184"/>
-      <c r="C486" s="184"/>
-      <c r="D486" s="184"/>
+      <c r="B486" s="193"/>
+      <c r="C486" s="193"/>
+      <c r="D486" s="193"/>
       <c r="E486" s="68"/>
       <c r="F486" s="59"/>
       <c r="G486" s="4"/>
@@ -14516,11 +14516,11 @@
     </row>
     <row r="487" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" s="133"/>
-      <c r="B487" s="185"/>
-      <c r="C487" s="185"/>
-      <c r="D487" s="185"/>
+      <c r="B487" s="194"/>
+      <c r="C487" s="194"/>
+      <c r="D487" s="194"/>
       <c r="E487" s="68"/>
-      <c r="F487" s="60"/>
+      <c r="F487" s="59"/>
       <c r="G487" s="4"/>
       <c r="H487" s="4"/>
       <c r="I487" s="4"/>
@@ -14537,12 +14537,12 @@
       <c r="T487" s="4"/>
     </row>
     <row r="488" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A488" s="130"/>
-      <c r="B488" s="188"/>
-      <c r="C488" s="158"/>
-      <c r="D488" s="179"/>
+      <c r="A488" s="138"/>
+      <c r="B488" s="197"/>
+      <c r="C488" s="160"/>
+      <c r="D488" s="175"/>
       <c r="E488" s="65"/>
-      <c r="F488" s="69"/>
+      <c r="F488" s="60"/>
       <c r="G488" s="4"/>
       <c r="H488" s="4"/>
       <c r="I488" s="4"/>
@@ -14560,11 +14560,11 @@
     </row>
     <row r="489" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A489" s="132"/>
-      <c r="B489" s="184"/>
+      <c r="B489" s="193"/>
       <c r="C489" s="132"/>
       <c r="D489" s="132"/>
       <c r="E489" s="37"/>
-      <c r="F489" s="43"/>
+      <c r="F489" s="69"/>
       <c r="G489" s="4"/>
       <c r="H489" s="4"/>
       <c r="I489" s="4"/>
@@ -14582,11 +14582,11 @@
     </row>
     <row r="490" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A490" s="132"/>
-      <c r="B490" s="184"/>
+      <c r="B490" s="193"/>
       <c r="C490" s="132"/>
       <c r="D490" s="132"/>
       <c r="E490" s="46"/>
-      <c r="F490" s="69"/>
+      <c r="F490" s="43"/>
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
       <c r="I490" s="4"/>
@@ -14603,10 +14603,10 @@
       <c r="T490" s="4"/>
     </row>
     <row r="491" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="160"/>
-      <c r="B491" s="190"/>
-      <c r="C491" s="160"/>
-      <c r="D491" s="160"/>
+      <c r="A491" s="136"/>
+      <c r="B491" s="199"/>
+      <c r="C491" s="136"/>
+      <c r="D491" s="136"/>
       <c r="E491" s="24"/>
       <c r="F491" s="69"/>
       <c r="G491" s="4"/>
@@ -14625,10 +14625,10 @@
       <c r="T491" s="4"/>
     </row>
     <row r="492" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="160"/>
-      <c r="B492" s="190"/>
-      <c r="C492" s="160"/>
-      <c r="D492" s="160"/>
+      <c r="A492" s="136"/>
+      <c r="B492" s="199"/>
+      <c r="C492" s="136"/>
+      <c r="D492" s="136"/>
       <c r="E492" s="24"/>
       <c r="F492" s="69"/>
       <c r="G492" s="4"/>
@@ -14647,10 +14647,10 @@
       <c r="T492" s="4"/>
     </row>
     <row r="493" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="160"/>
-      <c r="B493" s="190"/>
-      <c r="C493" s="160"/>
-      <c r="D493" s="160"/>
+      <c r="A493" s="136"/>
+      <c r="B493" s="199"/>
+      <c r="C493" s="136"/>
+      <c r="D493" s="136"/>
       <c r="E493" s="24"/>
       <c r="F493" s="69"/>
       <c r="G493" s="4"/>
@@ -14670,11 +14670,11 @@
     </row>
     <row r="494" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A494" s="132"/>
-      <c r="B494" s="184"/>
+      <c r="B494" s="193"/>
       <c r="C494" s="132"/>
       <c r="D494" s="132"/>
       <c r="E494" s="68"/>
-      <c r="F494" s="43"/>
+      <c r="F494" s="69"/>
       <c r="G494" s="4"/>
       <c r="H494" s="4"/>
       <c r="I494" s="4"/>
@@ -14692,7 +14692,7 @@
     </row>
     <row r="495" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A495" s="132"/>
-      <c r="B495" s="184"/>
+      <c r="B495" s="193"/>
       <c r="C495" s="132"/>
       <c r="D495" s="132"/>
       <c r="E495" s="68"/>
@@ -14714,11 +14714,11 @@
     </row>
     <row r="496" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="133"/>
-      <c r="B496" s="185"/>
+      <c r="B496" s="194"/>
       <c r="C496" s="133"/>
       <c r="D496" s="133"/>
       <c r="E496" s="68"/>
-      <c r="F496" s="71"/>
+      <c r="F496" s="43"/>
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
       <c r="I496" s="4"/>
@@ -14735,12 +14735,12 @@
       <c r="T496" s="4"/>
     </row>
     <row r="497" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A497" s="130"/>
-      <c r="B497" s="134"/>
-      <c r="C497" s="183"/>
-      <c r="D497" s="186"/>
+      <c r="A497" s="138"/>
+      <c r="B497" s="135"/>
+      <c r="C497" s="191"/>
+      <c r="D497" s="195"/>
       <c r="E497" s="65"/>
-      <c r="F497" s="67"/>
+      <c r="F497" s="71"/>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
       <c r="I497" s="4"/>
@@ -14757,10 +14757,10 @@
       <c r="T497" s="4"/>
     </row>
     <row r="498" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="131"/>
-      <c r="B498" s="135"/>
-      <c r="C498" s="182"/>
-      <c r="D498" s="187"/>
+      <c r="A498" s="139"/>
+      <c r="B498" s="140"/>
+      <c r="C498" s="192"/>
+      <c r="D498" s="196"/>
       <c r="E498" s="37"/>
       <c r="F498" s="67"/>
       <c r="G498" s="4"/>
@@ -14779,10 +14779,10 @@
       <c r="T498" s="4"/>
     </row>
     <row r="499" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="131"/>
-      <c r="B499" s="135"/>
-      <c r="C499" s="182"/>
-      <c r="D499" s="187"/>
+      <c r="A499" s="139"/>
+      <c r="B499" s="140"/>
+      <c r="C499" s="192"/>
+      <c r="D499" s="196"/>
       <c r="E499" s="46"/>
       <c r="F499" s="67"/>
       <c r="G499" s="4"/>
@@ -14803,10 +14803,10 @@
     <row r="500" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A500" s="132"/>
       <c r="B500" s="132"/>
-      <c r="C500" s="184"/>
-      <c r="D500" s="184"/>
+      <c r="C500" s="193"/>
+      <c r="D500" s="193"/>
       <c r="E500" s="120"/>
-      <c r="F500" s="43"/>
+      <c r="F500" s="67"/>
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
       <c r="I500" s="4"/>
@@ -14825,10 +14825,10 @@
     <row r="501" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A501" s="132"/>
       <c r="B501" s="132"/>
-      <c r="C501" s="184"/>
-      <c r="D501" s="184"/>
+      <c r="C501" s="193"/>
+      <c r="D501" s="193"/>
       <c r="E501" s="118"/>
-      <c r="F501" s="69"/>
+      <c r="F501" s="43"/>
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
       <c r="I501" s="4"/>
@@ -14847,10 +14847,10 @@
     <row r="502" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A502" s="132"/>
       <c r="B502" s="132"/>
-      <c r="C502" s="184"/>
-      <c r="D502" s="184"/>
+      <c r="C502" s="193"/>
+      <c r="D502" s="193"/>
       <c r="E502" s="68"/>
-      <c r="F502" s="43"/>
+      <c r="F502" s="69"/>
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
       <c r="I502" s="4"/>
@@ -14869,10 +14869,10 @@
     <row r="503" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A503" s="133"/>
       <c r="B503" s="133"/>
-      <c r="C503" s="185"/>
-      <c r="D503" s="185"/>
+      <c r="C503" s="194"/>
+      <c r="D503" s="194"/>
       <c r="E503" s="68"/>
-      <c r="F503" s="45"/>
+      <c r="F503" s="43"/>
       <c r="G503" s="4"/>
       <c r="H503" s="4"/>
       <c r="I503" s="4"/>
@@ -14889,12 +14889,12 @@
       <c r="T503" s="4"/>
     </row>
     <row r="504" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A504" s="130"/>
-      <c r="B504" s="188"/>
-      <c r="C504" s="183"/>
-      <c r="D504" s="186"/>
+      <c r="A504" s="138"/>
+      <c r="B504" s="197"/>
+      <c r="C504" s="191"/>
+      <c r="D504" s="195"/>
       <c r="E504" s="72"/>
-      <c r="F504" s="69"/>
+      <c r="F504" s="45"/>
       <c r="G504" s="4"/>
       <c r="H504" s="4"/>
       <c r="I504" s="4"/>
@@ -14912,11 +14912,11 @@
     </row>
     <row r="505" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A505" s="132"/>
-      <c r="B505" s="184"/>
-      <c r="C505" s="184"/>
-      <c r="D505" s="184"/>
+      <c r="B505" s="193"/>
+      <c r="C505" s="193"/>
+      <c r="D505" s="193"/>
       <c r="E505" s="37"/>
-      <c r="F505" s="43"/>
+      <c r="F505" s="69"/>
       <c r="G505" s="4"/>
       <c r="H505" s="4"/>
       <c r="I505" s="4"/>
@@ -14934,11 +14934,11 @@
     </row>
     <row r="506" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A506" s="132"/>
-      <c r="B506" s="184"/>
-      <c r="C506" s="184"/>
-      <c r="D506" s="184"/>
+      <c r="B506" s="193"/>
+      <c r="C506" s="193"/>
+      <c r="D506" s="193"/>
       <c r="E506" s="46"/>
-      <c r="F506" s="69"/>
+      <c r="F506" s="43"/>
       <c r="G506" s="4"/>
       <c r="H506" s="4"/>
       <c r="I506" s="4"/>
@@ -14956,11 +14956,11 @@
     </row>
     <row r="507" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A507" s="132"/>
-      <c r="B507" s="184"/>
-      <c r="C507" s="184"/>
-      <c r="D507" s="184"/>
+      <c r="B507" s="193"/>
+      <c r="C507" s="193"/>
+      <c r="D507" s="193"/>
       <c r="E507" s="68"/>
-      <c r="F507" s="119"/>
+      <c r="F507" s="69"/>
       <c r="G507" s="4"/>
       <c r="H507" s="4"/>
       <c r="I507" s="4"/>
@@ -14978,11 +14978,11 @@
     </row>
     <row r="508" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A508" s="132"/>
-      <c r="B508" s="184"/>
-      <c r="C508" s="184"/>
-      <c r="D508" s="184"/>
+      <c r="B508" s="193"/>
+      <c r="C508" s="193"/>
+      <c r="D508" s="193"/>
       <c r="E508" s="70"/>
-      <c r="F508" s="43"/>
+      <c r="F508" s="119"/>
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
       <c r="I508" s="4"/>
@@ -15000,9 +15000,9 @@
     </row>
     <row r="509" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A509" s="132"/>
-      <c r="B509" s="184"/>
-      <c r="C509" s="184"/>
-      <c r="D509" s="184"/>
+      <c r="B509" s="193"/>
+      <c r="C509" s="193"/>
+      <c r="D509" s="193"/>
       <c r="E509" s="68"/>
       <c r="F509" s="43"/>
       <c r="G509" s="4"/>
@@ -15022,11 +15022,11 @@
     </row>
     <row r="510" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A510" s="133"/>
-      <c r="B510" s="185"/>
-      <c r="C510" s="185"/>
-      <c r="D510" s="185"/>
+      <c r="B510" s="194"/>
+      <c r="C510" s="194"/>
+      <c r="D510" s="194"/>
       <c r="E510" s="68"/>
-      <c r="F510" s="66"/>
+      <c r="F510" s="43"/>
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
       <c r="I510" s="4"/>
@@ -15050,7 +15050,7 @@
       <c r="C511" s="128"/>
       <c r="D511" s="128"/>
       <c r="E511" s="65"/>
-      <c r="F511" s="128"/>
+      <c r="F511" s="66"/>
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
       <c r="I511" s="4"/>
@@ -15067,14 +15067,14 @@
       <c r="T511" s="4"/>
     </row>
     <row r="512" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="181" t="s">
+      <c r="A512" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="B512" s="157"/>
-      <c r="C512" s="158"/>
-      <c r="D512" s="179"/>
+      <c r="B512" s="159"/>
+      <c r="C512" s="160"/>
+      <c r="D512" s="175"/>
       <c r="E512" s="128"/>
-      <c r="F512" s="74"/>
+      <c r="F512" s="128"/>
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
       <c r="I512" s="4"/>
@@ -15140,7 +15140,7 @@
       <c r="C515" s="133"/>
       <c r="D515" s="133"/>
       <c r="E515" s="73"/>
-      <c r="F515" s="61"/>
+      <c r="F515" s="74"/>
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
       <c r="I515" s="4"/>
@@ -15157,14 +15157,14 @@
       <c r="T515" s="4"/>
     </row>
     <row r="516" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A516" s="155" t="s">
+      <c r="A516" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="B516" s="134"/>
-      <c r="C516" s="136"/>
-      <c r="D516" s="138"/>
+      <c r="B516" s="135"/>
+      <c r="C516" s="137"/>
+      <c r="D516" s="142"/>
       <c r="E516" s="75"/>
-      <c r="F516" s="63"/>
+      <c r="F516" s="61"/>
       <c r="G516" s="4"/>
       <c r="H516" s="4"/>
       <c r="I516" s="4"/>
@@ -15186,7 +15186,7 @@
       <c r="C517" s="132"/>
       <c r="D517" s="132"/>
       <c r="E517" s="76"/>
-      <c r="F517" s="30"/>
+      <c r="F517" s="63"/>
       <c r="G517" s="4"/>
       <c r="H517" s="4"/>
       <c r="I517" s="4"/>
@@ -15208,7 +15208,7 @@
       <c r="C518" s="133"/>
       <c r="D518" s="133"/>
       <c r="E518" s="73"/>
-      <c r="F518" s="61"/>
+      <c r="F518" s="30"/>
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
       <c r="I518" s="4"/>
@@ -15225,14 +15225,14 @@
       <c r="T518" s="4"/>
     </row>
     <row r="519" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A519" s="155" t="s">
+      <c r="A519" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B519" s="134"/>
-      <c r="C519" s="136"/>
-      <c r="D519" s="138"/>
+      <c r="B519" s="135"/>
+      <c r="C519" s="137"/>
+      <c r="D519" s="142"/>
       <c r="E519" s="75"/>
-      <c r="F519" s="63"/>
+      <c r="F519" s="61"/>
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
       <c r="I519" s="4"/>
@@ -15254,7 +15254,7 @@
       <c r="C520" s="132"/>
       <c r="D520" s="132"/>
       <c r="E520" s="76"/>
-      <c r="F520" s="30"/>
+      <c r="F520" s="63"/>
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
       <c r="I520" s="4"/>
@@ -15386,7 +15386,7 @@
       <c r="C526" s="133"/>
       <c r="D526" s="133"/>
       <c r="E526" s="73"/>
-      <c r="F526" s="61"/>
+      <c r="F526" s="30"/>
       <c r="G526" s="4"/>
       <c r="H526" s="4"/>
       <c r="I526" s="4"/>
@@ -15403,14 +15403,14 @@
       <c r="T526" s="4"/>
     </row>
     <row r="527" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A527" s="155" t="s">
+      <c r="A527" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B527" s="134"/>
-      <c r="C527" s="136"/>
-      <c r="D527" s="138"/>
+      <c r="B527" s="135"/>
+      <c r="C527" s="137"/>
+      <c r="D527" s="142"/>
       <c r="E527" s="75"/>
-      <c r="F527" s="63"/>
+      <c r="F527" s="61"/>
       <c r="G527" s="4"/>
       <c r="H527" s="4"/>
       <c r="I527" s="4"/>
@@ -15432,7 +15432,7 @@
       <c r="C528" s="132"/>
       <c r="D528" s="132"/>
       <c r="E528" s="76"/>
-      <c r="F528" s="30"/>
+      <c r="F528" s="63"/>
       <c r="G528" s="4"/>
       <c r="H528" s="4"/>
       <c r="I528" s="4"/>
@@ -15454,7 +15454,7 @@
       <c r="C529" s="133"/>
       <c r="D529" s="133"/>
       <c r="E529" s="73"/>
-      <c r="F529" s="39"/>
+      <c r="F529" s="30"/>
       <c r="G529" s="4"/>
       <c r="H529" s="4"/>
       <c r="I529" s="4"/>
@@ -15471,14 +15471,14 @@
       <c r="T529" s="4"/>
     </row>
     <row r="530" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="181" t="s">
+      <c r="A530" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="B530" s="157"/>
-      <c r="C530" s="158"/>
-      <c r="D530" s="179"/>
+      <c r="B530" s="159"/>
+      <c r="C530" s="160"/>
+      <c r="D530" s="175"/>
       <c r="E530" s="68"/>
-      <c r="F530" s="63"/>
+      <c r="F530" s="39"/>
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
       <c r="I530" s="4"/>
@@ -15500,7 +15500,7 @@
       <c r="C531" s="132"/>
       <c r="D531" s="132"/>
       <c r="E531" s="76"/>
-      <c r="F531" s="30"/>
+      <c r="F531" s="63"/>
       <c r="G531" s="4"/>
       <c r="H531" s="4"/>
       <c r="I531" s="4"/>
@@ -15654,7 +15654,7 @@
       <c r="C538" s="133"/>
       <c r="D538" s="133"/>
       <c r="E538" s="73"/>
-      <c r="F538" s="61"/>
+      <c r="F538" s="30"/>
       <c r="G538" s="4"/>
       <c r="H538" s="4"/>
       <c r="I538" s="4"/>
@@ -15671,14 +15671,14 @@
       <c r="T538" s="4"/>
     </row>
     <row r="539" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A539" s="155" t="s">
+      <c r="A539" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="B539" s="134"/>
-      <c r="C539" s="136"/>
-      <c r="D539" s="138"/>
+      <c r="B539" s="135"/>
+      <c r="C539" s="137"/>
+      <c r="D539" s="142"/>
       <c r="E539" s="75"/>
-      <c r="F539" s="63"/>
+      <c r="F539" s="61"/>
       <c r="G539" s="4"/>
       <c r="H539" s="4"/>
       <c r="I539" s="4"/>
@@ -15700,7 +15700,7 @@
       <c r="C540" s="132"/>
       <c r="D540" s="132"/>
       <c r="E540" s="76"/>
-      <c r="F540" s="30"/>
+      <c r="F540" s="63"/>
       <c r="G540" s="4"/>
       <c r="H540" s="4"/>
       <c r="I540" s="4"/>
@@ -15788,7 +15788,7 @@
       <c r="C544" s="133"/>
       <c r="D544" s="133"/>
       <c r="E544" s="73"/>
-      <c r="F544" s="61"/>
+      <c r="F544" s="30"/>
       <c r="G544" s="4"/>
       <c r="H544" s="4"/>
       <c r="I544" s="4"/>
@@ -15805,14 +15805,14 @@
       <c r="T544" s="4"/>
     </row>
     <row r="545" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A545" s="155" t="s">
+      <c r="A545" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="B545" s="134"/>
-      <c r="C545" s="136"/>
-      <c r="D545" s="138"/>
+      <c r="B545" s="135"/>
+      <c r="C545" s="137"/>
+      <c r="D545" s="142"/>
       <c r="E545" s="75"/>
-      <c r="F545" s="63"/>
+      <c r="F545" s="61"/>
       <c r="G545" s="4"/>
       <c r="H545" s="4"/>
       <c r="I545" s="4"/>
@@ -15834,7 +15834,7 @@
       <c r="C546" s="132"/>
       <c r="D546" s="132"/>
       <c r="E546" s="76"/>
-      <c r="F546" s="30"/>
+      <c r="F546" s="63"/>
       <c r="G546" s="4"/>
       <c r="H546" s="4"/>
       <c r="I546" s="4"/>
@@ -15900,7 +15900,7 @@
       <c r="C549" s="133"/>
       <c r="D549" s="133"/>
       <c r="E549" s="73"/>
-      <c r="F549" s="61"/>
+      <c r="F549" s="30"/>
       <c r="G549" s="4"/>
       <c r="H549" s="4"/>
       <c r="I549" s="4"/>
@@ -15917,14 +15917,14 @@
       <c r="T549" s="4"/>
     </row>
     <row r="550" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A550" s="130" t="s">
+      <c r="A550" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="B550" s="134"/>
-      <c r="C550" s="136"/>
-      <c r="D550" s="138"/>
+      <c r="B550" s="135"/>
+      <c r="C550" s="137"/>
+      <c r="D550" s="142"/>
       <c r="E550" s="75"/>
-      <c r="F550" s="63"/>
+      <c r="F550" s="61"/>
       <c r="G550" s="4"/>
       <c r="H550" s="4"/>
       <c r="I550" s="4"/>
@@ -15948,7 +15948,7 @@
       <c r="C551" s="132"/>
       <c r="D551" s="132"/>
       <c r="E551" s="76"/>
-      <c r="F551" s="30"/>
+      <c r="F551" s="63"/>
       <c r="G551" s="4"/>
       <c r="H551" s="4"/>
       <c r="I551" s="4"/>
@@ -15992,7 +15992,7 @@
       <c r="C553" s="133"/>
       <c r="D553" s="133"/>
       <c r="E553" s="73"/>
-      <c r="F553" s="77"/>
+      <c r="F553" s="30"/>
       <c r="G553" s="4"/>
       <c r="H553" s="4"/>
       <c r="I553" s="4"/>
@@ -16009,14 +16009,14 @@
       <c r="T553" s="4"/>
     </row>
     <row r="554" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A554" s="155" t="s">
+      <c r="A554" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="B554" s="134"/>
-      <c r="C554" s="136"/>
-      <c r="D554" s="138"/>
+      <c r="B554" s="135"/>
+      <c r="C554" s="137"/>
+      <c r="D554" s="142"/>
       <c r="E554" s="75"/>
-      <c r="F554" s="63"/>
+      <c r="F554" s="77"/>
       <c r="G554" s="4"/>
       <c r="H554" s="4"/>
       <c r="I554" s="4"/>
@@ -16038,7 +16038,7 @@
       <c r="C555" s="132"/>
       <c r="D555" s="132"/>
       <c r="E555" s="76"/>
-      <c r="F555" s="30"/>
+      <c r="F555" s="63"/>
       <c r="G555" s="4"/>
       <c r="H555" s="4"/>
       <c r="I555" s="4"/>
@@ -16104,7 +16104,7 @@
       <c r="C558" s="133"/>
       <c r="D558" s="133"/>
       <c r="E558" s="73"/>
-      <c r="F558" s="61"/>
+      <c r="F558" s="30"/>
       <c r="G558" s="4"/>
       <c r="H558" s="4"/>
       <c r="I558" s="4"/>
@@ -16121,14 +16121,14 @@
       <c r="T558" s="4"/>
     </row>
     <row r="559" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A559" s="155" t="s">
+      <c r="A559" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="B559" s="134"/>
-      <c r="C559" s="136"/>
-      <c r="D559" s="138"/>
+      <c r="B559" s="135"/>
+      <c r="C559" s="137"/>
+      <c r="D559" s="142"/>
       <c r="E559" s="75"/>
-      <c r="F559" s="63"/>
+      <c r="F559" s="61"/>
       <c r="G559" s="4"/>
       <c r="H559" s="4"/>
       <c r="I559" s="4"/>
@@ -16150,7 +16150,7 @@
       <c r="C560" s="132"/>
       <c r="D560" s="132"/>
       <c r="E560" s="76"/>
-      <c r="F560" s="30"/>
+      <c r="F560" s="63"/>
       <c r="G560" s="4"/>
       <c r="H560" s="4"/>
       <c r="I560" s="4"/>
@@ -16194,7 +16194,7 @@
       <c r="C562" s="133"/>
       <c r="D562" s="133"/>
       <c r="E562" s="73"/>
-      <c r="F562" s="61"/>
+      <c r="F562" s="30"/>
       <c r="G562" s="4"/>
       <c r="H562" s="4"/>
       <c r="I562" s="4"/>
@@ -16211,14 +16211,14 @@
       <c r="T562" s="4"/>
     </row>
     <row r="563" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A563" s="155" t="s">
+      <c r="A563" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="B563" s="134"/>
-      <c r="C563" s="136"/>
-      <c r="D563" s="138"/>
+      <c r="B563" s="135"/>
+      <c r="C563" s="137"/>
+      <c r="D563" s="142"/>
       <c r="E563" s="75"/>
-      <c r="F563" s="63"/>
+      <c r="F563" s="61"/>
       <c r="G563" s="4"/>
       <c r="H563" s="4"/>
       <c r="I563" s="4"/>
@@ -16240,7 +16240,7 @@
       <c r="C564" s="132"/>
       <c r="D564" s="132"/>
       <c r="E564" s="76"/>
-      <c r="F564" s="30"/>
+      <c r="F564" s="63"/>
       <c r="G564" s="4"/>
       <c r="H564" s="4"/>
       <c r="I564" s="4"/>
@@ -16350,7 +16350,7 @@
       <c r="C569" s="133"/>
       <c r="D569" s="133"/>
       <c r="E569" s="73"/>
-      <c r="F569" s="61"/>
+      <c r="F569" s="30"/>
       <c r="G569" s="4"/>
       <c r="H569" s="4"/>
       <c r="I569" s="4"/>
@@ -16367,14 +16367,14 @@
       <c r="T569" s="4"/>
     </row>
     <row r="570" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A570" s="155" t="s">
+      <c r="A570" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="B570" s="134"/>
-      <c r="C570" s="136"/>
-      <c r="D570" s="138"/>
+      <c r="B570" s="135"/>
+      <c r="C570" s="137"/>
+      <c r="D570" s="142"/>
       <c r="E570" s="75"/>
-      <c r="F570" s="63"/>
+      <c r="F570" s="61"/>
       <c r="G570" s="4"/>
       <c r="H570" s="4"/>
       <c r="I570" s="4"/>
@@ -16396,7 +16396,7 @@
       <c r="C571" s="132"/>
       <c r="D571" s="132"/>
       <c r="E571" s="76"/>
-      <c r="F571" s="30"/>
+      <c r="F571" s="63"/>
       <c r="G571" s="4"/>
       <c r="H571" s="4"/>
       <c r="I571" s="4"/>
@@ -16440,7 +16440,7 @@
       <c r="C573" s="133"/>
       <c r="D573" s="133"/>
       <c r="E573" s="73"/>
-      <c r="F573" s="61"/>
+      <c r="F573" s="30"/>
       <c r="G573" s="4"/>
       <c r="H573" s="4"/>
       <c r="I573" s="4"/>
@@ -16457,14 +16457,14 @@
       <c r="T573" s="4"/>
     </row>
     <row r="574" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A574" s="130" t="s">
+      <c r="A574" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="B574" s="134"/>
-      <c r="C574" s="136"/>
-      <c r="D574" s="138"/>
+      <c r="B574" s="135"/>
+      <c r="C574" s="137"/>
+      <c r="D574" s="142"/>
       <c r="E574" s="75"/>
-      <c r="F574" s="63"/>
+      <c r="F574" s="61"/>
       <c r="G574" s="4"/>
       <c r="H574" s="4"/>
       <c r="I574" s="4"/>
@@ -16486,7 +16486,7 @@
       <c r="C575" s="132"/>
       <c r="D575" s="132"/>
       <c r="E575" s="76"/>
-      <c r="F575" s="30"/>
+      <c r="F575" s="63"/>
       <c r="G575" s="4"/>
       <c r="H575" s="4"/>
       <c r="I575" s="4"/>
@@ -16552,7 +16552,7 @@
       <c r="C578" s="133"/>
       <c r="D578" s="133"/>
       <c r="E578" s="73"/>
-      <c r="F578" s="61"/>
+      <c r="F578" s="30"/>
       <c r="G578" s="4"/>
       <c r="H578" s="4"/>
       <c r="I578" s="4"/>
@@ -16569,14 +16569,14 @@
       <c r="T578" s="4"/>
     </row>
     <row r="579" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A579" s="155" t="s">
+      <c r="A579" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="B579" s="134"/>
-      <c r="C579" s="136"/>
-      <c r="D579" s="138"/>
+      <c r="B579" s="135"/>
+      <c r="C579" s="137"/>
+      <c r="D579" s="142"/>
       <c r="E579" s="75"/>
-      <c r="F579" s="63"/>
+      <c r="F579" s="61"/>
       <c r="G579" s="4"/>
       <c r="H579" s="4"/>
       <c r="I579" s="4"/>
@@ -16598,7 +16598,7 @@
       <c r="C580" s="132"/>
       <c r="D580" s="132"/>
       <c r="E580" s="76"/>
-      <c r="F580" s="30"/>
+      <c r="F580" s="63"/>
       <c r="G580" s="4"/>
       <c r="H580" s="4"/>
       <c r="I580" s="4"/>
@@ -16664,7 +16664,7 @@
       <c r="C583" s="133"/>
       <c r="D583" s="133"/>
       <c r="E583" s="73"/>
-      <c r="F583" s="61"/>
+      <c r="F583" s="30"/>
       <c r="G583" s="4"/>
       <c r="H583" s="4"/>
       <c r="I583" s="4"/>
@@ -16681,14 +16681,14 @@
       <c r="T583" s="4"/>
     </row>
     <row r="584" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A584" s="155" t="s">
+      <c r="A584" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B584" s="134"/>
-      <c r="C584" s="136"/>
-      <c r="D584" s="138"/>
+      <c r="B584" s="135"/>
+      <c r="C584" s="137"/>
+      <c r="D584" s="142"/>
       <c r="E584" s="75"/>
-      <c r="F584" s="63"/>
+      <c r="F584" s="61"/>
       <c r="G584" s="4"/>
       <c r="H584" s="4"/>
       <c r="I584" s="4"/>
@@ -16710,7 +16710,7 @@
       <c r="C585" s="132"/>
       <c r="D585" s="132"/>
       <c r="E585" s="76"/>
-      <c r="F585" s="30"/>
+      <c r="F585" s="63"/>
       <c r="G585" s="4"/>
       <c r="H585" s="4"/>
       <c r="I585" s="4"/>
@@ -16798,7 +16798,7 @@
       <c r="C589" s="133"/>
       <c r="D589" s="133"/>
       <c r="E589" s="73"/>
-      <c r="F589" s="61"/>
+      <c r="F589" s="30"/>
       <c r="G589" s="4"/>
       <c r="H589" s="4"/>
       <c r="I589" s="4"/>
@@ -16815,14 +16815,14 @@
       <c r="T589" s="4"/>
     </row>
     <row r="590" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A590" s="155" t="s">
+      <c r="A590" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="B590" s="134"/>
-      <c r="C590" s="136"/>
-      <c r="D590" s="138"/>
+      <c r="B590" s="135"/>
+      <c r="C590" s="137"/>
+      <c r="D590" s="142"/>
       <c r="E590" s="75"/>
-      <c r="F590" s="63"/>
+      <c r="F590" s="61"/>
       <c r="G590" s="4"/>
       <c r="H590" s="4"/>
       <c r="I590" s="4"/>
@@ -16844,7 +16844,7 @@
       <c r="C591" s="132"/>
       <c r="D591" s="132"/>
       <c r="E591" s="76"/>
-      <c r="F591" s="30"/>
+      <c r="F591" s="63"/>
       <c r="G591" s="4"/>
       <c r="H591" s="4"/>
       <c r="I591" s="4"/>
@@ -16932,7 +16932,7 @@
       <c r="C595" s="133"/>
       <c r="D595" s="133"/>
       <c r="E595" s="73"/>
-      <c r="F595" s="61"/>
+      <c r="F595" s="30"/>
       <c r="G595" s="4"/>
       <c r="H595" s="4"/>
       <c r="I595" s="4"/>
@@ -16949,14 +16949,14 @@
       <c r="T595" s="4"/>
     </row>
     <row r="596" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A596" s="130" t="s">
+      <c r="A596" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="B596" s="134"/>
-      <c r="C596" s="136"/>
-      <c r="D596" s="138"/>
+      <c r="B596" s="135"/>
+      <c r="C596" s="137"/>
+      <c r="D596" s="142"/>
       <c r="E596" s="75"/>
-      <c r="F596" s="63"/>
+      <c r="F596" s="61"/>
       <c r="G596" s="4"/>
       <c r="H596" s="4"/>
       <c r="I596" s="4"/>
@@ -16978,7 +16978,7 @@
       <c r="C597" s="132"/>
       <c r="D597" s="132"/>
       <c r="E597" s="76"/>
-      <c r="F597" s="30"/>
+      <c r="F597" s="63"/>
       <c r="G597" s="4"/>
       <c r="H597" s="4"/>
       <c r="I597" s="4"/>
@@ -17066,7 +17066,7 @@
       <c r="C601" s="133"/>
       <c r="D601" s="133"/>
       <c r="E601" s="73"/>
-      <c r="F601" s="61"/>
+      <c r="F601" s="30"/>
       <c r="G601" s="4"/>
       <c r="H601" s="4"/>
       <c r="I601" s="4"/>
@@ -17083,14 +17083,14 @@
       <c r="T601" s="4"/>
     </row>
     <row r="602" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A602" s="155" t="s">
+      <c r="A602" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="B602" s="134"/>
-      <c r="C602" s="136"/>
-      <c r="D602" s="138"/>
+      <c r="B602" s="135"/>
+      <c r="C602" s="137"/>
+      <c r="D602" s="142"/>
       <c r="E602" s="75"/>
-      <c r="F602" s="63"/>
+      <c r="F602" s="61"/>
       <c r="G602" s="4"/>
       <c r="H602" s="4"/>
       <c r="I602" s="4"/>
@@ -17112,7 +17112,7 @@
       <c r="C603" s="132"/>
       <c r="D603" s="132"/>
       <c r="E603" s="76"/>
-      <c r="F603" s="30"/>
+      <c r="F603" s="63"/>
       <c r="G603" s="4"/>
       <c r="H603" s="4"/>
       <c r="I603" s="4"/>
@@ -17180,7 +17180,7 @@
       <c r="C606" s="129"/>
       <c r="D606" s="129"/>
       <c r="E606" s="73"/>
-      <c r="F606" s="129"/>
+      <c r="F606" s="30"/>
       <c r="G606" s="4"/>
       <c r="H606" s="4"/>
       <c r="I606" s="4"/>
@@ -17197,14 +17197,14 @@
       <c r="T606" s="4"/>
     </row>
     <row r="607" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A607" s="181" t="s">
+      <c r="A607" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="B607" s="157"/>
-      <c r="C607" s="158"/>
-      <c r="D607" s="179"/>
+      <c r="B607" s="159"/>
+      <c r="C607" s="160"/>
+      <c r="D607" s="175"/>
       <c r="E607" s="129"/>
-      <c r="F607" s="30"/>
+      <c r="F607" s="129"/>
       <c r="G607" s="4"/>
       <c r="H607" s="4"/>
       <c r="I607" s="4"/>
@@ -17270,7 +17270,7 @@
       <c r="C610" s="133"/>
       <c r="D610" s="133"/>
       <c r="E610" s="73"/>
-      <c r="F610" s="61"/>
+      <c r="F610" s="30"/>
       <c r="G610" s="4"/>
       <c r="H610" s="4"/>
       <c r="I610" s="4"/>
@@ -17287,14 +17287,14 @@
       <c r="T610" s="4"/>
     </row>
     <row r="611" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A611" s="130" t="s">
+      <c r="A611" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B611" s="134"/>
-      <c r="C611" s="136"/>
-      <c r="D611" s="138"/>
+      <c r="B611" s="135"/>
+      <c r="C611" s="137"/>
+      <c r="D611" s="142"/>
       <c r="E611" s="75"/>
-      <c r="F611" s="63"/>
+      <c r="F611" s="61"/>
       <c r="G611" s="4"/>
       <c r="H611" s="4"/>
       <c r="I611" s="4"/>
@@ -17316,7 +17316,7 @@
       <c r="C612" s="132"/>
       <c r="D612" s="132"/>
       <c r="E612" s="76"/>
-      <c r="F612" s="30"/>
+      <c r="F612" s="63"/>
       <c r="G612" s="4"/>
       <c r="H612" s="4"/>
       <c r="I612" s="4"/>
@@ -17492,7 +17492,7 @@
       <c r="C620" s="133"/>
       <c r="D620" s="133"/>
       <c r="E620" s="73"/>
-      <c r="F620" s="61"/>
+      <c r="F620" s="30"/>
       <c r="G620" s="4"/>
       <c r="H620" s="4"/>
       <c r="I620" s="4"/>
@@ -17509,14 +17509,14 @@
       <c r="T620" s="4"/>
     </row>
     <row r="621" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A621" s="130" t="s">
+      <c r="A621" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="B621" s="134"/>
-      <c r="C621" s="136"/>
-      <c r="D621" s="138"/>
+      <c r="B621" s="135"/>
+      <c r="C621" s="137"/>
+      <c r="D621" s="142"/>
       <c r="E621" s="75"/>
-      <c r="F621" s="63"/>
+      <c r="F621" s="61"/>
       <c r="G621" s="4"/>
       <c r="H621" s="4"/>
       <c r="I621" s="4"/>
@@ -17538,7 +17538,7 @@
       <c r="C622" s="132"/>
       <c r="D622" s="132"/>
       <c r="E622" s="76"/>
-      <c r="F622" s="30"/>
+      <c r="F622" s="63"/>
       <c r="G622" s="4"/>
       <c r="H622" s="4"/>
       <c r="I622" s="4"/>
@@ -17560,7 +17560,7 @@
       <c r="C623" s="133"/>
       <c r="D623" s="133"/>
       <c r="E623" s="73"/>
-      <c r="F623" s="61"/>
+      <c r="F623" s="30"/>
       <c r="G623" s="4"/>
       <c r="H623" s="4"/>
       <c r="I623" s="4"/>
@@ -17577,14 +17577,14 @@
       <c r="T623" s="4"/>
     </row>
     <row r="624" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A624" s="130" t="s">
+      <c r="A624" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="B624" s="134"/>
-      <c r="C624" s="136"/>
-      <c r="D624" s="138"/>
+      <c r="B624" s="135"/>
+      <c r="C624" s="137"/>
+      <c r="D624" s="142"/>
       <c r="E624" s="75"/>
-      <c r="F624" s="63"/>
+      <c r="F624" s="61"/>
       <c r="G624" s="4"/>
       <c r="H624" s="4"/>
       <c r="I624" s="4"/>
@@ -17606,7 +17606,7 @@
       <c r="C625" s="132"/>
       <c r="D625" s="132"/>
       <c r="E625" s="76"/>
-      <c r="F625" s="30"/>
+      <c r="F625" s="63"/>
       <c r="G625" s="4"/>
       <c r="H625" s="4"/>
       <c r="I625" s="4"/>
@@ -17650,7 +17650,7 @@
       <c r="C627" s="133"/>
       <c r="D627" s="133"/>
       <c r="E627" s="73"/>
-      <c r="F627" s="61"/>
+      <c r="F627" s="30"/>
       <c r="G627" s="4"/>
       <c r="H627" s="4"/>
       <c r="I627" s="4"/>
@@ -17667,14 +17667,14 @@
       <c r="T627" s="4"/>
     </row>
     <row r="628" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A628" s="130" t="s">
+      <c r="A628" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="B628" s="134"/>
-      <c r="C628" s="136"/>
-      <c r="D628" s="138"/>
+      <c r="B628" s="135"/>
+      <c r="C628" s="137"/>
+      <c r="D628" s="142"/>
       <c r="E628" s="75"/>
-      <c r="F628" s="63"/>
+      <c r="F628" s="61"/>
       <c r="G628" s="4"/>
       <c r="H628" s="4"/>
       <c r="I628" s="4"/>
@@ -17696,7 +17696,7 @@
       <c r="C629" s="132"/>
       <c r="D629" s="132"/>
       <c r="E629" s="76"/>
-      <c r="F629" s="30"/>
+      <c r="F629" s="63"/>
       <c r="G629" s="4"/>
       <c r="H629" s="4"/>
       <c r="I629" s="4"/>
@@ -17784,7 +17784,7 @@
       <c r="C633" s="133"/>
       <c r="D633" s="133"/>
       <c r="E633" s="73"/>
-      <c r="F633" s="61"/>
+      <c r="F633" s="30"/>
       <c r="G633" s="4"/>
       <c r="H633" s="4"/>
       <c r="I633" s="4"/>
@@ -17801,14 +17801,14 @@
       <c r="T633" s="4"/>
     </row>
     <row r="634" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A634" s="130" t="s">
+      <c r="A634" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="B634" s="134"/>
-      <c r="C634" s="136"/>
-      <c r="D634" s="138"/>
+      <c r="B634" s="135"/>
+      <c r="C634" s="137"/>
+      <c r="D634" s="142"/>
       <c r="E634" s="75"/>
-      <c r="F634" s="63"/>
+      <c r="F634" s="61"/>
       <c r="G634" s="4"/>
       <c r="H634" s="4"/>
       <c r="I634" s="4"/>
@@ -17830,7 +17830,7 @@
       <c r="C635" s="132"/>
       <c r="D635" s="132"/>
       <c r="E635" s="76"/>
-      <c r="F635" s="30"/>
+      <c r="F635" s="63"/>
       <c r="G635" s="4"/>
       <c r="H635" s="4"/>
       <c r="I635" s="4"/>
@@ -17940,7 +17940,7 @@
       <c r="C640" s="133"/>
       <c r="D640" s="133"/>
       <c r="E640" s="73"/>
-      <c r="F640" s="61"/>
+      <c r="F640" s="30"/>
       <c r="G640" s="4"/>
       <c r="H640" s="4"/>
       <c r="I640" s="4"/>
@@ -17957,14 +17957,14 @@
       <c r="T640" s="4"/>
     </row>
     <row r="641" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A641" s="130" t="s">
+      <c r="A641" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="B641" s="134"/>
-      <c r="C641" s="136"/>
-      <c r="D641" s="138"/>
+      <c r="B641" s="135"/>
+      <c r="C641" s="137"/>
+      <c r="D641" s="142"/>
       <c r="E641" s="75"/>
-      <c r="F641" s="63"/>
+      <c r="F641" s="61"/>
       <c r="G641" s="4"/>
       <c r="H641" s="4"/>
       <c r="I641" s="4"/>
@@ -17986,7 +17986,7 @@
       <c r="C642" s="132"/>
       <c r="D642" s="132"/>
       <c r="E642" s="76"/>
-      <c r="F642" s="30"/>
+      <c r="F642" s="63"/>
       <c r="G642" s="4"/>
       <c r="H642" s="4"/>
       <c r="I642" s="4"/>
@@ -18140,7 +18140,7 @@
       <c r="C649" s="133"/>
       <c r="D649" s="133"/>
       <c r="E649" s="73"/>
-      <c r="F649" s="61"/>
+      <c r="F649" s="30"/>
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
       <c r="I649" s="4"/>
@@ -18157,14 +18157,14 @@
       <c r="T649" s="4"/>
     </row>
     <row r="650" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A650" s="130" t="s">
+      <c r="A650" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="B650" s="134"/>
-      <c r="C650" s="136"/>
-      <c r="D650" s="138"/>
+      <c r="B650" s="135"/>
+      <c r="C650" s="137"/>
+      <c r="D650" s="142"/>
       <c r="E650" s="75"/>
-      <c r="F650" s="63"/>
+      <c r="F650" s="61"/>
       <c r="G650" s="4"/>
       <c r="H650" s="4"/>
       <c r="I650" s="4"/>
@@ -18186,7 +18186,7 @@
       <c r="C651" s="132"/>
       <c r="D651" s="132"/>
       <c r="E651" s="76"/>
-      <c r="F651" s="30"/>
+      <c r="F651" s="63"/>
       <c r="G651" s="4"/>
       <c r="H651" s="4"/>
       <c r="I651" s="4"/>
@@ -18254,7 +18254,7 @@
       <c r="C654" s="129"/>
       <c r="D654" s="129"/>
       <c r="E654" s="73"/>
-      <c r="F654" s="129"/>
+      <c r="F654" s="30"/>
       <c r="G654" s="4"/>
       <c r="H654" s="4"/>
       <c r="I654" s="4"/>
@@ -18271,14 +18271,14 @@
       <c r="T654" s="4"/>
     </row>
     <row r="655" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A655" s="181" t="s">
+      <c r="A655" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="B655" s="157"/>
-      <c r="C655" s="158"/>
-      <c r="D655" s="179"/>
+      <c r="B655" s="159"/>
+      <c r="C655" s="160"/>
+      <c r="D655" s="175"/>
       <c r="E655" s="129"/>
-      <c r="F655" s="30"/>
+      <c r="F655" s="129"/>
       <c r="G655" s="4"/>
       <c r="H655" s="4"/>
       <c r="I655" s="4"/>
@@ -18366,7 +18366,7 @@
       <c r="C659" s="133"/>
       <c r="D659" s="133"/>
       <c r="E659" s="73"/>
-      <c r="F659" s="61"/>
+      <c r="F659" s="30"/>
       <c r="G659" s="4"/>
       <c r="H659" s="4"/>
       <c r="I659" s="4"/>
@@ -18383,14 +18383,14 @@
       <c r="T659" s="4"/>
     </row>
     <row r="660" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A660" s="130" t="s">
+      <c r="A660" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="B660" s="134"/>
-      <c r="C660" s="136"/>
-      <c r="D660" s="138"/>
+      <c r="B660" s="135"/>
+      <c r="C660" s="137"/>
+      <c r="D660" s="142"/>
       <c r="E660" s="75"/>
-      <c r="F660" s="63"/>
+      <c r="F660" s="61"/>
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
       <c r="I660" s="4"/>
@@ -18412,7 +18412,7 @@
       <c r="C661" s="132"/>
       <c r="D661" s="132"/>
       <c r="E661" s="76"/>
-      <c r="F661" s="30"/>
+      <c r="F661" s="63"/>
       <c r="G661" s="4"/>
       <c r="H661" s="4"/>
       <c r="I661" s="4"/>
@@ -18478,7 +18478,7 @@
       <c r="C664" s="133"/>
       <c r="D664" s="133"/>
       <c r="E664" s="73"/>
-      <c r="F664" s="61"/>
+      <c r="F664" s="30"/>
       <c r="G664" s="4"/>
       <c r="H664" s="4"/>
       <c r="I664" s="4"/>
@@ -18495,14 +18495,14 @@
       <c r="T664" s="4"/>
     </row>
     <row r="665" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A665" s="130" t="s">
+      <c r="A665" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B665" s="134"/>
-      <c r="C665" s="136"/>
-      <c r="D665" s="138"/>
+      <c r="B665" s="135"/>
+      <c r="C665" s="137"/>
+      <c r="D665" s="142"/>
       <c r="E665" s="75"/>
-      <c r="F665" s="63"/>
+      <c r="F665" s="61"/>
       <c r="G665" s="4"/>
       <c r="H665" s="4"/>
       <c r="I665" s="4"/>
@@ -18524,7 +18524,7 @@
       <c r="C666" s="132"/>
       <c r="D666" s="132"/>
       <c r="E666" s="76"/>
-      <c r="F666" s="30"/>
+      <c r="F666" s="63"/>
       <c r="G666" s="4"/>
       <c r="H666" s="4"/>
       <c r="I666" s="4"/>
@@ -18678,7 +18678,7 @@
       <c r="C673" s="133"/>
       <c r="D673" s="133"/>
       <c r="E673" s="73"/>
-      <c r="F673" s="61"/>
+      <c r="F673" s="30"/>
       <c r="G673" s="4"/>
       <c r="H673" s="4"/>
       <c r="I673" s="4"/>
@@ -18695,14 +18695,14 @@
       <c r="T673" s="4"/>
     </row>
     <row r="674" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A674" s="156" t="s">
+      <c r="A674" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="B674" s="193"/>
-      <c r="C674" s="194"/>
-      <c r="D674" s="195"/>
+      <c r="B674" s="202"/>
+      <c r="C674" s="203"/>
+      <c r="D674" s="204"/>
       <c r="E674" s="75"/>
-      <c r="F674" s="79"/>
+      <c r="F674" s="61"/>
       <c r="G674" s="4"/>
       <c r="H674" s="4"/>
       <c r="I674" s="4"/>
@@ -18724,11 +18724,11 @@
     </row>
     <row r="675" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A675" s="132"/>
-      <c r="B675" s="184"/>
-      <c r="C675" s="184"/>
-      <c r="D675" s="184"/>
+      <c r="B675" s="193"/>
+      <c r="C675" s="193"/>
+      <c r="D675" s="193"/>
       <c r="E675" s="78"/>
-      <c r="F675" s="80"/>
+      <c r="F675" s="79"/>
       <c r="G675" s="4"/>
       <c r="H675" s="4"/>
       <c r="I675" s="4"/>
@@ -18750,9 +18750,9 @@
     </row>
     <row r="676" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A676" s="132"/>
-      <c r="B676" s="184"/>
-      <c r="C676" s="184"/>
-      <c r="D676" s="184"/>
+      <c r="B676" s="193"/>
+      <c r="C676" s="193"/>
+      <c r="D676" s="193"/>
       <c r="E676" s="76"/>
       <c r="F676" s="80"/>
       <c r="G676" s="4"/>
@@ -18776,9 +18776,9 @@
     </row>
     <row r="677" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A677" s="132"/>
-      <c r="B677" s="184"/>
-      <c r="C677" s="184"/>
-      <c r="D677" s="184"/>
+      <c r="B677" s="193"/>
+      <c r="C677" s="193"/>
+      <c r="D677" s="193"/>
       <c r="E677" s="76"/>
       <c r="F677" s="80"/>
       <c r="G677" s="4"/>
@@ -18802,9 +18802,9 @@
     </row>
     <row r="678" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A678" s="132"/>
-      <c r="B678" s="184"/>
-      <c r="C678" s="184"/>
-      <c r="D678" s="184"/>
+      <c r="B678" s="193"/>
+      <c r="C678" s="193"/>
+      <c r="D678" s="193"/>
       <c r="E678" s="76"/>
       <c r="F678" s="80"/>
       <c r="G678" s="4"/>
@@ -18828,11 +18828,11 @@
     </row>
     <row r="679" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A679" s="133"/>
-      <c r="B679" s="185"/>
-      <c r="C679" s="185"/>
-      <c r="D679" s="185"/>
+      <c r="B679" s="194"/>
+      <c r="C679" s="194"/>
+      <c r="D679" s="194"/>
       <c r="E679" s="76"/>
-      <c r="F679" s="82"/>
+      <c r="F679" s="80"/>
       <c r="G679" s="4"/>
       <c r="H679" s="4"/>
       <c r="I679" s="4"/>
@@ -18853,14 +18853,14 @@
       <c r="X679" s="4"/>
     </row>
     <row r="680" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A680" s="130" t="s">
+      <c r="A680" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="B680" s="134"/>
-      <c r="C680" s="136"/>
-      <c r="D680" s="138"/>
+      <c r="B680" s="135"/>
+      <c r="C680" s="137"/>
+      <c r="D680" s="142"/>
       <c r="E680" s="81"/>
-      <c r="F680" s="63"/>
+      <c r="F680" s="82"/>
       <c r="G680" s="4"/>
       <c r="H680" s="4"/>
       <c r="I680" s="4"/>
@@ -18882,7 +18882,7 @@
       <c r="C681" s="132"/>
       <c r="D681" s="132"/>
       <c r="E681" s="76"/>
-      <c r="F681" s="30"/>
+      <c r="F681" s="63"/>
       <c r="G681" s="4"/>
       <c r="H681" s="4"/>
       <c r="I681" s="4"/>
@@ -18948,7 +18948,7 @@
       <c r="C684" s="133"/>
       <c r="D684" s="133"/>
       <c r="E684" s="73"/>
-      <c r="F684" s="61"/>
+      <c r="F684" s="30"/>
       <c r="G684" s="4"/>
       <c r="H684" s="4"/>
       <c r="I684" s="4"/>
@@ -18965,14 +18965,14 @@
       <c r="T684" s="4"/>
     </row>
     <row r="685" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A685" s="181" t="s">
+      <c r="A685" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="B685" s="134"/>
-      <c r="C685" s="136"/>
-      <c r="D685" s="138"/>
+      <c r="B685" s="135"/>
+      <c r="C685" s="137"/>
+      <c r="D685" s="142"/>
       <c r="E685" s="75"/>
-      <c r="F685" s="63"/>
+      <c r="F685" s="61"/>
       <c r="G685" s="4"/>
       <c r="H685" s="4"/>
       <c r="I685" s="4"/>
@@ -18994,7 +18994,7 @@
       <c r="C686" s="132"/>
       <c r="D686" s="132"/>
       <c r="E686" s="76"/>
-      <c r="F686" s="30"/>
+      <c r="F686" s="63"/>
       <c r="G686" s="4"/>
       <c r="H686" s="4"/>
       <c r="I686" s="4"/>
@@ -19038,7 +19038,7 @@
       <c r="C688" s="133"/>
       <c r="D688" s="133"/>
       <c r="E688" s="73"/>
-      <c r="F688" s="61"/>
+      <c r="F688" s="30"/>
       <c r="G688" s="4"/>
       <c r="H688" s="4"/>
       <c r="I688" s="4"/>
@@ -19055,14 +19055,14 @@
       <c r="T688" s="4"/>
     </row>
     <row r="689" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A689" s="196" t="s">
+      <c r="A689" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="B689" s="157"/>
-      <c r="C689" s="158"/>
-      <c r="D689" s="179"/>
+      <c r="B689" s="159"/>
+      <c r="C689" s="160"/>
+      <c r="D689" s="175"/>
       <c r="E689" s="75"/>
-      <c r="F689" s="63"/>
+      <c r="F689" s="61"/>
       <c r="G689" s="4"/>
       <c r="H689" s="4"/>
       <c r="I689" s="4"/>
@@ -19079,12 +19079,12 @@
       <c r="T689" s="4"/>
     </row>
     <row r="690" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A690" s="197"/>
+      <c r="A690" s="206"/>
       <c r="B690" s="132"/>
       <c r="C690" s="132"/>
       <c r="D690" s="132"/>
       <c r="E690" s="46"/>
-      <c r="F690" s="30"/>
+      <c r="F690" s="63"/>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
       <c r="I690" s="4"/>
@@ -19101,7 +19101,7 @@
       <c r="T690" s="4"/>
     </row>
     <row r="691" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A691" s="197"/>
+      <c r="A691" s="206"/>
       <c r="B691" s="132"/>
       <c r="C691" s="132"/>
       <c r="D691" s="132"/>
@@ -19123,7 +19123,7 @@
       <c r="T691" s="4"/>
     </row>
     <row r="692" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A692" s="197"/>
+      <c r="A692" s="206"/>
       <c r="B692" s="132"/>
       <c r="C692" s="132"/>
       <c r="D692" s="132"/>
@@ -19145,7 +19145,7 @@
       <c r="T692" s="4"/>
     </row>
     <row r="693" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A693" s="197"/>
+      <c r="A693" s="206"/>
       <c r="B693" s="132"/>
       <c r="C693" s="132"/>
       <c r="D693" s="132"/>
@@ -19167,7 +19167,7 @@
       <c r="T693" s="4"/>
     </row>
     <row r="694" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A694" s="197"/>
+      <c r="A694" s="206"/>
       <c r="B694" s="132"/>
       <c r="C694" s="132"/>
       <c r="D694" s="132"/>
@@ -19189,10 +19189,10 @@
       <c r="T694" s="4"/>
     </row>
     <row r="695" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A695" s="198"/>
-      <c r="B695" s="199"/>
-      <c r="C695" s="199"/>
-      <c r="D695" s="199"/>
+      <c r="A695" s="207"/>
+      <c r="B695" s="208"/>
+      <c r="C695" s="208"/>
+      <c r="D695" s="208"/>
       <c r="E695" s="24"/>
       <c r="F695" s="30"/>
       <c r="G695" s="4"/>
@@ -19218,7 +19218,7 @@
       <c r="C696" s="127"/>
       <c r="D696" s="127"/>
       <c r="E696" s="24"/>
-      <c r="F696" s="127"/>
+      <c r="F696" s="30"/>
       <c r="G696" s="4"/>
       <c r="H696" s="4"/>
       <c r="I696" s="4"/>
@@ -19235,14 +19235,14 @@
       <c r="T696" s="4"/>
     </row>
     <row r="697" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A697" s="130" t="s">
+      <c r="A697" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="B697" s="134"/>
-      <c r="C697" s="183"/>
-      <c r="D697" s="186"/>
+      <c r="B697" s="135"/>
+      <c r="C697" s="191"/>
+      <c r="D697" s="195"/>
       <c r="E697" s="127"/>
-      <c r="F697" s="30"/>
+      <c r="F697" s="127"/>
       <c r="G697" s="4"/>
       <c r="H697" s="4"/>
       <c r="I697" s="4"/>
@@ -19261,8 +19261,8 @@
     <row r="698" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A698" s="132"/>
       <c r="B698" s="132"/>
-      <c r="C698" s="184"/>
-      <c r="D698" s="184"/>
+      <c r="C698" s="193"/>
+      <c r="D698" s="193"/>
       <c r="E698" s="73"/>
       <c r="F698" s="30"/>
       <c r="G698" s="4"/>
@@ -19283,8 +19283,8 @@
     <row r="699" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A699" s="132"/>
       <c r="B699" s="132"/>
-      <c r="C699" s="184"/>
-      <c r="D699" s="184"/>
+      <c r="C699" s="193"/>
+      <c r="D699" s="193"/>
       <c r="E699" s="73"/>
       <c r="F699" s="30"/>
       <c r="G699" s="4"/>
@@ -19305,10 +19305,10 @@
     <row r="700" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A700" s="133"/>
       <c r="B700" s="133"/>
-      <c r="C700" s="185"/>
-      <c r="D700" s="185"/>
+      <c r="C700" s="194"/>
+      <c r="D700" s="194"/>
       <c r="E700" s="73"/>
-      <c r="F700" s="61"/>
+      <c r="F700" s="30"/>
       <c r="G700" s="4"/>
       <c r="H700" s="4"/>
       <c r="I700" s="4"/>
@@ -19325,14 +19325,14 @@
       <c r="T700" s="4"/>
     </row>
     <row r="701" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A701" s="130" t="s">
+      <c r="A701" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="B701" s="134"/>
-      <c r="C701" s="136"/>
-      <c r="D701" s="138"/>
+      <c r="B701" s="135"/>
+      <c r="C701" s="137"/>
+      <c r="D701" s="142"/>
       <c r="E701" s="75"/>
-      <c r="F701" s="63"/>
+      <c r="F701" s="61"/>
       <c r="G701" s="4"/>
       <c r="H701" s="4"/>
       <c r="I701" s="4"/>
@@ -19354,7 +19354,7 @@
       <c r="C702" s="132"/>
       <c r="D702" s="132"/>
       <c r="E702" s="46"/>
-      <c r="F702" s="30"/>
+      <c r="F702" s="63"/>
       <c r="G702" s="4"/>
       <c r="H702" s="4"/>
       <c r="I702" s="4"/>
@@ -19464,7 +19464,7 @@
       <c r="C707" s="133"/>
       <c r="D707" s="133"/>
       <c r="E707" s="24"/>
-      <c r="F707" s="61"/>
+      <c r="F707" s="30"/>
       <c r="G707" s="4"/>
       <c r="H707" s="4"/>
       <c r="I707" s="4"/>
@@ -19481,14 +19481,14 @@
       <c r="T707" s="4"/>
     </row>
     <row r="708" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A708" s="130" t="s">
+      <c r="A708" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="B708" s="134"/>
-      <c r="C708" s="136"/>
-      <c r="D708" s="138"/>
+      <c r="B708" s="135"/>
+      <c r="C708" s="137"/>
+      <c r="D708" s="142"/>
       <c r="E708" s="26"/>
-      <c r="F708" s="63"/>
+      <c r="F708" s="61"/>
       <c r="G708" s="4"/>
       <c r="H708" s="4"/>
       <c r="I708" s="4"/>
@@ -19510,7 +19510,7 @@
       <c r="C709" s="132"/>
       <c r="D709" s="132"/>
       <c r="E709" s="46"/>
-      <c r="F709" s="30"/>
+      <c r="F709" s="63"/>
       <c r="G709" s="4"/>
       <c r="H709" s="4"/>
       <c r="I709" s="4"/>
@@ -19554,7 +19554,7 @@
       <c r="C711" s="133"/>
       <c r="D711" s="133"/>
       <c r="E711" s="24"/>
-      <c r="F711" s="61"/>
+      <c r="F711" s="30"/>
       <c r="G711" s="4"/>
       <c r="H711" s="4"/>
       <c r="I711" s="4"/>
@@ -19571,14 +19571,14 @@
       <c r="T711" s="4"/>
     </row>
     <row r="712" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A712" s="130" t="s">
+      <c r="A712" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="B712" s="134"/>
-      <c r="C712" s="136"/>
-      <c r="D712" s="138"/>
+      <c r="B712" s="135"/>
+      <c r="C712" s="137"/>
+      <c r="D712" s="142"/>
       <c r="E712" s="26"/>
-      <c r="F712" s="63"/>
+      <c r="F712" s="61"/>
       <c r="G712" s="4"/>
       <c r="H712" s="4"/>
       <c r="I712" s="4"/>
@@ -19600,7 +19600,7 @@
       <c r="C713" s="132"/>
       <c r="D713" s="132"/>
       <c r="E713" s="46"/>
-      <c r="F713" s="30"/>
+      <c r="F713" s="63"/>
       <c r="G713" s="4"/>
       <c r="H713" s="4"/>
       <c r="I713" s="4"/>
@@ -19710,7 +19710,7 @@
       <c r="C718" s="133"/>
       <c r="D718" s="133"/>
       <c r="E718" s="24"/>
-      <c r="F718" s="61"/>
+      <c r="F718" s="30"/>
       <c r="G718" s="4"/>
       <c r="H718" s="4"/>
       <c r="I718" s="4"/>
@@ -19727,14 +19727,14 @@
       <c r="T718" s="4"/>
     </row>
     <row r="719" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A719" s="130" t="s">
+      <c r="A719" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="B719" s="134"/>
-      <c r="C719" s="136"/>
-      <c r="D719" s="138"/>
+      <c r="B719" s="135"/>
+      <c r="C719" s="137"/>
+      <c r="D719" s="142"/>
       <c r="E719" s="26"/>
-      <c r="F719" s="63"/>
+      <c r="F719" s="61"/>
       <c r="G719" s="4"/>
       <c r="H719" s="4"/>
       <c r="I719" s="4"/>
@@ -19756,7 +19756,7 @@
       <c r="C720" s="132"/>
       <c r="D720" s="132"/>
       <c r="E720" s="46"/>
-      <c r="F720" s="30"/>
+      <c r="F720" s="63"/>
       <c r="G720" s="4"/>
       <c r="H720" s="4"/>
       <c r="I720" s="4"/>
@@ -19822,7 +19822,7 @@
       <c r="C723" s="133"/>
       <c r="D723" s="133"/>
       <c r="E723" s="24"/>
-      <c r="F723" s="61"/>
+      <c r="F723" s="30"/>
       <c r="G723" s="4"/>
       <c r="H723" s="4"/>
       <c r="I723" s="4"/>
@@ -19839,14 +19839,14 @@
       <c r="T723" s="4"/>
     </row>
     <row r="724" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A724" s="130" t="s">
+      <c r="A724" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="B724" s="134"/>
-      <c r="C724" s="136"/>
-      <c r="D724" s="138"/>
+      <c r="B724" s="135"/>
+      <c r="C724" s="137"/>
+      <c r="D724" s="142"/>
       <c r="E724" s="26"/>
-      <c r="F724" s="63"/>
+      <c r="F724" s="61"/>
       <c r="G724" s="4"/>
       <c r="H724" s="4"/>
       <c r="I724" s="4"/>
@@ -19868,7 +19868,7 @@
       <c r="C725" s="132"/>
       <c r="D725" s="132"/>
       <c r="E725" s="46"/>
-      <c r="F725" s="30"/>
+      <c r="F725" s="63"/>
       <c r="G725" s="4"/>
       <c r="H725" s="4"/>
       <c r="I725" s="4"/>
@@ -19934,7 +19934,7 @@
       <c r="C728" s="133"/>
       <c r="D728" s="133"/>
       <c r="E728" s="24"/>
-      <c r="F728" s="61"/>
+      <c r="F728" s="30"/>
       <c r="G728" s="4"/>
       <c r="H728" s="4"/>
       <c r="I728" s="4"/>
@@ -19951,14 +19951,14 @@
       <c r="T728" s="4"/>
     </row>
     <row r="729" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A729" s="130" t="s">
+      <c r="A729" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="B729" s="134"/>
-      <c r="C729" s="136"/>
-      <c r="D729" s="138"/>
+      <c r="B729" s="135"/>
+      <c r="C729" s="137"/>
+      <c r="D729" s="142"/>
       <c r="E729" s="26"/>
-      <c r="F729" s="63"/>
+      <c r="F729" s="61"/>
       <c r="G729" s="4"/>
       <c r="H729" s="4"/>
       <c r="I729" s="4"/>
@@ -19980,7 +19980,7 @@
       <c r="C730" s="132"/>
       <c r="D730" s="132"/>
       <c r="E730" s="46"/>
-      <c r="F730" s="30"/>
+      <c r="F730" s="63"/>
       <c r="G730" s="4"/>
       <c r="H730" s="4"/>
       <c r="I730" s="4"/>
@@ -20024,7 +20024,7 @@
       <c r="C732" s="133"/>
       <c r="D732" s="133"/>
       <c r="E732" s="24"/>
-      <c r="F732" s="61"/>
+      <c r="F732" s="30"/>
       <c r="G732" s="4"/>
       <c r="H732" s="4"/>
       <c r="I732" s="4"/>
@@ -20041,14 +20041,14 @@
       <c r="T732" s="4"/>
     </row>
     <row r="733" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A733" s="181" t="s">
+      <c r="A733" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B733" s="134"/>
-      <c r="C733" s="136"/>
-      <c r="D733" s="138"/>
+      <c r="B733" s="135"/>
+      <c r="C733" s="137"/>
+      <c r="D733" s="142"/>
       <c r="E733" s="26"/>
-      <c r="F733" s="63"/>
+      <c r="F733" s="61"/>
       <c r="G733" s="4"/>
       <c r="H733" s="4"/>
       <c r="I733" s="4"/>
@@ -20070,7 +20070,7 @@
       <c r="C734" s="132"/>
       <c r="D734" s="132"/>
       <c r="E734" s="46"/>
-      <c r="F734" s="30"/>
+      <c r="F734" s="63"/>
       <c r="G734" s="4"/>
       <c r="H734" s="4"/>
       <c r="I734" s="4"/>
@@ -20160,7 +20160,7 @@
       <c r="C738" s="125"/>
       <c r="D738" s="125"/>
       <c r="E738" s="24"/>
-      <c r="F738" s="125"/>
+      <c r="F738" s="30"/>
       <c r="G738" s="4"/>
       <c r="H738" s="4"/>
       <c r="I738" s="4"/>
@@ -20177,14 +20177,14 @@
       <c r="T738" s="4"/>
     </row>
     <row r="739" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A739" s="130" t="s">
+      <c r="A739" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="B739" s="157"/>
-      <c r="C739" s="158"/>
-      <c r="D739" s="179"/>
+      <c r="B739" s="159"/>
+      <c r="C739" s="160"/>
+      <c r="D739" s="175"/>
       <c r="E739" s="125"/>
-      <c r="F739" s="30"/>
+      <c r="F739" s="125"/>
       <c r="G739" s="4"/>
       <c r="H739" s="4"/>
       <c r="I739" s="4"/>
@@ -20228,7 +20228,7 @@
       <c r="C741" s="133"/>
       <c r="D741" s="133"/>
       <c r="E741" s="24"/>
-      <c r="F741" s="61"/>
+      <c r="F741" s="30"/>
       <c r="G741" s="4"/>
       <c r="H741" s="4"/>
       <c r="I741" s="4"/>
@@ -20245,14 +20245,14 @@
       <c r="T741" s="4"/>
     </row>
     <row r="742" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A742" s="130" t="s">
+      <c r="A742" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="B742" s="134"/>
-      <c r="C742" s="136"/>
-      <c r="D742" s="138"/>
+      <c r="B742" s="135"/>
+      <c r="C742" s="137"/>
+      <c r="D742" s="142"/>
       <c r="E742" s="26"/>
-      <c r="F742" s="63"/>
+      <c r="F742" s="61"/>
       <c r="G742" s="4"/>
       <c r="H742" s="4"/>
       <c r="I742" s="4"/>
@@ -20274,7 +20274,7 @@
       <c r="C743" s="132"/>
       <c r="D743" s="132"/>
       <c r="E743" s="46"/>
-      <c r="F743" s="30"/>
+      <c r="F743" s="63"/>
       <c r="G743" s="4"/>
       <c r="H743" s="4"/>
       <c r="I743" s="4"/>
@@ -20296,7 +20296,7 @@
       <c r="C744" s="133"/>
       <c r="D744" s="133"/>
       <c r="E744" s="24"/>
-      <c r="F744" s="61"/>
+      <c r="F744" s="30"/>
       <c r="G744" s="4"/>
       <c r="H744" s="4"/>
       <c r="I744" s="4"/>
@@ -20313,14 +20313,14 @@
       <c r="T744" s="4"/>
     </row>
     <row r="745" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A745" s="130" t="s">
+      <c r="A745" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="B745" s="134"/>
-      <c r="C745" s="136"/>
-      <c r="D745" s="138"/>
+      <c r="B745" s="135"/>
+      <c r="C745" s="137"/>
+      <c r="D745" s="142"/>
       <c r="E745" s="26"/>
-      <c r="F745" s="63"/>
+      <c r="F745" s="61"/>
       <c r="G745" s="4"/>
       <c r="H745" s="4"/>
       <c r="I745" s="4"/>
@@ -20342,7 +20342,7 @@
       <c r="C746" s="132"/>
       <c r="D746" s="132"/>
       <c r="E746" s="46"/>
-      <c r="F746" s="30"/>
+      <c r="F746" s="63"/>
       <c r="G746" s="4"/>
       <c r="H746" s="4"/>
       <c r="I746" s="4"/>
@@ -20364,7 +20364,7 @@
       <c r="C747" s="133"/>
       <c r="D747" s="133"/>
       <c r="E747" s="24"/>
-      <c r="F747" s="61"/>
+      <c r="F747" s="30"/>
       <c r="G747" s="4"/>
       <c r="H747" s="4"/>
       <c r="I747" s="4"/>
@@ -20381,14 +20381,14 @@
       <c r="T747" s="4"/>
     </row>
     <row r="748" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A748" s="130" t="s">
+      <c r="A748" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="B748" s="134"/>
-      <c r="C748" s="136"/>
-      <c r="D748" s="138"/>
+      <c r="B748" s="135"/>
+      <c r="C748" s="137"/>
+      <c r="D748" s="142"/>
       <c r="E748" s="26"/>
-      <c r="F748" s="63"/>
+      <c r="F748" s="61"/>
       <c r="G748" s="4"/>
       <c r="H748" s="4"/>
       <c r="I748" s="4"/>
@@ -20410,7 +20410,7 @@
       <c r="C749" s="132"/>
       <c r="D749" s="132"/>
       <c r="E749" s="46"/>
-      <c r="F749" s="30"/>
+      <c r="F749" s="63"/>
       <c r="G749" s="4"/>
       <c r="H749" s="4"/>
       <c r="I749" s="4"/>
@@ -20432,7 +20432,7 @@
       <c r="C750" s="133"/>
       <c r="D750" s="133"/>
       <c r="E750" s="24"/>
-      <c r="F750" s="61"/>
+      <c r="F750" s="30"/>
       <c r="G750" s="4"/>
       <c r="H750" s="4"/>
       <c r="I750" s="4"/>
@@ -20449,14 +20449,14 @@
       <c r="T750" s="4"/>
     </row>
     <row r="751" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A751" s="130" t="s">
+      <c r="A751" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="B751" s="134"/>
-      <c r="C751" s="136"/>
-      <c r="D751" s="138"/>
+      <c r="B751" s="135"/>
+      <c r="C751" s="137"/>
+      <c r="D751" s="142"/>
       <c r="E751" s="26"/>
-      <c r="F751" s="63"/>
+      <c r="F751" s="61"/>
       <c r="G751" s="4"/>
       <c r="H751" s="4"/>
       <c r="I751" s="4"/>
@@ -20478,7 +20478,7 @@
       <c r="C752" s="132"/>
       <c r="D752" s="132"/>
       <c r="E752" s="46"/>
-      <c r="F752" s="30"/>
+      <c r="F752" s="63"/>
       <c r="G752" s="4"/>
       <c r="H752" s="4"/>
       <c r="I752" s="4"/>
@@ -20500,7 +20500,7 @@
       <c r="C753" s="133"/>
       <c r="D753" s="133"/>
       <c r="E753" s="24"/>
-      <c r="F753" s="61"/>
+      <c r="F753" s="30"/>
       <c r="G753" s="4"/>
       <c r="H753" s="4"/>
       <c r="I753" s="4"/>
@@ -20517,14 +20517,14 @@
       <c r="T753" s="4"/>
     </row>
     <row r="754" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A754" s="130" t="s">
+      <c r="A754" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="B754" s="134"/>
-      <c r="C754" s="136"/>
-      <c r="D754" s="138"/>
+      <c r="B754" s="135"/>
+      <c r="C754" s="137"/>
+      <c r="D754" s="142"/>
       <c r="E754" s="26"/>
-      <c r="F754" s="63"/>
+      <c r="F754" s="61"/>
       <c r="G754" s="4"/>
       <c r="H754" s="4"/>
       <c r="I754" s="4"/>
@@ -20546,7 +20546,7 @@
       <c r="C755" s="132"/>
       <c r="D755" s="132"/>
       <c r="E755" s="46"/>
-      <c r="F755" s="30"/>
+      <c r="F755" s="63"/>
       <c r="G755" s="4"/>
       <c r="H755" s="4"/>
       <c r="I755" s="4"/>
@@ -20568,7 +20568,7 @@
       <c r="C756" s="133"/>
       <c r="D756" s="133"/>
       <c r="E756" s="24"/>
-      <c r="F756" s="61"/>
+      <c r="F756" s="30"/>
       <c r="G756" s="4"/>
       <c r="H756" s="4"/>
       <c r="I756" s="4"/>
@@ -20585,14 +20585,14 @@
       <c r="T756" s="4"/>
     </row>
     <row r="757" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A757" s="130" t="s">
+      <c r="A757" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="B757" s="134"/>
-      <c r="C757" s="136"/>
-      <c r="D757" s="138"/>
+      <c r="B757" s="135"/>
+      <c r="C757" s="137"/>
+      <c r="D757" s="142"/>
       <c r="E757" s="26"/>
-      <c r="F757" s="63"/>
+      <c r="F757" s="61"/>
       <c r="G757" s="4"/>
       <c r="H757" s="4"/>
       <c r="I757" s="4"/>
@@ -20614,7 +20614,7 @@
       <c r="C758" s="132"/>
       <c r="D758" s="132"/>
       <c r="E758" s="46"/>
-      <c r="F758" s="30"/>
+      <c r="F758" s="63"/>
       <c r="G758" s="4"/>
       <c r="H758" s="4"/>
       <c r="I758" s="4"/>
@@ -20636,7 +20636,7 @@
       <c r="C759" s="133"/>
       <c r="D759" s="133"/>
       <c r="E759" s="24"/>
-      <c r="F759" s="61"/>
+      <c r="F759" s="30"/>
       <c r="G759" s="4"/>
       <c r="H759" s="4"/>
       <c r="I759" s="4"/>
@@ -20653,14 +20653,14 @@
       <c r="T759" s="4"/>
     </row>
     <row r="760" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A760" s="130" t="s">
+      <c r="A760" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="B760" s="134"/>
-      <c r="C760" s="136"/>
-      <c r="D760" s="138"/>
+      <c r="B760" s="135"/>
+      <c r="C760" s="137"/>
+      <c r="D760" s="142"/>
       <c r="E760" s="26"/>
-      <c r="F760" s="63"/>
+      <c r="F760" s="61"/>
       <c r="G760" s="4"/>
       <c r="H760" s="4"/>
       <c r="I760" s="4"/>
@@ -20682,7 +20682,7 @@
       <c r="C761" s="132"/>
       <c r="D761" s="132"/>
       <c r="E761" s="46"/>
-      <c r="F761" s="30"/>
+      <c r="F761" s="63"/>
       <c r="G761" s="4"/>
       <c r="H761" s="4"/>
       <c r="I761" s="4"/>
@@ -20704,7 +20704,7 @@
       <c r="C762" s="133"/>
       <c r="D762" s="133"/>
       <c r="E762" s="24"/>
-      <c r="F762" s="61"/>
+      <c r="F762" s="30"/>
       <c r="G762" s="4"/>
       <c r="H762" s="4"/>
       <c r="I762" s="4"/>
@@ -20721,14 +20721,14 @@
       <c r="T762" s="4"/>
     </row>
     <row r="763" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A763" s="130" t="s">
+      <c r="A763" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="B763" s="134"/>
-      <c r="C763" s="136"/>
-      <c r="D763" s="138"/>
+      <c r="B763" s="135"/>
+      <c r="C763" s="137"/>
+      <c r="D763" s="142"/>
       <c r="E763" s="26"/>
-      <c r="F763" s="63"/>
+      <c r="F763" s="61"/>
       <c r="G763" s="4"/>
       <c r="H763" s="4"/>
       <c r="I763" s="4"/>
@@ -20750,7 +20750,7 @@
       <c r="C764" s="132"/>
       <c r="D764" s="132"/>
       <c r="E764" s="46"/>
-      <c r="F764" s="30"/>
+      <c r="F764" s="63"/>
       <c r="G764" s="4"/>
       <c r="H764" s="4"/>
       <c r="I764" s="4"/>
@@ -20838,7 +20838,7 @@
       <c r="C768" s="133"/>
       <c r="D768" s="133"/>
       <c r="E768" s="24"/>
-      <c r="F768" s="61"/>
+      <c r="F768" s="30"/>
       <c r="G768" s="4"/>
       <c r="H768" s="4"/>
       <c r="I768" s="4"/>
@@ -20855,14 +20855,14 @@
       <c r="T768" s="4"/>
     </row>
     <row r="769" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A769" s="130" t="s">
+      <c r="A769" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="B769" s="134"/>
-      <c r="C769" s="136"/>
-      <c r="D769" s="138"/>
+      <c r="B769" s="135"/>
+      <c r="C769" s="137"/>
+      <c r="D769" s="142"/>
       <c r="E769" s="26"/>
-      <c r="F769" s="63"/>
+      <c r="F769" s="61"/>
       <c r="G769" s="4"/>
       <c r="H769" s="4"/>
       <c r="I769" s="4"/>
@@ -20884,7 +20884,7 @@
       <c r="C770" s="132"/>
       <c r="D770" s="132"/>
       <c r="E770" s="46"/>
-      <c r="F770" s="30"/>
+      <c r="F770" s="63"/>
       <c r="G770" s="4"/>
       <c r="H770" s="4"/>
       <c r="I770" s="4"/>
@@ -20906,7 +20906,7 @@
       <c r="C771" s="133"/>
       <c r="D771" s="133"/>
       <c r="E771" s="24"/>
-      <c r="F771" s="61"/>
+      <c r="F771" s="30"/>
       <c r="G771" s="4"/>
       <c r="H771" s="4"/>
       <c r="I771" s="4"/>
@@ -20930,7 +20930,7 @@
       <c r="C772" s="126"/>
       <c r="D772" s="126"/>
       <c r="E772" s="26"/>
-      <c r="F772" s="126"/>
+      <c r="F772" s="61"/>
       <c r="G772" s="4"/>
       <c r="H772" s="4"/>
       <c r="I772" s="4"/>
@@ -20954,7 +20954,7 @@
       <c r="C773" s="85"/>
       <c r="D773" s="86"/>
       <c r="E773" s="126"/>
-      <c r="F773" s="87"/>
+      <c r="F773" s="126"/>
       <c r="G773" s="4"/>
       <c r="H773" s="4"/>
       <c r="I773" s="4"/>
@@ -21019,14 +21019,14 @@
       <c r="T775" s="4"/>
     </row>
     <row r="776" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A776" s="130" t="s">
+      <c r="A776" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="B776" s="134"/>
-      <c r="C776" s="136"/>
-      <c r="D776" s="138"/>
+      <c r="B776" s="135"/>
+      <c r="C776" s="137"/>
+      <c r="D776" s="142"/>
       <c r="E776" s="65"/>
-      <c r="F776" s="63"/>
+      <c r="F776" s="87"/>
       <c r="G776" s="4"/>
       <c r="H776" s="4"/>
       <c r="I776" s="4"/>
@@ -21048,7 +21048,7 @@
       <c r="C777" s="133"/>
       <c r="D777" s="133"/>
       <c r="E777" s="46"/>
-      <c r="F777" s="61"/>
+      <c r="F777" s="63"/>
       <c r="G777" s="4"/>
       <c r="H777" s="4"/>
       <c r="I777" s="4"/>
@@ -21065,14 +21065,14 @@
       <c r="T777" s="4"/>
     </row>
     <row r="778" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A778" s="130" t="s">
+      <c r="A778" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="B778" s="134"/>
-      <c r="C778" s="136"/>
-      <c r="D778" s="138"/>
+      <c r="B778" s="135"/>
+      <c r="C778" s="137"/>
+      <c r="D778" s="142"/>
       <c r="E778" s="26"/>
-      <c r="F778" s="63"/>
+      <c r="F778" s="61"/>
       <c r="G778" s="4"/>
       <c r="H778" s="4"/>
       <c r="I778" s="4"/>
@@ -21094,7 +21094,7 @@
       <c r="C779" s="133"/>
       <c r="D779" s="133"/>
       <c r="E779" s="46"/>
-      <c r="F779" s="61"/>
+      <c r="F779" s="63"/>
       <c r="G779" s="4"/>
       <c r="H779" s="4"/>
       <c r="I779" s="4"/>
@@ -21111,14 +21111,14 @@
       <c r="T779" s="4"/>
     </row>
     <row r="780" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A780" s="181" t="s">
+      <c r="A780" s="190" t="s">
         <v>105</v>
       </c>
-      <c r="B780" s="134"/>
-      <c r="C780" s="136"/>
-      <c r="D780" s="138"/>
+      <c r="B780" s="135"/>
+      <c r="C780" s="137"/>
+      <c r="D780" s="142"/>
       <c r="E780" s="26"/>
-      <c r="F780" s="63"/>
+      <c r="F780" s="61"/>
       <c r="G780" s="4"/>
       <c r="H780" s="4"/>
       <c r="I780" s="4"/>
@@ -21140,7 +21140,7 @@
       <c r="C781" s="132"/>
       <c r="D781" s="132"/>
       <c r="E781" s="46"/>
-      <c r="F781" s="30"/>
+      <c r="F781" s="63"/>
       <c r="G781" s="4"/>
       <c r="H781" s="4"/>
       <c r="I781" s="4"/>
@@ -21186,7 +21186,7 @@
       <c r="C783" s="125"/>
       <c r="D783" s="125"/>
       <c r="E783" s="24"/>
-      <c r="F783" s="125"/>
+      <c r="F783" s="30"/>
       <c r="G783" s="4"/>
       <c r="H783" s="4"/>
       <c r="I783" s="4"/>
@@ -21203,14 +21203,14 @@
       <c r="T783" s="4"/>
     </row>
     <row r="784" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A784" s="155" t="s">
+      <c r="A784" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="B784" s="189"/>
-      <c r="C784" s="182"/>
-      <c r="D784" s="192"/>
+      <c r="B784" s="198"/>
+      <c r="C784" s="192"/>
+      <c r="D784" s="201"/>
       <c r="E784" s="125"/>
-      <c r="F784" s="89"/>
+      <c r="F784" s="125"/>
       <c r="G784" s="4"/>
       <c r="H784" s="4"/>
       <c r="I784" s="4"/>
@@ -21228,11 +21228,11 @@
     </row>
     <row r="785" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A785" s="132"/>
-      <c r="B785" s="184"/>
-      <c r="C785" s="184"/>
-      <c r="D785" s="184"/>
+      <c r="B785" s="193"/>
+      <c r="C785" s="193"/>
+      <c r="D785" s="193"/>
       <c r="E785" s="88"/>
-      <c r="F785" s="80"/>
+      <c r="F785" s="89"/>
       <c r="G785" s="4"/>
       <c r="H785" s="4"/>
       <c r="I785" s="4"/>
@@ -21250,11 +21250,11 @@
     </row>
     <row r="786" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A786" s="133"/>
-      <c r="B786" s="185"/>
-      <c r="C786" s="185"/>
-      <c r="D786" s="185"/>
+      <c r="B786" s="194"/>
+      <c r="C786" s="194"/>
+      <c r="D786" s="194"/>
       <c r="E786" s="76"/>
-      <c r="F786" s="82"/>
+      <c r="F786" s="80"/>
       <c r="G786" s="4"/>
       <c r="H786" s="4"/>
       <c r="I786" s="4"/>
@@ -21295,14 +21295,14 @@
       <c r="T787" s="4"/>
     </row>
     <row r="788" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A788" s="130" t="s">
+      <c r="A788" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="B788" s="188"/>
-      <c r="C788" s="183"/>
-      <c r="D788" s="186"/>
+      <c r="B788" s="197"/>
+      <c r="C788" s="191"/>
+      <c r="D788" s="195"/>
       <c r="E788" s="81"/>
-      <c r="F788" s="80"/>
+      <c r="F788" s="82"/>
       <c r="G788" s="4"/>
       <c r="H788" s="4"/>
       <c r="I788" s="4"/>
@@ -21320,9 +21320,9 @@
     </row>
     <row r="789" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A789" s="132"/>
-      <c r="B789" s="184"/>
-      <c r="C789" s="184"/>
-      <c r="D789" s="184"/>
+      <c r="B789" s="193"/>
+      <c r="C789" s="193"/>
+      <c r="D789" s="193"/>
       <c r="E789" s="76"/>
       <c r="F789" s="80"/>
       <c r="G789" s="4"/>
@@ -21342,9 +21342,9 @@
     </row>
     <row r="790" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A790" s="132"/>
-      <c r="B790" s="184"/>
-      <c r="C790" s="184"/>
-      <c r="D790" s="184"/>
+      <c r="B790" s="193"/>
+      <c r="C790" s="193"/>
+      <c r="D790" s="193"/>
       <c r="E790" s="76"/>
       <c r="F790" s="80"/>
       <c r="G790" s="4"/>
@@ -21364,9 +21364,9 @@
     </row>
     <row r="791" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A791" s="132"/>
-      <c r="B791" s="184"/>
-      <c r="C791" s="184"/>
-      <c r="D791" s="184"/>
+      <c r="B791" s="193"/>
+      <c r="C791" s="193"/>
+      <c r="D791" s="193"/>
       <c r="E791" s="76"/>
       <c r="F791" s="80"/>
       <c r="G791" s="4"/>
@@ -21386,9 +21386,9 @@
     </row>
     <row r="792" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A792" s="132"/>
-      <c r="B792" s="184"/>
-      <c r="C792" s="184"/>
-      <c r="D792" s="184"/>
+      <c r="B792" s="193"/>
+      <c r="C792" s="193"/>
+      <c r="D792" s="193"/>
       <c r="E792" s="76"/>
       <c r="F792" s="80"/>
       <c r="G792" s="4"/>
@@ -21408,9 +21408,9 @@
     </row>
     <row r="793" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A793" s="132"/>
-      <c r="B793" s="184"/>
-      <c r="C793" s="184"/>
-      <c r="D793" s="184"/>
+      <c r="B793" s="193"/>
+      <c r="C793" s="193"/>
+      <c r="D793" s="193"/>
       <c r="E793" s="76"/>
       <c r="F793" s="80"/>
       <c r="G793" s="4"/>
@@ -21430,9 +21430,9 @@
     </row>
     <row r="794" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A794" s="132"/>
-      <c r="B794" s="184"/>
-      <c r="C794" s="184"/>
-      <c r="D794" s="184"/>
+      <c r="B794" s="193"/>
+      <c r="C794" s="193"/>
+      <c r="D794" s="193"/>
       <c r="E794" s="76"/>
       <c r="F794" s="80"/>
       <c r="G794" s="4"/>
@@ -21452,9 +21452,9 @@
     </row>
     <row r="795" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A795" s="132"/>
-      <c r="B795" s="184"/>
-      <c r="C795" s="184"/>
-      <c r="D795" s="184"/>
+      <c r="B795" s="193"/>
+      <c r="C795" s="193"/>
+      <c r="D795" s="193"/>
       <c r="E795" s="76"/>
       <c r="F795" s="80"/>
       <c r="G795" s="4"/>
@@ -21474,11 +21474,11 @@
     </row>
     <row r="796" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A796" s="133"/>
-      <c r="B796" s="185"/>
-      <c r="C796" s="185"/>
-      <c r="D796" s="185"/>
+      <c r="B796" s="194"/>
+      <c r="C796" s="194"/>
+      <c r="D796" s="194"/>
       <c r="E796" s="76"/>
-      <c r="F796" s="82"/>
+      <c r="F796" s="80"/>
       <c r="G796" s="4"/>
       <c r="H796" s="4"/>
       <c r="I796" s="4"/>
@@ -21495,14 +21495,14 @@
       <c r="T796" s="4"/>
     </row>
     <row r="797" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A797" s="130" t="s">
+      <c r="A797" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="B797" s="188"/>
-      <c r="C797" s="183"/>
-      <c r="D797" s="186"/>
+      <c r="B797" s="197"/>
+      <c r="C797" s="191"/>
+      <c r="D797" s="195"/>
       <c r="E797" s="81"/>
-      <c r="F797" s="80"/>
+      <c r="F797" s="82"/>
       <c r="G797" s="4"/>
       <c r="H797" s="4"/>
       <c r="I797" s="4"/>
@@ -21520,9 +21520,9 @@
     </row>
     <row r="798" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A798" s="132"/>
-      <c r="B798" s="184"/>
-      <c r="C798" s="184"/>
-      <c r="D798" s="184"/>
+      <c r="B798" s="193"/>
+      <c r="C798" s="193"/>
+      <c r="D798" s="193"/>
       <c r="E798" s="76"/>
       <c r="F798" s="80"/>
       <c r="G798" s="4"/>
@@ -21542,9 +21542,9 @@
     </row>
     <row r="799" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A799" s="132"/>
-      <c r="B799" s="184"/>
-      <c r="C799" s="184"/>
-      <c r="D799" s="184"/>
+      <c r="B799" s="193"/>
+      <c r="C799" s="193"/>
+      <c r="D799" s="193"/>
       <c r="E799" s="76"/>
       <c r="F799" s="80"/>
       <c r="G799" s="4"/>
@@ -21564,9 +21564,9 @@
     </row>
     <row r="800" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A800" s="132"/>
-      <c r="B800" s="184"/>
-      <c r="C800" s="184"/>
-      <c r="D800" s="184"/>
+      <c r="B800" s="193"/>
+      <c r="C800" s="193"/>
+      <c r="D800" s="193"/>
       <c r="E800" s="76"/>
       <c r="F800" s="80"/>
       <c r="G800" s="4"/>
@@ -21586,9 +21586,9 @@
     </row>
     <row r="801" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A801" s="132"/>
-      <c r="B801" s="184"/>
-      <c r="C801" s="184"/>
-      <c r="D801" s="184"/>
+      <c r="B801" s="193"/>
+      <c r="C801" s="193"/>
+      <c r="D801" s="193"/>
       <c r="E801" s="76"/>
       <c r="F801" s="80"/>
       <c r="G801" s="4"/>
@@ -21608,9 +21608,9 @@
     </row>
     <row r="802" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A802" s="132"/>
-      <c r="B802" s="184"/>
-      <c r="C802" s="184"/>
-      <c r="D802" s="184"/>
+      <c r="B802" s="193"/>
+      <c r="C802" s="193"/>
+      <c r="D802" s="193"/>
       <c r="E802" s="76"/>
       <c r="F802" s="80"/>
       <c r="G802" s="4"/>
@@ -21630,11 +21630,11 @@
     </row>
     <row r="803" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A803" s="133"/>
-      <c r="B803" s="185"/>
-      <c r="C803" s="185"/>
-      <c r="D803" s="185"/>
+      <c r="B803" s="194"/>
+      <c r="C803" s="194"/>
+      <c r="D803" s="194"/>
       <c r="E803" s="76"/>
-      <c r="F803" s="82"/>
+      <c r="F803" s="80"/>
       <c r="G803" s="4"/>
       <c r="H803" s="4"/>
       <c r="I803" s="4"/>
@@ -21699,14 +21699,14 @@
       <c r="T805" s="4"/>
     </row>
     <row r="806" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A806" s="130" t="s">
+      <c r="A806" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="B806" s="188"/>
-      <c r="C806" s="183"/>
-      <c r="D806" s="186"/>
+      <c r="B806" s="197"/>
+      <c r="C806" s="191"/>
+      <c r="D806" s="195"/>
       <c r="E806" s="81"/>
-      <c r="F806" s="76"/>
+      <c r="F806" s="82"/>
       <c r="G806" s="4"/>
       <c r="H806" s="4"/>
       <c r="I806" s="4"/>
@@ -21724,9 +21724,9 @@
     </row>
     <row r="807" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A807" s="132"/>
-      <c r="B807" s="184"/>
-      <c r="C807" s="184"/>
-      <c r="D807" s="184"/>
+      <c r="B807" s="193"/>
+      <c r="C807" s="193"/>
+      <c r="D807" s="193"/>
       <c r="E807" s="76"/>
       <c r="F807" s="76"/>
       <c r="G807" s="4"/>
@@ -21746,9 +21746,9 @@
     </row>
     <row r="808" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A808" s="132"/>
-      <c r="B808" s="184"/>
-      <c r="C808" s="184"/>
-      <c r="D808" s="184"/>
+      <c r="B808" s="193"/>
+      <c r="C808" s="193"/>
+      <c r="D808" s="193"/>
       <c r="E808" s="76"/>
       <c r="F808" s="76"/>
       <c r="G808" s="4"/>
@@ -21768,9 +21768,9 @@
     </row>
     <row r="809" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A809" s="132"/>
-      <c r="B809" s="184"/>
-      <c r="C809" s="184"/>
-      <c r="D809" s="184"/>
+      <c r="B809" s="193"/>
+      <c r="C809" s="193"/>
+      <c r="D809" s="193"/>
       <c r="E809" s="76"/>
       <c r="F809" s="76"/>
       <c r="G809" s="4"/>
@@ -21790,11 +21790,11 @@
     </row>
     <row r="810" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A810" s="133"/>
-      <c r="B810" s="185"/>
-      <c r="C810" s="185"/>
-      <c r="D810" s="185"/>
+      <c r="B810" s="194"/>
+      <c r="C810" s="194"/>
+      <c r="D810" s="194"/>
       <c r="E810" s="76"/>
-      <c r="F810" s="81"/>
+      <c r="F810" s="76"/>
       <c r="G810" s="4"/>
       <c r="H810" s="4"/>
       <c r="I810" s="4"/>
@@ -21811,14 +21811,14 @@
       <c r="T810" s="4"/>
     </row>
     <row r="811" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A811" s="130" t="s">
+      <c r="A811" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B811" s="188"/>
-      <c r="C811" s="183"/>
-      <c r="D811" s="186"/>
+      <c r="B811" s="197"/>
+      <c r="C811" s="191"/>
+      <c r="D811" s="195"/>
       <c r="E811" s="81"/>
-      <c r="F811" s="80"/>
+      <c r="F811" s="81"/>
       <c r="G811" s="4"/>
       <c r="H811" s="4"/>
       <c r="I811" s="4"/>
@@ -21836,9 +21836,9 @@
     </row>
     <row r="812" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A812" s="132"/>
-      <c r="B812" s="184"/>
-      <c r="C812" s="184"/>
-      <c r="D812" s="184"/>
+      <c r="B812" s="193"/>
+      <c r="C812" s="193"/>
+      <c r="D812" s="193"/>
       <c r="E812" s="76"/>
       <c r="F812" s="80"/>
       <c r="G812" s="4"/>
@@ -21858,9 +21858,9 @@
     </row>
     <row r="813" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A813" s="132"/>
-      <c r="B813" s="184"/>
-      <c r="C813" s="184"/>
-      <c r="D813" s="184"/>
+      <c r="B813" s="193"/>
+      <c r="C813" s="193"/>
+      <c r="D813" s="193"/>
       <c r="E813" s="76"/>
       <c r="F813" s="80"/>
       <c r="G813" s="4"/>
@@ -21880,11 +21880,11 @@
     </row>
     <row r="814" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A814" s="133"/>
-      <c r="B814" s="185"/>
-      <c r="C814" s="185"/>
-      <c r="D814" s="185"/>
+      <c r="B814" s="194"/>
+      <c r="C814" s="194"/>
+      <c r="D814" s="194"/>
       <c r="E814" s="76"/>
-      <c r="F814" s="82"/>
+      <c r="F814" s="80"/>
       <c r="G814" s="4"/>
       <c r="H814" s="4"/>
       <c r="I814" s="4"/>
@@ -21901,14 +21901,14 @@
       <c r="T814" s="4"/>
     </row>
     <row r="815" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A815" s="130" t="s">
+      <c r="A815" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="B815" s="188"/>
-      <c r="C815" s="183"/>
-      <c r="D815" s="186"/>
+      <c r="B815" s="197"/>
+      <c r="C815" s="191"/>
+      <c r="D815" s="195"/>
       <c r="E815" s="81"/>
-      <c r="F815" s="80"/>
+      <c r="F815" s="82"/>
       <c r="G815" s="4"/>
       <c r="H815" s="4"/>
       <c r="I815" s="4"/>
@@ -21926,9 +21926,9 @@
     </row>
     <row r="816" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A816" s="132"/>
-      <c r="B816" s="184"/>
-      <c r="C816" s="184"/>
-      <c r="D816" s="184"/>
+      <c r="B816" s="193"/>
+      <c r="C816" s="193"/>
+      <c r="D816" s="193"/>
       <c r="E816" s="76"/>
       <c r="F816" s="80"/>
       <c r="G816" s="4"/>
@@ -21948,9 +21948,9 @@
     </row>
     <row r="817" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A817" s="132"/>
-      <c r="B817" s="184"/>
-      <c r="C817" s="184"/>
-      <c r="D817" s="184"/>
+      <c r="B817" s="193"/>
+      <c r="C817" s="193"/>
+      <c r="D817" s="193"/>
       <c r="E817" s="76"/>
       <c r="F817" s="80"/>
       <c r="G817" s="4"/>
@@ -21970,9 +21970,9 @@
     </row>
     <row r="818" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A818" s="132"/>
-      <c r="B818" s="184"/>
-      <c r="C818" s="184"/>
-      <c r="D818" s="184"/>
+      <c r="B818" s="193"/>
+      <c r="C818" s="193"/>
+      <c r="D818" s="193"/>
       <c r="E818" s="76"/>
       <c r="F818" s="80"/>
       <c r="G818" s="4"/>
@@ -21992,9 +21992,9 @@
     </row>
     <row r="819" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A819" s="132"/>
-      <c r="B819" s="184"/>
-      <c r="C819" s="184"/>
-      <c r="D819" s="184"/>
+      <c r="B819" s="193"/>
+      <c r="C819" s="193"/>
+      <c r="D819" s="193"/>
       <c r="E819" s="76"/>
       <c r="F819" s="80"/>
       <c r="G819" s="4"/>
@@ -22014,11 +22014,11 @@
     </row>
     <row r="820" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A820" s="133"/>
-      <c r="B820" s="185"/>
-      <c r="C820" s="185"/>
-      <c r="D820" s="185"/>
+      <c r="B820" s="194"/>
+      <c r="C820" s="194"/>
+      <c r="D820" s="194"/>
       <c r="E820" s="76"/>
-      <c r="F820" s="82"/>
+      <c r="F820" s="80"/>
       <c r="G820" s="4"/>
       <c r="H820" s="4"/>
       <c r="I820" s="4"/>
@@ -22035,14 +22035,14 @@
       <c r="T820" s="4"/>
     </row>
     <row r="821" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A821" s="130" t="s">
+      <c r="A821" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="B821" s="188"/>
-      <c r="C821" s="183"/>
-      <c r="D821" s="186"/>
+      <c r="B821" s="197"/>
+      <c r="C821" s="191"/>
+      <c r="D821" s="195"/>
       <c r="E821" s="81"/>
-      <c r="F821" s="80"/>
+      <c r="F821" s="82"/>
       <c r="G821" s="4"/>
       <c r="H821" s="4"/>
       <c r="I821" s="4"/>
@@ -22060,9 +22060,9 @@
     </row>
     <row r="822" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A822" s="132"/>
-      <c r="B822" s="184"/>
-      <c r="C822" s="184"/>
-      <c r="D822" s="184"/>
+      <c r="B822" s="193"/>
+      <c r="C822" s="193"/>
+      <c r="D822" s="193"/>
       <c r="E822" s="76"/>
       <c r="F822" s="80"/>
       <c r="G822" s="4"/>
@@ -22082,11 +22082,11 @@
     </row>
     <row r="823" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A823" s="132"/>
-      <c r="B823" s="184"/>
-      <c r="C823" s="184"/>
-      <c r="D823" s="184"/>
+      <c r="B823" s="193"/>
+      <c r="C823" s="193"/>
+      <c r="D823" s="193"/>
       <c r="E823" s="76"/>
-      <c r="F823" s="94"/>
+      <c r="F823" s="80"/>
       <c r="G823" s="4"/>
       <c r="H823" s="4"/>
       <c r="I823" s="4"/>
@@ -22104,11 +22104,11 @@
     </row>
     <row r="824" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A824" s="132"/>
-      <c r="B824" s="184"/>
-      <c r="C824" s="184"/>
-      <c r="D824" s="184"/>
+      <c r="B824" s="193"/>
+      <c r="C824" s="193"/>
+      <c r="D824" s="193"/>
       <c r="E824" s="93"/>
-      <c r="F824" s="80"/>
+      <c r="F824" s="94"/>
       <c r="G824" s="4"/>
       <c r="H824" s="4"/>
       <c r="I824" s="4"/>
@@ -22126,9 +22126,9 @@
     </row>
     <row r="825" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A825" s="132"/>
-      <c r="B825" s="184"/>
-      <c r="C825" s="184"/>
-      <c r="D825" s="184"/>
+      <c r="B825" s="193"/>
+      <c r="C825" s="193"/>
+      <c r="D825" s="193"/>
       <c r="E825" s="76"/>
       <c r="F825" s="80"/>
       <c r="G825" s="4"/>
@@ -22148,11 +22148,11 @@
     </row>
     <row r="826" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A826" s="133"/>
-      <c r="B826" s="185"/>
-      <c r="C826" s="185"/>
-      <c r="D826" s="185"/>
+      <c r="B826" s="194"/>
+      <c r="C826" s="194"/>
+      <c r="D826" s="194"/>
       <c r="E826" s="76"/>
-      <c r="F826" s="82"/>
+      <c r="F826" s="80"/>
       <c r="G826" s="4"/>
       <c r="H826" s="4"/>
       <c r="I826" s="4"/>
@@ -22169,14 +22169,14 @@
       <c r="T826" s="4"/>
     </row>
     <row r="827" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A827" s="130" t="s">
+      <c r="A827" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="B827" s="188"/>
-      <c r="C827" s="183"/>
-      <c r="D827" s="186"/>
+      <c r="B827" s="197"/>
+      <c r="C827" s="191"/>
+      <c r="D827" s="195"/>
       <c r="E827" s="81"/>
-      <c r="F827" s="80"/>
+      <c r="F827" s="82"/>
       <c r="G827" s="4"/>
       <c r="H827" s="4"/>
       <c r="I827" s="4"/>
@@ -22194,9 +22194,9 @@
     </row>
     <row r="828" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A828" s="132"/>
-      <c r="B828" s="184"/>
-      <c r="C828" s="184"/>
-      <c r="D828" s="184"/>
+      <c r="B828" s="193"/>
+      <c r="C828" s="193"/>
+      <c r="D828" s="193"/>
       <c r="E828" s="76"/>
       <c r="F828" s="80"/>
       <c r="G828" s="4"/>
@@ -22216,9 +22216,9 @@
     </row>
     <row r="829" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A829" s="132"/>
-      <c r="B829" s="184"/>
-      <c r="C829" s="184"/>
-      <c r="D829" s="184"/>
+      <c r="B829" s="193"/>
+      <c r="C829" s="193"/>
+      <c r="D829" s="193"/>
       <c r="E829" s="76"/>
       <c r="F829" s="80"/>
       <c r="G829" s="4"/>
@@ -22238,9 +22238,9 @@
     </row>
     <row r="830" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A830" s="132"/>
-      <c r="B830" s="184"/>
-      <c r="C830" s="184"/>
-      <c r="D830" s="184"/>
+      <c r="B830" s="193"/>
+      <c r="C830" s="193"/>
+      <c r="D830" s="193"/>
       <c r="E830" s="76"/>
       <c r="F830" s="80"/>
       <c r="G830" s="4"/>
@@ -22260,11 +22260,11 @@
     </row>
     <row r="831" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A831" s="133"/>
-      <c r="B831" s="185"/>
-      <c r="C831" s="185"/>
-      <c r="D831" s="185"/>
+      <c r="B831" s="194"/>
+      <c r="C831" s="194"/>
+      <c r="D831" s="194"/>
       <c r="E831" s="76"/>
-      <c r="F831" s="82"/>
+      <c r="F831" s="80"/>
       <c r="G831" s="4"/>
       <c r="H831" s="4"/>
       <c r="I831" s="4"/>
@@ -22281,14 +22281,14 @@
       <c r="T831" s="4"/>
     </row>
     <row r="832" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A832" s="130" t="s">
+      <c r="A832" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="B832" s="188"/>
-      <c r="C832" s="183"/>
-      <c r="D832" s="186"/>
+      <c r="B832" s="197"/>
+      <c r="C832" s="191"/>
+      <c r="D832" s="195"/>
       <c r="E832" s="81"/>
-      <c r="F832" s="80"/>
+      <c r="F832" s="82"/>
       <c r="G832" s="4"/>
       <c r="H832" s="4"/>
       <c r="I832" s="4"/>
@@ -22306,9 +22306,9 @@
     </row>
     <row r="833" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A833" s="132"/>
-      <c r="B833" s="184"/>
-      <c r="C833" s="184"/>
-      <c r="D833" s="184"/>
+      <c r="B833" s="193"/>
+      <c r="C833" s="193"/>
+      <c r="D833" s="193"/>
       <c r="E833" s="76"/>
       <c r="F833" s="80"/>
       <c r="G833" s="4"/>
@@ -22328,9 +22328,9 @@
     </row>
     <row r="834" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A834" s="132"/>
-      <c r="B834" s="184"/>
-      <c r="C834" s="184"/>
-      <c r="D834" s="184"/>
+      <c r="B834" s="193"/>
+      <c r="C834" s="193"/>
+      <c r="D834" s="193"/>
       <c r="E834" s="76"/>
       <c r="F834" s="80"/>
       <c r="G834" s="4"/>
@@ -22350,11 +22350,11 @@
     </row>
     <row r="835" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A835" s="133"/>
-      <c r="B835" s="185"/>
-      <c r="C835" s="185"/>
-      <c r="D835" s="185"/>
+      <c r="B835" s="194"/>
+      <c r="C835" s="194"/>
+      <c r="D835" s="194"/>
       <c r="E835" s="76"/>
-      <c r="F835" s="82"/>
+      <c r="F835" s="80"/>
       <c r="G835" s="4"/>
       <c r="H835" s="4"/>
       <c r="I835" s="4"/>
@@ -22371,14 +22371,14 @@
       <c r="T835" s="4"/>
     </row>
     <row r="836" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A836" s="130" t="s">
+      <c r="A836" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="B836" s="188"/>
-      <c r="C836" s="183"/>
-      <c r="D836" s="186"/>
+      <c r="B836" s="197"/>
+      <c r="C836" s="191"/>
+      <c r="D836" s="195"/>
       <c r="E836" s="81"/>
-      <c r="F836" s="80"/>
+      <c r="F836" s="82"/>
       <c r="G836" s="4"/>
       <c r="H836" s="4"/>
       <c r="I836" s="4"/>
@@ -22396,11 +22396,11 @@
     </row>
     <row r="837" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A837" s="133"/>
-      <c r="B837" s="185"/>
-      <c r="C837" s="185"/>
-      <c r="D837" s="185"/>
+      <c r="B837" s="194"/>
+      <c r="C837" s="194"/>
+      <c r="D837" s="194"/>
       <c r="E837" s="76"/>
-      <c r="F837" s="81"/>
+      <c r="F837" s="80"/>
       <c r="G837" s="4"/>
       <c r="H837" s="4"/>
       <c r="I837" s="4"/>
@@ -22422,7 +22422,7 @@
       <c r="C838" s="123"/>
       <c r="D838" s="123"/>
       <c r="E838" s="95"/>
-      <c r="F838" s="123"/>
+      <c r="F838" s="81"/>
       <c r="G838" s="4"/>
       <c r="H838" s="4"/>
       <c r="I838" s="4"/>
@@ -22444,7 +22444,7 @@
       <c r="C839" s="124"/>
       <c r="D839" s="124"/>
       <c r="E839" s="123"/>
-      <c r="F839" s="124"/>
+      <c r="F839" s="123"/>
       <c r="G839" s="4"/>
       <c r="H839" s="4"/>
       <c r="I839" s="4"/>
@@ -22462,6 +22462,7 @@
     </row>
     <row r="840" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E840" s="124"/>
+      <c r="F840" s="124"/>
     </row>
     <row r="841" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E841" s="96"/>
@@ -23323,9 +23324,6 @@
     </row>
   </sheetData>
   <mergeCells count="454">
-    <mergeCell ref="A420:A430"/>
-    <mergeCell ref="B420:B430"/>
-    <mergeCell ref="C420:C430"/>
     <mergeCell ref="D420:D430"/>
     <mergeCell ref="A398:A408"/>
     <mergeCell ref="B398:B408"/>
@@ -23407,16 +23405,16 @@
     <mergeCell ref="A660:A664"/>
     <mergeCell ref="D660:D664"/>
     <mergeCell ref="B660:B664"/>
+    <mergeCell ref="A574:A578"/>
+    <mergeCell ref="B574:B578"/>
+    <mergeCell ref="C574:C578"/>
+    <mergeCell ref="D574:D578"/>
     <mergeCell ref="A579:A583"/>
     <mergeCell ref="B579:B583"/>
     <mergeCell ref="A628:A633"/>
     <mergeCell ref="B628:B633"/>
     <mergeCell ref="C628:C633"/>
     <mergeCell ref="D628:D633"/>
-    <mergeCell ref="B634:B640"/>
-    <mergeCell ref="C634:C640"/>
-    <mergeCell ref="D634:D640"/>
-    <mergeCell ref="A634:A640"/>
     <mergeCell ref="C596:C601"/>
     <mergeCell ref="D596:D601"/>
     <mergeCell ref="B611:B620"/>
@@ -23430,15 +23428,6 @@
     <mergeCell ref="D611:D620"/>
     <mergeCell ref="A602:A605"/>
     <mergeCell ref="B602:B605"/>
-    <mergeCell ref="D563:D569"/>
-    <mergeCell ref="B570:B573"/>
-    <mergeCell ref="C570:C573"/>
-    <mergeCell ref="D570:D573"/>
-    <mergeCell ref="A570:A573"/>
-    <mergeCell ref="A574:A578"/>
-    <mergeCell ref="B574:B578"/>
-    <mergeCell ref="C574:C578"/>
-    <mergeCell ref="D574:D578"/>
     <mergeCell ref="B836:B837"/>
     <mergeCell ref="C836:C837"/>
     <mergeCell ref="C827:C831"/>
@@ -23537,6 +23526,15 @@
     <mergeCell ref="D621:D623"/>
     <mergeCell ref="A624:A627"/>
     <mergeCell ref="B624:B627"/>
+    <mergeCell ref="D579:D583"/>
+    <mergeCell ref="A563:A569"/>
+    <mergeCell ref="B563:B569"/>
+    <mergeCell ref="C563:C569"/>
+    <mergeCell ref="D563:D569"/>
+    <mergeCell ref="B570:B573"/>
+    <mergeCell ref="C570:C573"/>
+    <mergeCell ref="D570:D573"/>
+    <mergeCell ref="A570:A573"/>
     <mergeCell ref="C650:C653"/>
     <mergeCell ref="D650:D653"/>
     <mergeCell ref="B590:B595"/>
@@ -23551,6 +23549,10 @@
     <mergeCell ref="D641:D649"/>
     <mergeCell ref="A650:A653"/>
     <mergeCell ref="B650:B653"/>
+    <mergeCell ref="B634:B640"/>
+    <mergeCell ref="C634:C640"/>
+    <mergeCell ref="D634:D640"/>
+    <mergeCell ref="A634:A640"/>
     <mergeCell ref="A655:A659"/>
     <mergeCell ref="B655:B659"/>
     <mergeCell ref="C655:C659"/>
@@ -23575,12 +23577,6 @@
     <mergeCell ref="A559:A562"/>
     <mergeCell ref="B559:B562"/>
     <mergeCell ref="C579:C583"/>
-    <mergeCell ref="D579:D583"/>
-    <mergeCell ref="A563:A569"/>
-    <mergeCell ref="B563:B569"/>
-    <mergeCell ref="C563:C569"/>
-    <mergeCell ref="B349:B358"/>
-    <mergeCell ref="C349:C358"/>
     <mergeCell ref="D389:D397"/>
     <mergeCell ref="A389:A397"/>
     <mergeCell ref="B389:B397"/>
@@ -23602,7 +23598,9 @@
     <mergeCell ref="B488:B496"/>
     <mergeCell ref="B504:B510"/>
     <mergeCell ref="C504:C510"/>
-    <mergeCell ref="A359:F359"/>
+    <mergeCell ref="A420:A430"/>
+    <mergeCell ref="B420:B430"/>
+    <mergeCell ref="C420:C430"/>
     <mergeCell ref="C488:C496"/>
     <mergeCell ref="D488:D496"/>
     <mergeCell ref="A497:A503"/>
@@ -23653,6 +23651,9 @@
     <mergeCell ref="A338:A348"/>
     <mergeCell ref="B338:B348"/>
     <mergeCell ref="C338:C348"/>
+    <mergeCell ref="B349:B358"/>
+    <mergeCell ref="C349:C358"/>
+    <mergeCell ref="A359:F359"/>
     <mergeCell ref="C35:C40"/>
     <mergeCell ref="D35:D40"/>
     <mergeCell ref="C52:C58"/>
@@ -23664,16 +23665,27 @@
     <mergeCell ref="B59:B64"/>
     <mergeCell ref="C59:C64"/>
     <mergeCell ref="D59:D64"/>
-    <mergeCell ref="D205:D214"/>
-    <mergeCell ref="D191:D197"/>
-    <mergeCell ref="A136:A147"/>
-    <mergeCell ref="A148:A158"/>
-    <mergeCell ref="A159:A169"/>
-    <mergeCell ref="A125:A135"/>
-    <mergeCell ref="A87:A98"/>
-    <mergeCell ref="D41:D51"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
     <mergeCell ref="A52:A58"/>
     <mergeCell ref="B87:B98"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="B170:B178"/>
+    <mergeCell ref="C170:C178"/>
+    <mergeCell ref="A99:A106"/>
+    <mergeCell ref="B99:B106"/>
+    <mergeCell ref="C99:C106"/>
+    <mergeCell ref="D99:D106"/>
+    <mergeCell ref="C75:C86"/>
+    <mergeCell ref="D75:D86"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A215:A221"/>
+    <mergeCell ref="A222:A230"/>
+    <mergeCell ref="B222:B230"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="B3:B12"/>
@@ -23687,22 +23699,18 @@
     <mergeCell ref="C27:C34"/>
     <mergeCell ref="C13:C26"/>
     <mergeCell ref="D13:D26"/>
-    <mergeCell ref="A170:A178"/>
-    <mergeCell ref="B170:B178"/>
-    <mergeCell ref="C170:C178"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="A99:A106"/>
-    <mergeCell ref="B99:B106"/>
-    <mergeCell ref="C99:C106"/>
-    <mergeCell ref="D99:D106"/>
-    <mergeCell ref="C75:C86"/>
-    <mergeCell ref="D75:D86"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="D205:D214"/>
+    <mergeCell ref="D191:D197"/>
+    <mergeCell ref="A136:A147"/>
+    <mergeCell ref="A148:A158"/>
+    <mergeCell ref="A159:A169"/>
+    <mergeCell ref="A125:A135"/>
+    <mergeCell ref="A87:A98"/>
+    <mergeCell ref="D41:D51"/>
+    <mergeCell ref="C300:C311"/>
+    <mergeCell ref="A278:A288"/>
+    <mergeCell ref="A231:A240"/>
+    <mergeCell ref="A267:A277"/>
     <mergeCell ref="B75:B86"/>
     <mergeCell ref="D170:D178"/>
     <mergeCell ref="A289:A299"/>
@@ -23723,41 +23731,6 @@
     <mergeCell ref="A205:A214"/>
     <mergeCell ref="B205:B214"/>
     <mergeCell ref="C205:C214"/>
-    <mergeCell ref="B125:B135"/>
-    <mergeCell ref="A215:A221"/>
-    <mergeCell ref="A222:A230"/>
-    <mergeCell ref="B222:B230"/>
-    <mergeCell ref="C222:C230"/>
-    <mergeCell ref="D215:D221"/>
-    <mergeCell ref="D125:D135"/>
-    <mergeCell ref="B107:B114"/>
-    <mergeCell ref="C107:C114"/>
-    <mergeCell ref="D107:D114"/>
-    <mergeCell ref="C324:C337"/>
-    <mergeCell ref="A300:A311"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="A242:A253"/>
-    <mergeCell ref="B242:B253"/>
-    <mergeCell ref="C242:C253"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="A241:F241"/>
-    <mergeCell ref="A312:A323"/>
-    <mergeCell ref="B312:B323"/>
-    <mergeCell ref="C312:C323"/>
-    <mergeCell ref="A324:A337"/>
-    <mergeCell ref="B324:B337"/>
-    <mergeCell ref="B300:B311"/>
-    <mergeCell ref="C300:C311"/>
-    <mergeCell ref="A278:A288"/>
-    <mergeCell ref="A231:A240"/>
-    <mergeCell ref="A267:A277"/>
-    <mergeCell ref="B278:B288"/>
-    <mergeCell ref="C278:C288"/>
-    <mergeCell ref="A431:A441"/>
-    <mergeCell ref="B431:B441"/>
-    <mergeCell ref="C431:C441"/>
-    <mergeCell ref="D431:D441"/>
-    <mergeCell ref="D222:D230"/>
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="B136:B147"/>
     <mergeCell ref="C136:C147"/>
@@ -23775,8 +23748,36 @@
     <mergeCell ref="B148:B158"/>
     <mergeCell ref="C148:C158"/>
     <mergeCell ref="D148:D158"/>
+    <mergeCell ref="D215:D221"/>
+    <mergeCell ref="D125:D135"/>
+    <mergeCell ref="B107:B114"/>
+    <mergeCell ref="C107:C114"/>
+    <mergeCell ref="D107:D114"/>
+    <mergeCell ref="B125:B135"/>
     <mergeCell ref="B159:B169"/>
     <mergeCell ref="C125:C135"/>
+    <mergeCell ref="B278:B288"/>
+    <mergeCell ref="C278:C288"/>
+    <mergeCell ref="A431:A441"/>
+    <mergeCell ref="B431:B441"/>
+    <mergeCell ref="C431:C441"/>
+    <mergeCell ref="D431:D441"/>
+    <mergeCell ref="D222:D230"/>
+    <mergeCell ref="C222:C230"/>
+    <mergeCell ref="C324:C337"/>
+    <mergeCell ref="A300:A311"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="A242:A253"/>
+    <mergeCell ref="B242:B253"/>
+    <mergeCell ref="C242:C253"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="A241:F241"/>
+    <mergeCell ref="A312:A323"/>
+    <mergeCell ref="B312:B323"/>
+    <mergeCell ref="C312:C323"/>
+    <mergeCell ref="A324:A337"/>
+    <mergeCell ref="B324:B337"/>
+    <mergeCell ref="B300:B311"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
